--- a/Patents.xlsx
+++ b/Patents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E105217-4E3C-4698-9CAA-95C53B5244B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F065AE8-C10A-453E-9E77-0F227628DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="1425" windowWidth="35460" windowHeight="19260" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
+    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="484">
   <si>
     <t>Number</t>
   </si>
@@ -1482,6 +1482,12 @@
   </si>
   <si>
     <t>Magnetic conveyance system</t>
+  </si>
+  <si>
+    <t>Motion assist device and motion assist method</t>
+  </si>
+  <si>
+    <t>Modular male sexual aid device and method of assembling same</t>
   </si>
 </sst>
 </file>
@@ -1840,13 +1846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B5D30-8254-4691-B3D5-BE87303558F1}">
-  <dimension ref="B2:F484"/>
+  <dimension ref="B2:F497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1875,2210 +1881,2168 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>10123931</v>
-      </c>
-      <c r="C3" t="s">
-        <v>481</v>
+        <v>10123944</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>10123930</v>
-      </c>
-      <c r="C4" t="s">
-        <v>480</v>
+        <v>10123943</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>10123929</v>
-      </c>
-      <c r="C5" t="s">
-        <v>479</v>
+        <v>10123942</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>10123928</v>
-      </c>
-      <c r="C6" t="s">
-        <v>478</v>
+        <v>10123941</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>10123927</v>
-      </c>
-      <c r="C7" t="s">
-        <v>477</v>
+        <v>10123940</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>10123926</v>
-      </c>
-      <c r="C8" t="s">
-        <v>476</v>
+        <v>10123939</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>10123925</v>
-      </c>
-      <c r="C9" t="s">
-        <v>475</v>
+        <v>10123938</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>10123924</v>
-      </c>
-      <c r="C10" t="s">
-        <v>474</v>
+        <v>10123937</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>10123923</v>
-      </c>
-      <c r="C11" t="s">
-        <v>473</v>
+        <v>10123936</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>10123922</v>
-      </c>
-      <c r="C12" t="s">
-        <v>472</v>
+        <v>10123935</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13">
-        <f t="shared" ref="B13:B17" si="0">+B14+1</f>
-        <v>10123921</v>
-      </c>
-      <c r="C13" t="s">
-        <v>471</v>
+        <v>10123934</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14">
+        <v>10123933</v>
+      </c>
+      <c r="C14" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>10123932</v>
+      </c>
+      <c r="C15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>10123931</v>
+      </c>
+      <c r="C16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>10123930</v>
+      </c>
+      <c r="C17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>10123929</v>
+      </c>
+      <c r="C18" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>10123928</v>
+      </c>
+      <c r="C19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>10123927</v>
+      </c>
+      <c r="C20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>10123926</v>
+      </c>
+      <c r="C21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>10123925</v>
+      </c>
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>10123924</v>
+      </c>
+      <c r="C23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>10123923</v>
+      </c>
+      <c r="C24" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>10123922</v>
+      </c>
+      <c r="C25" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" ref="B26:B29" si="0">+B27+1</f>
+        <v>10123921</v>
+      </c>
+      <c r="C26" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>10123920</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C27" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>10123919</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C28" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>10123918</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f t="shared" ref="B17:B21" si="1">+B18+1</f>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" ref="B30:B33" si="1">+B31+1</f>
         <v>10123917</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
         <f t="shared" si="1"/>
         <v>10123916</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C31" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32">
         <f t="shared" si="1"/>
         <v>10123915</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
         <f t="shared" si="1"/>
         <v>10123914</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C33" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" ref="B21:B25" si="2">+B22+1</f>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" ref="B34:B37" si="2">+B35+1</f>
         <v>10123913</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
         <f t="shared" si="2"/>
         <v>10123912</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C35" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
         <f t="shared" si="2"/>
         <v>10123911</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
         <f t="shared" si="2"/>
         <v>10123910</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C37" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f t="shared" ref="B25:B28" si="3">+B26+1</f>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f t="shared" ref="B38:B40" si="3">+B39+1</f>
         <v>10123909</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C38" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
         <f t="shared" si="3"/>
         <v>10123908</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
         <f t="shared" si="3"/>
         <v>10123907</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C40" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f>+B29+1</f>
-        <v>10123906</v>
-      </c>
-      <c r="C28" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>10123905</v>
-      </c>
-      <c r="C29" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>10123904</v>
-      </c>
-      <c r="C30" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>10123903</v>
-      </c>
-      <c r="C31" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>10123902</v>
-      </c>
-      <c r="C32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>10123901</v>
-      </c>
-      <c r="C33" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>10123900</v>
-      </c>
-      <c r="C34" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>10123899</v>
-      </c>
-      <c r="C35" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>10123898</v>
-      </c>
-      <c r="C36" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>10123897</v>
-      </c>
-      <c r="C37" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>10123896</v>
-      </c>
-      <c r="C38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>10123895</v>
-      </c>
-      <c r="C39" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>10123894</v>
-      </c>
-      <c r="C40" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>10123893</v>
+        <f>+B42+1</f>
+        <v>10123906</v>
       </c>
       <c r="C41" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>10123892</v>
+        <v>10123905</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>10123891</v>
+        <v>10123904</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>10123890</v>
+        <v>10123903</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>10123889</v>
+        <v>10123902</v>
       </c>
       <c r="C45" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>10123888</v>
+        <v>10123901</v>
       </c>
       <c r="C46" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>10123887</v>
+        <v>10123900</v>
       </c>
       <c r="C47" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>10123886</v>
+        <v>10123899</v>
       </c>
       <c r="C48" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>10123885</v>
+        <v>10123898</v>
       </c>
       <c r="C49" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>10123884</v>
+        <v>10123897</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>10123883</v>
+        <v>10123896</v>
       </c>
       <c r="C51" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>10123882</v>
+        <v>10123895</v>
       </c>
       <c r="C52" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>10123881</v>
+        <v>10123894</v>
       </c>
       <c r="C53" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>10123880</v>
+        <v>10123893</v>
       </c>
       <c r="C54" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>10123879</v>
+        <v>10123892</v>
       </c>
       <c r="C55" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>10123878</v>
+        <v>10123891</v>
       </c>
       <c r="C56" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>10123877</v>
+        <v>10123890</v>
       </c>
       <c r="C57" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>10123876</v>
+        <v>10123889</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>10123875</v>
+        <v>10123888</v>
       </c>
       <c r="C59" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>10123874</v>
+        <v>10123887</v>
       </c>
       <c r="C60" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>10123873</v>
+        <v>10123886</v>
       </c>
       <c r="C61" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>10123872</v>
+        <v>10123885</v>
       </c>
       <c r="C62" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>10123871</v>
+        <v>10123884</v>
       </c>
       <c r="C63" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64">
+        <v>10123883</v>
+      </c>
+      <c r="C64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>10123882</v>
+      </c>
+      <c r="C65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>10123881</v>
+      </c>
+      <c r="C66" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>10123880</v>
+      </c>
+      <c r="C67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>10123879</v>
+      </c>
+      <c r="C68" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>10123878</v>
+      </c>
+      <c r="C69" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>10123877</v>
+      </c>
+      <c r="C70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>10123876</v>
+      </c>
+      <c r="C71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>10123875</v>
+      </c>
+      <c r="C72" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>10123874</v>
+      </c>
+      <c r="C73" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>10123873</v>
+      </c>
+      <c r="C74" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>10123872</v>
+      </c>
+      <c r="C75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>10123871</v>
+      </c>
+      <c r="C76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77">
         <v>10123870</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C77" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78">
         <v>10123869</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C78" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79">
         <v>10123868</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C79" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80">
         <v>10123867</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C80" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
         <v>10123866</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C81" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82">
         <v>10123865</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C82" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83">
         <v>10123864</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C83" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84">
         <v>10123863</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C84" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85">
         <v>10123862</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C85" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86">
         <v>10123861</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C86" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87">
         <v>10123860</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C87" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88">
         <v>10123859</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C88" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89">
         <v>10123858</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C89" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90">
         <v>10123857</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C90" t="s">
         <v>408</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D90" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91">
         <v>10123856</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C91" t="s">
         <v>407</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D91" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92">
         <v>10123855</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C92" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93">
         <v>10123854</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C93" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94">
         <v>10123853</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C94" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95">
         <v>10123852</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C95" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96">
         <v>10123851</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C96" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97">
         <v>10123850</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C97" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98">
         <v>10123849</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C98" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99">
         <v>10123848</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100">
         <v>10123847</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C100" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101">
         <v>10123846</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C101" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102">
         <v>10123845</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C102" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103">
         <v>10123844</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C103" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104">
         <v>10123843</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C104" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <f t="shared" ref="B92:B94" si="4">+B93+1</f>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <f t="shared" ref="B105:B107" si="4">+B106+1</f>
         <v>10123842</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C105" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106">
         <f t="shared" si="4"/>
         <v>10123841</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C106" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107">
         <f t="shared" si="4"/>
         <v>10123840</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C107" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <f t="shared" ref="B95:B105" si="5">+B96+1</f>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f t="shared" ref="B108:B118" si="5">+B109+1</f>
         <v>10123839</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C108" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109">
         <f t="shared" si="5"/>
         <v>10123838</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C109" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110">
         <f t="shared" si="5"/>
         <v>10123837</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C110" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111">
         <f t="shared" si="5"/>
         <v>10123836</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112">
         <f t="shared" si="5"/>
         <v>10123835</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C112" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113">
         <f t="shared" si="5"/>
         <v>10123834</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C113" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114">
         <f t="shared" si="5"/>
         <v>10123833</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C114" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115">
         <f t="shared" si="5"/>
         <v>10123832</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C115" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116">
         <f t="shared" si="5"/>
         <v>10123831</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C116" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117">
         <f t="shared" si="5"/>
         <v>10123830</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C117" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118">
         <f t="shared" si="5"/>
         <v>10123829</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C118" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <f t="shared" ref="B106:B116" si="6">+B107+1</f>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <f t="shared" ref="B119:B129" si="6">+B120+1</f>
         <v>10123828</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C119" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120">
         <f t="shared" si="6"/>
         <v>10123827</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C120" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121">
         <f t="shared" si="6"/>
         <v>10123826</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C121" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122">
         <f t="shared" si="6"/>
         <v>10123825</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C122" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123">
         <f t="shared" si="6"/>
         <v>10123824</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C123" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124">
         <f t="shared" si="6"/>
         <v>10123823</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C124" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125">
         <f t="shared" si="6"/>
         <v>10123822</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C125" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126">
         <f t="shared" si="6"/>
         <v>10123821</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C126" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127">
         <f t="shared" si="6"/>
         <v>10123820</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C127" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128">
         <f t="shared" si="6"/>
         <v>10123819</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C128" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129">
         <f t="shared" si="6"/>
         <v>10123818</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C129" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117">
-        <f t="shared" ref="B117:B128" si="7">+B118+1</f>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <f t="shared" ref="B130:B141" si="7">+B131+1</f>
         <v>10123817</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C130" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131">
         <f t="shared" si="7"/>
         <v>10123816</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C131" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132">
         <f t="shared" si="7"/>
         <v>10123815</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C132" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133">
         <f t="shared" si="7"/>
         <v>10123814</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C133" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134">
         <f t="shared" si="7"/>
         <v>10123813</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C134" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135">
         <f t="shared" si="7"/>
         <v>10123812</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C135" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136">
         <f t="shared" si="7"/>
         <v>10123811</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C136" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137">
         <f t="shared" si="7"/>
         <v>10123810</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C137" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138">
         <f t="shared" si="7"/>
         <v>10123809</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C138" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139">
         <f t="shared" si="7"/>
         <v>10123808</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C139" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140">
         <f t="shared" si="7"/>
         <v>10123807</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C140" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141">
         <f t="shared" si="7"/>
         <v>10123806</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C141" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129">
-        <f>+B130+1</f>
-        <v>10123805</v>
-      </c>
-      <c r="C129" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130">
-        <v>10123804</v>
-      </c>
-      <c r="C130" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="1">
-        <v>10123803</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="1">
-        <v>10123802</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="1">
-        <v>10123801</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="1">
-        <v>10123800</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B135" s="1">
-        <v>10123799</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="1">
-        <v>10123798</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="1">
-        <v>10123797</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="1">
-        <v>10123796</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="1">
-        <v>10123795</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="1">
-        <v>10123794</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141">
-        <v>10123793</v>
-      </c>
-      <c r="C141" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142">
-        <v>10123792</v>
+        <f>+B143+1</f>
+        <v>10123805</v>
       </c>
       <c r="C142" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>10123791</v>
+        <v>10123804</v>
       </c>
       <c r="C143" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144">
-        <v>10123790</v>
-      </c>
-      <c r="C144" t="s">
-        <v>339</v>
+      <c r="B144" s="1">
+        <v>10123803</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145">
-        <v>10123789</v>
-      </c>
-      <c r="C145" t="s">
-        <v>338</v>
+      <c r="B145" s="1">
+        <v>10123802</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146">
-        <v>10123788</v>
-      </c>
-      <c r="C146" t="s">
-        <v>337</v>
+      <c r="B146" s="1">
+        <v>10123801</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147">
-        <v>10123787</v>
-      </c>
-      <c r="C147" t="s">
-        <v>336</v>
+      <c r="B147" s="1">
+        <v>10123800</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148">
-        <v>10123786</v>
-      </c>
-      <c r="C148" t="s">
-        <v>335</v>
+      <c r="B148" s="1">
+        <v>10123799</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149">
-        <v>10123785</v>
-      </c>
-      <c r="C149" t="s">
-        <v>334</v>
+      <c r="B149" s="1">
+        <v>10123798</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150">
-        <v>10123784</v>
-      </c>
-      <c r="C150" t="s">
-        <v>333</v>
+      <c r="B150" s="1">
+        <v>10123797</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151">
-        <v>10123783</v>
-      </c>
-      <c r="C151" t="s">
-        <v>332</v>
+      <c r="B151" s="1">
+        <v>10123796</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152">
-        <v>10123782</v>
-      </c>
-      <c r="C152" t="s">
-        <v>331</v>
+      <c r="B152" s="1">
+        <v>10123795</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153">
-        <v>10123781</v>
-      </c>
-      <c r="C153" t="s">
-        <v>330</v>
+      <c r="B153" s="1">
+        <v>10123794</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154">
-        <v>10123780</v>
+        <v>10123793</v>
       </c>
       <c r="C154" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155">
-        <v>10123779</v>
+        <v>10123792</v>
       </c>
       <c r="C155" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156">
-        <v>10123778</v>
+        <v>10123791</v>
       </c>
       <c r="C156" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>10123777</v>
+        <v>10123790</v>
       </c>
       <c r="C157" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158">
-        <v>10123776</v>
+        <v>10123789</v>
       </c>
       <c r="C158" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>10123775</v>
+        <v>10123788</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160">
-        <v>10123774</v>
+        <v>10123787</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161">
-        <v>10123773</v>
+        <v>10123786</v>
       </c>
       <c r="C161" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162">
-        <v>10123772</v>
+        <v>10123785</v>
       </c>
       <c r="C162" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163">
-        <v>10123771</v>
+        <v>10123784</v>
       </c>
       <c r="C163" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164">
-        <v>10123770</v>
+        <v>10123783</v>
       </c>
       <c r="C164" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165">
-        <v>10123769</v>
+        <v>10123782</v>
       </c>
       <c r="C165" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166">
-        <v>10123768</v>
+        <v>10123781</v>
       </c>
       <c r="C166" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>10123767</v>
+        <v>10123780</v>
       </c>
       <c r="C167" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168">
-        <v>10123766</v>
+        <v>10123779</v>
       </c>
       <c r="C168" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169">
-        <v>10123765</v>
+        <v>10123778</v>
       </c>
       <c r="C169" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170">
-        <v>10123764</v>
+        <v>10123777</v>
       </c>
       <c r="C170" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171">
-        <v>10123763</v>
+        <v>10123776</v>
       </c>
       <c r="C171" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172">
-        <v>10123762</v>
+        <v>10123775</v>
       </c>
       <c r="C172" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173">
-        <v>10123761</v>
+        <v>10123774</v>
       </c>
       <c r="C173" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174">
-        <v>10123760</v>
+        <v>10123773</v>
       </c>
       <c r="C174" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175">
-        <v>10123759</v>
+        <v>10123772</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176">
-        <v>10123758</v>
+        <v>10123771</v>
       </c>
       <c r="C176" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177">
-        <v>10123757</v>
+        <v>10123770</v>
       </c>
       <c r="C177" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178">
-        <v>10123756</v>
+        <v>10123769</v>
       </c>
       <c r="C178" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179">
-        <v>10123755</v>
+        <v>10123768</v>
       </c>
       <c r="C179" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180">
-        <v>10123754</v>
+        <v>10123767</v>
       </c>
       <c r="C180" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181">
-        <v>10123753</v>
+        <v>10123766</v>
       </c>
       <c r="C181" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182">
-        <v>10123752</v>
+        <v>10123765</v>
       </c>
       <c r="C182" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183">
-        <v>10123751</v>
+        <v>10123764</v>
       </c>
       <c r="C183" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184">
-        <v>10123750</v>
+        <v>10123763</v>
       </c>
       <c r="C184" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185">
-        <v>10123749</v>
+        <v>10123762</v>
       </c>
       <c r="C185" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186">
-        <v>10123748</v>
+        <v>10123761</v>
       </c>
       <c r="C186" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187">
-        <v>10123747</v>
+        <v>10123760</v>
       </c>
       <c r="C187" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188">
-        <v>10123746</v>
+        <v>10123759</v>
       </c>
       <c r="C188" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189">
-        <v>10123745</v>
+        <v>10123758</v>
       </c>
       <c r="C189" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190">
-        <v>10123744</v>
+        <v>10123757</v>
       </c>
       <c r="C190" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191">
-        <v>10123743</v>
+        <v>10123756</v>
       </c>
       <c r="C191" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192">
-        <v>10123742</v>
+        <v>10123755</v>
       </c>
       <c r="C192" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193">
-        <v>10123741</v>
+        <v>10123754</v>
       </c>
       <c r="C193" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194">
-        <v>10123740</v>
+        <v>10123753</v>
       </c>
       <c r="C194" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195">
-        <v>10123739</v>
+        <v>10123752</v>
       </c>
       <c r="C195" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196">
-        <v>10123738</v>
+        <v>10123751</v>
       </c>
       <c r="C196" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="1">
-        <v>10123737</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>286</v>
+      <c r="B197">
+        <v>10123750</v>
+      </c>
+      <c r="C197" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="1">
-        <v>10123736</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>285</v>
+      <c r="B198">
+        <v>10123749</v>
+      </c>
+      <c r="C198" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199">
-        <v>10123735</v>
+        <v>10123748</v>
       </c>
       <c r="C199" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200">
-        <v>10123734</v>
+        <v>10123747</v>
       </c>
       <c r="C200" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201">
-        <v>10123733</v>
+        <v>10123746</v>
       </c>
       <c r="C201" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202">
-        <v>10123732</v>
+        <v>10123745</v>
       </c>
       <c r="C202" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203">
-        <v>10123731</v>
+        <v>10123744</v>
       </c>
       <c r="C203" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204">
-        <v>10123730</v>
+        <v>10123743</v>
       </c>
       <c r="C204" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205">
-        <v>10123729</v>
+        <v>10123742</v>
       </c>
       <c r="C205" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206">
-        <v>10123728</v>
+        <v>10123741</v>
       </c>
       <c r="C206" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207">
-        <v>10123727</v>
+        <v>10123740</v>
       </c>
       <c r="C207" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208">
-        <v>10123726</v>
+        <v>10123739</v>
       </c>
       <c r="C208" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209">
-        <v>10123725</v>
+        <v>10123738</v>
       </c>
       <c r="C209" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210">
-        <v>10123724</v>
-      </c>
-      <c r="C210" t="s">
-        <v>273</v>
+      <c r="B210" s="1">
+        <v>10123737</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
-        <v>10123723</v>
+        <v>10123736</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212" s="1">
-        <v>10123722</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>271</v>
+      <c r="B212">
+        <v>10123735</v>
+      </c>
+      <c r="C212" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" s="1">
-        <v>10123721</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>270</v>
+      <c r="B213">
+        <v>10123734</v>
+      </c>
+      <c r="C213" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214">
-        <v>10123720</v>
+        <v>10123733</v>
       </c>
       <c r="C214" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215">
-        <v>10123719</v>
+        <v>10123732</v>
       </c>
       <c r="C215" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216">
-        <v>10123718</v>
+        <v>10123731</v>
       </c>
       <c r="C216" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217">
-        <v>10123717</v>
+        <v>10123730</v>
       </c>
       <c r="C217" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218">
-        <v>10123716</v>
+        <v>10123729</v>
       </c>
       <c r="C218" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="1">
-        <v>10123715</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>264</v>
+      <c r="B219">
+        <v>10123728</v>
+      </c>
+      <c r="C219" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220">
-        <v>10123714</v>
+        <v>10123727</v>
       </c>
       <c r="C220" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" s="1">
-        <v>10123713</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>262</v>
+      <c r="B221">
+        <v>10123726</v>
+      </c>
+      <c r="C221" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B222" s="1">
-        <v>10123712</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>261</v>
+      <c r="B222">
+        <v>10123725</v>
+      </c>
+      <c r="C222" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B223" s="1">
-        <v>10123711</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>260</v>
+      <c r="B223">
+        <v>10123724</v>
+      </c>
+      <c r="C223" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
-        <v>10123710</v>
+        <v>10123723</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
-        <v>10123709</v>
+        <v>10123722</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
-        <v>10123708</v>
+        <v>10123721</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" s="1">
-        <v>10123707</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>256</v>
+      <c r="B227">
+        <v>10123720</v>
+      </c>
+      <c r="C227" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" s="1">
-        <v>10123706</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>255</v>
+      <c r="B228">
+        <v>10123719</v>
+      </c>
+      <c r="C228" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>10123705</v>
+        <v>10123718</v>
       </c>
       <c r="C229" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>10123704</v>
+        <v>10123717</v>
       </c>
       <c r="C230" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>10123703</v>
+        <v>10123716</v>
       </c>
       <c r="C231" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
-        <v>10123702</v>
+        <v>10123715</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B233" s="1">
-        <v>10123701</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>250</v>
+      <c r="B233">
+        <v>10123714</v>
+      </c>
+      <c r="C233" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="1">
-        <v>10123700</v>
+        <v>10123713</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="1">
-        <v>10123699</v>
+        <v>10123712</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="1">
-        <v>10123698</v>
+        <v>10123711</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="1">
-        <v>10123697</v>
+        <v>10123710</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="1">
-        <v>10123696</v>
+        <v>10123709</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="1">
-        <v>10123695</v>
+        <v>10123708</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="1">
+        <v>10123707</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="1">
+        <v>10123706</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>10123705</v>
+      </c>
+      <c r="C242" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>10123704</v>
+      </c>
+      <c r="C243" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>10123703</v>
+      </c>
+      <c r="C244" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245" s="1">
+        <v>10123702</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B246" s="1">
+        <v>10123701</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B247" s="1">
+        <v>10123700</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B248" s="1">
+        <v>10123699</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249" s="1">
+        <v>10123698</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="1">
+        <v>10123697</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="1">
+        <v>10123696</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="1">
+        <v>10123695</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B253" s="1">
         <v>10123694</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241" s="1">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B254" s="1">
         <v>10123693</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B242">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255">
         <v>10123692</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C255" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B256">
         <v>10123691</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C256" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B244" s="1">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257" s="1">
         <v>10123690</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245" s="1">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B258" s="1">
         <v>10123689</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B246">
-        <v>10123688</v>
-      </c>
-      <c r="C246" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247" s="1">
-        <v>10123687</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B248">
-        <v>10123686</v>
-      </c>
-      <c r="C248" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249">
-        <v>10123685</v>
-      </c>
-      <c r="C249" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B250" s="1">
-        <v>10123684</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B251">
-        <v>10123683</v>
-      </c>
-      <c r="C251" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252">
-        <v>10123682</v>
-      </c>
-      <c r="C252" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="253" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B253" s="1">
-        <v>10123681</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="254" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B254" s="1">
-        <v>10123680</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B255">
-        <v>10123679</v>
-      </c>
-      <c r="C255" t="s">
-        <v>228</v>
-      </c>
-      <c r="D255" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B256">
-        <v>10123678</v>
-      </c>
-      <c r="C256" t="s">
-        <v>227</v>
-      </c>
-      <c r="D256" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B257">
-        <v>10123677</v>
-      </c>
-      <c r="C257" t="s">
-        <v>226</v>
-      </c>
-      <c r="D257" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258">
-        <v>10123676</v>
-      </c>
-      <c r="C258" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B259">
-        <v>10123675</v>
+        <v>10123688</v>
       </c>
       <c r="C259" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260">
-        <v>10123674</v>
-      </c>
-      <c r="C260" t="s">
-        <v>223</v>
+      <c r="B260" s="1">
+        <v>10123687</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B261">
-        <v>10123673</v>
+        <v>10123686</v>
       </c>
       <c r="C261" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B262">
-        <v>10123672</v>
+        <v>10123685</v>
       </c>
       <c r="C262" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B263">
-        <v>10123671</v>
-      </c>
-      <c r="C263" t="s">
-        <v>220</v>
+      <c r="B263" s="1">
+        <v>10123684</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B264">
-        <v>10123670</v>
+        <v>10123683</v>
       </c>
       <c r="C264" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B265">
-        <v>10123669</v>
+        <v>10123682</v>
       </c>
       <c r="C265" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B266">
-        <v>10123668</v>
-      </c>
-      <c r="C266" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B267">
-        <v>10123667</v>
-      </c>
-      <c r="C267" t="s">
-        <v>215</v>
-      </c>
-      <c r="D267" t="s">
-        <v>216</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="1">
+        <v>10123681</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="1">
+        <v>10123680</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B268">
-        <v>10123666</v>
+        <v>10123679</v>
       </c>
       <c r="C268" t="s">
-        <v>214</v>
+        <v>228</v>
+      </c>
+      <c r="D268" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B269">
-        <v>10123665</v>
+        <v>10123678</v>
       </c>
       <c r="C269" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D269" t="s">
         <v>216</v>
@@ -4086,1130 +4050,1112 @@
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B270">
-        <v>10123664</v>
+        <v>10123677</v>
       </c>
       <c r="C270" t="s">
-        <v>212</v>
+        <v>226</v>
+      </c>
+      <c r="D270" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B271">
-        <v>10123663</v>
+        <v>10123676</v>
       </c>
       <c r="C271" t="s">
-        <v>211</v>
-      </c>
-      <c r="D271" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B272">
+        <v>10123675</v>
+      </c>
+      <c r="C272" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>10123674</v>
+      </c>
+      <c r="C273" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>10123673</v>
+      </c>
+      <c r="C274" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>10123672</v>
+      </c>
+      <c r="C275" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>10123671</v>
+      </c>
+      <c r="C276" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>10123670</v>
+      </c>
+      <c r="C277" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>10123669</v>
+      </c>
+      <c r="C278" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>10123668</v>
+      </c>
+      <c r="C279" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>10123667</v>
+      </c>
+      <c r="C280" t="s">
+        <v>215</v>
+      </c>
+      <c r="D280" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>10123666</v>
+      </c>
+      <c r="C281" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>10123665</v>
+      </c>
+      <c r="C282" t="s">
+        <v>213</v>
+      </c>
+      <c r="D282" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>10123664</v>
+      </c>
+      <c r="C283" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>10123663</v>
+      </c>
+      <c r="C284" t="s">
+        <v>211</v>
+      </c>
+      <c r="D284" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B285">
         <v>10123662</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C285" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B273">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B286">
         <v>10123661</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C286" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B274">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B287">
         <v>10123660</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C287" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B275">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B288">
         <v>10123659</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C288" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B276">
-        <v>10123658</v>
-      </c>
-      <c r="C276" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B277">
-        <v>10123657</v>
-      </c>
-      <c r="C277" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B278">
-        <v>10123656</v>
-      </c>
-      <c r="C278" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B279">
-        <v>10123655</v>
-      </c>
-      <c r="C279" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B280">
-        <v>10123654</v>
-      </c>
-      <c r="C280" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B281">
-        <v>10123653</v>
-      </c>
-      <c r="C281" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B282">
-        <v>10123652</v>
-      </c>
-      <c r="C282" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B283">
-        <v>10123651</v>
-      </c>
-      <c r="C283" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B284">
-        <v>10123650</v>
-      </c>
-      <c r="C284" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B285">
-        <v>10123649</v>
-      </c>
-      <c r="C285" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B286">
-        <v>10123648</v>
-      </c>
-      <c r="C286" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B287">
-        <v>10123647</v>
-      </c>
-      <c r="C287" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B288">
-        <v>10123646</v>
-      </c>
-      <c r="C288" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289">
-        <v>10123645</v>
+        <v>10123658</v>
       </c>
       <c r="C289" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290">
-        <v>10123644</v>
+        <v>10123657</v>
       </c>
       <c r="C290" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291">
-        <v>10123643</v>
+        <v>10123656</v>
       </c>
       <c r="C291" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292">
-        <v>10123642</v>
+        <v>10123655</v>
       </c>
       <c r="C292" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293">
-        <v>10123641</v>
+        <v>10123654</v>
       </c>
       <c r="C293" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294">
-        <v>10123640</v>
+        <v>10123653</v>
       </c>
       <c r="C294" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295">
-        <v>10123639</v>
+        <v>10123652</v>
       </c>
       <c r="C295" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296">
-        <v>10123638</v>
+        <v>10123651</v>
       </c>
       <c r="C296" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297">
-        <v>10123637</v>
+        <v>10123650</v>
       </c>
       <c r="C297" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298">
-        <v>10123636</v>
+        <v>10123649</v>
       </c>
       <c r="C298" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299">
-        <v>10123635</v>
+        <v>10123648</v>
       </c>
       <c r="C299" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300">
-        <v>10123634</v>
+        <v>10123647</v>
       </c>
       <c r="C300" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301">
-        <v>10123633</v>
+        <v>10123646</v>
       </c>
       <c r="C301" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302">
-        <v>10123632</v>
+        <v>10123645</v>
       </c>
       <c r="C302" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303">
-        <v>10123631</v>
+        <v>10123644</v>
       </c>
       <c r="C303" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304">
-        <v>10123630</v>
+        <v>10123643</v>
       </c>
       <c r="C304" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305">
-        <v>10123629</v>
+        <v>10123642</v>
       </c>
       <c r="C305" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306">
-        <v>10123628</v>
+        <v>10123641</v>
       </c>
       <c r="C306" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307">
-        <v>10123627</v>
+        <v>10123640</v>
       </c>
       <c r="C307" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308">
-        <v>10123626</v>
+        <v>10123639</v>
       </c>
       <c r="C308" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309">
-        <v>10123625</v>
+        <v>10123638</v>
       </c>
       <c r="C309" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310">
-        <v>10123624</v>
+        <v>10123637</v>
       </c>
       <c r="C310" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311">
-        <v>10123623</v>
+        <v>10123636</v>
       </c>
       <c r="C311" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312">
-        <v>10123622</v>
+        <v>10123635</v>
       </c>
       <c r="C312" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313">
-        <v>10123621</v>
+        <v>10123634</v>
       </c>
       <c r="C313" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314">
-        <v>10123620</v>
+        <v>10123633</v>
       </c>
       <c r="C314" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315">
-        <v>10123619</v>
+        <v>10123632</v>
       </c>
       <c r="C315" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316">
-        <v>10123618</v>
+        <v>10123631</v>
       </c>
       <c r="C316" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317">
-        <v>10123617</v>
+        <v>10123630</v>
       </c>
       <c r="C317" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318">
-        <v>10123616</v>
+        <v>10123629</v>
       </c>
       <c r="C318" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319">
-        <v>10123615</v>
+        <v>10123628</v>
       </c>
       <c r="C319" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320">
-        <v>10123614</v>
+        <v>10123627</v>
       </c>
       <c r="C320" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321">
-        <v>10123613</v>
+        <v>10123626</v>
       </c>
       <c r="C321" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322">
-        <v>10123612</v>
+        <v>10123625</v>
       </c>
       <c r="C322" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323">
-        <v>10123611</v>
+        <v>10123624</v>
       </c>
       <c r="C323" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324">
-        <v>10123610</v>
+        <v>10123623</v>
       </c>
       <c r="C324" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325">
-        <v>10123609</v>
+        <v>10123622</v>
       </c>
       <c r="C325" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326">
-        <v>10123608</v>
+        <v>10123621</v>
       </c>
       <c r="C326" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327">
-        <v>10123607</v>
+        <v>10123620</v>
       </c>
       <c r="C327" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328">
-        <v>10123606</v>
+        <v>10123619</v>
       </c>
       <c r="C328" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329">
-        <v>10123605</v>
+        <v>10123618</v>
       </c>
       <c r="C329" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330">
-        <v>10123604</v>
+        <v>10123617</v>
       </c>
       <c r="C330" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331">
-        <v>10123603</v>
+        <v>10123616</v>
       </c>
       <c r="C331" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332">
-        <v>10123602</v>
+        <v>10123615</v>
       </c>
       <c r="C332" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333">
-        <v>10123601</v>
+        <v>10123614</v>
       </c>
       <c r="C333" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334">
-        <v>10123600</v>
+        <v>10123613</v>
       </c>
       <c r="C334" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335">
-        <v>10123599</v>
+        <v>10123612</v>
       </c>
       <c r="C335" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336">
+        <v>10123611</v>
+      </c>
+      <c r="C336" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>10123610</v>
+      </c>
+      <c r="C337" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>10123609</v>
+      </c>
+      <c r="C338" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>10123608</v>
+      </c>
+      <c r="C339" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340">
+        <v>10123607</v>
+      </c>
+      <c r="C340" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341">
+        <v>10123606</v>
+      </c>
+      <c r="C341" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342">
+        <v>10123605</v>
+      </c>
+      <c r="C342" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>10123604</v>
+      </c>
+      <c r="C343" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>10123603</v>
+      </c>
+      <c r="C344" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345">
+        <v>10123602</v>
+      </c>
+      <c r="C345" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346">
+        <v>10123601</v>
+      </c>
+      <c r="C346" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>10123600</v>
+      </c>
+      <c r="C347" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348">
+        <v>10123599</v>
+      </c>
+      <c r="C348" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349">
         <v>10123598</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C349" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B337">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350">
         <v>10123597</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C350" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B338">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351">
         <v>10123596</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C351" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B339">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352">
         <v>10123595</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C352" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B340">
-        <v>10123594</v>
-      </c>
-      <c r="C340" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B341">
-        <v>10123593</v>
-      </c>
-      <c r="C341" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B342">
-        <v>10123592</v>
-      </c>
-      <c r="C342" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B343">
-        <v>10123591</v>
-      </c>
-      <c r="C343" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B344">
-        <v>10123590</v>
-      </c>
-      <c r="C344" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B345">
-        <v>10123589</v>
-      </c>
-      <c r="C345" t="s">
-        <v>137</v>
-      </c>
-      <c r="D345" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B346">
-        <v>10123588</v>
-      </c>
-      <c r="C346" t="s">
-        <v>136</v>
-      </c>
-      <c r="D346" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B347">
-        <v>10123587</v>
-      </c>
-      <c r="C347" t="s">
-        <v>135</v>
-      </c>
-      <c r="D347" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B348">
-        <v>10123586</v>
-      </c>
-      <c r="C348" t="s">
-        <v>134</v>
-      </c>
-      <c r="D348" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B349">
-        <v>10123585</v>
-      </c>
-      <c r="C349" t="s">
-        <v>133</v>
-      </c>
-      <c r="D349" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B350">
-        <v>10123584</v>
-      </c>
-      <c r="C350" t="s">
-        <v>131</v>
-      </c>
-      <c r="D350" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B351">
-        <v>10123583</v>
-      </c>
-      <c r="C351" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B352">
-        <v>10123582</v>
-      </c>
-      <c r="C352" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B353">
-        <v>10123581</v>
+        <v>10123594</v>
       </c>
       <c r="C353" t="s">
-        <v>128</v>
-      </c>
-      <c r="D353" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B354">
-        <v>10123580</v>
+        <v>10123593</v>
       </c>
       <c r="C354" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B355">
-        <v>10123579</v>
+        <v>10123592</v>
       </c>
       <c r="C355" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B356">
-        <v>10123578</v>
+        <v>10123591</v>
       </c>
       <c r="C356" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B357">
-        <v>10123577</v>
+        <v>10123590</v>
       </c>
       <c r="C357" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B358">
-        <v>10123576</v>
+        <v>10123589</v>
       </c>
       <c r="C358" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="D358" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B359">
-        <v>10123575</v>
+        <v>10123588</v>
       </c>
       <c r="C359" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="D359" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B360">
-        <v>10123574</v>
+        <v>10123587</v>
       </c>
       <c r="C360" t="s">
-        <v>121</v>
+        <v>135</v>
+      </c>
+      <c r="D360" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361">
-        <v>10123573</v>
+        <v>10123586</v>
       </c>
       <c r="C361" t="s">
-        <v>120</v>
+        <v>134</v>
+      </c>
+      <c r="D361" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362">
-        <v>10123572</v>
+        <v>10123585</v>
       </c>
       <c r="C362" t="s">
-        <v>119</v>
+        <v>133</v>
+      </c>
+      <c r="D362" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B363" s="1">
-        <v>10123571</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>118</v>
+      <c r="B363">
+        <v>10123584</v>
+      </c>
+      <c r="C363" t="s">
+        <v>131</v>
+      </c>
+      <c r="D363" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364">
-        <v>10123570</v>
+        <v>10123583</v>
       </c>
       <c r="C364" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365">
-        <v>10123569</v>
+        <v>10123582</v>
       </c>
       <c r="C365" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366">
-        <v>10123568</v>
+        <v>10123581</v>
       </c>
       <c r="C366" t="s">
-        <v>116</v>
+        <v>128</v>
+      </c>
+      <c r="D366" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367">
-        <v>10123567</v>
+        <v>10123580</v>
       </c>
       <c r="C367" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B368">
+        <v>10123579</v>
+      </c>
+      <c r="C368" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>10123578</v>
+      </c>
+      <c r="C369" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370">
+        <v>10123577</v>
+      </c>
+      <c r="C370" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>10123576</v>
+      </c>
+      <c r="C371" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372">
+        <v>10123575</v>
+      </c>
+      <c r="C372" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>10123574</v>
+      </c>
+      <c r="C373" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374">
+        <v>10123573</v>
+      </c>
+      <c r="C374" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>10123572</v>
+      </c>
+      <c r="C375" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" s="1">
+        <v>10123571</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>10123570</v>
+      </c>
+      <c r="C377" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>10123569</v>
+      </c>
+      <c r="C378" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379">
+        <v>10123568</v>
+      </c>
+      <c r="C379" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>10123567</v>
+      </c>
+      <c r="C380" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381">
         <v>10123566</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C381" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B369">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382">
         <v>10123565</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C382" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="370" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B370">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383">
         <v>10123564</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C383" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="371" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B371">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384">
         <v>10123563</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C384" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="372" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B372">
-        <v>10123562</v>
-      </c>
-      <c r="C372" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="373" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B373">
-        <v>10123561</v>
-      </c>
-      <c r="C373" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B374">
-        <v>10123560</v>
-      </c>
-      <c r="C374" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="375" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B375">
-        <v>10123559</v>
-      </c>
-      <c r="C375" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="376" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B376">
-        <v>10123558</v>
-      </c>
-      <c r="C376" t="s">
-        <v>106</v>
-      </c>
-      <c r="D376" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="377" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B377">
-        <v>10123557</v>
-      </c>
-      <c r="C377" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="378" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B378">
-        <v>10123556</v>
-      </c>
-      <c r="C378" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="379" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B379">
-        <v>10123555</v>
-      </c>
-      <c r="C379" t="s">
-        <v>103</v>
-      </c>
-      <c r="D379" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="380" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B380">
-        <v>10123554</v>
-      </c>
-      <c r="C380" t="s">
-        <v>102</v>
-      </c>
-      <c r="D380" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="381" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B381">
-        <v>10123553</v>
-      </c>
-      <c r="C381" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="382" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B382">
-        <v>10123552</v>
-      </c>
-      <c r="C382" t="s">
-        <v>100</v>
-      </c>
-      <c r="D382" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="383" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B383">
-        <v>10123551</v>
-      </c>
-      <c r="C383" t="s">
-        <v>99</v>
-      </c>
-      <c r="D383" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="384" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B384">
-        <v>10123550</v>
-      </c>
-      <c r="C384" t="s">
-        <v>97</v>
-      </c>
-      <c r="D384" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385">
-        <v>10123549</v>
+        <v>10123562</v>
       </c>
       <c r="C385" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386">
-        <v>10123548</v>
+        <v>10123561</v>
       </c>
       <c r="C386" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B387">
-        <v>10123547</v>
+        <v>10123560</v>
       </c>
       <c r="C387" t="s">
-        <v>94</v>
-      </c>
-      <c r="D387" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388">
-        <v>10123546</v>
+        <v>10123559</v>
       </c>
       <c r="C388" t="s">
-        <v>93</v>
-      </c>
-      <c r="D388" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B389">
-        <v>10123545</v>
+        <v>10123558</v>
       </c>
       <c r="C389" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D389" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390">
-        <v>10123544</v>
+        <v>10123557</v>
       </c>
       <c r="C390" t="s">
-        <v>91</v>
-      </c>
-      <c r="D390" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391">
-        <v>10123543</v>
+        <v>10123556</v>
       </c>
       <c r="C391" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392">
-        <v>10123542</v>
+        <v>10123555</v>
       </c>
       <c r="C392" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D392" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393">
-        <v>10123541</v>
+        <v>10123554</v>
       </c>
       <c r="C393" t="s">
-        <v>88</v>
+        <v>102</v>
+      </c>
+      <c r="D393" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B394">
-        <v>10123540</v>
+        <v>10123553</v>
       </c>
       <c r="C394" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="395" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B395">
-        <v>10123539</v>
+        <v>10123552</v>
       </c>
       <c r="C395" t="s">
-        <v>86</v>
+        <v>100</v>
+      </c>
+      <c r="D395" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B396">
-        <v>10123538</v>
+        <v>10123551</v>
       </c>
       <c r="C396" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D396" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397">
-        <v>10123537</v>
+        <v>10123550</v>
       </c>
       <c r="C397" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D397" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B398">
-        <v>10123536</v>
+        <v>10123549</v>
       </c>
       <c r="C398" t="s">
-        <v>83</v>
-      </c>
-      <c r="D398" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B399">
-        <v>10123535</v>
+        <v>10123548</v>
       </c>
       <c r="C399" t="s">
-        <v>82</v>
-      </c>
-      <c r="D399" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B400">
-        <v>10123534</v>
+        <v>10123547</v>
       </c>
       <c r="C400" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D400" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B401">
-        <v>10123533</v>
+        <v>10123546</v>
       </c>
       <c r="C401" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D401" t="s">
         <v>40</v>
@@ -5217,10 +5163,10 @@
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B402">
-        <v>10123532</v>
+        <v>10123545</v>
       </c>
       <c r="C402" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D402" t="s">
         <v>40</v>
@@ -5228,10 +5174,10 @@
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B403">
-        <v>10123531</v>
+        <v>10123544</v>
       </c>
       <c r="C403" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D403" t="s">
         <v>40</v>
@@ -5239,289 +5185,286 @@
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B404">
-        <v>10123530</v>
+        <v>10123543</v>
       </c>
       <c r="C404" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B405">
-        <v>10123529</v>
+        <v>10123542</v>
       </c>
       <c r="C405" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="D405" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B406">
-        <v>10123528</v>
+        <v>10123541</v>
       </c>
       <c r="C406" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B407">
-        <v>10123527</v>
+        <v>10123540</v>
       </c>
       <c r="C407" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B408">
-        <v>10123526</v>
+        <v>10123539</v>
       </c>
       <c r="C408" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B409">
-        <v>10123525</v>
+        <v>10123538</v>
       </c>
       <c r="C409" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="D409" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B410">
-        <v>10123524</v>
+        <v>10123537</v>
       </c>
       <c r="C410" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="D410" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B411">
-        <v>10123523</v>
+        <v>10123536</v>
       </c>
       <c r="C411" t="s">
-        <v>69</v>
+        <v>83</v>
+      </c>
+      <c r="D411" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B412">
-        <v>10123522</v>
+        <v>10123535</v>
       </c>
       <c r="C412" t="s">
-        <v>68</v>
+        <v>82</v>
+      </c>
+      <c r="D412" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B413">
-        <v>10123521</v>
+        <v>10123534</v>
       </c>
       <c r="C413" t="s">
-        <v>67</v>
+        <v>81</v>
+      </c>
+      <c r="D413" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B414">
-        <v>10123520</v>
+        <v>10123533</v>
       </c>
       <c r="C414" t="s">
-        <v>66</v>
+        <v>80</v>
+      </c>
+      <c r="D414" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B415">
-        <v>10123519</v>
+        <v>10123532</v>
       </c>
       <c r="C415" t="s">
-        <v>65</v>
+        <v>79</v>
+      </c>
+      <c r="D415" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B416">
-        <v>10123518</v>
+        <v>10123531</v>
       </c>
       <c r="C416" t="s">
-        <v>64</v>
+        <v>77</v>
+      </c>
+      <c r="D416" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417">
-        <v>10123517</v>
+        <v>10123530</v>
       </c>
       <c r="C417" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418">
-        <v>10123516</v>
+        <v>10123529</v>
       </c>
       <c r="C418" t="s">
-        <v>62</v>
-      </c>
-      <c r="D418" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419">
-        <v>10123515</v>
+        <v>10123528</v>
       </c>
       <c r="C419" t="s">
-        <v>60</v>
-      </c>
-      <c r="D419" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420">
-        <v>10123514</v>
+        <v>10123527</v>
       </c>
       <c r="C420" t="s">
-        <v>59</v>
-      </c>
-      <c r="D420" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421">
-        <v>10123513</v>
+        <v>10123526</v>
       </c>
       <c r="C421" t="s">
-        <v>58</v>
-      </c>
-      <c r="D421" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422">
-        <v>10123512</v>
+        <v>10123525</v>
       </c>
       <c r="C422" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423">
-        <v>10123511</v>
+        <v>10123524</v>
+      </c>
+      <c r="C423" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424">
-        <v>10123510</v>
+        <v>10123523</v>
       </c>
       <c r="C424" t="s">
-        <v>56</v>
-      </c>
-      <c r="D424" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425">
-        <v>10123509</v>
+        <v>10123522</v>
       </c>
       <c r="C425" t="s">
-        <v>55</v>
-      </c>
-      <c r="D425" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426">
-        <v>10123508</v>
+        <v>10123521</v>
       </c>
       <c r="C426" t="s">
-        <v>54</v>
-      </c>
-      <c r="D426" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427">
-        <v>10123507</v>
+        <v>10123520</v>
       </c>
       <c r="C427" t="s">
-        <v>53</v>
-      </c>
-      <c r="D427" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428">
-        <v>10123506</v>
+        <v>10123519</v>
       </c>
       <c r="C428" t="s">
-        <v>52</v>
-      </c>
-      <c r="D428" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429">
-        <v>10123505</v>
+        <v>10123518</v>
       </c>
       <c r="C429" t="s">
-        <v>51</v>
-      </c>
-      <c r="D429" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430">
-        <v>10123504</v>
+        <v>10123517</v>
       </c>
       <c r="C430" t="s">
-        <v>50</v>
-      </c>
-      <c r="D430" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431">
-        <v>10123503</v>
+        <v>10123516</v>
       </c>
       <c r="C431" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D431" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432">
-        <v>10123502</v>
+        <v>10123515</v>
       </c>
       <c r="C432" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D432" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433">
-        <v>10123501</v>
+        <v>10123514</v>
       </c>
       <c r="C433" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D433" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434">
-        <v>10123500</v>
+        <v>10123513</v>
       </c>
       <c r="C434" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D434" t="s">
         <v>40</v>
@@ -5529,32 +5472,23 @@
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435">
-        <v>10123499</v>
+        <v>10123512</v>
       </c>
       <c r="C435" t="s">
-        <v>45</v>
-      </c>
-      <c r="D435" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436">
-        <v>10123498</v>
-      </c>
-      <c r="C436" t="s">
-        <v>44</v>
-      </c>
-      <c r="D436" t="s">
-        <v>40</v>
+        <v>10123511</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437">
-        <v>10123497</v>
+        <v>10123510</v>
       </c>
       <c r="C437" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D437" t="s">
         <v>40</v>
@@ -5562,10 +5496,10 @@
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438">
-        <v>10123496</v>
+        <v>10123509</v>
       </c>
       <c r="C438" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D438" t="s">
         <v>40</v>
@@ -5573,10 +5507,10 @@
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439">
-        <v>10123495</v>
+        <v>10123508</v>
       </c>
       <c r="C439" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D439" t="s">
         <v>40</v>
@@ -5584,10 +5518,10 @@
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440">
-        <v>10123494</v>
+        <v>10123507</v>
       </c>
       <c r="C440" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D440" t="s">
         <v>40</v>
@@ -5595,10 +5529,10 @@
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441">
-        <v>10123493</v>
+        <v>10123506</v>
       </c>
       <c r="C441" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D441" t="s">
         <v>40</v>
@@ -5606,10 +5540,10 @@
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442">
-        <v>10123492</v>
+        <v>10123505</v>
       </c>
       <c r="C442" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D442" t="s">
         <v>40</v>
@@ -5617,10 +5551,10 @@
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443">
-        <v>10123491</v>
+        <v>10123504</v>
       </c>
       <c r="C443" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D443" t="s">
         <v>40</v>
@@ -5628,10 +5562,10 @@
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444">
-        <v>10123490</v>
+        <v>10123503</v>
       </c>
       <c r="C444" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D444" t="s">
         <v>40</v>
@@ -5639,10 +5573,10 @@
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445">
-        <v>10123489</v>
+        <v>10123502</v>
       </c>
       <c r="C445" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D445" t="s">
         <v>40</v>
@@ -5650,10 +5584,10 @@
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446">
-        <v>10123488</v>
+        <v>10123501</v>
       </c>
       <c r="C446" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D446" t="s">
         <v>40</v>
@@ -5661,10 +5595,10 @@
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447">
-        <v>10123487</v>
+        <v>10123500</v>
       </c>
       <c r="C447" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D447" t="s">
         <v>40</v>
@@ -5672,10 +5606,10 @@
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448">
-        <v>10123486</v>
+        <v>10123499</v>
       </c>
       <c r="C448" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D448" t="s">
         <v>40</v>
@@ -5683,10 +5617,10 @@
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449">
-        <v>10123485</v>
+        <v>10123498</v>
       </c>
       <c r="C449" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D449" t="s">
         <v>40</v>
@@ -5694,10 +5628,10 @@
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450">
-        <v>10123484</v>
+        <v>10123497</v>
       </c>
       <c r="C450" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D450" t="s">
         <v>40</v>
@@ -5705,10 +5639,10 @@
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451">
-        <v>10123483</v>
+        <v>10123496</v>
       </c>
       <c r="C451" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D451" t="s">
         <v>40</v>
@@ -5716,10 +5650,10 @@
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452">
-        <v>10123482</v>
+        <v>10123495</v>
       </c>
       <c r="C452" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D452" t="s">
         <v>40</v>
@@ -5727,236 +5661,379 @@
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453">
-        <v>10123481</v>
+        <v>10123494</v>
       </c>
       <c r="C453" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="D453" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454">
-        <v>10123480</v>
+        <v>10123493</v>
       </c>
       <c r="C454" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="D454" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455">
-        <v>10123479</v>
+        <v>10123492</v>
       </c>
       <c r="C455" t="s">
-        <v>24</v>
+        <v>37</v>
+      </c>
+      <c r="D455" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456">
-        <v>10123478</v>
+        <v>10123491</v>
       </c>
       <c r="C456" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="D456" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457">
-        <v>10123477</v>
+        <v>10123490</v>
       </c>
       <c r="C457" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="D457" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458">
-        <v>10123476</v>
+        <v>10123489</v>
+      </c>
+      <c r="C458" t="s">
+        <v>34</v>
+      </c>
+      <c r="D458" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459">
-        <v>10123475</v>
+        <v>10123488</v>
       </c>
       <c r="C459" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D459" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460">
-        <v>10123474</v>
+        <v>10123487</v>
       </c>
       <c r="C460" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="D460" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461">
-        <v>10123473</v>
+        <v>10123486</v>
       </c>
       <c r="C461" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="D461" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462">
-        <v>10123472</v>
+        <v>10123485</v>
       </c>
       <c r="C462" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D462" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463">
-        <v>10123471</v>
+        <v>10123484</v>
       </c>
       <c r="C463" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="D463" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464">
+        <v>10123483</v>
+      </c>
+      <c r="C464" t="s">
+        <v>28</v>
+      </c>
+      <c r="D464" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B465">
+        <v>10123482</v>
+      </c>
+      <c r="C465" t="s">
+        <v>27</v>
+      </c>
+      <c r="D465" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B466">
+        <v>10123481</v>
+      </c>
+      <c r="C466" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B467">
+        <v>10123480</v>
+      </c>
+      <c r="C467" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B468">
+        <v>10123479</v>
+      </c>
+      <c r="C468" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B469">
+        <v>10123478</v>
+      </c>
+      <c r="C469" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B470">
+        <v>10123477</v>
+      </c>
+      <c r="C470" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B471">
+        <v>10123476</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B472">
+        <v>10123475</v>
+      </c>
+      <c r="C472" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B473">
+        <v>10123474</v>
+      </c>
+      <c r="C473" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B474">
+        <v>10123473</v>
+      </c>
+      <c r="C474" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B475">
+        <v>10123472</v>
+      </c>
+      <c r="C475" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B476">
+        <v>10123471</v>
+      </c>
+      <c r="C476" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B477">
         <v>10123470</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C477" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B465">
+    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B478">
         <v>10123469</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C478" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B466">
+    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B479">
         <v>10123468</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C479" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B467">
+    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B480">
         <v>10123467</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C480" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B468">
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B481">
         <v>10123466</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C481" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B469">
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482">
         <v>10123465</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C482" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B470">
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483">
         <v>10123464</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C483" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B471">
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484">
         <v>10123463</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C484" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B472">
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485">
         <v>10123462</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C485" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B473">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486">
         <v>10123461</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C486" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B474">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487">
         <v>10123460</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C487" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B475">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488">
         <v>10123459</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C488" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B476">
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489">
         <v>10123458</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C489" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B477">
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B490">
         <v>10123457</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C490" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B478">
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B491">
         <v>10123456</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C491" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B479">
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492">
         <v>10123455</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B480">
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B493">
         <v>10123454</v>
       </c>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B481">
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494">
         <v>10123453</v>
       </c>
     </row>
-    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B482">
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495">
         <v>10123452</v>
       </c>
     </row>
-    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B483">
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B496">
         <v>10123451</v>
       </c>
     </row>
-    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B484">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497">
         <v>10123450</v>
       </c>
     </row>

--- a/Patents.xlsx
+++ b/Patents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F065AE8-C10A-453E-9E77-0F227628DCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1930857F-D3FB-455B-9D2D-76EC56BBE0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="360" windowWidth="33330" windowHeight="20340" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
+    <workbookView xWindow="19260" yWindow="1290" windowWidth="28200" windowHeight="18270" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="566">
   <si>
     <t>Number</t>
   </si>
@@ -1488,6 +1488,252 @@
   </si>
   <si>
     <t>Modular male sexual aid device and method of assembling same</t>
+  </si>
+  <si>
+    <t>Clitoral stimulator</t>
+  </si>
+  <si>
+    <t>Automatic billing system for remote Internet services</t>
+  </si>
+  <si>
+    <t>Visual remote control and tactile interaction system</t>
+  </si>
+  <si>
+    <t>Cold/heat-assisted distributed wave vibration therapy</t>
+  </si>
+  <si>
+    <t>Method and assembly for fluid transfer and drug containment in an infusion system</t>
+  </si>
+  <si>
+    <t>Hermetic closing plug for a sealed sterile vial containing medical or nutritional active substances, suitable for the sterile connection to a container of liquid diluent solution, and sterile connection system using said closing plug</t>
+  </si>
+  <si>
+    <t>Bag assembly and system for use with a fluid</t>
+  </si>
+  <si>
+    <t>Fluid valve and fluid connection system</t>
+  </si>
+  <si>
+    <t>Tablet printing apparatus and tablet printing method</t>
+  </si>
+  <si>
+    <t>Portable device for cutting a capsule</t>
+  </si>
+  <si>
+    <t>Medical cabinet access belt optimization system</t>
+  </si>
+  <si>
+    <t>Feeding bottle apparatus</t>
+  </si>
+  <si>
+    <t>Teat for feeding bottle</t>
+  </si>
+  <si>
+    <t>Dental cement</t>
+  </si>
+  <si>
+    <t>Dental composition</t>
+  </si>
+  <si>
+    <t>Multicomponent meso thread containing hyaluronic acid and method for producing same (variants)</t>
+  </si>
+  <si>
+    <t>Sunscreen compositions comprising uniform, rigid, spherical, nanoporous calcium phosphate particles and methods of making and using the same</t>
+  </si>
+  <si>
+    <t>Dual phase mouthwash compositions</t>
+  </si>
+  <si>
+    <t>Personal care compositions</t>
+  </si>
+  <si>
+    <t>Reduction of tooth staining derived from cationic antimicrobials</t>
+  </si>
+  <si>
+    <t>Methods for treating skin</t>
+  </si>
+  <si>
+    <t>Malodour counteracting compositions</t>
+  </si>
+  <si>
+    <t>Oral care compositions</t>
+  </si>
+  <si>
+    <t>Transparent cosmetic and personal care compositions</t>
+  </si>
+  <si>
+    <t>Antiperspirant cosmetics comprising specific proteins from legumes of the genus Pisum and/or Phaseolus and/or Vigna and/or Macrotyloma or from cruciferous plants of the genus Brassica and including no aluminum and/or zirconium halides and/or hydroxy halides</t>
+  </si>
+  <si>
+    <t>Methods for treating cellulite</t>
+  </si>
+  <si>
+    <t>Methods for treating of skin conditions with retinoid double conjugate compounds</t>
+  </si>
+  <si>
+    <t>Personal care compositions with modified guar derivatives</t>
+  </si>
+  <si>
+    <t>Cosmetic or pharmaceutical composition, in particular intended for care or for makeup</t>
+  </si>
+  <si>
+    <t>Method of treating hair with a concentrated conditioner</t>
+  </si>
+  <si>
+    <t>Topical composition including a combination of extracts for reducing signs of skin aging</t>
+  </si>
+  <si>
+    <t>Formulations, methods and devices for periorbital skin rejuvenation</t>
+  </si>
+  <si>
+    <t>Hair thickening compositions and methods of use</t>
+  </si>
+  <si>
+    <t>Cosmetic composition from fish hatching fluid, methods for its production and uses thereof for improving the cosmetic appearance of skin</t>
+  </si>
+  <si>
+    <t>Cosmetic compositions and methods of their use</t>
+  </si>
+  <si>
+    <t>Osmotic enhancement of drug/therapeutic delivery to the brain following infusion or injection into the cerebrospinal fluid</t>
+  </si>
+  <si>
+    <t>Topical retinoid solutions</t>
+  </si>
+  <si>
+    <t>Heterogeneous implantable devices for drug delivery</t>
+  </si>
+  <si>
+    <t>Fiber comprising a biodegradable polymer</t>
+  </si>
+  <si>
+    <t>Liposome composition for cancer treatment</t>
+  </si>
+  <si>
+    <t>Sustained release formulation of a non-steroidal anti-inflammatory drug</t>
+  </si>
+  <si>
+    <t>Single solid oral dosage forms for treating Helicobacter pylori infection and duodenal ulcer disease</t>
+  </si>
+  <si>
+    <t>Dispersion of poloxamer-protein particles, methods of manufacturing and uses thereof</t>
+  </si>
+  <si>
+    <t>Gel patch</t>
+  </si>
+  <si>
+    <t>Patch for treating dermatophytosis</t>
+  </si>
+  <si>
+    <t>Methods of treating developmental disorders with biguanides</t>
+  </si>
+  <si>
+    <t>Compositions, methods and devices for forming implants from injected liquids</t>
+  </si>
+  <si>
+    <t>Methods for treatment of pelvic pain and/or comorbid conditions</t>
+  </si>
+  <si>
+    <t>Receptor subtype and function selective retinoid and rexinoid compounds in combination with immune modulators for cancer immunotherapy</t>
+  </si>
+  <si>
+    <t>DNA methyltransferases for the treatment and prevention of arthritis</t>
+  </si>
+  <si>
+    <t>Neprilysin inhibitors</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>TBPH</t>
+  </si>
+  <si>
+    <t>Therapeutic strategies for treating mitochondrial disorders</t>
+  </si>
+  <si>
+    <t>Whitehead, MIT, HHMI</t>
+  </si>
+  <si>
+    <t>Method of lowering cholesterol</t>
+  </si>
+  <si>
+    <t>Topical pharmaceutical composition of acitretin</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Compositions including encapsulated isotretinoin and methods for use thereof</t>
+  </si>
+  <si>
+    <t>Allergan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Method of lowering cholesterol</t>
+  </si>
+  <si>
+    <t>Method for using novel hydroxamic acid derivative and antibacterial substance in combination</t>
+  </si>
+  <si>
+    <t>Electrophilically enhanced phenolic compounds for treating inflammatory related diseases and disorders</t>
+  </si>
+  <si>
+    <t>CDC7 kinase inhibitors and uses thereof</t>
+  </si>
+  <si>
+    <t>Sloan-Kettering</t>
+  </si>
+  <si>
+    <t>Cyclic ureas as inhibitors of rock</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>Biopharma</t>
+  </si>
+  <si>
+    <t>Heterocyclic derivative having AMPK-activating activity</t>
+  </si>
+  <si>
+    <t>Shionogi</t>
+  </si>
+  <si>
+    <t>Factor XIa inhibitors</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>Macrocyclic lactone compounds and methods for their use</t>
+  </si>
+  <si>
+    <t>Target for treating hepatitis B virus</t>
+  </si>
+  <si>
+    <t>Kinase modulation, and indications therefor</t>
+  </si>
+  <si>
+    <t>Processes for preparing quinoline compounds and pharmaceutical compositions containing such compounds</t>
+  </si>
+  <si>
+    <t>Modulators of cellular adhesion</t>
+  </si>
+  <si>
+    <t>Stem cell modulation II</t>
+  </si>
+  <si>
+    <t>Crystalline forms of tyrosine kinase inhibitors and their salts</t>
+  </si>
+  <si>
+    <t>Therapeutic agent for FGFR inhibitor-resistant cancer</t>
+  </si>
+  <si>
+    <t>Pyrido[3,4-d]pyrimidine derivative and pharmaceutically acceptable salt thereof</t>
+  </si>
+  <si>
+    <t>Multisymptom migraine combination medication</t>
   </si>
 </sst>
 </file>
@@ -1529,9 +1775,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1838,7 +2085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1846,13 +2093,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B5D30-8254-4691-B3D5-BE87303558F1}">
-  <dimension ref="B2:F497"/>
+  <dimension ref="A2:G565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1862,7 +2109,7 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1873,4167 +2120,4831 @@
         <v>78</v>
       </c>
       <c r="E2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" t="s">
         <v>379</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>10123944</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>10123943</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>10123942</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>10123941</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10123940</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>10123939</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>10123938</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>10123937</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>10123936</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>10123935</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>10123934</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>10123933</v>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B6" si="0">+B4+1</f>
+        <v>10124012</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>10124011</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>10124010</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B12" si="1">+B7+1</f>
+        <v>10124009</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <f t="shared" si="1"/>
+        <v>10124008</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <f t="shared" si="1"/>
+        <v>10124007</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f t="shared" si="1"/>
+        <v>10124006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>10124005</v>
+      </c>
+      <c r="C10" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>10124004</v>
+      </c>
+      <c r="C11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:B19" si="2">+B13+1</f>
+        <v>10124003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <f t="shared" si="2"/>
+        <v>10124002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="2">
+        <f t="shared" si="2"/>
+        <v>10124001</v>
       </c>
       <c r="C14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>10123932</v>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="2">
+        <f t="shared" si="2"/>
+        <v>10124000</v>
       </c>
       <c r="C15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>10123931</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <f t="shared" si="2"/>
+        <v>10123999</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>10123930</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <f t="shared" si="2"/>
+        <v>10123998</v>
       </c>
       <c r="C17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>10123929</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <f t="shared" si="2"/>
+        <v>10123997</v>
       </c>
       <c r="C18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>10123928</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B24" si="3">+B20+1</f>
+        <v>10123996</v>
       </c>
       <c r="C19" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>10123927</v>
-      </c>
-      <c r="C20" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>10123926</v>
-      </c>
-      <c r="C21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>10123925</v>
-      </c>
-      <c r="C22" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <f t="shared" si="3"/>
+        <v>10123995</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <f t="shared" si="3"/>
+        <v>10123994</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <f t="shared" si="3"/>
+        <v>10123993</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>10123924</v>
+        <f t="shared" si="3"/>
+        <v>10123992</v>
       </c>
       <c r="C23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+      <c r="E23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>10123923</v>
+        <f t="shared" ref="B24:B29" si="4">+B25+1</f>
+        <v>10123991</v>
       </c>
       <c r="C24" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>10123922</v>
+        <f t="shared" si="4"/>
+        <v>10123990</v>
       </c>
       <c r="C25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
-        <f t="shared" ref="B26:B29" si="0">+B27+1</f>
-        <v>10123921</v>
+        <f t="shared" si="4"/>
+        <v>10123989</v>
       </c>
       <c r="C26" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>10123920</v>
+        <f t="shared" si="4"/>
+        <v>10123988</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+      <c r="E27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>10123919</v>
+        <f t="shared" si="4"/>
+        <v>10123987</v>
       </c>
       <c r="C28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>10123918</v>
+        <f t="shared" ref="B29:B32" si="5">+B30+1</f>
+        <v>10123986</v>
       </c>
       <c r="C29" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30">
-        <f t="shared" ref="B30:B33" si="1">+B31+1</f>
-        <v>10123917</v>
+        <f t="shared" si="5"/>
+        <v>10123985</v>
       </c>
       <c r="C30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+        <v>537</v>
+      </c>
+      <c r="E30" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31">
-        <f t="shared" si="1"/>
-        <v>10123916</v>
+        <f t="shared" si="5"/>
+        <v>10123984</v>
       </c>
       <c r="C31" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+        <v>534</v>
+      </c>
+      <c r="E31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32">
-        <f t="shared" si="1"/>
-        <v>10123915</v>
+        <f t="shared" ref="B32:B39" si="6">+B33+1</f>
+        <v>10123983</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <f t="shared" si="1"/>
-        <v>10123914</v>
-      </c>
-      <c r="C33" t="s">
-        <v>464</v>
+      <c r="B33" s="1">
+        <f t="shared" si="6"/>
+        <v>10123982</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34">
-        <f t="shared" ref="B34:B37" si="2">+B35+1</f>
-        <v>10123913</v>
+        <f t="shared" si="6"/>
+        <v>10123981</v>
       </c>
       <c r="C34" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35">
-        <f t="shared" si="2"/>
-        <v>10123912</v>
+        <f t="shared" si="6"/>
+        <v>10123980</v>
       </c>
       <c r="C35" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36">
-        <f t="shared" si="2"/>
-        <v>10123911</v>
+        <f t="shared" si="6"/>
+        <v>10123979</v>
       </c>
       <c r="C36" t="s">
-        <v>461</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37">
-        <f t="shared" si="2"/>
-        <v>10123910</v>
+        <f t="shared" si="6"/>
+        <v>10123978</v>
       </c>
       <c r="C37" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38">
-        <f t="shared" ref="B38:B40" si="3">+B39+1</f>
-        <v>10123909</v>
+        <f t="shared" si="6"/>
+        <v>10123977</v>
       </c>
       <c r="C38" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>10123908</v>
+        <f t="shared" ref="B39:B44" si="7">+B40+1</f>
+        <v>10123976</v>
       </c>
       <c r="C39" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40">
-        <f t="shared" si="3"/>
-        <v>10123907</v>
+        <f t="shared" si="7"/>
+        <v>10123975</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41">
-        <f>+B42+1</f>
-        <v>10123906</v>
+        <f t="shared" si="7"/>
+        <v>10123974</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>10123905</v>
+        <f t="shared" si="7"/>
+        <v>10123973</v>
       </c>
       <c r="C42" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>10123904</v>
+        <f t="shared" si="7"/>
+        <v>10123972</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
+        <v>522</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>10123903</v>
+        <f t="shared" ref="B44:B48" si="8">+B45+1</f>
+        <v>10123971</v>
       </c>
       <c r="C44" t="s">
-        <v>454</v>
+        <v>521</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>10123902</v>
-      </c>
-      <c r="C45" t="s">
-        <v>453</v>
+      <c r="B45" s="1">
+        <f t="shared" si="8"/>
+        <v>10123970</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>10123901</v>
+        <f t="shared" si="8"/>
+        <v>10123969</v>
       </c>
       <c r="C46" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>10123900</v>
+        <f t="shared" si="8"/>
+        <v>10123968</v>
       </c>
       <c r="C47" t="s">
-        <v>451</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>10123899</v>
+        <f t="shared" ref="B48:B54" si="9">+B49+1</f>
+        <v>10123967</v>
       </c>
       <c r="C48" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>10123898</v>
+        <f t="shared" si="9"/>
+        <v>10123966</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>516</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>10123897</v>
+        <f t="shared" si="9"/>
+        <v>10123965</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>10123896</v>
+        <f t="shared" si="9"/>
+        <v>10123964</v>
       </c>
       <c r="C51" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52">
-        <v>10123895</v>
+        <f t="shared" si="9"/>
+        <v>10123963</v>
       </c>
       <c r="C52" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53">
-        <v>10123894</v>
+        <f t="shared" si="9"/>
+        <v>10123962</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54">
-        <v>10123893</v>
+        <f t="shared" ref="B54:B57" si="10">+B55+1</f>
+        <v>10123961</v>
       </c>
       <c r="C54" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55">
-        <v>10123892</v>
+        <f t="shared" si="10"/>
+        <v>10123960</v>
       </c>
       <c r="C55" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56">
-        <v>10123891</v>
+        <f t="shared" si="10"/>
+        <v>10123959</v>
       </c>
       <c r="C56" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57">
-        <v>10123890</v>
+        <f t="shared" ref="B57:B60" si="11">+B58+1</f>
+        <v>10123958</v>
       </c>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58">
-        <v>10123889</v>
+        <f t="shared" si="11"/>
+        <v>10123957</v>
       </c>
       <c r="C58" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59">
-        <v>10123888</v>
+        <f t="shared" si="11"/>
+        <v>10123956</v>
       </c>
       <c r="C59" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60">
-        <v>10123887</v>
+        <f t="shared" ref="B60:B68" si="12">+B61+1</f>
+        <v>10123955</v>
       </c>
       <c r="C60" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61">
-        <v>10123886</v>
+        <f t="shared" si="12"/>
+        <v>10123954</v>
       </c>
       <c r="C61" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62">
-        <v>10123885</v>
+        <f t="shared" si="12"/>
+        <v>10123953</v>
       </c>
       <c r="C62" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63">
-        <v>10123884</v>
+        <f t="shared" si="12"/>
+        <v>10123952</v>
       </c>
       <c r="C63" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64">
-        <v>10123883</v>
+        <f t="shared" si="12"/>
+        <v>10123951</v>
       </c>
       <c r="C64" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65">
-        <v>10123882</v>
+        <f t="shared" si="12"/>
+        <v>10123950</v>
       </c>
       <c r="C65" t="s">
-        <v>434</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66">
-        <v>10123881</v>
+        <f t="shared" si="12"/>
+        <v>10123949</v>
       </c>
       <c r="C66" t="s">
-        <v>433</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67">
-        <v>10123880</v>
+        <f t="shared" si="12"/>
+        <v>10123948</v>
       </c>
       <c r="C67" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68">
-        <v>10123879</v>
+        <f t="shared" ref="B68:B70" si="13">+B69+1</f>
+        <v>10123947</v>
       </c>
       <c r="C68" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69">
-        <v>10123878</v>
+        <f t="shared" si="13"/>
+        <v>10123946</v>
       </c>
       <c r="C69" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70">
-        <v>10123877</v>
+        <f>+B71+1</f>
+        <v>10123945</v>
       </c>
       <c r="C70" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71">
-        <v>10123876</v>
+        <v>10123944</v>
       </c>
       <c r="C71" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72">
-        <v>10123875</v>
+        <v>10123943</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73">
-        <v>10123874</v>
+        <v>10123942</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74">
-        <v>10123873</v>
+        <v>10123941</v>
       </c>
       <c r="C74" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75">
-        <v>10123872</v>
+        <v>10123940</v>
       </c>
       <c r="C75" t="s">
-        <v>424</v>
+        <v>490</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76">
-        <v>10123871</v>
+        <v>10123939</v>
       </c>
       <c r="C76" t="s">
-        <v>423</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77">
-        <v>10123870</v>
+        <v>10123938</v>
       </c>
       <c r="C77" t="s">
-        <v>422</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78">
-        <v>10123869</v>
+        <v>10123937</v>
       </c>
       <c r="C78" t="s">
-        <v>421</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79">
-        <v>10123868</v>
+        <v>10123936</v>
       </c>
       <c r="C79" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80">
-        <v>10123867</v>
+        <v>10123935</v>
       </c>
       <c r="C80" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B81">
-        <v>10123866</v>
+        <v>10123934</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82">
-        <v>10123865</v>
-      </c>
-      <c r="C82" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1">
+        <v>10123933</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B83">
-        <v>10123864</v>
+        <v>10123932</v>
       </c>
       <c r="C83" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B84">
-        <v>10123863</v>
+        <v>10123931</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B85">
-        <v>10123862</v>
+        <v>10123930</v>
       </c>
       <c r="C85" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B86">
-        <v>10123861</v>
+        <v>10123929</v>
       </c>
       <c r="C86" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B87">
-        <v>10123860</v>
+        <v>10123928</v>
       </c>
       <c r="C87" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B88">
-        <v>10123859</v>
+        <v>10123927</v>
       </c>
       <c r="C88" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B89">
-        <v>10123858</v>
+        <v>10123926</v>
       </c>
       <c r="C89" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B90">
-        <v>10123857</v>
+        <v>10123925</v>
       </c>
       <c r="C90" t="s">
-        <v>408</v>
-      </c>
-      <c r="D90" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B91">
-        <v>10123856</v>
+        <v>10123924</v>
       </c>
       <c r="C91" t="s">
-        <v>407</v>
-      </c>
-      <c r="D91" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B92">
-        <v>10123855</v>
+        <v>10123923</v>
       </c>
       <c r="C92" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B93">
-        <v>10123854</v>
+        <v>10123922</v>
       </c>
       <c r="C93" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B94">
-        <v>10123853</v>
+        <f t="shared" ref="B94:B97" si="14">+B95+1</f>
+        <v>10123921</v>
       </c>
       <c r="C94" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B95">
-        <v>10123852</v>
+        <f t="shared" si="14"/>
+        <v>10123920</v>
       </c>
       <c r="C95" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B96">
-        <v>10123851</v>
+        <f t="shared" si="14"/>
+        <v>10123919</v>
       </c>
       <c r="C96" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97">
-        <v>10123850</v>
+        <f t="shared" si="14"/>
+        <v>10123918</v>
       </c>
       <c r="C97" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98">
-        <v>10123849</v>
+        <f t="shared" ref="B98:B101" si="15">+B99+1</f>
+        <v>10123917</v>
       </c>
       <c r="C98" t="s">
-        <v>400</v>
+        <v>467</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99">
-        <v>10123848</v>
+        <f t="shared" si="15"/>
+        <v>10123916</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100">
-        <v>10123847</v>
+        <f t="shared" si="15"/>
+        <v>10123915</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101">
-        <v>10123846</v>
+        <f t="shared" si="15"/>
+        <v>10123914</v>
       </c>
       <c r="C101" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102">
-        <v>10123845</v>
+        <f t="shared" ref="B102:B105" si="16">+B103+1</f>
+        <v>10123913</v>
       </c>
       <c r="C102" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103">
-        <v>10123844</v>
+        <f t="shared" si="16"/>
+        <v>10123912</v>
       </c>
       <c r="C103" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104">
-        <v>10123843</v>
+        <f t="shared" si="16"/>
+        <v>10123911</v>
       </c>
       <c r="C104" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105">
-        <f t="shared" ref="B105:B107" si="4">+B106+1</f>
-        <v>10123842</v>
+        <f t="shared" si="16"/>
+        <v>10123910</v>
       </c>
       <c r="C105" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106">
-        <f t="shared" si="4"/>
-        <v>10123841</v>
+        <f t="shared" ref="B106:B108" si="17">+B107+1</f>
+        <v>10123909</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107">
-        <f t="shared" si="4"/>
-        <v>10123840</v>
+        <f t="shared" si="17"/>
+        <v>10123908</v>
       </c>
       <c r="C107" t="s">
-        <v>391</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108">
-        <f t="shared" ref="B108:B118" si="5">+B109+1</f>
-        <v>10123839</v>
+        <f t="shared" si="17"/>
+        <v>10123907</v>
       </c>
       <c r="C108" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109">
-        <f t="shared" si="5"/>
-        <v>10123838</v>
+        <f>+B110+1</f>
+        <v>10123906</v>
       </c>
       <c r="C109" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110">
-        <f t="shared" si="5"/>
-        <v>10123837</v>
+        <v>10123905</v>
       </c>
       <c r="C110" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111">
-        <f t="shared" si="5"/>
-        <v>10123836</v>
+        <v>10123904</v>
       </c>
       <c r="C111" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112">
-        <f t="shared" si="5"/>
-        <v>10123835</v>
+        <v>10123903</v>
       </c>
       <c r="C112" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113">
-        <f t="shared" si="5"/>
-        <v>10123834</v>
+        <v>10123902</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114">
-        <f t="shared" si="5"/>
-        <v>10123833</v>
+        <v>10123901</v>
       </c>
       <c r="C114" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115">
-        <f t="shared" si="5"/>
-        <v>10123832</v>
+        <v>10123900</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116">
-        <f t="shared" si="5"/>
-        <v>10123831</v>
+        <v>10123899</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117">
-        <f t="shared" si="5"/>
-        <v>10123830</v>
+        <v>10123898</v>
       </c>
       <c r="C117" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118">
-        <f t="shared" si="5"/>
-        <v>10123829</v>
+        <v>10123897</v>
       </c>
       <c r="C118" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119">
-        <f t="shared" ref="B119:B129" si="6">+B120+1</f>
-        <v>10123828</v>
+        <v>10123896</v>
       </c>
       <c r="C119" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120">
-        <f t="shared" si="6"/>
-        <v>10123827</v>
+        <v>10123895</v>
       </c>
       <c r="C120" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121">
-        <f t="shared" si="6"/>
-        <v>10123826</v>
+        <v>10123894</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122">
-        <f t="shared" si="6"/>
-        <v>10123825</v>
+        <v>10123893</v>
       </c>
       <c r="C122" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123">
-        <f t="shared" si="6"/>
-        <v>10123824</v>
+        <v>10123892</v>
       </c>
       <c r="C123" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124">
-        <f t="shared" si="6"/>
-        <v>10123823</v>
+        <v>10123891</v>
       </c>
       <c r="C124" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125">
-        <f t="shared" si="6"/>
-        <v>10123822</v>
+        <v>10123890</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126">
-        <f t="shared" si="6"/>
-        <v>10123821</v>
+        <v>10123889</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>440</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127">
-        <f t="shared" si="6"/>
-        <v>10123820</v>
+        <v>10123888</v>
       </c>
       <c r="C127" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128">
-        <f t="shared" si="6"/>
-        <v>10123819</v>
+        <v>10123887</v>
       </c>
       <c r="C128" t="s">
-        <v>368</v>
+        <v>438</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129">
-        <f t="shared" si="6"/>
-        <v>10123818</v>
+        <v>10123886</v>
       </c>
       <c r="C129" t="s">
-        <v>367</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130">
-        <f t="shared" ref="B130:B141" si="7">+B131+1</f>
-        <v>10123817</v>
+        <v>10123885</v>
       </c>
       <c r="C130" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131">
-        <f t="shared" si="7"/>
-        <v>10123816</v>
+        <v>10123884</v>
       </c>
       <c r="C131" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132">
-        <f t="shared" si="7"/>
-        <v>10123815</v>
+        <v>10123883</v>
       </c>
       <c r="C132" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133">
-        <f t="shared" si="7"/>
-        <v>10123814</v>
+        <v>10123882</v>
       </c>
       <c r="C133" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134">
-        <f t="shared" si="7"/>
-        <v>10123813</v>
+        <v>10123881</v>
       </c>
       <c r="C134" t="s">
-        <v>362</v>
+        <v>433</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135">
-        <f t="shared" si="7"/>
-        <v>10123812</v>
+        <v>10123880</v>
       </c>
       <c r="C135" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136">
-        <f t="shared" si="7"/>
-        <v>10123811</v>
+        <v>10123879</v>
       </c>
       <c r="C136" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137">
-        <f t="shared" si="7"/>
-        <v>10123810</v>
+        <v>10123878</v>
       </c>
       <c r="C137" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138">
-        <f t="shared" si="7"/>
-        <v>10123809</v>
+        <v>10123877</v>
       </c>
       <c r="C138" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139">
-        <f t="shared" si="7"/>
-        <v>10123808</v>
+        <v>10123876</v>
       </c>
       <c r="C139" t="s">
-        <v>357</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140">
-        <f t="shared" si="7"/>
-        <v>10123807</v>
+        <v>10123875</v>
       </c>
       <c r="C140" t="s">
-        <v>356</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141">
-        <f t="shared" si="7"/>
-        <v>10123806</v>
+        <v>10123874</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142">
-        <f>+B143+1</f>
-        <v>10123805</v>
+        <v>10123873</v>
       </c>
       <c r="C142" t="s">
-        <v>354</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>10123804</v>
+        <v>10123872</v>
       </c>
       <c r="C143" t="s">
-        <v>353</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="1">
-        <v>10123803</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="1">
-        <v>10123802</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="1">
-        <v>10123801</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="1">
-        <v>10123800</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="1">
-        <v>10123799</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="1">
-        <v>10123798</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="1">
-        <v>10123797</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="1">
-        <v>10123796</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="1">
-        <v>10123795</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="1">
-        <v>10123794</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>10123871</v>
+      </c>
+      <c r="C144" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>10123870</v>
+      </c>
+      <c r="C145" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>10123869</v>
+      </c>
+      <c r="C146" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>10123868</v>
+      </c>
+      <c r="C147" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>10123867</v>
+      </c>
+      <c r="C148" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>10123866</v>
+      </c>
+      <c r="C149" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>10123865</v>
+      </c>
+      <c r="C150" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>10123864</v>
+      </c>
+      <c r="C151" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>10123863</v>
+      </c>
+      <c r="C152" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>10123862</v>
+      </c>
+      <c r="C153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154">
-        <v>10123793</v>
+        <v>10123861</v>
       </c>
       <c r="C154" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B155">
-        <v>10123792</v>
+        <v>10123860</v>
       </c>
       <c r="C155" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156">
-        <v>10123791</v>
+        <v>10123859</v>
       </c>
       <c r="C156" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>10123790</v>
+        <v>10123858</v>
       </c>
       <c r="C157" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B158">
-        <v>10123789</v>
+        <v>10123857</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="D158" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>10123788</v>
+        <v>10123856</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="D159" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B160">
-        <v>10123787</v>
+        <v>10123855</v>
       </c>
       <c r="C160" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161">
-        <v>10123786</v>
+        <v>10123854</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162">
-        <v>10123785</v>
+        <v>10123853</v>
       </c>
       <c r="C162" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163">
-        <v>10123784</v>
+        <v>10123852</v>
       </c>
       <c r="C163" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164">
-        <v>10123783</v>
+        <v>10123851</v>
       </c>
       <c r="C164" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165">
-        <v>10123782</v>
+        <v>10123850</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166">
-        <v>10123781</v>
+        <v>10123849</v>
       </c>
       <c r="C166" t="s">
-        <v>330</v>
+        <v>400</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>10123780</v>
+        <v>10123848</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168">
-        <v>10123779</v>
+        <v>10123847</v>
       </c>
       <c r="C168" t="s">
-        <v>328</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169">
-        <v>10123778</v>
+        <v>10123846</v>
       </c>
       <c r="C169" t="s">
-        <v>327</v>
+        <v>397</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170">
-        <v>10123777</v>
+        <v>10123845</v>
       </c>
       <c r="C170" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171">
-        <v>10123776</v>
+        <v>10123844</v>
       </c>
       <c r="C171" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172">
-        <v>10123775</v>
+        <v>10123843</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>394</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173">
-        <v>10123774</v>
+        <f t="shared" ref="B173:B175" si="18">+B174+1</f>
+        <v>10123842</v>
       </c>
       <c r="C173" t="s">
-        <v>323</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174">
-        <v>10123773</v>
+        <f t="shared" si="18"/>
+        <v>10123841</v>
       </c>
       <c r="C174" t="s">
-        <v>322</v>
+        <v>392</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175">
-        <v>10123772</v>
+        <f t="shared" si="18"/>
+        <v>10123840</v>
       </c>
       <c r="C175" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176">
-        <v>10123771</v>
+        <f t="shared" ref="B176:B186" si="19">+B177+1</f>
+        <v>10123839</v>
       </c>
       <c r="C176" t="s">
-        <v>320</v>
+        <v>390</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177">
-        <v>10123770</v>
+        <f t="shared" si="19"/>
+        <v>10123838</v>
       </c>
       <c r="C177" t="s">
-        <v>319</v>
+        <v>389</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178">
-        <v>10123769</v>
+        <f t="shared" si="19"/>
+        <v>10123837</v>
       </c>
       <c r="C178" t="s">
-        <v>318</v>
+        <v>388</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179">
-        <v>10123768</v>
+        <f t="shared" si="19"/>
+        <v>10123836</v>
       </c>
       <c r="C179" t="s">
-        <v>317</v>
+        <v>387</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180">
-        <v>10123767</v>
+        <f t="shared" si="19"/>
+        <v>10123835</v>
       </c>
       <c r="C180" t="s">
-        <v>316</v>
+        <v>386</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181">
-        <v>10123766</v>
+        <f t="shared" si="19"/>
+        <v>10123834</v>
       </c>
       <c r="C181" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182">
-        <v>10123765</v>
+        <f t="shared" si="19"/>
+        <v>10123833</v>
       </c>
       <c r="C182" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183">
-        <v>10123764</v>
+        <f t="shared" si="19"/>
+        <v>10123832</v>
       </c>
       <c r="C183" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184">
-        <v>10123763</v>
+        <f t="shared" si="19"/>
+        <v>10123831</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185">
-        <v>10123762</v>
+        <f t="shared" si="19"/>
+        <v>10123830</v>
       </c>
       <c r="C185" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186">
-        <v>10123761</v>
+        <f t="shared" si="19"/>
+        <v>10123829</v>
       </c>
       <c r="C186" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187">
-        <v>10123760</v>
+        <f t="shared" ref="B187:B197" si="20">+B188+1</f>
+        <v>10123828</v>
       </c>
       <c r="C187" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188">
-        <v>10123759</v>
+        <f t="shared" si="20"/>
+        <v>10123827</v>
       </c>
       <c r="C188" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189">
-        <v>10123758</v>
+        <f t="shared" si="20"/>
+        <v>10123826</v>
       </c>
       <c r="C189" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190">
-        <v>10123757</v>
+        <f t="shared" si="20"/>
+        <v>10123825</v>
       </c>
       <c r="C190" t="s">
-        <v>306</v>
+        <v>374</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191">
-        <v>10123756</v>
+        <f t="shared" si="20"/>
+        <v>10123824</v>
       </c>
       <c r="C191" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192">
-        <v>10123755</v>
+        <f t="shared" si="20"/>
+        <v>10123823</v>
       </c>
       <c r="C192" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193">
-        <v>10123754</v>
+        <f t="shared" si="20"/>
+        <v>10123822</v>
       </c>
       <c r="C193" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194">
-        <v>10123753</v>
+        <f t="shared" si="20"/>
+        <v>10123821</v>
       </c>
       <c r="C194" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195">
-        <v>10123752</v>
+        <f t="shared" si="20"/>
+        <v>10123820</v>
       </c>
       <c r="C195" t="s">
-        <v>301</v>
+        <v>369</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196">
-        <v>10123751</v>
+        <f t="shared" si="20"/>
+        <v>10123819</v>
       </c>
       <c r="C196" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197">
-        <v>10123750</v>
+        <f t="shared" si="20"/>
+        <v>10123818</v>
       </c>
       <c r="C197" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198">
-        <v>10123749</v>
+        <f t="shared" ref="B198:B209" si="21">+B199+1</f>
+        <v>10123817</v>
       </c>
       <c r="C198" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199">
-        <v>10123748</v>
+        <f t="shared" si="21"/>
+        <v>10123816</v>
       </c>
       <c r="C199" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200">
-        <v>10123747</v>
+        <f t="shared" si="21"/>
+        <v>10123815</v>
       </c>
       <c r="C200" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201">
-        <v>10123746</v>
+        <f t="shared" si="21"/>
+        <v>10123814</v>
       </c>
       <c r="C201" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202">
-        <v>10123745</v>
+        <f t="shared" si="21"/>
+        <v>10123813</v>
       </c>
       <c r="C202" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203">
-        <v>10123744</v>
+        <f t="shared" si="21"/>
+        <v>10123812</v>
       </c>
       <c r="C203" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204">
-        <v>10123743</v>
+        <f t="shared" si="21"/>
+        <v>10123811</v>
       </c>
       <c r="C204" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205">
-        <v>10123742</v>
+        <f t="shared" si="21"/>
+        <v>10123810</v>
       </c>
       <c r="C205" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206">
-        <v>10123741</v>
+        <f t="shared" si="21"/>
+        <v>10123809</v>
       </c>
       <c r="C206" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207">
-        <v>10123740</v>
+        <f t="shared" si="21"/>
+        <v>10123808</v>
       </c>
       <c r="C207" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208">
-        <v>10123739</v>
+        <f t="shared" si="21"/>
+        <v>10123807</v>
       </c>
       <c r="C208" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209">
-        <v>10123738</v>
+        <f t="shared" si="21"/>
+        <v>10123806</v>
       </c>
       <c r="C209" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="1">
-        <v>10123737</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>286</v>
+      <c r="B210">
+        <f>+B211+1</f>
+        <v>10123805</v>
+      </c>
+      <c r="C210" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211" s="1">
-        <v>10123736</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>285</v>
+      <c r="B211">
+        <v>10123804</v>
+      </c>
+      <c r="C211" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212">
-        <v>10123735</v>
-      </c>
-      <c r="C212" t="s">
-        <v>284</v>
+      <c r="B212" s="1">
+        <v>10123803</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213">
-        <v>10123734</v>
-      </c>
-      <c r="C213" t="s">
-        <v>283</v>
+      <c r="B213" s="1">
+        <v>10123802</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214">
-        <v>10123733</v>
-      </c>
-      <c r="C214" t="s">
-        <v>282</v>
+      <c r="B214" s="1">
+        <v>10123801</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215">
-        <v>10123732</v>
-      </c>
-      <c r="C215" t="s">
-        <v>281</v>
+      <c r="B215" s="1">
+        <v>10123800</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216">
-        <v>10123731</v>
-      </c>
-      <c r="C216" t="s">
-        <v>280</v>
+      <c r="B216" s="1">
+        <v>10123799</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217">
-        <v>10123730</v>
-      </c>
-      <c r="C217" t="s">
-        <v>279</v>
+      <c r="B217" s="1">
+        <v>10123798</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218">
-        <v>10123729</v>
-      </c>
-      <c r="C218" t="s">
-        <v>278</v>
+      <c r="B218" s="1">
+        <v>10123797</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219">
-        <v>10123728</v>
-      </c>
-      <c r="C219" t="s">
-        <v>277</v>
+      <c r="B219" s="1">
+        <v>10123796</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220">
-        <v>10123727</v>
-      </c>
-      <c r="C220" t="s">
-        <v>276</v>
+      <c r="B220" s="1">
+        <v>10123795</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221">
-        <v>10123726</v>
-      </c>
-      <c r="C221" t="s">
-        <v>275</v>
+      <c r="B221" s="1">
+        <v>10123794</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222">
-        <v>10123725</v>
+        <v>10123793</v>
       </c>
       <c r="C222" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223">
-        <v>10123724</v>
+        <v>10123792</v>
       </c>
       <c r="C223" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224" s="1">
-        <v>10123723</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>272</v>
+      <c r="B224">
+        <v>10123791</v>
+      </c>
+      <c r="C224" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" s="1">
-        <v>10123722</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>271</v>
+      <c r="B225">
+        <v>10123790</v>
+      </c>
+      <c r="C225" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" s="1">
-        <v>10123721</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>270</v>
+      <c r="B226">
+        <v>10123789</v>
+      </c>
+      <c r="C226" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227">
-        <v>10123720</v>
+        <v>10123788</v>
       </c>
       <c r="C227" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228">
-        <v>10123719</v>
+        <v>10123787</v>
       </c>
       <c r="C228" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>10123718</v>
+        <v>10123786</v>
       </c>
       <c r="C229" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>10123717</v>
+        <v>10123785</v>
       </c>
       <c r="C230" t="s">
-        <v>266</v>
+        <v>334</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>10123716</v>
+        <v>10123784</v>
       </c>
       <c r="C231" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B232" s="1">
-        <v>10123715</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>264</v>
+      <c r="B232">
+        <v>10123783</v>
+      </c>
+      <c r="C232" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233">
-        <v>10123714</v>
+        <v>10123782</v>
       </c>
       <c r="C233" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B234" s="1">
-        <v>10123713</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>262</v>
+      <c r="B234">
+        <v>10123781</v>
+      </c>
+      <c r="C234" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B235" s="1">
-        <v>10123712</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>261</v>
+      <c r="B235">
+        <v>10123780</v>
+      </c>
+      <c r="C235" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B236" s="1">
-        <v>10123711</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>260</v>
+      <c r="B236">
+        <v>10123779</v>
+      </c>
+      <c r="C236" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B237" s="1">
-        <v>10123710</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>259</v>
+      <c r="B237">
+        <v>10123778</v>
+      </c>
+      <c r="C237" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B238" s="1">
-        <v>10123709</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>258</v>
+      <c r="B238">
+        <v>10123777</v>
+      </c>
+      <c r="C238" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B239" s="1">
-        <v>10123708</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>257</v>
+      <c r="B239">
+        <v>10123776</v>
+      </c>
+      <c r="C239" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B240" s="1">
-        <v>10123707</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>256</v>
+      <c r="B240">
+        <v>10123775</v>
+      </c>
+      <c r="C240" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B241" s="1">
-        <v>10123706</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>255</v>
+      <c r="B241">
+        <v>10123774</v>
+      </c>
+      <c r="C241" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242">
-        <v>10123705</v>
+        <v>10123773</v>
       </c>
       <c r="C242" t="s">
-        <v>254</v>
+        <v>322</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243">
-        <v>10123704</v>
+        <v>10123772</v>
       </c>
       <c r="C243" t="s">
-        <v>253</v>
+        <v>321</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244">
-        <v>10123703</v>
+        <v>10123771</v>
       </c>
       <c r="C244" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B245" s="1">
-        <v>10123702</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>251</v>
+      <c r="B245">
+        <v>10123770</v>
+      </c>
+      <c r="C245" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B246" s="1">
-        <v>10123701</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>250</v>
+      <c r="B246">
+        <v>10123769</v>
+      </c>
+      <c r="C246" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B247" s="1">
-        <v>10123700</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>249</v>
+      <c r="B247">
+        <v>10123768</v>
+      </c>
+      <c r="C247" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B248" s="1">
-        <v>10123699</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>248</v>
+      <c r="B248">
+        <v>10123767</v>
+      </c>
+      <c r="C248" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B249" s="1">
-        <v>10123698</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>247</v>
+      <c r="B249">
+        <v>10123766</v>
+      </c>
+      <c r="C249" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B250" s="1">
-        <v>10123697</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>246</v>
+      <c r="B250">
+        <v>10123765</v>
+      </c>
+      <c r="C250" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B251" s="1">
-        <v>10123696</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>245</v>
+      <c r="B251">
+        <v>10123764</v>
+      </c>
+      <c r="C251" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B252" s="1">
-        <v>10123695</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>244</v>
+      <c r="B252">
+        <v>10123763</v>
+      </c>
+      <c r="C252" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B253" s="1">
-        <v>10123694</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>243</v>
+      <c r="B253">
+        <v>10123762</v>
+      </c>
+      <c r="C253" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B254" s="1">
-        <v>10123693</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>242</v>
+      <c r="B254">
+        <v>10123761</v>
+      </c>
+      <c r="C254" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255">
-        <v>10123692</v>
+        <v>10123760</v>
       </c>
       <c r="C255" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256">
-        <v>10123691</v>
+        <v>10123759</v>
       </c>
       <c r="C256" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B257" s="1">
-        <v>10123690</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258" s="1">
-        <v>10123689</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>10123758</v>
+      </c>
+      <c r="C257" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>10123757</v>
+      </c>
+      <c r="C258" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259">
-        <v>10123688</v>
+        <v>10123756</v>
       </c>
       <c r="C259" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B260" s="1">
-        <v>10123687</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>10123755</v>
+      </c>
+      <c r="C260" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261">
-        <v>10123686</v>
+        <v>10123754</v>
       </c>
       <c r="C261" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262">
-        <v>10123685</v>
+        <v>10123753</v>
       </c>
       <c r="C262" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B263" s="1">
-        <v>10123684</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>10123752</v>
+      </c>
+      <c r="C263" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264">
-        <v>10123683</v>
+        <v>10123751</v>
       </c>
       <c r="C264" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265">
-        <v>10123682</v>
+        <v>10123750</v>
       </c>
       <c r="C265" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="266" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B266" s="1">
-        <v>10123681</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="267" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B267" s="1">
-        <v>10123680</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>10123749</v>
+      </c>
+      <c r="C266" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>10123748</v>
+      </c>
+      <c r="C267" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268">
-        <v>10123679</v>
+        <v>10123747</v>
       </c>
       <c r="C268" t="s">
-        <v>228</v>
-      </c>
-      <c r="D268" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269">
-        <v>10123678</v>
+        <v>10123746</v>
       </c>
       <c r="C269" t="s">
-        <v>227</v>
-      </c>
-      <c r="D269" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270">
-        <v>10123677</v>
+        <v>10123745</v>
       </c>
       <c r="C270" t="s">
-        <v>226</v>
-      </c>
-      <c r="D270" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271">
-        <v>10123676</v>
+        <v>10123744</v>
       </c>
       <c r="C271" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272">
-        <v>10123675</v>
+        <v>10123743</v>
       </c>
       <c r="C272" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273">
-        <v>10123674</v>
+        <v>10123742</v>
       </c>
       <c r="C273" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274">
-        <v>10123673</v>
+        <v>10123741</v>
       </c>
       <c r="C274" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275">
-        <v>10123672</v>
+        <v>10123740</v>
       </c>
       <c r="C275" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276">
-        <v>10123671</v>
+        <v>10123739</v>
       </c>
       <c r="C276" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277">
-        <v>10123670</v>
+        <v>10123738</v>
       </c>
       <c r="C277" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B278">
-        <v>10123669</v>
-      </c>
-      <c r="C278" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B279">
-        <v>10123668</v>
-      </c>
-      <c r="C279" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278" s="1">
+        <v>10123737</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="1">
+        <v>10123736</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280">
-        <v>10123667</v>
+        <v>10123735</v>
       </c>
       <c r="C280" t="s">
-        <v>215</v>
-      </c>
-      <c r="D280" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281">
-        <v>10123666</v>
+        <v>10123734</v>
       </c>
       <c r="C281" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282">
-        <v>10123665</v>
+        <v>10123733</v>
       </c>
       <c r="C282" t="s">
-        <v>213</v>
-      </c>
-      <c r="D282" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283">
-        <v>10123664</v>
+        <v>10123732</v>
       </c>
       <c r="C283" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284">
-        <v>10123663</v>
+        <v>10123731</v>
       </c>
       <c r="C284" t="s">
-        <v>211</v>
-      </c>
-      <c r="D284" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285">
-        <v>10123662</v>
+        <v>10123730</v>
       </c>
       <c r="C285" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286">
-        <v>10123661</v>
+        <v>10123729</v>
       </c>
       <c r="C286" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287">
-        <v>10123660</v>
+        <v>10123728</v>
       </c>
       <c r="C287" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288">
-        <v>10123659</v>
+        <v>10123727</v>
       </c>
       <c r="C288" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289">
-        <v>10123658</v>
+        <v>10123726</v>
       </c>
       <c r="C289" t="s">
-        <v>206</v>
+        <v>275</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290">
-        <v>10123657</v>
+        <v>10123725</v>
       </c>
       <c r="C290" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291">
-        <v>10123656</v>
+        <v>10123724</v>
       </c>
       <c r="C291" t="s">
-        <v>204</v>
+        <v>273</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B292">
-        <v>10123655</v>
-      </c>
-      <c r="C292" t="s">
-        <v>203</v>
+      <c r="B292" s="1">
+        <v>10123723</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B293">
-        <v>10123654</v>
-      </c>
-      <c r="C293" t="s">
-        <v>202</v>
+      <c r="B293" s="1">
+        <v>10123722</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B294">
-        <v>10123653</v>
-      </c>
-      <c r="C294" t="s">
-        <v>201</v>
+      <c r="B294" s="1">
+        <v>10123721</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295">
-        <v>10123652</v>
+        <v>10123720</v>
       </c>
       <c r="C295" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296">
-        <v>10123651</v>
+        <v>10123719</v>
       </c>
       <c r="C296" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297">
-        <v>10123650</v>
+        <v>10123718</v>
       </c>
       <c r="C297" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298">
-        <v>10123649</v>
+        <v>10123717</v>
       </c>
       <c r="C298" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299">
-        <v>10123648</v>
+        <v>10123716</v>
       </c>
       <c r="C299" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B300">
-        <v>10123647</v>
-      </c>
-      <c r="C300" t="s">
-        <v>195</v>
+      <c r="B300" s="1">
+        <v>10123715</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301">
-        <v>10123646</v>
+        <v>10123714</v>
       </c>
       <c r="C301" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B302">
-        <v>10123645</v>
-      </c>
-      <c r="C302" t="s">
-        <v>193</v>
+      <c r="B302" s="1">
+        <v>10123713</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B303">
-        <v>10123644</v>
-      </c>
-      <c r="C303" t="s">
-        <v>192</v>
+      <c r="B303" s="1">
+        <v>10123712</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B304">
-        <v>10123643</v>
-      </c>
-      <c r="C304" t="s">
-        <v>191</v>
+      <c r="B304" s="1">
+        <v>10123711</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B305">
-        <v>10123642</v>
-      </c>
-      <c r="C305" t="s">
-        <v>190</v>
+      <c r="B305" s="1">
+        <v>10123710</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B306">
-        <v>10123641</v>
-      </c>
-      <c r="C306" t="s">
-        <v>189</v>
+      <c r="B306" s="1">
+        <v>10123709</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B307">
-        <v>10123640</v>
-      </c>
-      <c r="C307" t="s">
-        <v>188</v>
+      <c r="B307" s="1">
+        <v>10123708</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B308">
-        <v>10123639</v>
-      </c>
-      <c r="C308" t="s">
-        <v>187</v>
+      <c r="B308" s="1">
+        <v>10123707</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B309">
-        <v>10123638</v>
-      </c>
-      <c r="C309" t="s">
-        <v>186</v>
+      <c r="B309" s="1">
+        <v>10123706</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310">
-        <v>10123637</v>
+        <v>10123705</v>
       </c>
       <c r="C310" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311">
-        <v>10123636</v>
+        <v>10123704</v>
       </c>
       <c r="C311" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312">
-        <v>10123635</v>
+        <v>10123703</v>
       </c>
       <c r="C312" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B313">
-        <v>10123634</v>
-      </c>
-      <c r="C313" t="s">
-        <v>182</v>
+      <c r="B313" s="1">
+        <v>10123702</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B314">
-        <v>10123633</v>
-      </c>
-      <c r="C314" t="s">
-        <v>181</v>
+      <c r="B314" s="1">
+        <v>10123701</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B315">
-        <v>10123632</v>
-      </c>
-      <c r="C315" t="s">
-        <v>180</v>
+      <c r="B315" s="1">
+        <v>10123700</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B316">
-        <v>10123631</v>
-      </c>
-      <c r="C316" t="s">
-        <v>179</v>
+      <c r="B316" s="1">
+        <v>10123699</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B317">
-        <v>10123630</v>
-      </c>
-      <c r="C317" t="s">
-        <v>178</v>
+      <c r="B317" s="1">
+        <v>10123698</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B318">
-        <v>10123629</v>
-      </c>
-      <c r="C318" t="s">
-        <v>177</v>
+      <c r="B318" s="1">
+        <v>10123697</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B319">
-        <v>10123628</v>
-      </c>
-      <c r="C319" t="s">
-        <v>176</v>
+      <c r="B319" s="1">
+        <v>10123696</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B320">
-        <v>10123627</v>
-      </c>
-      <c r="C320" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B321">
-        <v>10123626</v>
-      </c>
-      <c r="C321" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B322">
-        <v>10123625</v>
-      </c>
-      <c r="C322" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320" s="1">
+        <v>10123695</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B321" s="1">
+        <v>10123694</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B322" s="1">
+        <v>10123693</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B323">
-        <v>10123624</v>
+        <v>10123692</v>
       </c>
       <c r="C323" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B324">
-        <v>10123623</v>
+        <v>10123691</v>
       </c>
       <c r="C324" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B325">
-        <v>10123622</v>
-      </c>
-      <c r="C325" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B326">
-        <v>10123621</v>
-      </c>
-      <c r="C326" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B325" s="1">
+        <v>10123690</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B326" s="1">
+        <v>10123689</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B327">
-        <v>10123620</v>
+        <v>10123688</v>
       </c>
       <c r="C327" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B328">
-        <v>10123619</v>
-      </c>
-      <c r="C328" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B328" s="1">
+        <v>10123687</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B329">
-        <v>10123618</v>
+        <v>10123686</v>
       </c>
       <c r="C329" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B330">
-        <v>10123617</v>
+        <v>10123685</v>
       </c>
       <c r="C330" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B331">
-        <v>10123616</v>
-      </c>
-      <c r="C331" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B331" s="1">
+        <v>10123684</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B332">
-        <v>10123615</v>
+        <v>10123683</v>
       </c>
       <c r="C332" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B333">
-        <v>10123614</v>
+        <v>10123682</v>
       </c>
       <c r="C333" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B334">
-        <v>10123613</v>
-      </c>
-      <c r="C334" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B335">
-        <v>10123612</v>
-      </c>
-      <c r="C335" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B334" s="1">
+        <v>10123681</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="1">
+        <v>10123680</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B336">
-        <v>10123611</v>
+        <v>10123679</v>
       </c>
       <c r="C336" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="D336" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B337">
-        <v>10123610</v>
+        <v>10123678</v>
       </c>
       <c r="C337" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="D337" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B338">
-        <v>10123609</v>
+        <v>10123677</v>
       </c>
       <c r="C338" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+      <c r="D338" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B339">
-        <v>10123608</v>
+        <v>10123676</v>
       </c>
       <c r="C339" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B340">
-        <v>10123607</v>
+        <v>10123675</v>
       </c>
       <c r="C340" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B341">
-        <v>10123606</v>
+        <v>10123674</v>
       </c>
       <c r="C341" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B342">
-        <v>10123605</v>
+        <v>10123673</v>
       </c>
       <c r="C342" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B343">
-        <v>10123604</v>
+        <v>10123672</v>
       </c>
       <c r="C343" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B344">
-        <v>10123603</v>
+        <v>10123671</v>
       </c>
       <c r="C344" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B345">
-        <v>10123602</v>
+        <v>10123670</v>
       </c>
       <c r="C345" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B346">
-        <v>10123601</v>
+        <v>10123669</v>
       </c>
       <c r="C346" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B347">
-        <v>10123600</v>
+        <v>10123668</v>
       </c>
       <c r="C347" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B348">
-        <v>10123599</v>
+        <v>10123667</v>
       </c>
       <c r="C348" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="D348" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B349">
-        <v>10123598</v>
+        <v>10123666</v>
       </c>
       <c r="C349" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B350">
-        <v>10123597</v>
+        <v>10123665</v>
       </c>
       <c r="C350" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="D350" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B351">
-        <v>10123596</v>
+        <v>10123664</v>
       </c>
       <c r="C351" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B352">
-        <v>10123595</v>
+        <v>10123663</v>
       </c>
       <c r="C352" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="D352" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353">
-        <v>10123594</v>
+        <v>10123662</v>
       </c>
       <c r="C353" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354">
-        <v>10123593</v>
+        <v>10123661</v>
       </c>
       <c r="C354" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355">
-        <v>10123592</v>
+        <v>10123660</v>
       </c>
       <c r="C355" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356">
-        <v>10123591</v>
+        <v>10123659</v>
       </c>
       <c r="C356" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357">
-        <v>10123590</v>
+        <v>10123658</v>
       </c>
       <c r="C357" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358">
-        <v>10123589</v>
+        <v>10123657</v>
       </c>
       <c r="C358" t="s">
-        <v>137</v>
-      </c>
-      <c r="D358" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359">
-        <v>10123588</v>
+        <v>10123656</v>
       </c>
       <c r="C359" t="s">
-        <v>136</v>
-      </c>
-      <c r="D359" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360">
-        <v>10123587</v>
+        <v>10123655</v>
       </c>
       <c r="C360" t="s">
-        <v>135</v>
-      </c>
-      <c r="D360" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361">
-        <v>10123586</v>
+        <v>10123654</v>
       </c>
       <c r="C361" t="s">
-        <v>134</v>
-      </c>
-      <c r="D361" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362">
-        <v>10123585</v>
+        <v>10123653</v>
       </c>
       <c r="C362" t="s">
-        <v>133</v>
-      </c>
-      <c r="D362" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363">
-        <v>10123584</v>
+        <v>10123652</v>
       </c>
       <c r="C363" t="s">
-        <v>131</v>
-      </c>
-      <c r="D363" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364">
-        <v>10123583</v>
+        <v>10123651</v>
       </c>
       <c r="C364" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365">
-        <v>10123582</v>
+        <v>10123650</v>
       </c>
       <c r="C365" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366">
-        <v>10123581</v>
+        <v>10123649</v>
       </c>
       <c r="C366" t="s">
-        <v>128</v>
-      </c>
-      <c r="D366" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367">
-        <v>10123580</v>
+        <v>10123648</v>
       </c>
       <c r="C367" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368">
-        <v>10123579</v>
+        <v>10123647</v>
       </c>
       <c r="C368" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369">
-        <v>10123578</v>
+        <v>10123646</v>
       </c>
       <c r="C369" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370">
-        <v>10123577</v>
+        <v>10123645</v>
       </c>
       <c r="C370" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371">
-        <v>10123576</v>
+        <v>10123644</v>
       </c>
       <c r="C371" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372">
-        <v>10123575</v>
+        <v>10123643</v>
       </c>
       <c r="C372" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373">
-        <v>10123574</v>
+        <v>10123642</v>
       </c>
       <c r="C373" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374">
-        <v>10123573</v>
+        <v>10123641</v>
       </c>
       <c r="C374" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375">
-        <v>10123572</v>
+        <v>10123640</v>
       </c>
       <c r="C375" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B376" s="1">
-        <v>10123571</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>118</v>
+      <c r="B376">
+        <v>10123639</v>
+      </c>
+      <c r="C376" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377">
-        <v>10123570</v>
+        <v>10123638</v>
       </c>
       <c r="C377" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378">
-        <v>10123569</v>
+        <v>10123637</v>
       </c>
       <c r="C378" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379">
-        <v>10123568</v>
+        <v>10123636</v>
       </c>
       <c r="C379" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380">
-        <v>10123567</v>
+        <v>10123635</v>
       </c>
       <c r="C380" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381">
-        <v>10123566</v>
+        <v>10123634</v>
       </c>
       <c r="C381" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382">
-        <v>10123565</v>
+        <v>10123633</v>
       </c>
       <c r="C382" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383">
-        <v>10123564</v>
+        <v>10123632</v>
       </c>
       <c r="C383" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384">
-        <v>10123563</v>
+        <v>10123631</v>
       </c>
       <c r="C384" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385">
-        <v>10123562</v>
+        <v>10123630</v>
       </c>
       <c r="C385" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="386" spans="2:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386">
-        <v>10123561</v>
+        <v>10123629</v>
       </c>
       <c r="C386" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387">
-        <v>10123560</v>
+        <v>10123628</v>
       </c>
       <c r="C387" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="388" spans="2:4" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388">
-        <v>10123559</v>
+        <v>10123627</v>
       </c>
       <c r="C388" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389">
-        <v>10123558</v>
+        <v>10123626</v>
       </c>
       <c r="C389" t="s">
-        <v>106</v>
-      </c>
-      <c r="D389" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="390" spans="2:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390">
-        <v>10123557</v>
+        <v>10123625</v>
       </c>
       <c r="C390" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="391" spans="2:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B391">
-        <v>10123556</v>
+        <v>10123624</v>
       </c>
       <c r="C391" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="392" spans="2:4" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392">
-        <v>10123555</v>
+        <v>10123623</v>
       </c>
       <c r="C392" t="s">
-        <v>103</v>
-      </c>
-      <c r="D392" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393">
-        <v>10123554</v>
+        <v>10123622</v>
       </c>
       <c r="C393" t="s">
-        <v>102</v>
-      </c>
-      <c r="D393" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394">
-        <v>10123553</v>
+        <v>10123621</v>
       </c>
       <c r="C394" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B395">
-        <v>10123552</v>
+        <v>10123620</v>
       </c>
       <c r="C395" t="s">
-        <v>100</v>
-      </c>
-      <c r="D395" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396">
-        <v>10123551</v>
+        <v>10123619</v>
       </c>
       <c r="C396" t="s">
-        <v>99</v>
-      </c>
-      <c r="D396" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="397" spans="2:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B397">
-        <v>10123550</v>
+        <v>10123618</v>
       </c>
       <c r="C397" t="s">
-        <v>97</v>
-      </c>
-      <c r="D397" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398">
-        <v>10123549</v>
+        <v>10123617</v>
       </c>
       <c r="C398" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399">
-        <v>10123548</v>
+        <v>10123616</v>
       </c>
       <c r="C399" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="400" spans="2:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400">
-        <v>10123547</v>
+        <v>10123615</v>
       </c>
       <c r="C400" t="s">
-        <v>94</v>
-      </c>
-      <c r="D400" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401">
-        <v>10123546</v>
+        <v>10123614</v>
       </c>
       <c r="C401" t="s">
-        <v>93</v>
-      </c>
-      <c r="D401" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402">
-        <v>10123545</v>
+        <v>10123613</v>
       </c>
       <c r="C402" t="s">
-        <v>92</v>
-      </c>
-      <c r="D402" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403">
-        <v>10123544</v>
+        <v>10123612</v>
       </c>
       <c r="C403" t="s">
-        <v>91</v>
-      </c>
-      <c r="D403" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404">
-        <v>10123543</v>
+        <v>10123611</v>
       </c>
       <c r="C404" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405">
-        <v>10123542</v>
+        <v>10123610</v>
       </c>
       <c r="C405" t="s">
-        <v>89</v>
-      </c>
-      <c r="D405" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B406">
-        <v>10123541</v>
+        <v>10123609</v>
       </c>
       <c r="C406" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B407">
-        <v>10123540</v>
+        <v>10123608</v>
       </c>
       <c r="C407" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408">
-        <v>10123539</v>
+        <v>10123607</v>
       </c>
       <c r="C408" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409">
-        <v>10123538</v>
+        <v>10123606</v>
       </c>
       <c r="C409" t="s">
-        <v>85</v>
-      </c>
-      <c r="D409" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410">
-        <v>10123537</v>
+        <v>10123605</v>
       </c>
       <c r="C410" t="s">
-        <v>84</v>
-      </c>
-      <c r="D410" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411">
-        <v>10123536</v>
+        <v>10123604</v>
       </c>
       <c r="C411" t="s">
-        <v>83</v>
-      </c>
-      <c r="D411" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412">
-        <v>10123535</v>
+        <v>10123603</v>
       </c>
       <c r="C412" t="s">
-        <v>82</v>
-      </c>
-      <c r="D412" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="413" spans="2:4" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413">
-        <v>10123534</v>
+        <v>10123602</v>
       </c>
       <c r="C413" t="s">
-        <v>81</v>
-      </c>
-      <c r="D413" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414">
-        <v>10123533</v>
+        <v>10123601</v>
       </c>
       <c r="C414" t="s">
-        <v>80</v>
-      </c>
-      <c r="D414" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="415" spans="2:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415">
-        <v>10123532</v>
+        <v>10123600</v>
       </c>
       <c r="C415" t="s">
-        <v>79</v>
-      </c>
-      <c r="D415" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416">
-        <v>10123531</v>
+        <v>10123599</v>
       </c>
       <c r="C416" t="s">
-        <v>77</v>
-      </c>
-      <c r="D416" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417">
-        <v>10123530</v>
+        <v>10123598</v>
       </c>
       <c r="C417" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418">
-        <v>10123529</v>
+        <v>10123597</v>
       </c>
       <c r="C418" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B419">
-        <v>10123528</v>
+        <v>10123596</v>
       </c>
       <c r="C419" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420">
-        <v>10123527</v>
+        <v>10123595</v>
       </c>
       <c r="C420" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421">
-        <v>10123526</v>
+        <v>10123594</v>
       </c>
       <c r="C421" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422">
-        <v>10123525</v>
+        <v>10123593</v>
       </c>
       <c r="C422" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423">
-        <v>10123524</v>
+        <v>10123592</v>
       </c>
       <c r="C423" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424">
-        <v>10123523</v>
+        <v>10123591</v>
       </c>
       <c r="C424" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425">
-        <v>10123522</v>
+        <v>10123590</v>
       </c>
       <c r="C425" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426">
-        <v>10123521</v>
+        <v>10123589</v>
       </c>
       <c r="C426" t="s">
-        <v>67</v>
+        <v>137</v>
+      </c>
+      <c r="D426" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427">
-        <v>10123520</v>
+        <v>10123588</v>
       </c>
       <c r="C427" t="s">
-        <v>66</v>
+        <v>136</v>
+      </c>
+      <c r="D427" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428">
-        <v>10123519</v>
+        <v>10123587</v>
       </c>
       <c r="C428" t="s">
-        <v>65</v>
+        <v>135</v>
+      </c>
+      <c r="D428" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429">
-        <v>10123518</v>
+        <v>10123586</v>
       </c>
       <c r="C429" t="s">
-        <v>64</v>
+        <v>134</v>
+      </c>
+      <c r="D429" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430">
-        <v>10123517</v>
+        <v>10123585</v>
       </c>
       <c r="C430" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="D430" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431">
-        <v>10123516</v>
+        <v>10123584</v>
       </c>
       <c r="C431" t="s">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="D431" t="s">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432">
-        <v>10123515</v>
+        <v>10123583</v>
       </c>
       <c r="C432" t="s">
-        <v>60</v>
-      </c>
-      <c r="D432" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433">
-        <v>10123514</v>
+        <v>10123582</v>
       </c>
       <c r="C433" t="s">
-        <v>59</v>
-      </c>
-      <c r="D433" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434">
-        <v>10123513</v>
+        <v>10123581</v>
       </c>
       <c r="C434" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="D434" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435">
-        <v>10123512</v>
+        <v>10123580</v>
       </c>
       <c r="C435" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436">
-        <v>10123511</v>
+        <v>10123579</v>
+      </c>
+      <c r="C436" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437">
-        <v>10123510</v>
+        <v>10123578</v>
       </c>
       <c r="C437" t="s">
-        <v>56</v>
-      </c>
-      <c r="D437" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438">
-        <v>10123509</v>
+        <v>10123577</v>
       </c>
       <c r="C438" t="s">
-        <v>55</v>
-      </c>
-      <c r="D438" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439">
-        <v>10123508</v>
+        <v>10123576</v>
       </c>
       <c r="C439" t="s">
-        <v>54</v>
-      </c>
-      <c r="D439" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440">
-        <v>10123507</v>
+        <v>10123575</v>
       </c>
       <c r="C440" t="s">
-        <v>53</v>
-      </c>
-      <c r="D440" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441">
-        <v>10123506</v>
+        <v>10123574</v>
       </c>
       <c r="C441" t="s">
-        <v>52</v>
-      </c>
-      <c r="D441" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442">
-        <v>10123505</v>
+        <v>10123573</v>
       </c>
       <c r="C442" t="s">
-        <v>51</v>
-      </c>
-      <c r="D442" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443">
-        <v>10123504</v>
+        <v>10123572</v>
       </c>
       <c r="C443" t="s">
-        <v>50</v>
-      </c>
-      <c r="D443" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B444">
-        <v>10123503</v>
-      </c>
-      <c r="C444" t="s">
-        <v>49</v>
-      </c>
-      <c r="D444" t="s">
-        <v>40</v>
+      <c r="B444" s="1">
+        <v>10123571</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445">
-        <v>10123502</v>
+        <v>10123570</v>
       </c>
       <c r="C445" t="s">
-        <v>48</v>
-      </c>
-      <c r="D445" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446">
-        <v>10123501</v>
+        <v>10123569</v>
       </c>
       <c r="C446" t="s">
-        <v>47</v>
-      </c>
-      <c r="D446" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447">
-        <v>10123500</v>
+        <v>10123568</v>
       </c>
       <c r="C447" t="s">
-        <v>46</v>
-      </c>
-      <c r="D447" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448">
-        <v>10123499</v>
+        <v>10123567</v>
       </c>
       <c r="C448" t="s">
-        <v>45</v>
-      </c>
-      <c r="D448" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B449">
-        <v>10123498</v>
+        <v>10123566</v>
       </c>
       <c r="C449" t="s">
-        <v>44</v>
-      </c>
-      <c r="D449" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B450">
-        <v>10123497</v>
+        <v>10123565</v>
       </c>
       <c r="C450" t="s">
-        <v>43</v>
-      </c>
-      <c r="D450" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B451">
-        <v>10123496</v>
+        <v>10123564</v>
       </c>
       <c r="C451" t="s">
-        <v>42</v>
-      </c>
-      <c r="D451" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B452">
-        <v>10123495</v>
+        <v>10123563</v>
       </c>
       <c r="C452" t="s">
-        <v>41</v>
-      </c>
-      <c r="D452" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B453">
-        <v>10123494</v>
+        <v>10123562</v>
       </c>
       <c r="C453" t="s">
-        <v>39</v>
-      </c>
-      <c r="D453" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="454" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B454">
-        <v>10123493</v>
+        <v>10123561</v>
       </c>
       <c r="C454" t="s">
-        <v>38</v>
-      </c>
-      <c r="D454" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
     </row>
     <row r="455" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B455">
-        <v>10123492</v>
+        <v>10123560</v>
       </c>
       <c r="C455" t="s">
-        <v>37</v>
-      </c>
-      <c r="D455" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B456">
-        <v>10123491</v>
+        <v>10123559</v>
       </c>
       <c r="C456" t="s">
-        <v>36</v>
-      </c>
-      <c r="D456" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B457">
-        <v>10123490</v>
+        <v>10123558</v>
       </c>
       <c r="C457" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D457" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B458">
-        <v>10123489</v>
+        <v>10123557</v>
       </c>
       <c r="C458" t="s">
-        <v>34</v>
-      </c>
-      <c r="D458" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B459">
-        <v>10123488</v>
+        <v>10123556</v>
       </c>
       <c r="C459" t="s">
-        <v>33</v>
-      </c>
-      <c r="D459" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B460">
-        <v>10123487</v>
+        <v>10123555</v>
       </c>
       <c r="C460" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D460" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="461" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B461">
-        <v>10123486</v>
+        <v>10123554</v>
       </c>
       <c r="C461" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="D461" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B462">
-        <v>10123485</v>
+        <v>10123553</v>
       </c>
       <c r="C462" t="s">
-        <v>30</v>
-      </c>
-      <c r="D462" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B463">
-        <v>10123484</v>
+        <v>10123552</v>
       </c>
       <c r="C463" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="D463" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B464">
-        <v>10123483</v>
+        <v>10123551</v>
       </c>
       <c r="C464" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="D464" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B465">
-        <v>10123482</v>
+        <v>10123550</v>
       </c>
       <c r="C465" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="D465" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B466">
-        <v>10123481</v>
+        <v>10123549</v>
       </c>
       <c r="C466" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B467">
-        <v>10123480</v>
+        <v>10123548</v>
       </c>
       <c r="C467" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B468">
-        <v>10123479</v>
+        <v>10123547</v>
       </c>
       <c r="C468" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="D468" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B469">
-        <v>10123478</v>
+        <v>10123546</v>
       </c>
       <c r="C469" t="s">
-        <v>23</v>
+        <v>93</v>
+      </c>
+      <c r="D469" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B470">
-        <v>10123477</v>
+        <v>10123545</v>
       </c>
       <c r="C470" t="s">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="D470" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B471">
-        <v>10123476</v>
+        <v>10123544</v>
+      </c>
+      <c r="C471" t="s">
+        <v>91</v>
+      </c>
+      <c r="D471" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B472">
-        <v>10123475</v>
+        <v>10123543</v>
       </c>
       <c r="C472" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B473">
-        <v>10123474</v>
+        <v>10123542</v>
       </c>
       <c r="C473" t="s">
-        <v>20</v>
+        <v>89</v>
+      </c>
+      <c r="D473" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B474">
-        <v>10123473</v>
+        <v>10123541</v>
       </c>
       <c r="C474" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B475">
-        <v>10123472</v>
+        <v>10123540</v>
       </c>
       <c r="C475" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B476">
-        <v>10123471</v>
+        <v>10123539</v>
       </c>
       <c r="C476" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B477">
-        <v>10123470</v>
+        <v>10123538</v>
       </c>
       <c r="C477" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="D477" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B478">
-        <v>10123469</v>
+        <v>10123537</v>
       </c>
       <c r="C478" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="D478" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B479">
-        <v>10123468</v>
+        <v>10123536</v>
       </c>
       <c r="C479" t="s">
-        <v>14</v>
+        <v>83</v>
+      </c>
+      <c r="D479" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B480">
+        <v>10123535</v>
+      </c>
+      <c r="C480" t="s">
+        <v>82</v>
+      </c>
+      <c r="D480" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B481">
+        <v>10123534</v>
+      </c>
+      <c r="C481" t="s">
+        <v>81</v>
+      </c>
+      <c r="D481" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B482">
+        <v>10123533</v>
+      </c>
+      <c r="C482" t="s">
+        <v>80</v>
+      </c>
+      <c r="D482" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B483">
+        <v>10123532</v>
+      </c>
+      <c r="C483" t="s">
+        <v>79</v>
+      </c>
+      <c r="D483" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B484">
+        <v>10123531</v>
+      </c>
+      <c r="C484" t="s">
+        <v>77</v>
+      </c>
+      <c r="D484" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B485">
+        <v>10123530</v>
+      </c>
+      <c r="C485" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B486">
+        <v>10123529</v>
+      </c>
+      <c r="C486" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B487">
+        <v>10123528</v>
+      </c>
+      <c r="C487" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B488">
+        <v>10123527</v>
+      </c>
+      <c r="C488" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B489">
+        <v>10123526</v>
+      </c>
+      <c r="C489" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B490">
+        <v>10123525</v>
+      </c>
+      <c r="C490" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B491">
+        <v>10123524</v>
+      </c>
+      <c r="C491" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B492">
+        <v>10123523</v>
+      </c>
+      <c r="C492" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B493">
+        <v>10123522</v>
+      </c>
+      <c r="C493" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B494">
+        <v>10123521</v>
+      </c>
+      <c r="C494" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B495">
+        <v>10123520</v>
+      </c>
+      <c r="C495" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B496">
+        <v>10123519</v>
+      </c>
+      <c r="C496" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B497">
+        <v>10123518</v>
+      </c>
+      <c r="C497" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B498">
+        <v>10123517</v>
+      </c>
+      <c r="C498" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B499">
+        <v>10123516</v>
+      </c>
+      <c r="C499" t="s">
+        <v>62</v>
+      </c>
+      <c r="D499" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B500">
+        <v>10123515</v>
+      </c>
+      <c r="C500" t="s">
+        <v>60</v>
+      </c>
+      <c r="D500" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B501">
+        <v>10123514</v>
+      </c>
+      <c r="C501" t="s">
+        <v>59</v>
+      </c>
+      <c r="D501" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>10123513</v>
+      </c>
+      <c r="C502" t="s">
+        <v>58</v>
+      </c>
+      <c r="D502" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B503">
+        <v>10123512</v>
+      </c>
+      <c r="C503" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B504">
+        <v>10123511</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505">
+        <v>10123510</v>
+      </c>
+      <c r="C505" t="s">
+        <v>56</v>
+      </c>
+      <c r="D505" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B506">
+        <v>10123509</v>
+      </c>
+      <c r="C506" t="s">
+        <v>55</v>
+      </c>
+      <c r="D506" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507">
+        <v>10123508</v>
+      </c>
+      <c r="C507" t="s">
+        <v>54</v>
+      </c>
+      <c r="D507" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B508">
+        <v>10123507</v>
+      </c>
+      <c r="C508" t="s">
+        <v>53</v>
+      </c>
+      <c r="D508" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B509">
+        <v>10123506</v>
+      </c>
+      <c r="C509" t="s">
+        <v>52</v>
+      </c>
+      <c r="D509" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B510">
+        <v>10123505</v>
+      </c>
+      <c r="C510" t="s">
+        <v>51</v>
+      </c>
+      <c r="D510" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B511">
+        <v>10123504</v>
+      </c>
+      <c r="C511" t="s">
+        <v>50</v>
+      </c>
+      <c r="D511" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B512">
+        <v>10123503</v>
+      </c>
+      <c r="C512" t="s">
+        <v>49</v>
+      </c>
+      <c r="D512" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>10123502</v>
+      </c>
+      <c r="C513" t="s">
+        <v>48</v>
+      </c>
+      <c r="D513" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>10123501</v>
+      </c>
+      <c r="C514" t="s">
+        <v>47</v>
+      </c>
+      <c r="D514" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B515">
+        <v>10123500</v>
+      </c>
+      <c r="C515" t="s">
+        <v>46</v>
+      </c>
+      <c r="D515" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>10123499</v>
+      </c>
+      <c r="C516" t="s">
+        <v>45</v>
+      </c>
+      <c r="D516" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>10123498</v>
+      </c>
+      <c r="C517" t="s">
+        <v>44</v>
+      </c>
+      <c r="D517" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>10123497</v>
+      </c>
+      <c r="C518" t="s">
+        <v>43</v>
+      </c>
+      <c r="D518" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>10123496</v>
+      </c>
+      <c r="C519" t="s">
+        <v>42</v>
+      </c>
+      <c r="D519" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B520">
+        <v>10123495</v>
+      </c>
+      <c r="C520" t="s">
+        <v>41</v>
+      </c>
+      <c r="D520" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B521">
+        <v>10123494</v>
+      </c>
+      <c r="C521" t="s">
+        <v>39</v>
+      </c>
+      <c r="D521" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B522">
+        <v>10123493</v>
+      </c>
+      <c r="C522" t="s">
+        <v>38</v>
+      </c>
+      <c r="D522" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B523">
+        <v>10123492</v>
+      </c>
+      <c r="C523" t="s">
+        <v>37</v>
+      </c>
+      <c r="D523" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B524">
+        <v>10123491</v>
+      </c>
+      <c r="C524" t="s">
+        <v>36</v>
+      </c>
+      <c r="D524" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B525">
+        <v>10123490</v>
+      </c>
+      <c r="C525" t="s">
+        <v>35</v>
+      </c>
+      <c r="D525" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B526">
+        <v>10123489</v>
+      </c>
+      <c r="C526" t="s">
+        <v>34</v>
+      </c>
+      <c r="D526" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B527">
+        <v>10123488</v>
+      </c>
+      <c r="C527" t="s">
+        <v>33</v>
+      </c>
+      <c r="D527" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B528">
+        <v>10123487</v>
+      </c>
+      <c r="C528" t="s">
+        <v>32</v>
+      </c>
+      <c r="D528" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>10123486</v>
+      </c>
+      <c r="C529" t="s">
+        <v>31</v>
+      </c>
+      <c r="D529" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>10123485</v>
+      </c>
+      <c r="C530" t="s">
+        <v>30</v>
+      </c>
+      <c r="D530" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>10123484</v>
+      </c>
+      <c r="C531" t="s">
+        <v>29</v>
+      </c>
+      <c r="D531" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>10123483</v>
+      </c>
+      <c r="C532" t="s">
+        <v>28</v>
+      </c>
+      <c r="D532" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B533">
+        <v>10123482</v>
+      </c>
+      <c r="C533" t="s">
+        <v>27</v>
+      </c>
+      <c r="D533" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>10123481</v>
+      </c>
+      <c r="C534" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B535">
+        <v>10123480</v>
+      </c>
+      <c r="C535" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536">
+        <v>10123479</v>
+      </c>
+      <c r="C536" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>10123478</v>
+      </c>
+      <c r="C537" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538">
+        <v>10123477</v>
+      </c>
+      <c r="C538" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B539">
+        <v>10123476</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>10123475</v>
+      </c>
+      <c r="C540" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B541">
+        <v>10123474</v>
+      </c>
+      <c r="C541" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>10123473</v>
+      </c>
+      <c r="C542" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>10123472</v>
+      </c>
+      <c r="C543" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B544">
+        <v>10123471</v>
+      </c>
+      <c r="C544" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>10123470</v>
+      </c>
+      <c r="C545" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>10123469</v>
+      </c>
+      <c r="C546" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>10123468</v>
+      </c>
+      <c r="C547" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B548">
         <v>10123467</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C548" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B481">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B549">
         <v>10123466</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C549" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B482">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B550">
         <v>10123465</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C550" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B483">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B551">
         <v>10123464</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C551" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B484">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B552">
         <v>10123463</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C552" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B485">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B553">
         <v>10123462</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C553" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B486">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B554">
         <v>10123461</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C554" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B487">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B555">
         <v>10123460</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C555" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B488">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B556">
         <v>10123459</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C556" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B489">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B557">
         <v>10123458</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C557" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B490">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B558">
         <v>10123457</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C558" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B491">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B559">
         <v>10123456</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C559" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B492">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B560">
         <v>10123455</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B493">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B561">
         <v>10123454</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B494">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B562">
         <v>10123453</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B495">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B563">
         <v>10123452</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B496">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B564">
         <v>10123451</v>
       </c>
     </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B497">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B565">
         <v>10123450</v>
       </c>
     </row>

--- a/Patents.xlsx
+++ b/Patents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1930857F-D3FB-455B-9D2D-76EC56BBE0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465040F-576C-4524-A1B1-AF649CC9D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="1290" windowWidth="28200" windowHeight="18270" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
+    <workbookView xWindow="14775" yWindow="1755" windowWidth="28200" windowHeight="18270" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="665">
   <si>
     <t>Number</t>
   </si>
@@ -1734,12 +1734,309 @@
   </si>
   <si>
     <t>Multisymptom migraine combination medication</t>
+  </si>
+  <si>
+    <t>Use of Sigma-1 receptor agonist compounds</t>
+  </si>
+  <si>
+    <t>Combination of PI3K-inhibitors</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Use of inhibitors of acid sphingomyelinase to treat acquired and inherited retinal degenerations</t>
+  </si>
+  <si>
+    <t>WARF</t>
+  </si>
+  <si>
+    <t>Bromodomain inhibitors</t>
+  </si>
+  <si>
+    <t>Tensha</t>
+  </si>
+  <si>
+    <t>Cyclic amines</t>
+  </si>
+  <si>
+    <t>Mind Immune</t>
+  </si>
+  <si>
+    <t>Methods of treating erectile dysfunction</t>
+  </si>
+  <si>
+    <t>BioMimetix</t>
+  </si>
+  <si>
+    <t>Method for treatment of hyperglycemia and hyperlipidemia</t>
+  </si>
+  <si>
+    <t>Methods and compositions for treating psoriasis</t>
+  </si>
+  <si>
+    <t>Minocycline compounds and methods of use thereof</t>
+  </si>
+  <si>
+    <t>Surfactant composition</t>
+  </si>
+  <si>
+    <t>Immune system stimulating nutrition</t>
+  </si>
+  <si>
+    <t>Use of Ginsenoside M1 for preventing or treating gout</t>
+  </si>
+  <si>
+    <t>Compositions and their use for removing cholesterol</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>Comestible containing finely ground demulcent</t>
+  </si>
+  <si>
+    <t>Intravenous fluid</t>
+  </si>
+  <si>
+    <t>Compositions and methods for enhancing the effectiveness of systemic, HIPEC, IP, and related cancer treatments</t>
+  </si>
+  <si>
+    <t>Compositions and methods for immunotherapy</t>
+  </si>
+  <si>
+    <t>Ionizing irradiation sterilization of bacterial minicell-based biopharmaceuticals and methods of use</t>
+  </si>
+  <si>
+    <t>Compositions and methods comprising bacteria for improving behavior in neurodevelopmental disorders</t>
+  </si>
+  <si>
+    <t>Lactic bacteria and their use in the prevention of diarrhea</t>
+  </si>
+  <si>
+    <t>Therapeutic bacteriophage compositions</t>
+  </si>
+  <si>
+    <t>Oncolytic adenovirus encoding a B7 protein or active fragment</t>
+  </si>
+  <si>
+    <t>Oral compositions and route of administration for the delivery of a thylakoid extract</t>
+  </si>
+  <si>
+    <t>Skincare preparations</t>
+  </si>
+  <si>
+    <t>Composition for preventing Alzheimer's disease, containing purple bamboo salt, and method for preparing purple bamboo salt</t>
+  </si>
+  <si>
+    <t>Seven-star tea without excipient and method of preparing the same</t>
+  </si>
+  <si>
+    <t>Peptides and methods of use</t>
+  </si>
+  <si>
+    <t>Leukolectins and uses thereof</t>
+  </si>
+  <si>
+    <t>DISC-1 pathway activators in the control of neurogenesis</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>Liquid nutritional formula for tyrosinemia patients</t>
+  </si>
+  <si>
+    <t>Trefoil family factor proteins and uses thereof</t>
+  </si>
+  <si>
+    <t>Columbia</t>
+  </si>
+  <si>
+    <t>Modulators of syndecan-2 and uses thereof</t>
+  </si>
+  <si>
+    <t>FGF21 derivatives and uses thereof</t>
+  </si>
+  <si>
+    <t>Novo Nordisk</t>
+  </si>
+  <si>
+    <t>Method for preparing crystalline insulin or insulin analog compositions</t>
+  </si>
+  <si>
+    <t>Merck</t>
+  </si>
+  <si>
+    <t>Methods of delivering factor VIII encoding nucleic acid sequences</t>
+  </si>
+  <si>
+    <t>Methods and products for nucleic acid production and delivery</t>
+  </si>
+  <si>
+    <t>Mutant OPAA enzymes with increased catalytic efficiency on organophosphorus compound EA1356</t>
+  </si>
+  <si>
+    <t>Use of photolyase for reducing or improving subclinical field cancerization associated with actinic keratosis</t>
+  </si>
+  <si>
+    <t>Methods and compositions for sustained immunotherapy</t>
+  </si>
+  <si>
+    <t>HLA-DR-binding antigen peptide derived from WT1</t>
+  </si>
+  <si>
+    <t>Method of modifying the immune response</t>
+  </si>
+  <si>
+    <t>Adenovirus vectors</t>
+  </si>
+  <si>
+    <t>Acinetobacter baumannii antigens and the uses thereof</t>
+  </si>
+  <si>
+    <t>Immunogenic compositions comprising conjugated capsular saccharide antigens, kits comprising the same and uses thereof</t>
+  </si>
+  <si>
+    <t>Meningococcus serogroup X conjugate</t>
+  </si>
+  <si>
+    <t>DNA vaccine against virus of Yellow Fever</t>
+  </si>
+  <si>
+    <t>Vaccines and methods for creating a vaccine for inducing immunity to all dengue virus serotypes</t>
+  </si>
+  <si>
+    <t>Vaccine combination against multiple dengue virus serotypes and preparation and application thereof</t>
+  </si>
+  <si>
+    <t>Zika virus RNA vaccines</t>
+  </si>
+  <si>
+    <t>Alkylated influenza vaccines</t>
+  </si>
+  <si>
+    <t>Method of quickly producing antibodies against avian influenza and maintain antibody titer of duck</t>
+  </si>
+  <si>
+    <t>Recombinant modified vaccinia virus Ankara (MVA) Respiratory Syncytial Virus (RSV) vaccine</t>
+  </si>
+  <si>
+    <t>Dimeric scaffold peptides comprising HIV-1 GP120 and GP41 epitopes</t>
+  </si>
+  <si>
+    <t>Compositions and methods to treat aids</t>
+  </si>
+  <si>
+    <t>Anti-TIGIT antibodies, anti-PVRIG antibodies and combinations thereof</t>
+  </si>
+  <si>
+    <t>Methods of treating, inhibiting and/or preventing an auditory impairment</t>
+  </si>
+  <si>
+    <t>Stable compositions containing thrombin and methods for preparation and use thereof</t>
+  </si>
+  <si>
+    <t>Antimicrobial compositions of aminoglycosidic antibiotics and zinc ion chelators specifically formulated for enhanced inhibition of bacterial colonization and antibacterial efficacy</t>
+  </si>
+  <si>
+    <t>Compugen</t>
+  </si>
+  <si>
+    <t>Stabilized vancomycin formulations</t>
+  </si>
+  <si>
+    <t>Lipids and lipid compositions for the delivery of active agents</t>
+  </si>
+  <si>
+    <t>Insmed</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>CHG-compatible composition and method</t>
+  </si>
+  <si>
+    <t>Hemostatic microspheres</t>
+  </si>
+  <si>
+    <t>Peptidomimetic compounds and antibody-drug conjugates thereof</t>
+  </si>
+  <si>
+    <t>Genentech</t>
+  </si>
+  <si>
+    <t>Anti-HER2 antibody-maytansine conjugates and methods of use thereof</t>
+  </si>
+  <si>
+    <t>Redwood Bioscience</t>
+  </si>
+  <si>
+    <t>ST-246 liquid formulations and methods</t>
+  </si>
+  <si>
+    <t>Siga</t>
+  </si>
+  <si>
+    <t>In-vivo reactive species imaging</t>
+  </si>
+  <si>
+    <t>Caliper Life Sciences</t>
+  </si>
+  <si>
+    <t>Targeting peptides and methods of use</t>
+  </si>
+  <si>
+    <t>Case Western</t>
+  </si>
+  <si>
+    <t>Indirect chromoendoscopy with an oral indigo carmine base preparation</t>
+  </si>
+  <si>
+    <t>Bionanofluid for use as a contrast, imaging, disinfecting and/or therapeutic agent</t>
+  </si>
+  <si>
+    <t>Imaging agents and methods of use thereof</t>
+  </si>
+  <si>
+    <t>Plectin-1 targeted agents for detection and treatment of pancreatic ductal adenocarcinoma</t>
+  </si>
+  <si>
+    <t>General Hospital Corporation</t>
+  </si>
+  <si>
+    <t>Lipid-based nanoparticles</t>
+  </si>
+  <si>
+    <t>Imaging of metastatic or recurrent cancer</t>
+  </si>
+  <si>
+    <t>Hand disinfection device having a plasma and aerosol generator</t>
+  </si>
+  <si>
+    <t>Ultraviolet illuminator</t>
+  </si>
+  <si>
+    <t>Fragrance delivery device, system, and method</t>
+  </si>
+  <si>
+    <t>Sanitizer with an ion generator and ion electrode assembly</t>
+  </si>
+  <si>
+    <t>Ready to use biodegradable and biocompatible device and a method of preparation thereof</t>
+  </si>
+  <si>
+    <t>Antimicrobial and antiviral hygienic products</t>
+  </si>
+  <si>
+    <t>Composition, molded article, thread, medical kit and medical product with improved degradation profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1775,16 +2072,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{27070572-B95D-4507-9882-6E1856422DF4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2093,13 +2391,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B5D30-8254-4691-B3D5-BE87303558F1}">
-  <dimension ref="A2:G565"/>
+  <dimension ref="A2:G656"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2130,4821 +2428,5731 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <f t="shared" ref="B3:B6" si="0">+B4+1</f>
+      <c r="B3">
+        <f t="shared" ref="B3:B10" si="0">+B4+1</f>
+        <v>10124103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>10124102</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>10124101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>10124100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>10124099</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10124098</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10124097</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <f t="shared" ref="B10:B22" si="1">+B11+1</f>
+        <v>10124096</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>10124095</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>10124094</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>10124093</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>10124092</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>10124091</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>10124090</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>10124089</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>10124088</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>10124087</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>10124086</v>
+      </c>
+      <c r="C20" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>10124085</v>
+      </c>
+      <c r="C21" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" ref="B22:B34" si="2">+B23+1</f>
+        <v>10124084</v>
+      </c>
+      <c r="C22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>10124083</v>
+      </c>
+      <c r="C23" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>10124082</v>
+      </c>
+      <c r="C24" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>10124081</v>
+      </c>
+      <c r="C25" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>10124080</v>
+      </c>
+      <c r="C26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>10124079</v>
+      </c>
+      <c r="C27" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="2"/>
+        <v>10124078</v>
+      </c>
+      <c r="C28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="2"/>
+        <v>10124077</v>
+      </c>
+      <c r="C29" t="s">
+        <v>654</v>
+      </c>
+      <c r="D29" t="s">
+        <v>551</v>
+      </c>
+      <c r="E29" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>10124076</v>
+      </c>
+      <c r="C30" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>10124075</v>
+      </c>
+      <c r="C31" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>10124074</v>
+      </c>
+      <c r="C32" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>10124073</v>
+      </c>
+      <c r="C33" t="s">
+        <v>649</v>
+      </c>
+      <c r="D33" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <f t="shared" ref="B34:B41" si="3">+B35+1</f>
+        <v>10124072</v>
+      </c>
+      <c r="C34" t="s">
+        <v>647</v>
+      </c>
+      <c r="D34" t="s">
+        <v>551</v>
+      </c>
+      <c r="E34" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>10124071</v>
+      </c>
+      <c r="C35" t="s">
+        <v>645</v>
+      </c>
+      <c r="D35" t="s">
+        <v>551</v>
+      </c>
+      <c r="E35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>10124070</v>
+      </c>
+      <c r="C36" t="s">
+        <v>643</v>
+      </c>
+      <c r="D36" t="s">
+        <v>551</v>
+      </c>
+      <c r="E36" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>10124069</v>
+      </c>
+      <c r="C37" t="s">
+        <v>641</v>
+      </c>
+      <c r="D37" t="s">
+        <v>551</v>
+      </c>
+      <c r="E37" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>10124068</v>
+      </c>
+      <c r="C38" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>10124067</v>
+      </c>
+      <c r="C39" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>10124066</v>
+      </c>
+      <c r="C40" t="s">
+        <v>635</v>
+      </c>
+      <c r="D40" t="s">
+        <v>551</v>
+      </c>
+      <c r="E40" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f t="shared" ref="B41:B51" si="4">+B42+1</f>
+        <v>10124065</v>
+      </c>
+      <c r="C41" t="s">
+        <v>636</v>
+      </c>
+      <c r="D41" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>10124064</v>
+      </c>
+      <c r="C42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>10124063</v>
+      </c>
+      <c r="C43" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>10124062</v>
+      </c>
+      <c r="C44" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>10124061</v>
+      </c>
+      <c r="C45" t="s">
+        <v>630</v>
+      </c>
+      <c r="D45" t="s">
+        <v>551</v>
+      </c>
+      <c r="E45" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>10124060</v>
+      </c>
+      <c r="C46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>10124059</v>
+      </c>
+      <c r="C47" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <f t="shared" si="4"/>
+        <v>10124058</v>
+      </c>
+      <c r="C48" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <f t="shared" si="4"/>
+        <v>10124057</v>
+      </c>
+      <c r="C49" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <f t="shared" si="4"/>
+        <v>10124056</v>
+      </c>
+      <c r="C50" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <f t="shared" si="4"/>
+        <v>10124055</v>
+      </c>
+      <c r="C51" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f t="shared" ref="B52:B58" si="5">+B53+1</f>
+        <v>10124054</v>
+      </c>
+      <c r="C52" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <f t="shared" si="5"/>
+        <v>10124053</v>
+      </c>
+      <c r="C53" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <f t="shared" si="5"/>
+        <v>10124052</v>
+      </c>
+      <c r="C54" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <f t="shared" si="5"/>
+        <v>10124051</v>
+      </c>
+      <c r="C55" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <f t="shared" si="5"/>
+        <v>10124050</v>
+      </c>
+      <c r="C56" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <f t="shared" si="5"/>
+        <v>10124049</v>
+      </c>
+      <c r="C57" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <f t="shared" si="5"/>
+        <v>10124048</v>
+      </c>
+      <c r="C58" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <f t="shared" ref="B59:B71" si="6">+B60+1</f>
+        <v>10124047</v>
+      </c>
+      <c r="C59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>10124046</v>
+      </c>
+      <c r="C60" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <f t="shared" si="6"/>
+        <v>10124045</v>
+      </c>
+      <c r="C61" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <f t="shared" si="6"/>
+        <v>10124044</v>
+      </c>
+      <c r="C62" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <f t="shared" si="6"/>
+        <v>10124043</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <f t="shared" si="6"/>
+        <v>10124042</v>
+      </c>
+      <c r="C64" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <f t="shared" si="6"/>
+        <v>10124041</v>
+      </c>
+      <c r="C65" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <f t="shared" si="6"/>
+        <v>10124040</v>
+      </c>
+      <c r="C66" t="s">
+        <v>608</v>
+      </c>
+      <c r="D66" t="s">
+        <v>551</v>
+      </c>
+      <c r="E66" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <f t="shared" si="6"/>
+        <v>10124039</v>
+      </c>
+      <c r="C67" t="s">
+        <v>606</v>
+      </c>
+      <c r="D67" t="s">
+        <v>551</v>
+      </c>
+      <c r="E67" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <f t="shared" si="6"/>
+        <v>10124038</v>
+      </c>
+      <c r="C68" t="s">
+        <v>605</v>
+      </c>
+      <c r="D68" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <f t="shared" si="6"/>
+        <v>10124037</v>
+      </c>
+      <c r="C69" t="s">
+        <v>603</v>
+      </c>
+      <c r="D69" t="s">
+        <v>551</v>
+      </c>
+      <c r="E69" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <f t="shared" si="6"/>
+        <v>10124036</v>
+      </c>
+      <c r="C70" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <f t="shared" si="6"/>
+        <v>10124035</v>
+      </c>
+      <c r="C71" t="s">
+        <v>600</v>
+      </c>
+      <c r="D71" t="s">
+        <v>551</v>
+      </c>
+      <c r="E71" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <f t="shared" ref="B72:B81" si="7">+B73+1</f>
+        <v>10124034</v>
+      </c>
+      <c r="C72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>10124033</v>
+      </c>
+      <c r="C73" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>10124032</v>
+      </c>
+      <c r="C74" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>10124031</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>10124030</v>
+      </c>
+      <c r="C76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>10124029</v>
+      </c>
+      <c r="C77" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>10124028</v>
+      </c>
+      <c r="C78" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>10124027</v>
+      </c>
+      <c r="C79" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>10124026</v>
+      </c>
+      <c r="C80" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>10124025</v>
+      </c>
+      <c r="C81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <f t="shared" ref="B82:B85" si="8">+B83+1</f>
+        <v>10124024</v>
+      </c>
+      <c r="C82" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <f t="shared" si="8"/>
+        <v>10124023</v>
+      </c>
+      <c r="C83" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <f t="shared" si="8"/>
+        <v>10124022</v>
+      </c>
+      <c r="C84" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <f t="shared" si="8"/>
+        <v>10124021</v>
+      </c>
+      <c r="C85" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <f t="shared" ref="B86:B90" si="9">+B87+1</f>
+        <v>10124020</v>
+      </c>
+      <c r="C86" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <f t="shared" si="9"/>
+        <v>10124019</v>
+      </c>
+      <c r="C87" t="s">
+        <v>583</v>
+      </c>
+      <c r="E87" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <f t="shared" si="9"/>
+        <v>10124018</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <f t="shared" si="9"/>
+        <v>10124017</v>
+      </c>
+      <c r="C89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <f t="shared" si="9"/>
+        <v>10124016</v>
+      </c>
+      <c r="C90" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <f t="shared" ref="B91:B93" si="10">+B92+1</f>
+        <v>10124015</v>
+      </c>
+      <c r="C91" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>10124014</v>
+      </c>
+      <c r="C92" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <f t="shared" si="10"/>
+        <v>10124013</v>
+      </c>
+      <c r="C93" t="s">
+        <v>578</v>
+      </c>
+      <c r="D93" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <f t="shared" ref="B94:B96" si="11">+B95+1</f>
         <v>10124012</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
+      <c r="C94" t="s">
+        <v>577</v>
+      </c>
+      <c r="D94" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <f t="shared" si="11"/>
         <v>10124011</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
+      <c r="C95" t="s">
+        <v>575</v>
+      </c>
+      <c r="D95" t="s">
+        <v>551</v>
+      </c>
+      <c r="E95" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <f t="shared" si="11"/>
         <v>10124010</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <f t="shared" ref="B6:B12" si="1">+B7+1</f>
+      <c r="C96" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96" t="s">
+        <v>551</v>
+      </c>
+      <c r="E96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <f t="shared" ref="B97:B102" si="12">+B98+1</f>
         <v>10124009</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <f t="shared" si="1"/>
+      <c r="C97" t="s">
+        <v>571</v>
+      </c>
+      <c r="D97" t="s">
+        <v>551</v>
+      </c>
+      <c r="E97" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <f t="shared" si="12"/>
         <v>10124008</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <f t="shared" si="1"/>
+      <c r="C98" t="s">
+        <v>569</v>
+      </c>
+      <c r="D98" t="s">
+        <v>551</v>
+      </c>
+      <c r="E98" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <f t="shared" si="12"/>
         <v>10124007</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <f t="shared" si="1"/>
+      <c r="C99" t="s">
+        <v>567</v>
+      </c>
+      <c r="D99" t="s">
+        <v>551</v>
+      </c>
+      <c r="E99" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <f t="shared" si="12"/>
         <v>10124006</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <f t="shared" si="1"/>
+      <c r="C100" t="s">
+        <v>566</v>
+      </c>
+      <c r="D100" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <f t="shared" si="12"/>
         <v>10124005</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C101" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <f t="shared" si="1"/>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <f t="shared" si="12"/>
         <v>10124004</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C102" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <f t="shared" ref="B12:B19" si="2">+B13+1</f>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <f t="shared" ref="B103:B109" si="13">+B104+1</f>
         <v>10124003</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C103" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f t="shared" si="2"/>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <f t="shared" si="13"/>
         <v>10124002</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C104" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <f t="shared" si="2"/>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <f t="shared" si="13"/>
         <v>10124001</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C105" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <f t="shared" si="2"/>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <f t="shared" si="13"/>
         <v>10124000</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C106" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <f t="shared" si="2"/>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <f t="shared" si="13"/>
         <v>10123999</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C107" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <f t="shared" si="2"/>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f t="shared" si="13"/>
         <v>10123998</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C108" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <f t="shared" si="2"/>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <f t="shared" si="13"/>
         <v>10123997</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C109" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <f t="shared" ref="B19:B24" si="3">+B20+1</f>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <f t="shared" ref="B110:B114" si="14">+B111+1</f>
         <v>10123996</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C110" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <f t="shared" si="3"/>
+    <row r="111" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="1">
+        <f t="shared" si="14"/>
         <v>10123995</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F111" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <f t="shared" si="3"/>
+    <row r="112" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="1">
+        <f t="shared" si="14"/>
         <v>10123994</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F112" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <f t="shared" si="3"/>
+    <row r="113" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="1">
+        <f t="shared" si="14"/>
         <v>10123993</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F113" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f t="shared" si="3"/>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <f t="shared" si="14"/>
         <v>10123992</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C114" t="s">
         <v>547</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E114" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f t="shared" ref="B24:B29" si="4">+B25+1</f>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <f t="shared" ref="B115:B119" si="15">+B116+1</f>
         <v>10123991</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C115" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <f t="shared" si="4"/>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <f t="shared" si="15"/>
         <v>10123990</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C116" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <f t="shared" si="4"/>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <f t="shared" si="15"/>
         <v>10123989</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C117" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f t="shared" si="4"/>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <f t="shared" si="15"/>
         <v>10123988</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C118" t="s">
         <v>542</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E118" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f t="shared" si="4"/>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <f t="shared" si="15"/>
         <v>10123987</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C119" t="s">
         <v>540</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E119" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f t="shared" ref="B29:B32" si="5">+B30+1</f>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <f t="shared" ref="B120:B122" si="16">+B121+1</f>
         <v>10123986</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C120" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f t="shared" si="5"/>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <f t="shared" si="16"/>
         <v>10123985</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C121" t="s">
         <v>537</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E121" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f t="shared" si="5"/>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <f t="shared" si="16"/>
         <v>10123984</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C122" t="s">
         <v>534</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E122" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <f t="shared" ref="B32:B39" si="6">+B33+1</f>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <f t="shared" ref="B123:B129" si="17">+B124+1</f>
         <v>10123983</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C123" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
-        <f t="shared" si="6"/>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="1">
+        <f t="shared" si="17"/>
         <v>10123982</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <f t="shared" si="6"/>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <f t="shared" si="17"/>
         <v>10123981</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C125" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <f t="shared" si="6"/>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <f t="shared" si="17"/>
         <v>10123980</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C126" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <f t="shared" si="6"/>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <f t="shared" si="17"/>
         <v>10123979</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C127" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f t="shared" si="6"/>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <f t="shared" si="17"/>
         <v>10123978</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C128" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <f t="shared" si="6"/>
-        <v>10123977</v>
-      </c>
-      <c r="C38" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <f t="shared" ref="B39:B44" si="7">+B40+1</f>
-        <v>10123976</v>
-      </c>
-      <c r="C39" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <f t="shared" si="7"/>
-        <v>10123975</v>
-      </c>
-      <c r="C40" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <f t="shared" si="7"/>
-        <v>10123974</v>
-      </c>
-      <c r="C41" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <f t="shared" si="7"/>
-        <v>10123973</v>
-      </c>
-      <c r="C42" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <f t="shared" si="7"/>
-        <v>10123972</v>
-      </c>
-      <c r="C43" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <f t="shared" ref="B44:B48" si="8">+B45+1</f>
-        <v>10123971</v>
-      </c>
-      <c r="C44" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
-        <f t="shared" si="8"/>
-        <v>10123970</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f t="shared" si="8"/>
-        <v>10123969</v>
-      </c>
-      <c r="C46" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <f t="shared" si="8"/>
-        <v>10123968</v>
-      </c>
-      <c r="C47" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <f t="shared" ref="B48:B54" si="9">+B49+1</f>
-        <v>10123967</v>
-      </c>
-      <c r="C48" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <f t="shared" si="9"/>
-        <v>10123966</v>
-      </c>
-      <c r="C49" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <f t="shared" si="9"/>
-        <v>10123965</v>
-      </c>
-      <c r="C50" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <f t="shared" si="9"/>
-        <v>10123964</v>
-      </c>
-      <c r="C51" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <f t="shared" si="9"/>
-        <v>10123963</v>
-      </c>
-      <c r="C52" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <f t="shared" si="9"/>
-        <v>10123962</v>
-      </c>
-      <c r="C53" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <f t="shared" ref="B54:B57" si="10">+B55+1</f>
-        <v>10123961</v>
-      </c>
-      <c r="C54" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <f t="shared" si="10"/>
-        <v>10123960</v>
-      </c>
-      <c r="C55" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <f t="shared" si="10"/>
-        <v>10123959</v>
-      </c>
-      <c r="C56" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <f t="shared" ref="B57:B60" si="11">+B58+1</f>
-        <v>10123958</v>
-      </c>
-      <c r="C57" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <f t="shared" si="11"/>
-        <v>10123957</v>
-      </c>
-      <c r="C58" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <f t="shared" si="11"/>
-        <v>10123956</v>
-      </c>
-      <c r="C59" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <f t="shared" ref="B60:B68" si="12">+B61+1</f>
-        <v>10123955</v>
-      </c>
-      <c r="C60" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <f t="shared" si="12"/>
-        <v>10123954</v>
-      </c>
-      <c r="C61" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <f t="shared" si="12"/>
-        <v>10123953</v>
-      </c>
-      <c r="C62" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <f t="shared" si="12"/>
-        <v>10123952</v>
-      </c>
-      <c r="C63" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <f t="shared" si="12"/>
-        <v>10123951</v>
-      </c>
-      <c r="C64" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <f t="shared" si="12"/>
-        <v>10123950</v>
-      </c>
-      <c r="C65" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <f t="shared" si="12"/>
-        <v>10123949</v>
-      </c>
-      <c r="C66" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <f t="shared" si="12"/>
-        <v>10123948</v>
-      </c>
-      <c r="C67" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <f t="shared" ref="B68:B70" si="13">+B69+1</f>
-        <v>10123947</v>
-      </c>
-      <c r="C68" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <f t="shared" si="13"/>
-        <v>10123946</v>
-      </c>
-      <c r="C69" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <f>+B71+1</f>
-        <v>10123945</v>
-      </c>
-      <c r="C70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <v>10123944</v>
-      </c>
-      <c r="C71" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <v>10123943</v>
-      </c>
-      <c r="C72" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <v>10123942</v>
-      </c>
-      <c r="C73" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <v>10123941</v>
-      </c>
-      <c r="C74" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <v>10123940</v>
-      </c>
-      <c r="C75" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76">
-        <v>10123939</v>
-      </c>
-      <c r="C76" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <v>10123938</v>
-      </c>
-      <c r="C77" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78">
-        <v>10123937</v>
-      </c>
-      <c r="C78" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79">
-        <v>10123936</v>
-      </c>
-      <c r="C79" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80">
-        <v>10123935</v>
-      </c>
-      <c r="C80" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B81">
-        <v>10123934</v>
-      </c>
-      <c r="C81" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>10123933</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B83">
-        <v>10123932</v>
-      </c>
-      <c r="C83" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B84">
-        <v>10123931</v>
-      </c>
-      <c r="C84" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B85">
-        <v>10123930</v>
-      </c>
-      <c r="C85" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B86">
-        <v>10123929</v>
-      </c>
-      <c r="C86" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <v>10123928</v>
-      </c>
-      <c r="C87" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B88">
-        <v>10123927</v>
-      </c>
-      <c r="C88" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B89">
-        <v>10123926</v>
-      </c>
-      <c r="C89" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B90">
-        <v>10123925</v>
-      </c>
-      <c r="C90" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <v>10123924</v>
-      </c>
-      <c r="C91" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B92">
-        <v>10123923</v>
-      </c>
-      <c r="C92" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B93">
-        <v>10123922</v>
-      </c>
-      <c r="C93" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B94">
-        <f t="shared" ref="B94:B97" si="14">+B95+1</f>
-        <v>10123921</v>
-      </c>
-      <c r="C94" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B95">
-        <f t="shared" si="14"/>
-        <v>10123920</v>
-      </c>
-      <c r="C95" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <f t="shared" si="14"/>
-        <v>10123919</v>
-      </c>
-      <c r="C96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <f t="shared" si="14"/>
-        <v>10123918</v>
-      </c>
-      <c r="C97" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98">
-        <f t="shared" ref="B98:B101" si="15">+B99+1</f>
-        <v>10123917</v>
-      </c>
-      <c r="C98" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <f t="shared" si="15"/>
-        <v>10123916</v>
-      </c>
-      <c r="C99" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100">
-        <f t="shared" si="15"/>
-        <v>10123915</v>
-      </c>
-      <c r="C100" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101">
-        <f t="shared" si="15"/>
-        <v>10123914</v>
-      </c>
-      <c r="C101" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102">
-        <f t="shared" ref="B102:B105" si="16">+B103+1</f>
-        <v>10123913</v>
-      </c>
-      <c r="C102" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103">
-        <f t="shared" si="16"/>
-        <v>10123912</v>
-      </c>
-      <c r="C103" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104">
-        <f t="shared" si="16"/>
-        <v>10123911</v>
-      </c>
-      <c r="C104" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105">
-        <f t="shared" si="16"/>
-        <v>10123910</v>
-      </c>
-      <c r="C105" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106">
-        <f t="shared" ref="B106:B108" si="17">+B107+1</f>
-        <v>10123909</v>
-      </c>
-      <c r="C106" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107">
-        <f t="shared" si="17"/>
-        <v>10123908</v>
-      </c>
-      <c r="C107" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <f t="shared" si="17"/>
-        <v>10123907</v>
-      </c>
-      <c r="C108" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <f>+B110+1</f>
-        <v>10123906</v>
-      </c>
-      <c r="C109" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <v>10123905</v>
-      </c>
-      <c r="C110" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111">
-        <v>10123904</v>
-      </c>
-      <c r="C111" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112">
-        <v>10123903</v>
-      </c>
-      <c r="C112" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113">
-        <v>10123902</v>
-      </c>
-      <c r="C113" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114">
-        <v>10123901</v>
-      </c>
-      <c r="C114" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115">
-        <v>10123900</v>
-      </c>
-      <c r="C115" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116">
-        <v>10123899</v>
-      </c>
-      <c r="C116" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117">
-        <v>10123898</v>
-      </c>
-      <c r="C117" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118">
-        <v>10123897</v>
-      </c>
-      <c r="C118" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119">
-        <v>10123896</v>
-      </c>
-      <c r="C119" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <v>10123895</v>
-      </c>
-      <c r="C120" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121">
-        <v>10123894</v>
-      </c>
-      <c r="C121" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122">
-        <v>10123893</v>
-      </c>
-      <c r="C122" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123">
-        <v>10123892</v>
-      </c>
-      <c r="C123" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124">
-        <v>10123891</v>
-      </c>
-      <c r="C124" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <v>10123890</v>
-      </c>
-      <c r="C125" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126">
-        <v>10123889</v>
-      </c>
-      <c r="C126" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B127">
-        <v>10123888</v>
-      </c>
-      <c r="C127" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <v>10123887</v>
-      </c>
-      <c r="C128" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129">
-        <v>10123886</v>
+        <f t="shared" si="17"/>
+        <v>10123977</v>
       </c>
       <c r="C129" t="s">
-        <v>437</v>
+        <v>527</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130">
-        <v>10123885</v>
+        <f t="shared" ref="B130:B134" si="18">+B131+1</f>
+        <v>10123976</v>
       </c>
       <c r="C130" t="s">
-        <v>436</v>
+        <v>526</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131">
-        <v>10123884</v>
+        <f t="shared" si="18"/>
+        <v>10123975</v>
       </c>
       <c r="C131" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132">
-        <v>10123883</v>
+        <f t="shared" si="18"/>
+        <v>10123974</v>
       </c>
       <c r="C132" t="s">
-        <v>435</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133">
-        <v>10123882</v>
+        <f t="shared" si="18"/>
+        <v>10123973</v>
       </c>
       <c r="C133" t="s">
-        <v>434</v>
+        <v>523</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134">
-        <v>10123881</v>
+        <f t="shared" si="18"/>
+        <v>10123972</v>
       </c>
       <c r="C134" t="s">
-        <v>433</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135">
-        <v>10123880</v>
+        <f t="shared" ref="B135:B138" si="19">+B136+1</f>
+        <v>10123971</v>
       </c>
       <c r="C135" t="s">
-        <v>432</v>
+        <v>521</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136">
-        <v>10123879</v>
-      </c>
-      <c r="C136" t="s">
-        <v>431</v>
+      <c r="B136" s="1">
+        <f t="shared" si="19"/>
+        <v>10123970</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137">
-        <v>10123878</v>
+        <f t="shared" si="19"/>
+        <v>10123969</v>
       </c>
       <c r="C137" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138">
-        <v>10123877</v>
+        <f t="shared" si="19"/>
+        <v>10123968</v>
       </c>
       <c r="C138" t="s">
-        <v>429</v>
+        <v>518</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139">
-        <v>10123876</v>
+        <f t="shared" ref="B139:B144" si="20">+B140+1</f>
+        <v>10123967</v>
       </c>
       <c r="C139" t="s">
-        <v>428</v>
+        <v>517</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140">
-        <v>10123875</v>
+        <f t="shared" si="20"/>
+        <v>10123966</v>
       </c>
       <c r="C140" t="s">
-        <v>427</v>
+        <v>516</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141">
-        <v>10123874</v>
+        <f t="shared" si="20"/>
+        <v>10123965</v>
       </c>
       <c r="C141" t="s">
-        <v>426</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142">
-        <v>10123873</v>
+        <f t="shared" si="20"/>
+        <v>10123964</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>514</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
-        <v>10123872</v>
+        <f t="shared" si="20"/>
+        <v>10123963</v>
       </c>
       <c r="C143" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144">
-        <v>10123871</v>
+        <f t="shared" si="20"/>
+        <v>10123962</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145">
-        <v>10123870</v>
+        <f t="shared" ref="B145:B147" si="21">+B146+1</f>
+        <v>10123961</v>
       </c>
       <c r="C145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146">
-        <v>10123869</v>
+        <f t="shared" si="21"/>
+        <v>10123960</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147">
-        <v>10123868</v>
+        <f t="shared" si="21"/>
+        <v>10123959</v>
       </c>
       <c r="C147" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148">
-        <v>10123867</v>
+        <f t="shared" ref="B148:B150" si="22">+B149+1</f>
+        <v>10123958</v>
       </c>
       <c r="C148" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149">
-        <v>10123866</v>
+        <f t="shared" si="22"/>
+        <v>10123957</v>
       </c>
       <c r="C149" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150">
-        <v>10123865</v>
+        <f t="shared" si="22"/>
+        <v>10123956</v>
       </c>
       <c r="C150" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151">
-        <v>10123864</v>
+        <f t="shared" ref="B151:B158" si="23">+B152+1</f>
+        <v>10123955</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152">
-        <v>10123863</v>
+        <f t="shared" si="23"/>
+        <v>10123954</v>
       </c>
       <c r="C152" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153">
-        <v>10123862</v>
+        <f t="shared" si="23"/>
+        <v>10123953</v>
       </c>
       <c r="C153" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154">
-        <v>10123861</v>
+        <f t="shared" si="23"/>
+        <v>10123952</v>
       </c>
       <c r="C154" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155">
-        <v>10123860</v>
+        <f t="shared" si="23"/>
+        <v>10123951</v>
       </c>
       <c r="C155" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156">
-        <v>10123859</v>
+        <f t="shared" si="23"/>
+        <v>10123950</v>
       </c>
       <c r="C156" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157">
-        <v>10123858</v>
+        <f t="shared" si="23"/>
+        <v>10123949</v>
       </c>
       <c r="C157" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158">
-        <v>10123857</v>
+        <f t="shared" si="23"/>
+        <v>10123948</v>
       </c>
       <c r="C158" t="s">
-        <v>408</v>
-      </c>
-      <c r="D158" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159">
-        <v>10123856</v>
+        <f t="shared" ref="B159:B160" si="24">+B160+1</f>
+        <v>10123947</v>
       </c>
       <c r="C159" t="s">
-        <v>407</v>
-      </c>
-      <c r="D159" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160">
-        <v>10123855</v>
+        <f t="shared" si="24"/>
+        <v>10123946</v>
       </c>
       <c r="C160" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B161">
-        <v>10123854</v>
+        <f>+B162+1</f>
+        <v>10123945</v>
       </c>
       <c r="C161" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B162">
-        <v>10123853</v>
+        <v>10123944</v>
       </c>
       <c r="C162" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B163">
-        <v>10123852</v>
+        <v>10123943</v>
       </c>
       <c r="C163" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B164">
-        <v>10123851</v>
+        <v>10123942</v>
       </c>
       <c r="C164" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B165">
-        <v>10123850</v>
+        <v>10123941</v>
       </c>
       <c r="C165" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B166">
-        <v>10123849</v>
+        <v>10123940</v>
       </c>
       <c r="C166" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B167">
-        <v>10123848</v>
+        <v>10123939</v>
       </c>
       <c r="C167" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B168">
-        <v>10123847</v>
+        <v>10123938</v>
       </c>
       <c r="C168" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B169">
-        <v>10123846</v>
+        <v>10123937</v>
       </c>
       <c r="C169" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B170">
-        <v>10123845</v>
+        <v>10123936</v>
       </c>
       <c r="C170" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B171">
-        <v>10123844</v>
+        <v>10123935</v>
       </c>
       <c r="C171" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B172">
-        <v>10123843</v>
+        <v>10123934</v>
       </c>
       <c r="C172" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B173">
-        <f t="shared" ref="B173:B175" si="18">+B174+1</f>
-        <v>10123842</v>
-      </c>
-      <c r="C173" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1">
+        <v>10123933</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B174">
-        <f t="shared" si="18"/>
-        <v>10123841</v>
+        <v>10123932</v>
       </c>
       <c r="C174" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B175">
-        <f t="shared" si="18"/>
-        <v>10123840</v>
+        <v>10123931</v>
       </c>
       <c r="C175" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B176">
-        <f t="shared" ref="B176:B186" si="19">+B177+1</f>
-        <v>10123839</v>
+        <v>10123930</v>
       </c>
       <c r="C176" t="s">
-        <v>390</v>
+        <v>480</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177">
-        <f t="shared" si="19"/>
-        <v>10123838</v>
+        <v>10123929</v>
       </c>
       <c r="C177" t="s">
-        <v>389</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178">
-        <f t="shared" si="19"/>
-        <v>10123837</v>
+        <v>10123928</v>
       </c>
       <c r="C178" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179">
-        <f t="shared" si="19"/>
-        <v>10123836</v>
+        <v>10123927</v>
       </c>
       <c r="C179" t="s">
-        <v>387</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180">
-        <f t="shared" si="19"/>
-        <v>10123835</v>
+        <v>10123926</v>
       </c>
       <c r="C180" t="s">
-        <v>386</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181">
-        <f t="shared" si="19"/>
-        <v>10123834</v>
+        <v>10123925</v>
       </c>
       <c r="C181" t="s">
-        <v>385</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182">
-        <f t="shared" si="19"/>
-        <v>10123833</v>
+        <v>10123924</v>
       </c>
       <c r="C182" t="s">
-        <v>384</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183">
-        <f t="shared" si="19"/>
-        <v>10123832</v>
+        <v>10123923</v>
       </c>
       <c r="C183" t="s">
-        <v>383</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184">
-        <f t="shared" si="19"/>
-        <v>10123831</v>
+        <v>10123922</v>
       </c>
       <c r="C184" t="s">
-        <v>382</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185">
-        <f t="shared" si="19"/>
-        <v>10123830</v>
+        <f t="shared" ref="B185:B188" si="25">+B186+1</f>
+        <v>10123921</v>
       </c>
       <c r="C185" t="s">
-        <v>381</v>
+        <v>471</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186">
-        <f t="shared" si="19"/>
-        <v>10123829</v>
+        <f t="shared" si="25"/>
+        <v>10123920</v>
       </c>
       <c r="C186" t="s">
-        <v>378</v>
+        <v>470</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187">
-        <f t="shared" ref="B187:B197" si="20">+B188+1</f>
-        <v>10123828</v>
+        <f t="shared" si="25"/>
+        <v>10123919</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
+        <v>469</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188">
-        <f t="shared" si="20"/>
-        <v>10123827</v>
+        <f t="shared" si="25"/>
+        <v>10123918</v>
       </c>
       <c r="C188" t="s">
-        <v>376</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189">
-        <f t="shared" si="20"/>
-        <v>10123826</v>
+        <f t="shared" ref="B189:B192" si="26">+B190+1</f>
+        <v>10123917</v>
       </c>
       <c r="C189" t="s">
-        <v>375</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190">
-        <f t="shared" si="20"/>
-        <v>10123825</v>
+        <f t="shared" si="26"/>
+        <v>10123916</v>
       </c>
       <c r="C190" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191">
-        <f t="shared" si="20"/>
-        <v>10123824</v>
+        <f t="shared" si="26"/>
+        <v>10123915</v>
       </c>
       <c r="C191" t="s">
-        <v>373</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192">
-        <f t="shared" si="20"/>
-        <v>10123823</v>
+        <f t="shared" si="26"/>
+        <v>10123914</v>
       </c>
       <c r="C192" t="s">
-        <v>372</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193">
-        <f t="shared" si="20"/>
-        <v>10123822</v>
+        <f t="shared" ref="B193:B196" si="27">+B194+1</f>
+        <v>10123913</v>
       </c>
       <c r="C193" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194">
-        <f t="shared" si="20"/>
-        <v>10123821</v>
+        <f t="shared" si="27"/>
+        <v>10123912</v>
       </c>
       <c r="C194" t="s">
-        <v>370</v>
+        <v>462</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195">
-        <f t="shared" si="20"/>
-        <v>10123820</v>
+        <f t="shared" si="27"/>
+        <v>10123911</v>
       </c>
       <c r="C195" t="s">
-        <v>369</v>
+        <v>461</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196">
-        <f t="shared" si="20"/>
-        <v>10123819</v>
+        <f t="shared" si="27"/>
+        <v>10123910</v>
       </c>
       <c r="C196" t="s">
-        <v>368</v>
+        <v>461</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197">
-        <f t="shared" si="20"/>
-        <v>10123818</v>
+        <f t="shared" ref="B197:B199" si="28">+B198+1</f>
+        <v>10123909</v>
       </c>
       <c r="C197" t="s">
-        <v>367</v>
+        <v>460</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198">
-        <f t="shared" ref="B198:B209" si="21">+B199+1</f>
-        <v>10123817</v>
+        <f t="shared" si="28"/>
+        <v>10123908</v>
       </c>
       <c r="C198" t="s">
-        <v>366</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199">
-        <f t="shared" si="21"/>
-        <v>10123816</v>
+        <f t="shared" si="28"/>
+        <v>10123907</v>
       </c>
       <c r="C199" t="s">
-        <v>365</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200">
-        <f t="shared" si="21"/>
-        <v>10123815</v>
+        <f>+B201+1</f>
+        <v>10123906</v>
       </c>
       <c r="C200" t="s">
-        <v>364</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201">
-        <f t="shared" si="21"/>
-        <v>10123814</v>
+        <v>10123905</v>
       </c>
       <c r="C201" t="s">
-        <v>363</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202">
-        <f t="shared" si="21"/>
-        <v>10123813</v>
+        <v>10123904</v>
       </c>
       <c r="C202" t="s">
-        <v>362</v>
+        <v>455</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203">
-        <f t="shared" si="21"/>
-        <v>10123812</v>
+        <v>10123903</v>
       </c>
       <c r="C203" t="s">
-        <v>361</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204">
-        <f t="shared" si="21"/>
-        <v>10123811</v>
+        <v>10123902</v>
       </c>
       <c r="C204" t="s">
-        <v>360</v>
+        <v>453</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205">
-        <f t="shared" si="21"/>
-        <v>10123810</v>
+        <v>10123901</v>
       </c>
       <c r="C205" t="s">
-        <v>359</v>
+        <v>452</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206">
-        <f t="shared" si="21"/>
-        <v>10123809</v>
+        <v>10123900</v>
       </c>
       <c r="C206" t="s">
-        <v>358</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207">
-        <f t="shared" si="21"/>
-        <v>10123808</v>
+        <v>10123899</v>
       </c>
       <c r="C207" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208">
-        <f t="shared" si="21"/>
-        <v>10123807</v>
+        <v>10123898</v>
       </c>
       <c r="C208" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209">
-        <f t="shared" si="21"/>
-        <v>10123806</v>
+        <v>10123897</v>
       </c>
       <c r="C209" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210">
-        <f>+B211+1</f>
-        <v>10123805</v>
+        <v>10123896</v>
       </c>
       <c r="C210" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211">
-        <v>10123804</v>
+        <v>10123895</v>
       </c>
       <c r="C211" t="s">
-        <v>353</v>
+        <v>446</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212" s="1">
-        <v>10123803</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>352</v>
+      <c r="B212">
+        <v>10123894</v>
+      </c>
+      <c r="C212" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" s="1">
-        <v>10123802</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>351</v>
+      <c r="B213">
+        <v>10123893</v>
+      </c>
+      <c r="C213" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="1">
-        <v>10123801</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>350</v>
+      <c r="B214">
+        <v>10123892</v>
+      </c>
+      <c r="C214" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="1">
-        <v>10123800</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>349</v>
+      <c r="B215">
+        <v>10123891</v>
+      </c>
+      <c r="C215" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" s="1">
-        <v>10123799</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>348</v>
+      <c r="B216">
+        <v>10123890</v>
+      </c>
+      <c r="C216" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217" s="1">
-        <v>10123798</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>347</v>
+      <c r="B217">
+        <v>10123889</v>
+      </c>
+      <c r="C217" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218" s="1">
-        <v>10123797</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>346</v>
+      <c r="B218">
+        <v>10123888</v>
+      </c>
+      <c r="C218" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="1">
-        <v>10123796</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>345</v>
+      <c r="B219">
+        <v>10123887</v>
+      </c>
+      <c r="C219" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220" s="1">
-        <v>10123795</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>344</v>
+      <c r="B220">
+        <v>10123886</v>
+      </c>
+      <c r="C220" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" s="1">
-        <v>10123794</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>343</v>
+      <c r="B221">
+        <v>10123885</v>
+      </c>
+      <c r="C221" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222">
-        <v>10123793</v>
+        <v>10123884</v>
       </c>
       <c r="C222" t="s">
-        <v>342</v>
+        <v>434</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223">
-        <v>10123792</v>
+        <v>10123883</v>
       </c>
       <c r="C223" t="s">
-        <v>341</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224">
-        <v>10123791</v>
+        <v>10123882</v>
       </c>
       <c r="C224" t="s">
-        <v>340</v>
+        <v>434</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225">
-        <v>10123790</v>
+        <v>10123881</v>
       </c>
       <c r="C225" t="s">
-        <v>339</v>
+        <v>433</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226">
-        <v>10123789</v>
+        <v>10123880</v>
       </c>
       <c r="C226" t="s">
-        <v>338</v>
+        <v>432</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227">
-        <v>10123788</v>
+        <v>10123879</v>
       </c>
       <c r="C227" t="s">
-        <v>337</v>
+        <v>431</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228">
-        <v>10123787</v>
+        <v>10123878</v>
       </c>
       <c r="C228" t="s">
-        <v>336</v>
+        <v>430</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>10123786</v>
+        <v>10123877</v>
       </c>
       <c r="C229" t="s">
-        <v>335</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>10123785</v>
+        <v>10123876</v>
       </c>
       <c r="C230" t="s">
-        <v>334</v>
+        <v>428</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>10123784</v>
+        <v>10123875</v>
       </c>
       <c r="C231" t="s">
-        <v>333</v>
+        <v>427</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232">
-        <v>10123783</v>
+        <v>10123874</v>
       </c>
       <c r="C232" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233">
-        <v>10123782</v>
+        <v>10123873</v>
       </c>
       <c r="C233" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234">
-        <v>10123781</v>
+        <v>10123872</v>
       </c>
       <c r="C234" t="s">
-        <v>330</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235">
-        <v>10123780</v>
+        <v>10123871</v>
       </c>
       <c r="C235" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236">
-        <v>10123779</v>
+        <v>10123870</v>
       </c>
       <c r="C236" t="s">
-        <v>328</v>
+        <v>422</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237">
-        <v>10123778</v>
+        <v>10123869</v>
       </c>
       <c r="C237" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238">
-        <v>10123777</v>
+        <v>10123868</v>
       </c>
       <c r="C238" t="s">
-        <v>326</v>
+        <v>420</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239">
-        <v>10123776</v>
+        <v>10123867</v>
       </c>
       <c r="C239" t="s">
-        <v>325</v>
+        <v>419</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240">
-        <v>10123775</v>
+        <v>10123866</v>
       </c>
       <c r="C240" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B241">
-        <v>10123774</v>
+        <v>10123865</v>
       </c>
       <c r="C241" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B242">
-        <v>10123773</v>
+        <v>10123864</v>
       </c>
       <c r="C242" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243">
-        <v>10123772</v>
+        <v>10123863</v>
       </c>
       <c r="C243" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244">
-        <v>10123771</v>
+        <v>10123862</v>
       </c>
       <c r="C244" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245">
-        <v>10123770</v>
+        <v>10123861</v>
       </c>
       <c r="C245" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246">
-        <v>10123769</v>
+        <v>10123860</v>
       </c>
       <c r="C246" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247">
-        <v>10123768</v>
+        <v>10123859</v>
       </c>
       <c r="C247" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248">
-        <v>10123767</v>
+        <v>10123858</v>
       </c>
       <c r="C248" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249">
-        <v>10123766</v>
+        <v>10123857</v>
       </c>
       <c r="C249" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+      <c r="D249" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250">
-        <v>10123765</v>
+        <v>10123856</v>
       </c>
       <c r="C250" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+        <v>407</v>
+      </c>
+      <c r="D250" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251">
-        <v>10123764</v>
+        <v>10123855</v>
       </c>
       <c r="C251" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252">
-        <v>10123763</v>
+        <v>10123854</v>
       </c>
       <c r="C252" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253">
-        <v>10123762</v>
+        <v>10123853</v>
       </c>
       <c r="C253" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254">
-        <v>10123761</v>
+        <v>10123852</v>
       </c>
       <c r="C254" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255">
-        <v>10123760</v>
+        <v>10123851</v>
       </c>
       <c r="C255" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256">
-        <v>10123759</v>
+        <v>10123850</v>
       </c>
       <c r="C256" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257">
-        <v>10123758</v>
+        <v>10123849</v>
       </c>
       <c r="C257" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258">
-        <v>10123757</v>
+        <v>10123848</v>
       </c>
       <c r="C258" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259">
-        <v>10123756</v>
+        <v>10123847</v>
       </c>
       <c r="C259" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260">
-        <v>10123755</v>
+        <v>10123846</v>
       </c>
       <c r="C260" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261">
-        <v>10123754</v>
+        <v>10123845</v>
       </c>
       <c r="C261" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262">
-        <v>10123753</v>
+        <v>10123844</v>
       </c>
       <c r="C262" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263">
-        <v>10123752</v>
+        <v>10123843</v>
       </c>
       <c r="C263" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264">
-        <v>10123751</v>
+        <f t="shared" ref="B264:B266" si="29">+B265+1</f>
+        <v>10123842</v>
       </c>
       <c r="C264" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265">
-        <v>10123750</v>
+        <f t="shared" si="29"/>
+        <v>10123841</v>
       </c>
       <c r="C265" t="s">
-        <v>299</v>
+        <v>392</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266">
-        <v>10123749</v>
+        <f t="shared" si="29"/>
+        <v>10123840</v>
       </c>
       <c r="C266" t="s">
-        <v>298</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267">
-        <v>10123748</v>
+        <f t="shared" ref="B267:B277" si="30">+B268+1</f>
+        <v>10123839</v>
       </c>
       <c r="C267" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268">
-        <v>10123747</v>
+        <f t="shared" si="30"/>
+        <v>10123838</v>
       </c>
       <c r="C268" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269">
-        <v>10123746</v>
+        <f t="shared" si="30"/>
+        <v>10123837</v>
       </c>
       <c r="C269" t="s">
-        <v>295</v>
+        <v>388</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270">
-        <v>10123745</v>
+        <f t="shared" si="30"/>
+        <v>10123836</v>
       </c>
       <c r="C270" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271">
-        <v>10123744</v>
+        <f t="shared" si="30"/>
+        <v>10123835</v>
       </c>
       <c r="C271" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272">
-        <v>10123743</v>
+        <f t="shared" si="30"/>
+        <v>10123834</v>
       </c>
       <c r="C272" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273">
-        <v>10123742</v>
+        <f t="shared" si="30"/>
+        <v>10123833</v>
       </c>
       <c r="C273" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274">
-        <v>10123741</v>
+        <f t="shared" si="30"/>
+        <v>10123832</v>
       </c>
       <c r="C274" t="s">
-        <v>290</v>
+        <v>383</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275">
-        <v>10123740</v>
+        <f t="shared" si="30"/>
+        <v>10123831</v>
       </c>
       <c r="C275" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276">
-        <v>10123739</v>
+        <f t="shared" si="30"/>
+        <v>10123830</v>
       </c>
       <c r="C276" t="s">
-        <v>288</v>
+        <v>381</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277">
-        <v>10123738</v>
+        <f t="shared" si="30"/>
+        <v>10123829</v>
       </c>
       <c r="C277" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B278" s="1">
-        <v>10123737</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>286</v>
+      <c r="B278">
+        <f t="shared" ref="B278:B288" si="31">+B279+1</f>
+        <v>10123828</v>
+      </c>
+      <c r="C278" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B279" s="1">
-        <v>10123736</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>285</v>
+      <c r="B279">
+        <f t="shared" si="31"/>
+        <v>10123827</v>
+      </c>
+      <c r="C279" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280">
-        <v>10123735</v>
+        <f t="shared" si="31"/>
+        <v>10123826</v>
       </c>
       <c r="C280" t="s">
-        <v>284</v>
+        <v>375</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281">
-        <v>10123734</v>
+        <f t="shared" si="31"/>
+        <v>10123825</v>
       </c>
       <c r="C281" t="s">
-        <v>283</v>
+        <v>374</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282">
-        <v>10123733</v>
+        <f t="shared" si="31"/>
+        <v>10123824</v>
       </c>
       <c r="C282" t="s">
-        <v>282</v>
+        <v>373</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283">
-        <v>10123732</v>
+        <f t="shared" si="31"/>
+        <v>10123823</v>
       </c>
       <c r="C283" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284">
-        <v>10123731</v>
+        <f t="shared" si="31"/>
+        <v>10123822</v>
       </c>
       <c r="C284" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285">
-        <v>10123730</v>
+        <f t="shared" si="31"/>
+        <v>10123821</v>
       </c>
       <c r="C285" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286">
-        <v>10123729</v>
+        <f t="shared" si="31"/>
+        <v>10123820</v>
       </c>
       <c r="C286" t="s">
-        <v>278</v>
+        <v>369</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287">
-        <v>10123728</v>
+        <f t="shared" si="31"/>
+        <v>10123819</v>
       </c>
       <c r="C287" t="s">
-        <v>277</v>
+        <v>368</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288">
-        <v>10123727</v>
+        <f t="shared" si="31"/>
+        <v>10123818</v>
       </c>
       <c r="C288" t="s">
-        <v>276</v>
+        <v>367</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289">
-        <v>10123726</v>
+        <f t="shared" ref="B289:B300" si="32">+B290+1</f>
+        <v>10123817</v>
       </c>
       <c r="C289" t="s">
-        <v>275</v>
+        <v>366</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290">
-        <v>10123725</v>
+        <f t="shared" si="32"/>
+        <v>10123816</v>
       </c>
       <c r="C290" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291">
-        <v>10123724</v>
+        <f t="shared" si="32"/>
+        <v>10123815</v>
       </c>
       <c r="C291" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B292" s="1">
-        <v>10123723</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>272</v>
+      <c r="B292">
+        <f t="shared" si="32"/>
+        <v>10123814</v>
+      </c>
+      <c r="C292" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B293" s="1">
-        <v>10123722</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>271</v>
+      <c r="B293">
+        <f t="shared" si="32"/>
+        <v>10123813</v>
+      </c>
+      <c r="C293" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B294" s="1">
-        <v>10123721</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>270</v>
+      <c r="B294">
+        <f t="shared" si="32"/>
+        <v>10123812</v>
+      </c>
+      <c r="C294" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295">
-        <v>10123720</v>
+        <f t="shared" si="32"/>
+        <v>10123811</v>
       </c>
       <c r="C295" t="s">
-        <v>269</v>
+        <v>360</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296">
-        <v>10123719</v>
+        <f t="shared" si="32"/>
+        <v>10123810</v>
       </c>
       <c r="C296" t="s">
-        <v>268</v>
+        <v>359</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297">
-        <v>10123718</v>
+        <f t="shared" si="32"/>
+        <v>10123809</v>
       </c>
       <c r="C297" t="s">
-        <v>267</v>
+        <v>358</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298">
-        <v>10123717</v>
+        <f t="shared" si="32"/>
+        <v>10123808</v>
       </c>
       <c r="C298" t="s">
-        <v>266</v>
+        <v>357</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299">
-        <v>10123716</v>
+        <f t="shared" si="32"/>
+        <v>10123807</v>
       </c>
       <c r="C299" t="s">
-        <v>265</v>
+        <v>356</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B300" s="1">
-        <v>10123715</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>264</v>
+      <c r="B300">
+        <f t="shared" si="32"/>
+        <v>10123806</v>
+      </c>
+      <c r="C300" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301">
-        <v>10123714</v>
+        <f>+B302+1</f>
+        <v>10123805</v>
       </c>
       <c r="C301" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B302" s="1">
-        <v>10123713</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>262</v>
+      <c r="B302">
+        <v>10123804</v>
+      </c>
+      <c r="C302" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="1">
-        <v>10123712</v>
+        <v>10123803</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="1">
-        <v>10123711</v>
+        <v>10123802</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="1">
-        <v>10123710</v>
+        <v>10123801</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="1">
-        <v>10123709</v>
+        <v>10123800</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="1">
-        <v>10123708</v>
+        <v>10123799</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="1">
-        <v>10123707</v>
+        <v>10123798</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
-        <v>10123706</v>
+        <v>10123797</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B310">
-        <v>10123705</v>
-      </c>
-      <c r="C310" t="s">
-        <v>254</v>
+      <c r="B310" s="1">
+        <v>10123796</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B311">
-        <v>10123704</v>
-      </c>
-      <c r="C311" t="s">
-        <v>253</v>
+      <c r="B311" s="1">
+        <v>10123795</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B312">
-        <v>10123703</v>
-      </c>
-      <c r="C312" t="s">
-        <v>252</v>
+      <c r="B312" s="1">
+        <v>10123794</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B313" s="1">
-        <v>10123702</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>251</v>
+      <c r="B313">
+        <v>10123793</v>
+      </c>
+      <c r="C313" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B314" s="1">
-        <v>10123701</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>250</v>
+      <c r="B314">
+        <v>10123792</v>
+      </c>
+      <c r="C314" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B315" s="1">
-        <v>10123700</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>249</v>
+      <c r="B315">
+        <v>10123791</v>
+      </c>
+      <c r="C315" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B316" s="1">
-        <v>10123699</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>248</v>
+      <c r="B316">
+        <v>10123790</v>
+      </c>
+      <c r="C316" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B317" s="1">
-        <v>10123698</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>247</v>
+      <c r="B317">
+        <v>10123789</v>
+      </c>
+      <c r="C317" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B318" s="1">
-        <v>10123697</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>246</v>
+      <c r="B318">
+        <v>10123788</v>
+      </c>
+      <c r="C318" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B319" s="1">
-        <v>10123696</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>245</v>
+      <c r="B319">
+        <v>10123787</v>
+      </c>
+      <c r="C319" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B320" s="1">
-        <v>10123695</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B321" s="1">
-        <v>10123694</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B322" s="1">
-        <v>10123693</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>10123786</v>
+      </c>
+      <c r="C320" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>10123785</v>
+      </c>
+      <c r="C321" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>10123784</v>
+      </c>
+      <c r="C322" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323">
-        <v>10123692</v>
+        <v>10123783</v>
       </c>
       <c r="C323" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324">
-        <v>10123691</v>
+        <v>10123782</v>
       </c>
       <c r="C324" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B325" s="1">
-        <v>10123690</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B326" s="1">
-        <v>10123689</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>10123781</v>
+      </c>
+      <c r="C325" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>10123780</v>
+      </c>
+      <c r="C326" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327">
-        <v>10123688</v>
+        <v>10123779</v>
       </c>
       <c r="C327" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B328" s="1">
-        <v>10123687</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>10123778</v>
+      </c>
+      <c r="C328" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329">
-        <v>10123686</v>
+        <v>10123777</v>
       </c>
       <c r="C329" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330">
-        <v>10123685</v>
+        <v>10123776</v>
       </c>
       <c r="C330" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B331" s="1">
-        <v>10123684</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>10123775</v>
+      </c>
+      <c r="C331" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332">
-        <v>10123683</v>
+        <v>10123774</v>
       </c>
       <c r="C332" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333">
-        <v>10123682</v>
+        <v>10123773</v>
       </c>
       <c r="C333" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="334" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B334" s="1">
-        <v>10123681</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="335" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="1">
-        <v>10123680</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334">
+        <v>10123772</v>
+      </c>
+      <c r="C334" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335">
+        <v>10123771</v>
+      </c>
+      <c r="C335" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336">
-        <v>10123679</v>
+        <v>10123770</v>
       </c>
       <c r="C336" t="s">
-        <v>228</v>
-      </c>
-      <c r="D336" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337">
-        <v>10123678</v>
+        <v>10123769</v>
       </c>
       <c r="C337" t="s">
-        <v>227</v>
-      </c>
-      <c r="D337" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338">
-        <v>10123677</v>
+        <v>10123768</v>
       </c>
       <c r="C338" t="s">
-        <v>226</v>
-      </c>
-      <c r="D338" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339">
-        <v>10123676</v>
+        <v>10123767</v>
       </c>
       <c r="C339" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340">
-        <v>10123675</v>
+        <v>10123766</v>
       </c>
       <c r="C340" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341">
-        <v>10123674</v>
+        <v>10123765</v>
       </c>
       <c r="C341" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342">
-        <v>10123673</v>
+        <v>10123764</v>
       </c>
       <c r="C342" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343">
-        <v>10123672</v>
+        <v>10123763</v>
       </c>
       <c r="C343" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344">
-        <v>10123671</v>
+        <v>10123762</v>
       </c>
       <c r="C344" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345">
-        <v>10123670</v>
+        <v>10123761</v>
       </c>
       <c r="C345" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346">
-        <v>10123669</v>
+        <v>10123760</v>
       </c>
       <c r="C346" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347">
-        <v>10123668</v>
+        <v>10123759</v>
       </c>
       <c r="C347" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348">
-        <v>10123667</v>
+        <v>10123758</v>
       </c>
       <c r="C348" t="s">
-        <v>215</v>
-      </c>
-      <c r="D348" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349">
-        <v>10123666</v>
+        <v>10123757</v>
       </c>
       <c r="C349" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350">
-        <v>10123665</v>
+        <v>10123756</v>
       </c>
       <c r="C350" t="s">
-        <v>213</v>
-      </c>
-      <c r="D350" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351">
-        <v>10123664</v>
+        <v>10123755</v>
       </c>
       <c r="C351" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352">
-        <v>10123663</v>
+        <v>10123754</v>
       </c>
       <c r="C352" t="s">
-        <v>211</v>
-      </c>
-      <c r="D352" t="s">
-        <v>216</v>
+        <v>303</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353">
-        <v>10123662</v>
+        <v>10123753</v>
       </c>
       <c r="C353" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354">
-        <v>10123661</v>
+        <v>10123752</v>
       </c>
       <c r="C354" t="s">
-        <v>209</v>
+        <v>301</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355">
-        <v>10123660</v>
+        <v>10123751</v>
       </c>
       <c r="C355" t="s">
-        <v>208</v>
+        <v>300</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356">
-        <v>10123659</v>
+        <v>10123750</v>
       </c>
       <c r="C356" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357">
-        <v>10123658</v>
+        <v>10123749</v>
       </c>
       <c r="C357" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358">
-        <v>10123657</v>
+        <v>10123748</v>
       </c>
       <c r="C358" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359">
-        <v>10123656</v>
+        <v>10123747</v>
       </c>
       <c r="C359" t="s">
-        <v>204</v>
+        <v>296</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360">
-        <v>10123655</v>
+        <v>10123746</v>
       </c>
       <c r="C360" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361">
-        <v>10123654</v>
+        <v>10123745</v>
       </c>
       <c r="C361" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362">
-        <v>10123653</v>
+        <v>10123744</v>
       </c>
       <c r="C362" t="s">
-        <v>201</v>
+        <v>293</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363">
-        <v>10123652</v>
+        <v>10123743</v>
       </c>
       <c r="C363" t="s">
-        <v>200</v>
+        <v>292</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364">
-        <v>10123651</v>
+        <v>10123742</v>
       </c>
       <c r="C364" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365">
-        <v>10123650</v>
+        <v>10123741</v>
       </c>
       <c r="C365" t="s">
-        <v>198</v>
+        <v>290</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366">
-        <v>10123649</v>
+        <v>10123740</v>
       </c>
       <c r="C366" t="s">
-        <v>197</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367">
-        <v>10123648</v>
+        <v>10123739</v>
       </c>
       <c r="C367" t="s">
-        <v>196</v>
+        <v>288</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368">
-        <v>10123647</v>
+        <v>10123738</v>
       </c>
       <c r="C368" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B369">
-        <v>10123646</v>
-      </c>
-      <c r="C369" t="s">
-        <v>194</v>
+      <c r="B369" s="1">
+        <v>10123737</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B370">
-        <v>10123645</v>
-      </c>
-      <c r="C370" t="s">
-        <v>193</v>
+      <c r="B370" s="1">
+        <v>10123736</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371">
-        <v>10123644</v>
+        <v>10123735</v>
       </c>
       <c r="C371" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372">
-        <v>10123643</v>
+        <v>10123734</v>
       </c>
       <c r="C372" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373">
-        <v>10123642</v>
+        <v>10123733</v>
       </c>
       <c r="C373" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374">
-        <v>10123641</v>
+        <v>10123732</v>
       </c>
       <c r="C374" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375">
-        <v>10123640</v>
+        <v>10123731</v>
       </c>
       <c r="C375" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376">
-        <v>10123639</v>
+        <v>10123730</v>
       </c>
       <c r="C376" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377">
-        <v>10123638</v>
+        <v>10123729</v>
       </c>
       <c r="C377" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378">
-        <v>10123637</v>
+        <v>10123728</v>
       </c>
       <c r="C378" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379">
-        <v>10123636</v>
+        <v>10123727</v>
       </c>
       <c r="C379" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380">
-        <v>10123635</v>
+        <v>10123726</v>
       </c>
       <c r="C380" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381">
-        <v>10123634</v>
+        <v>10123725</v>
       </c>
       <c r="C381" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382">
-        <v>10123633</v>
+        <v>10123724</v>
       </c>
       <c r="C382" t="s">
-        <v>181</v>
+        <v>273</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B383">
-        <v>10123632</v>
-      </c>
-      <c r="C383" t="s">
-        <v>180</v>
+      <c r="B383" s="1">
+        <v>10123723</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B384">
-        <v>10123631</v>
-      </c>
-      <c r="C384" t="s">
-        <v>179</v>
+      <c r="B384" s="1">
+        <v>10123722</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B385">
-        <v>10123630</v>
-      </c>
-      <c r="C385" t="s">
-        <v>178</v>
+      <c r="B385" s="1">
+        <v>10123721</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386">
-        <v>10123629</v>
+        <v>10123720</v>
       </c>
       <c r="C386" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387">
-        <v>10123628</v>
+        <v>10123719</v>
       </c>
       <c r="C387" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B388">
-        <v>10123627</v>
+        <v>10123718</v>
       </c>
       <c r="C388" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B389">
-        <v>10123626</v>
+        <v>10123717</v>
       </c>
       <c r="C389" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B390">
-        <v>10123625</v>
+        <v>10123716</v>
       </c>
       <c r="C390" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391">
-        <v>10123624</v>
-      </c>
-      <c r="C391" t="s">
-        <v>172</v>
+      <c r="B391" s="1">
+        <v>10123715</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392">
-        <v>10123623</v>
+        <v>10123714</v>
       </c>
       <c r="C392" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B393">
-        <v>10123622</v>
-      </c>
-      <c r="C393" t="s">
-        <v>170</v>
+      <c r="B393" s="1">
+        <v>10123713</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B394">
-        <v>10123621</v>
-      </c>
-      <c r="C394" t="s">
-        <v>169</v>
+      <c r="B394" s="1">
+        <v>10123712</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B395">
-        <v>10123620</v>
-      </c>
-      <c r="C395" t="s">
-        <v>168</v>
+      <c r="B395" s="1">
+        <v>10123711</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B396">
-        <v>10123619</v>
-      </c>
-      <c r="C396" t="s">
-        <v>167</v>
+      <c r="B396" s="1">
+        <v>10123710</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B397">
-        <v>10123618</v>
-      </c>
-      <c r="C397" t="s">
-        <v>166</v>
+      <c r="B397" s="1">
+        <v>10123709</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B398">
-        <v>10123617</v>
-      </c>
-      <c r="C398" t="s">
-        <v>165</v>
+      <c r="B398" s="1">
+        <v>10123708</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B399">
-        <v>10123616</v>
-      </c>
-      <c r="C399" t="s">
-        <v>164</v>
+      <c r="B399" s="1">
+        <v>10123707</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B400">
-        <v>10123615</v>
-      </c>
-      <c r="C400" t="s">
-        <v>163</v>
+      <c r="B400" s="1">
+        <v>10123706</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B401">
-        <v>10123614</v>
+        <v>10123705</v>
       </c>
       <c r="C401" t="s">
-        <v>162</v>
+        <v>254</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B402">
-        <v>10123613</v>
+        <v>10123704</v>
       </c>
       <c r="C402" t="s">
-        <v>161</v>
+        <v>253</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B403">
-        <v>10123612</v>
+        <v>10123703</v>
       </c>
       <c r="C403" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B404">
-        <v>10123611</v>
-      </c>
-      <c r="C404" t="s">
-        <v>159</v>
+      <c r="B404" s="1">
+        <v>10123702</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B405">
-        <v>10123610</v>
-      </c>
-      <c r="C405" t="s">
-        <v>158</v>
+      <c r="B405" s="1">
+        <v>10123701</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B406">
-        <v>10123609</v>
-      </c>
-      <c r="C406" t="s">
-        <v>157</v>
+      <c r="B406" s="1">
+        <v>10123700</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B407">
-        <v>10123608</v>
-      </c>
-      <c r="C407" t="s">
-        <v>156</v>
+      <c r="B407" s="1">
+        <v>10123699</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B408">
-        <v>10123607</v>
-      </c>
-      <c r="C408" t="s">
-        <v>155</v>
+      <c r="B408" s="1">
+        <v>10123698</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B409">
-        <v>10123606</v>
-      </c>
-      <c r="C409" t="s">
-        <v>154</v>
+      <c r="B409" s="1">
+        <v>10123697</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B410">
-        <v>10123605</v>
-      </c>
-      <c r="C410" t="s">
-        <v>153</v>
+      <c r="B410" s="1">
+        <v>10123696</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B411">
-        <v>10123604</v>
-      </c>
-      <c r="C411" t="s">
-        <v>152</v>
+      <c r="B411" s="1">
+        <v>10123695</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B412">
-        <v>10123603</v>
-      </c>
-      <c r="C412" t="s">
-        <v>151</v>
+      <c r="B412" s="1">
+        <v>10123694</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B413">
-        <v>10123602</v>
-      </c>
-      <c r="C413" t="s">
-        <v>150</v>
+      <c r="B413" s="1">
+        <v>10123693</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B414">
-        <v>10123601</v>
+        <v>10123692</v>
       </c>
       <c r="C414" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415">
-        <v>10123600</v>
+        <v>10123691</v>
       </c>
       <c r="C415" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B416">
-        <v>10123599</v>
-      </c>
-      <c r="C416" t="s">
-        <v>147</v>
+      <c r="B416" s="1">
+        <v>10123690</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B417">
-        <v>10123598</v>
-      </c>
-      <c r="C417" t="s">
-        <v>146</v>
+      <c r="B417" s="1">
+        <v>10123689</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B418">
-        <v>10123597</v>
+        <v>10123688</v>
       </c>
       <c r="C418" t="s">
-        <v>145</v>
+        <v>237</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B419">
-        <v>10123596</v>
-      </c>
-      <c r="C419" t="s">
-        <v>144</v>
+      <c r="B419" s="1">
+        <v>10123687</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420">
-        <v>10123595</v>
+        <v>10123686</v>
       </c>
       <c r="C420" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B421">
-        <v>10123594</v>
+        <v>10123685</v>
       </c>
       <c r="C421" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B422">
-        <v>10123593</v>
-      </c>
-      <c r="C422" t="s">
-        <v>141</v>
+      <c r="B422" s="1">
+        <v>10123684</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423">
-        <v>10123592</v>
+        <v>10123683</v>
       </c>
       <c r="C423" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424">
-        <v>10123591</v>
+        <v>10123682</v>
       </c>
       <c r="C424" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B425">
-        <v>10123590</v>
-      </c>
-      <c r="C425" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B426">
-        <v>10123589</v>
-      </c>
-      <c r="C426" t="s">
-        <v>137</v>
-      </c>
-      <c r="D426" t="s">
-        <v>132</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="1">
+        <v>10123681</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="1">
+        <v>10123680</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B427">
-        <v>10123588</v>
+        <v>10123679</v>
       </c>
       <c r="C427" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="D427" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428">
-        <v>10123587</v>
+        <v>10123678</v>
       </c>
       <c r="C428" t="s">
-        <v>135</v>
+        <v>227</v>
       </c>
       <c r="D428" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429">
-        <v>10123586</v>
+        <v>10123677</v>
       </c>
       <c r="C429" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="D429" t="s">
-        <v>132</v>
+        <v>216</v>
       </c>
     </row>
     <row r="430" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B430">
-        <v>10123585</v>
+        <v>10123676</v>
       </c>
       <c r="C430" t="s">
-        <v>133</v>
-      </c>
-      <c r="D430" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B431">
-        <v>10123584</v>
+        <v>10123675</v>
       </c>
       <c r="C431" t="s">
-        <v>131</v>
-      </c>
-      <c r="D431" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432">
-        <v>10123583</v>
+        <v>10123674</v>
       </c>
       <c r="C432" t="s">
-        <v>130</v>
+        <v>223</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433">
-        <v>10123582</v>
+        <v>10123673</v>
       </c>
       <c r="C433" t="s">
-        <v>129</v>
+        <v>222</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434">
-        <v>10123581</v>
+        <v>10123672</v>
       </c>
       <c r="C434" t="s">
-        <v>128</v>
-      </c>
-      <c r="D434" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435">
-        <v>10123580</v>
+        <v>10123671</v>
       </c>
       <c r="C435" t="s">
-        <v>127</v>
+        <v>220</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436">
-        <v>10123579</v>
+        <v>10123670</v>
       </c>
       <c r="C436" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437">
-        <v>10123578</v>
+        <v>10123669</v>
       </c>
       <c r="C437" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438">
-        <v>10123577</v>
+        <v>10123668</v>
       </c>
       <c r="C438" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439">
-        <v>10123576</v>
+        <v>10123667</v>
       </c>
       <c r="C439" t="s">
-        <v>123</v>
+        <v>215</v>
+      </c>
+      <c r="D439" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440">
-        <v>10123575</v>
+        <v>10123666</v>
       </c>
       <c r="C440" t="s">
-        <v>122</v>
+        <v>214</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441">
-        <v>10123574</v>
+        <v>10123665</v>
       </c>
       <c r="C441" t="s">
-        <v>121</v>
+        <v>213</v>
+      </c>
+      <c r="D441" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442">
-        <v>10123573</v>
+        <v>10123664</v>
       </c>
       <c r="C442" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443">
-        <v>10123572</v>
+        <v>10123663</v>
       </c>
       <c r="C443" t="s">
-        <v>119</v>
+        <v>211</v>
+      </c>
+      <c r="D443" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B444" s="1">
-        <v>10123571</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>118</v>
+      <c r="B444">
+        <v>10123662</v>
+      </c>
+      <c r="C444" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445">
-        <v>10123570</v>
+        <v>10123661</v>
       </c>
       <c r="C445" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446">
-        <v>10123569</v>
+        <v>10123660</v>
       </c>
       <c r="C446" t="s">
-        <v>114</v>
+        <v>208</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447">
-        <v>10123568</v>
+        <v>10123659</v>
       </c>
       <c r="C447" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448">
-        <v>10123567</v>
+        <v>10123658</v>
       </c>
       <c r="C448" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="449" spans="2:4" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449">
-        <v>10123566</v>
+        <v>10123657</v>
       </c>
       <c r="C449" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="450" spans="2:4" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450">
-        <v>10123565</v>
+        <v>10123656</v>
       </c>
       <c r="C450" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="451" spans="2:4" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451">
-        <v>10123564</v>
+        <v>10123655</v>
       </c>
       <c r="C451" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="452" spans="2:4" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452">
-        <v>10123563</v>
+        <v>10123654</v>
       </c>
       <c r="C452" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453">
-        <v>10123562</v>
+        <v>10123653</v>
       </c>
       <c r="C453" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454">
-        <v>10123561</v>
+        <v>10123652</v>
       </c>
       <c r="C454" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455">
-        <v>10123560</v>
+        <v>10123651</v>
       </c>
       <c r="C455" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456">
-        <v>10123559</v>
+        <v>10123650</v>
       </c>
       <c r="C456" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="457" spans="2:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457">
-        <v>10123558</v>
+        <v>10123649</v>
       </c>
       <c r="C457" t="s">
-        <v>106</v>
-      </c>
-      <c r="D457" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458">
-        <v>10123557</v>
+        <v>10123648</v>
       </c>
       <c r="C458" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="459" spans="2:4" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459">
-        <v>10123556</v>
+        <v>10123647</v>
       </c>
       <c r="C459" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="460" spans="2:4" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460">
-        <v>10123555</v>
+        <v>10123646</v>
       </c>
       <c r="C460" t="s">
-        <v>103</v>
-      </c>
-      <c r="D460" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="461" spans="2:4" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461">
-        <v>10123554</v>
+        <v>10123645</v>
       </c>
       <c r="C461" t="s">
-        <v>102</v>
-      </c>
-      <c r="D461" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462">
-        <v>10123553</v>
+        <v>10123644</v>
       </c>
       <c r="C462" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="463" spans="2:4" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463">
-        <v>10123552</v>
+        <v>10123643</v>
       </c>
       <c r="C463" t="s">
-        <v>100</v>
-      </c>
-      <c r="D463" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="464" spans="2:4" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464">
-        <v>10123551</v>
+        <v>10123642</v>
       </c>
       <c r="C464" t="s">
-        <v>99</v>
-      </c>
-      <c r="D464" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465">
-        <v>10123550</v>
+        <v>10123641</v>
       </c>
       <c r="C465" t="s">
-        <v>97</v>
-      </c>
-      <c r="D465" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="466" spans="2:4" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466">
-        <v>10123549</v>
+        <v>10123640</v>
       </c>
       <c r="C466" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="467" spans="2:4" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467">
-        <v>10123548</v>
+        <v>10123639</v>
       </c>
       <c r="C467" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468">
-        <v>10123547</v>
+        <v>10123638</v>
       </c>
       <c r="C468" t="s">
-        <v>94</v>
-      </c>
-      <c r="D468" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="469" spans="2:4" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469">
-        <v>10123546</v>
+        <v>10123637</v>
       </c>
       <c r="C469" t="s">
-        <v>93</v>
-      </c>
-      <c r="D469" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470">
-        <v>10123545</v>
+        <v>10123636</v>
       </c>
       <c r="C470" t="s">
-        <v>92</v>
-      </c>
-      <c r="D470" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="471" spans="2:4" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471">
-        <v>10123544</v>
+        <v>10123635</v>
       </c>
       <c r="C471" t="s">
-        <v>91</v>
-      </c>
-      <c r="D471" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472">
-        <v>10123543</v>
+        <v>10123634</v>
       </c>
       <c r="C472" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="473" spans="2:4" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473">
-        <v>10123542</v>
+        <v>10123633</v>
       </c>
       <c r="C473" t="s">
-        <v>89</v>
-      </c>
-      <c r="D473" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474">
-        <v>10123541</v>
+        <v>10123632</v>
       </c>
       <c r="C474" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="475" spans="2:4" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475">
-        <v>10123540</v>
+        <v>10123631</v>
       </c>
       <c r="C475" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476">
-        <v>10123539</v>
+        <v>10123630</v>
       </c>
       <c r="C476" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="477" spans="2:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477">
-        <v>10123538</v>
+        <v>10123629</v>
       </c>
       <c r="C477" t="s">
-        <v>85</v>
-      </c>
-      <c r="D477" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478">
-        <v>10123537</v>
+        <v>10123628</v>
       </c>
       <c r="C478" t="s">
-        <v>84</v>
-      </c>
-      <c r="D478" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="479" spans="2:4" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479">
-        <v>10123536</v>
+        <v>10123627</v>
       </c>
       <c r="C479" t="s">
-        <v>83</v>
-      </c>
-      <c r="D479" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="480" spans="2:4" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480">
-        <v>10123535</v>
+        <v>10123626</v>
       </c>
       <c r="C480" t="s">
-        <v>82</v>
-      </c>
-      <c r="D480" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="481" spans="2:4" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481">
-        <v>10123534</v>
+        <v>10123625</v>
       </c>
       <c r="C481" t="s">
-        <v>81</v>
-      </c>
-      <c r="D481" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="482" spans="2:4" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482">
-        <v>10123533</v>
+        <v>10123624</v>
       </c>
       <c r="C482" t="s">
-        <v>80</v>
-      </c>
-      <c r="D482" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="483" spans="2:4" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483">
-        <v>10123532</v>
+        <v>10123623</v>
       </c>
       <c r="C483" t="s">
-        <v>79</v>
-      </c>
-      <c r="D483" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484">
-        <v>10123531</v>
+        <v>10123622</v>
       </c>
       <c r="C484" t="s">
-        <v>77</v>
-      </c>
-      <c r="D484" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B485">
-        <v>10123530</v>
+        <v>10123621</v>
       </c>
       <c r="C485" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486">
-        <v>10123529</v>
+        <v>10123620</v>
       </c>
       <c r="C486" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B487">
-        <v>10123528</v>
+        <v>10123619</v>
       </c>
       <c r="C487" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="488" spans="2:4" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B488">
-        <v>10123527</v>
+        <v>10123618</v>
       </c>
       <c r="C488" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B489">
-        <v>10123526</v>
+        <v>10123617</v>
       </c>
       <c r="C489" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="490" spans="2:4" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B490">
-        <v>10123525</v>
+        <v>10123616</v>
       </c>
       <c r="C490" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="491" spans="2:4" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B491">
-        <v>10123524</v>
+        <v>10123615</v>
       </c>
       <c r="C491" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="492" spans="2:4" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B492">
-        <v>10123523</v>
+        <v>10123614</v>
       </c>
       <c r="C492" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B493">
-        <v>10123522</v>
+        <v>10123613</v>
       </c>
       <c r="C493" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="494" spans="2:4" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B494">
-        <v>10123521</v>
+        <v>10123612</v>
       </c>
       <c r="C494" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="495" spans="2:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B495">
-        <v>10123520</v>
+        <v>10123611</v>
       </c>
       <c r="C495" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B496">
-        <v>10123519</v>
+        <v>10123610</v>
       </c>
       <c r="C496" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="497" spans="2:4" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B497">
-        <v>10123518</v>
+        <v>10123609</v>
       </c>
       <c r="C497" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="498" spans="2:4" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B498">
-        <v>10123517</v>
+        <v>10123608</v>
       </c>
       <c r="C498" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B499">
-        <v>10123516</v>
+        <v>10123607</v>
       </c>
       <c r="C499" t="s">
-        <v>62</v>
-      </c>
-      <c r="D499" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="500" spans="2:4" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B500">
-        <v>10123515</v>
+        <v>10123606</v>
       </c>
       <c r="C500" t="s">
-        <v>60</v>
-      </c>
-      <c r="D500" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B501">
-        <v>10123514</v>
+        <v>10123605</v>
       </c>
       <c r="C501" t="s">
-        <v>59</v>
-      </c>
-      <c r="D501" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="502" spans="2:4" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B502">
-        <v>10123513</v>
+        <v>10123604</v>
       </c>
       <c r="C502" t="s">
-        <v>58</v>
-      </c>
-      <c r="D502" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B503">
-        <v>10123512</v>
+        <v>10123603</v>
       </c>
       <c r="C503" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="504" spans="2:4" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B504">
-        <v>10123511</v>
-      </c>
-    </row>
-    <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+        <v>10123602</v>
+      </c>
+      <c r="C504" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B505">
-        <v>10123510</v>
+        <v>10123601</v>
       </c>
       <c r="C505" t="s">
-        <v>56</v>
-      </c>
-      <c r="D505" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="506" spans="2:4" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B506">
-        <v>10123509</v>
+        <v>10123600</v>
       </c>
       <c r="C506" t="s">
-        <v>55</v>
-      </c>
-      <c r="D506" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B507">
-        <v>10123508</v>
+        <v>10123599</v>
       </c>
       <c r="C507" t="s">
-        <v>54</v>
-      </c>
-      <c r="D507" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="508" spans="2:4" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B508">
-        <v>10123507</v>
+        <v>10123598</v>
       </c>
       <c r="C508" t="s">
-        <v>53</v>
-      </c>
-      <c r="D508" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B509">
-        <v>10123506</v>
+        <v>10123597</v>
       </c>
       <c r="C509" t="s">
-        <v>52</v>
-      </c>
-      <c r="D509" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="510" spans="2:4" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B510">
-        <v>10123505</v>
+        <v>10123596</v>
       </c>
       <c r="C510" t="s">
-        <v>51</v>
-      </c>
-      <c r="D510" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="511" spans="2:4" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B511">
-        <v>10123504</v>
+        <v>10123595</v>
       </c>
       <c r="C511" t="s">
-        <v>50</v>
-      </c>
-      <c r="D511" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="512" spans="2:4" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B512">
-        <v>10123503</v>
+        <v>10123594</v>
       </c>
       <c r="C512" t="s">
-        <v>49</v>
-      </c>
-      <c r="D512" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B513">
-        <v>10123502</v>
+        <v>10123593</v>
       </c>
       <c r="C513" t="s">
-        <v>48</v>
-      </c>
-      <c r="D513" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514">
-        <v>10123501</v>
+        <v>10123592</v>
       </c>
       <c r="C514" t="s">
-        <v>47</v>
-      </c>
-      <c r="D514" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B515">
-        <v>10123500</v>
+        <v>10123591</v>
       </c>
       <c r="C515" t="s">
-        <v>46</v>
-      </c>
-      <c r="D515" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B516">
-        <v>10123499</v>
+        <v>10123590</v>
       </c>
       <c r="C516" t="s">
-        <v>45</v>
-      </c>
-      <c r="D516" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517">
-        <v>10123498</v>
+        <v>10123589</v>
       </c>
       <c r="C517" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D517" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B518">
-        <v>10123497</v>
+        <v>10123588</v>
       </c>
       <c r="C518" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="D518" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519">
-        <v>10123496</v>
+        <v>10123587</v>
       </c>
       <c r="C519" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D519" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B520">
-        <v>10123495</v>
+        <v>10123586</v>
       </c>
       <c r="C520" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D520" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B521">
-        <v>10123494</v>
+        <v>10123585</v>
       </c>
       <c r="C521" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="D521" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B522">
-        <v>10123493</v>
+        <v>10123584</v>
       </c>
       <c r="C522" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="D522" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B523">
-        <v>10123492</v>
+        <v>10123583</v>
       </c>
       <c r="C523" t="s">
-        <v>37</v>
-      </c>
-      <c r="D523" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B524">
-        <v>10123491</v>
+        <v>10123582</v>
       </c>
       <c r="C524" t="s">
-        <v>36</v>
-      </c>
-      <c r="D524" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B525">
-        <v>10123490</v>
+        <v>10123581</v>
       </c>
       <c r="C525" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D525" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B526">
-        <v>10123489</v>
+        <v>10123580</v>
       </c>
       <c r="C526" t="s">
-        <v>34</v>
-      </c>
-      <c r="D526" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B527">
-        <v>10123488</v>
+        <v>10123579</v>
       </c>
       <c r="C527" t="s">
-        <v>33</v>
-      </c>
-      <c r="D527" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B528">
+        <v>10123578</v>
+      </c>
+      <c r="C528" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>10123577</v>
+      </c>
+      <c r="C529" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>10123576</v>
+      </c>
+      <c r="C530" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>10123575</v>
+      </c>
+      <c r="C531" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>10123574</v>
+      </c>
+      <c r="C532" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533">
+        <v>10123573</v>
+      </c>
+      <c r="C533" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>10123572</v>
+      </c>
+      <c r="C534" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" s="1">
+        <v>10123571</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536">
+        <v>10123570</v>
+      </c>
+      <c r="C536" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>10123569</v>
+      </c>
+      <c r="C537" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B538">
+        <v>10123568</v>
+      </c>
+      <c r="C538" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B539">
+        <v>10123567</v>
+      </c>
+      <c r="C539" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>10123566</v>
+      </c>
+      <c r="C540" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B541">
+        <v>10123565</v>
+      </c>
+      <c r="C541" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>10123564</v>
+      </c>
+      <c r="C542" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>10123563</v>
+      </c>
+      <c r="C543" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544">
+        <v>10123562</v>
+      </c>
+      <c r="C544" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>10123561</v>
+      </c>
+      <c r="C545" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>10123560</v>
+      </c>
+      <c r="C546" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>10123559</v>
+      </c>
+      <c r="C547" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B548">
+        <v>10123558</v>
+      </c>
+      <c r="C548" t="s">
+        <v>106</v>
+      </c>
+      <c r="D548" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>10123557</v>
+      </c>
+      <c r="C549" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B550">
+        <v>10123556</v>
+      </c>
+      <c r="C550" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B551">
+        <v>10123555</v>
+      </c>
+      <c r="C551" t="s">
+        <v>103</v>
+      </c>
+      <c r="D551" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>10123554</v>
+      </c>
+      <c r="C552" t="s">
+        <v>102</v>
+      </c>
+      <c r="D552" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B553">
+        <v>10123553</v>
+      </c>
+      <c r="C553" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B554">
+        <v>10123552</v>
+      </c>
+      <c r="C554" t="s">
+        <v>100</v>
+      </c>
+      <c r="D554" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>10123551</v>
+      </c>
+      <c r="C555" t="s">
+        <v>99</v>
+      </c>
+      <c r="D555" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B556">
+        <v>10123550</v>
+      </c>
+      <c r="C556" t="s">
+        <v>97</v>
+      </c>
+      <c r="D556" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B557">
+        <v>10123549</v>
+      </c>
+      <c r="C557" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>10123548</v>
+      </c>
+      <c r="C558" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B559">
+        <v>10123547</v>
+      </c>
+      <c r="C559" t="s">
+        <v>94</v>
+      </c>
+      <c r="D559" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B560">
+        <v>10123546</v>
+      </c>
+      <c r="C560" t="s">
+        <v>93</v>
+      </c>
+      <c r="D560" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B561">
+        <v>10123545</v>
+      </c>
+      <c r="C561" t="s">
+        <v>92</v>
+      </c>
+      <c r="D561" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B562">
+        <v>10123544</v>
+      </c>
+      <c r="C562" t="s">
+        <v>91</v>
+      </c>
+      <c r="D562" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B563">
+        <v>10123543</v>
+      </c>
+      <c r="C563" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B564">
+        <v>10123542</v>
+      </c>
+      <c r="C564" t="s">
+        <v>89</v>
+      </c>
+      <c r="D564" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B565">
+        <v>10123541</v>
+      </c>
+      <c r="C565" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B566">
+        <v>10123540</v>
+      </c>
+      <c r="C566" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B567">
+        <v>10123539</v>
+      </c>
+      <c r="C567" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B568">
+        <v>10123538</v>
+      </c>
+      <c r="C568" t="s">
+        <v>85</v>
+      </c>
+      <c r="D568" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>10123537</v>
+      </c>
+      <c r="C569" t="s">
+        <v>84</v>
+      </c>
+      <c r="D569" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B570">
+        <v>10123536</v>
+      </c>
+      <c r="C570" t="s">
+        <v>83</v>
+      </c>
+      <c r="D570" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B571">
+        <v>10123535</v>
+      </c>
+      <c r="C571" t="s">
+        <v>82</v>
+      </c>
+      <c r="D571" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>10123534</v>
+      </c>
+      <c r="C572" t="s">
+        <v>81</v>
+      </c>
+      <c r="D572" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B573">
+        <v>10123533</v>
+      </c>
+      <c r="C573" t="s">
+        <v>80</v>
+      </c>
+      <c r="D573" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B574">
+        <v>10123532</v>
+      </c>
+      <c r="C574" t="s">
+        <v>79</v>
+      </c>
+      <c r="D574" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>10123531</v>
+      </c>
+      <c r="C575" t="s">
+        <v>77</v>
+      </c>
+      <c r="D575" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B576">
+        <v>10123530</v>
+      </c>
+      <c r="C576" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B577">
+        <v>10123529</v>
+      </c>
+      <c r="C577" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>10123528</v>
+      </c>
+      <c r="C578" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B579">
+        <v>10123527</v>
+      </c>
+      <c r="C579" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B580">
+        <v>10123526</v>
+      </c>
+      <c r="C580" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B581">
+        <v>10123525</v>
+      </c>
+      <c r="C581" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B582">
+        <v>10123524</v>
+      </c>
+      <c r="C582" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>10123523</v>
+      </c>
+      <c r="C583" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>10123522</v>
+      </c>
+      <c r="C584" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B585">
+        <v>10123521</v>
+      </c>
+      <c r="C585" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B586">
+        <v>10123520</v>
+      </c>
+      <c r="C586" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>10123519</v>
+      </c>
+      <c r="C587" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B588">
+        <v>10123518</v>
+      </c>
+      <c r="C588" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B589">
+        <v>10123517</v>
+      </c>
+      <c r="C589" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>10123516</v>
+      </c>
+      <c r="C590" t="s">
+        <v>62</v>
+      </c>
+      <c r="D590" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B591">
+        <v>10123515</v>
+      </c>
+      <c r="C591" t="s">
+        <v>60</v>
+      </c>
+      <c r="D591" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B592">
+        <v>10123514</v>
+      </c>
+      <c r="C592" t="s">
+        <v>59</v>
+      </c>
+      <c r="D592" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>10123513</v>
+      </c>
+      <c r="C593" t="s">
+        <v>58</v>
+      </c>
+      <c r="D593" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B594">
+        <v>10123512</v>
+      </c>
+      <c r="C594" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B595">
+        <v>10123511</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B596">
+        <v>10123510</v>
+      </c>
+      <c r="C596" t="s">
+        <v>56</v>
+      </c>
+      <c r="D596" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B597">
+        <v>10123509</v>
+      </c>
+      <c r="C597" t="s">
+        <v>55</v>
+      </c>
+      <c r="D597" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B598">
+        <v>10123508</v>
+      </c>
+      <c r="C598" t="s">
+        <v>54</v>
+      </c>
+      <c r="D598" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>10123507</v>
+      </c>
+      <c r="C599" t="s">
+        <v>53</v>
+      </c>
+      <c r="D599" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B600">
+        <v>10123506</v>
+      </c>
+      <c r="C600" t="s">
+        <v>52</v>
+      </c>
+      <c r="D600" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B601">
+        <v>10123505</v>
+      </c>
+      <c r="C601" t="s">
+        <v>51</v>
+      </c>
+      <c r="D601" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>10123504</v>
+      </c>
+      <c r="C602" t="s">
+        <v>50</v>
+      </c>
+      <c r="D602" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B603">
+        <v>10123503</v>
+      </c>
+      <c r="C603" t="s">
+        <v>49</v>
+      </c>
+      <c r="D603" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B604">
+        <v>10123502</v>
+      </c>
+      <c r="C604" t="s">
+        <v>48</v>
+      </c>
+      <c r="D604" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>10123501</v>
+      </c>
+      <c r="C605" t="s">
+        <v>47</v>
+      </c>
+      <c r="D605" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B606">
+        <v>10123500</v>
+      </c>
+      <c r="C606" t="s">
+        <v>46</v>
+      </c>
+      <c r="D606" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B607">
+        <v>10123499</v>
+      </c>
+      <c r="C607" t="s">
+        <v>45</v>
+      </c>
+      <c r="D607" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>10123498</v>
+      </c>
+      <c r="C608" t="s">
+        <v>44</v>
+      </c>
+      <c r="D608" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>10123497</v>
+      </c>
+      <c r="C609" t="s">
+        <v>43</v>
+      </c>
+      <c r="D609" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B610">
+        <v>10123496</v>
+      </c>
+      <c r="C610" t="s">
+        <v>42</v>
+      </c>
+      <c r="D610" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B611">
+        <v>10123495</v>
+      </c>
+      <c r="C611" t="s">
+        <v>41</v>
+      </c>
+      <c r="D611" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B612">
+        <v>10123494</v>
+      </c>
+      <c r="C612" t="s">
+        <v>39</v>
+      </c>
+      <c r="D612" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B613">
+        <v>10123493</v>
+      </c>
+      <c r="C613" t="s">
+        <v>38</v>
+      </c>
+      <c r="D613" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>10123492</v>
+      </c>
+      <c r="C614" t="s">
+        <v>37</v>
+      </c>
+      <c r="D614" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B615">
+        <v>10123491</v>
+      </c>
+      <c r="C615" t="s">
+        <v>36</v>
+      </c>
+      <c r="D615" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B616">
+        <v>10123490</v>
+      </c>
+      <c r="C616" t="s">
+        <v>35</v>
+      </c>
+      <c r="D616" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>10123489</v>
+      </c>
+      <c r="C617" t="s">
+        <v>34</v>
+      </c>
+      <c r="D617" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B618">
+        <v>10123488</v>
+      </c>
+      <c r="C618" t="s">
+        <v>33</v>
+      </c>
+      <c r="D618" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B619">
         <v>10123487</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C619" t="s">
         <v>32</v>
       </c>
-      <c r="D528" t="s">
+      <c r="D619" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B529">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B620">
         <v>10123486</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C620" t="s">
         <v>31</v>
       </c>
-      <c r="D529" t="s">
+      <c r="D620" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B530">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B621">
         <v>10123485</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C621" t="s">
         <v>30</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D621" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B531">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B622">
         <v>10123484</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C622" t="s">
         <v>29</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D622" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B532">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B623">
         <v>10123483</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C623" t="s">
         <v>28</v>
       </c>
-      <c r="D532" t="s">
+      <c r="D623" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B533">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B624">
         <v>10123482</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C624" t="s">
         <v>27</v>
       </c>
-      <c r="D533" t="s">
+      <c r="D624" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B534">
+    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B625">
         <v>10123481</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C625" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B535">
+    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B626">
         <v>10123480</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C626" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B536">
+    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B627">
         <v>10123479</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C627" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B537">
+    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B628">
         <v>10123478</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C628" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B538">
+    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B629">
         <v>10123477</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C629" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B539">
+    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B630">
         <v>10123476</v>
       </c>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B540">
+    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B631">
         <v>10123475</v>
       </c>
-      <c r="C540" t="s">
+      <c r="C631" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B541">
+    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B632">
         <v>10123474</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C632" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B542">
+    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B633">
         <v>10123473</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C633" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B543">
+    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B634">
         <v>10123472</v>
       </c>
-      <c r="C543" t="s">
+      <c r="C634" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B544">
+    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B635">
         <v>10123471</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C635" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B545">
+    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B636">
         <v>10123470</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C636" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B546">
+    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B637">
         <v>10123469</v>
       </c>
-      <c r="C546" t="s">
+      <c r="C637" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B547">
+    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B638">
         <v>10123468</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C638" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="548" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B548">
+    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B639">
         <v>10123467</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C639" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B549">
+    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B640">
         <v>10123466</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C640" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B550">
+    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B641">
         <v>10123465</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C641" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="551" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B551">
+    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B642">
         <v>10123464</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C642" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B552">
+    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B643">
         <v>10123463</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C643" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="553" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B553">
+    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B644">
         <v>10123462</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C644" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B554">
+    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B645">
         <v>10123461</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C645" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="555" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B555">
+    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B646">
         <v>10123460</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C646" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B556">
+    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B647">
         <v>10123459</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C647" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B557">
+    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B648">
         <v>10123458</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C648" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="558" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B558">
+    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B649">
         <v>10123457</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C649" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="559" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B559">
+    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B650">
         <v>10123456</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C650" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B560">
+    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B651">
         <v>10123455</v>
       </c>
     </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B561">
+    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B652">
         <v>10123454</v>
       </c>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B562">
+    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B653">
         <v>10123453</v>
       </c>
     </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B563">
+    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B654">
         <v>10123452</v>
       </c>
     </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B564">
+    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B655">
         <v>10123451</v>
       </c>
     </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B565">
+    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B656">
         <v>10123450</v>
       </c>
     </row>

--- a/Patents.xlsx
+++ b/Patents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465040F-576C-4524-A1B1-AF649CC9D67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF03E49-4E91-4D2A-8C2A-5450E0F2CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="1755" windowWidth="28200" windowHeight="18270" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
+    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="687">
   <si>
     <t>Number</t>
   </si>
@@ -2031,6 +2031,72 @@
   </si>
   <si>
     <t>Composition, molded article, thread, medical kit and medical product with improved degradation profile</t>
+  </si>
+  <si>
+    <t>Detachable coupling for catheter</t>
+  </si>
+  <si>
+    <t>Lubricious medical device elements</t>
+  </si>
+  <si>
+    <t>Method of making biomedical patches with spatially arranged fibers</t>
+  </si>
+  <si>
+    <t>Embolic devices</t>
+  </si>
+  <si>
+    <t>Radioactive monolayer surface coating</t>
+  </si>
+  <si>
+    <t>Air leak detection device and electrically powered suction equipment provided therewith</t>
+  </si>
+  <si>
+    <t>System and method for hybrid control of reduced pressures delivered to a tissue site</t>
+  </si>
+  <si>
+    <t>Adaptive algorithm for thoracic drainage therapy</t>
+  </si>
+  <si>
+    <t>Instillation cartridge for vacuum actuated fluid delivery</t>
+  </si>
+  <si>
+    <t>Suction device</t>
+  </si>
+  <si>
+    <t>Reduced-pressure treatment systems with reservoir control</t>
+  </si>
+  <si>
+    <t>Negative pressure wound closure device and systems and methods of use in treating wounds with negative pressure</t>
+  </si>
+  <si>
+    <t>Physiologically responsive VAD</t>
+  </si>
+  <si>
+    <t>Ventricular assist device and related methods</t>
+  </si>
+  <si>
+    <t>Fluid resistant locking electrical connector for ventricular assist devices</t>
+  </si>
+  <si>
+    <t>Endovascular permanent heart assist device</t>
+  </si>
+  <si>
+    <t>Method for operating an extracorporeal blood treatment apparatus and blood treatment apparatus</t>
+  </si>
+  <si>
+    <t>Dialysate regeneration unit and blood dialyzing apparatus having the same</t>
+  </si>
+  <si>
+    <t>Device for the extracorporeal oxygenation of the blood of a patient</t>
+  </si>
+  <si>
+    <t>Blood purification apparatus</t>
+  </si>
+  <si>
+    <t>Cleaning of biological fluid</t>
+  </si>
+  <si>
+    <t>Apparatus for extracorporeal blood treatment and a related control method</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2391,13 +2457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B5D30-8254-4691-B3D5-BE87303558F1}">
-  <dimension ref="A2:G656"/>
+  <dimension ref="A2:G661"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2429,4521 +2495,4562 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3">
-        <f t="shared" ref="B3:B10" si="0">+B4+1</f>
-        <v>10124103</v>
+        <f t="shared" ref="B3:B8" si="0">+B4+1</f>
+        <v>10124108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>10124102</v>
+        <v>10124107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>10124101</v>
+        <v>10124106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>10124100</v>
+        <v>10124105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>10124099</v>
+        <v>10124104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>10124098</v>
+        <f t="shared" ref="B8:B14" si="1">+B9+1</f>
+        <v>10124103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>10124097</v>
+        <f t="shared" si="1"/>
+        <v>10124102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
-        <f t="shared" ref="B10:B22" si="1">+B11+1</f>
-        <v>10124096</v>
+        <f t="shared" si="1"/>
+        <v>10124101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>10124095</v>
+        <v>10124100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <f t="shared" si="1"/>
-        <v>10124094</v>
+        <v>10124099</v>
+      </c>
+      <c r="C12" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13">
         <f t="shared" si="1"/>
-        <v>10124093</v>
+        <v>10124098</v>
+      </c>
+      <c r="C13" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="1"/>
-        <v>10124092</v>
+        <v>10124097</v>
+      </c>
+      <c r="C14" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15">
-        <f t="shared" si="1"/>
-        <v>10124091</v>
+        <f t="shared" ref="B15:B26" si="2">+B16+1</f>
+        <v>10124096</v>
+      </c>
+      <c r="C15" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>10124095</v>
+      </c>
+      <c r="C16" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f t="shared" si="2"/>
+        <v>10124094</v>
+      </c>
+      <c r="C17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <f t="shared" si="2"/>
+        <v>10124093</v>
+      </c>
+      <c r="C18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>10124092</v>
+      </c>
+      <c r="C19" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f t="shared" si="2"/>
+        <v>10124091</v>
+      </c>
+      <c r="C20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <f t="shared" si="2"/>
         <v>10124090</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <f t="shared" si="1"/>
+      <c r="C21" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <f t="shared" si="2"/>
         <v>10124089</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <f t="shared" si="1"/>
-        <v>10124088</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f t="shared" si="1"/>
-        <v>10124087</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f t="shared" si="1"/>
-        <v>10124086</v>
-      </c>
-      <c r="C20" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" si="1"/>
-        <v>10124085</v>
-      </c>
-      <c r="C21" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f t="shared" ref="B22:B34" si="2">+B23+1</f>
-        <v>10124084</v>
-      </c>
       <c r="C22" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>10124083</v>
+        <v>10124088</v>
       </c>
       <c r="C23" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="2"/>
-        <v>10124082</v>
+        <v>10124087</v>
       </c>
       <c r="C24" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>10124081</v>
+        <v>10124086</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="2"/>
+        <v>10124085</v>
+      </c>
+      <c r="C26" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f t="shared" ref="B27:B38" si="3">+B28+1</f>
+        <v>10124084</v>
+      </c>
+      <c r="C27" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f t="shared" si="3"/>
+        <v>10124083</v>
+      </c>
+      <c r="C28" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f t="shared" si="3"/>
+        <v>10124082</v>
+      </c>
+      <c r="C29" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f t="shared" si="3"/>
+        <v>10124081</v>
+      </c>
+      <c r="C30" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f t="shared" si="3"/>
         <v>10124080</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C31" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f t="shared" si="2"/>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <f t="shared" si="3"/>
         <v>10124079</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C32" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <f t="shared" si="2"/>
-        <v>10124078</v>
-      </c>
-      <c r="C28" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <f t="shared" si="2"/>
-        <v>10124077</v>
-      </c>
-      <c r="C29" t="s">
-        <v>654</v>
-      </c>
-      <c r="D29" t="s">
-        <v>551</v>
-      </c>
-      <c r="E29" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <f t="shared" si="2"/>
-        <v>10124076</v>
-      </c>
-      <c r="C30" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <f t="shared" si="2"/>
-        <v>10124075</v>
-      </c>
-      <c r="C31" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <f t="shared" si="2"/>
-        <v>10124074</v>
-      </c>
-      <c r="C32" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
-        <f t="shared" si="2"/>
-        <v>10124073</v>
+        <f t="shared" si="3"/>
+        <v>10124078</v>
       </c>
       <c r="C33" t="s">
-        <v>649</v>
-      </c>
-      <c r="D33" t="s">
-        <v>551</v>
-      </c>
-      <c r="E33" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
-        <f t="shared" ref="B34:B41" si="3">+B35+1</f>
-        <v>10124072</v>
+        <f t="shared" si="3"/>
+        <v>10124077</v>
       </c>
       <c r="C34" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="D34" t="s">
         <v>551</v>
       </c>
       <c r="E34" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>10124071</v>
+        <v>10124076</v>
       </c>
       <c r="C35" t="s">
-        <v>645</v>
-      </c>
-      <c r="D35" t="s">
-        <v>551</v>
-      </c>
-      <c r="E35" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" si="3"/>
-        <v>10124070</v>
+        <v>10124075</v>
       </c>
       <c r="C36" t="s">
-        <v>643</v>
-      </c>
-      <c r="D36" t="s">
-        <v>551</v>
-      </c>
-      <c r="E36" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" si="3"/>
-        <v>10124069</v>
+        <v>10124074</v>
       </c>
       <c r="C37" t="s">
-        <v>641</v>
-      </c>
-      <c r="D37" t="s">
-        <v>551</v>
-      </c>
-      <c r="E37" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" si="3"/>
-        <v>10124068</v>
+        <v>10124073</v>
       </c>
       <c r="C38" t="s">
-        <v>640</v>
+        <v>649</v>
+      </c>
+      <c r="D38" t="s">
+        <v>551</v>
+      </c>
+      <c r="E38" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <f t="shared" si="3"/>
-        <v>10124067</v>
+        <f t="shared" ref="B39:B45" si="4">+B40+1</f>
+        <v>10124072</v>
       </c>
       <c r="C39" t="s">
-        <v>639</v>
+        <v>647</v>
+      </c>
+      <c r="D39" t="s">
+        <v>551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <f t="shared" si="3"/>
-        <v>10124066</v>
+        <f t="shared" si="4"/>
+        <v>10124071</v>
       </c>
       <c r="C40" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="D40" t="s">
         <v>551</v>
       </c>
       <c r="E40" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
-        <f t="shared" ref="B41:B51" si="4">+B42+1</f>
-        <v>10124065</v>
+        <f t="shared" si="4"/>
+        <v>10124070</v>
       </c>
       <c r="C41" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="D41" t="s">
         <v>551</v>
       </c>
       <c r="E41" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" si="4"/>
-        <v>10124064</v>
+        <v>10124069</v>
       </c>
       <c r="C42" t="s">
-        <v>633</v>
+        <v>641</v>
+      </c>
+      <c r="D42" t="s">
+        <v>551</v>
+      </c>
+      <c r="E42" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="4"/>
-        <v>10124063</v>
+        <v>10124068</v>
       </c>
       <c r="C43" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="4"/>
-        <v>10124062</v>
+        <v>10124067</v>
       </c>
       <c r="C44" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="4"/>
-        <v>10124061</v>
+        <v>10124066</v>
       </c>
       <c r="C45" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="D45" t="s">
         <v>551</v>
       </c>
       <c r="E45" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
-        <f t="shared" si="4"/>
-        <v>10124060</v>
+        <f t="shared" ref="B46:B56" si="5">+B47+1</f>
+        <v>10124065</v>
       </c>
       <c r="C46" t="s">
-        <v>629</v>
+        <v>636</v>
+      </c>
+      <c r="D46" t="s">
+        <v>551</v>
+      </c>
+      <c r="E46" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
-        <f t="shared" si="4"/>
-        <v>10124059</v>
+        <f t="shared" si="5"/>
+        <v>10124064</v>
       </c>
       <c r="C47" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
-        <f t="shared" si="4"/>
-        <v>10124058</v>
+        <f t="shared" si="5"/>
+        <v>10124063</v>
       </c>
       <c r="C48" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
-        <f t="shared" si="4"/>
-        <v>10124057</v>
+        <f t="shared" si="5"/>
+        <v>10124062</v>
       </c>
       <c r="C49" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>10124056</v>
+        <f t="shared" si="5"/>
+        <v>10124061</v>
       </c>
       <c r="C50" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="D50" t="s">
+        <v>551</v>
+      </c>
+      <c r="E50" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>10124055</v>
+        <f t="shared" si="5"/>
+        <v>10124060</v>
       </c>
       <c r="C51" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52">
-        <f t="shared" ref="B52:B58" si="5">+B53+1</f>
-        <v>10124054</v>
+        <f t="shared" si="5"/>
+        <v>10124059</v>
       </c>
       <c r="C52" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53">
         <f t="shared" si="5"/>
-        <v>10124053</v>
+        <v>10124058</v>
       </c>
       <c r="C53" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54">
         <f t="shared" si="5"/>
-        <v>10124052</v>
+        <v>10124057</v>
       </c>
       <c r="C54" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55">
         <f t="shared" si="5"/>
-        <v>10124051</v>
+        <v>10124056</v>
       </c>
       <c r="C55" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56">
         <f t="shared" si="5"/>
-        <v>10124050</v>
+        <v>10124055</v>
       </c>
       <c r="C56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57">
-        <f t="shared" si="5"/>
-        <v>10124049</v>
+        <f t="shared" ref="B57:B63" si="6">+B58+1</f>
+        <v>10124054</v>
       </c>
       <c r="C57" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58">
-        <f t="shared" si="5"/>
-        <v>10124048</v>
+        <f t="shared" si="6"/>
+        <v>10124053</v>
       </c>
       <c r="C58" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59">
-        <f t="shared" ref="B59:B71" si="6">+B60+1</f>
-        <v>10124047</v>
+        <f t="shared" si="6"/>
+        <v>10124052</v>
       </c>
       <c r="C59" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60">
         <f t="shared" si="6"/>
-        <v>10124046</v>
+        <v>10124051</v>
       </c>
       <c r="C60" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61">
         <f t="shared" si="6"/>
-        <v>10124045</v>
+        <v>10124050</v>
       </c>
       <c r="C61" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62">
         <f t="shared" si="6"/>
-        <v>10124044</v>
+        <v>10124049</v>
       </c>
       <c r="C62" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63">
         <f t="shared" si="6"/>
-        <v>10124043</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+        <v>10124048</v>
+      </c>
+      <c r="C63" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64">
-        <f t="shared" si="6"/>
-        <v>10124042</v>
+        <f t="shared" ref="B64:B76" si="7">+B65+1</f>
+        <v>10124047</v>
       </c>
       <c r="C64" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65">
-        <f t="shared" si="6"/>
-        <v>10124041</v>
+        <f t="shared" si="7"/>
+        <v>10124046</v>
       </c>
       <c r="C65" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66">
-        <f t="shared" si="6"/>
-        <v>10124040</v>
+        <f t="shared" si="7"/>
+        <v>10124045</v>
       </c>
       <c r="C66" t="s">
-        <v>608</v>
-      </c>
-      <c r="D66" t="s">
-        <v>551</v>
-      </c>
-      <c r="E66" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67">
-        <f t="shared" si="6"/>
-        <v>10124039</v>
+        <f t="shared" si="7"/>
+        <v>10124044</v>
       </c>
       <c r="C67" t="s">
-        <v>606</v>
-      </c>
-      <c r="D67" t="s">
-        <v>551</v>
-      </c>
-      <c r="E67" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <f t="shared" si="6"/>
-        <v>10124038</v>
-      </c>
-      <c r="C68" t="s">
-        <v>605</v>
-      </c>
-      <c r="D68" t="s">
-        <v>551</v>
-      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="7"/>
+        <v>10124043</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69">
-        <f t="shared" si="6"/>
-        <v>10124037</v>
+        <f t="shared" si="7"/>
+        <v>10124042</v>
       </c>
       <c r="C69" t="s">
-        <v>603</v>
-      </c>
-      <c r="D69" t="s">
-        <v>551</v>
-      </c>
-      <c r="E69" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70">
-        <f t="shared" si="6"/>
-        <v>10124036</v>
+        <f t="shared" si="7"/>
+        <v>10124041</v>
       </c>
       <c r="C70" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71">
-        <f t="shared" si="6"/>
-        <v>10124035</v>
+        <f t="shared" si="7"/>
+        <v>10124040</v>
       </c>
       <c r="C71" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="D71" t="s">
         <v>551</v>
       </c>
       <c r="E71" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72">
-        <f t="shared" ref="B72:B81" si="7">+B73+1</f>
-        <v>10124034</v>
+        <f t="shared" si="7"/>
+        <v>10124039</v>
       </c>
       <c r="C72" t="s">
-        <v>599</v>
+        <v>606</v>
+      </c>
+      <c r="D72" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73">
         <f t="shared" si="7"/>
-        <v>10124033</v>
+        <v>10124038</v>
       </c>
       <c r="C73" t="s">
-        <v>598</v>
+        <v>605</v>
+      </c>
+      <c r="D73" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74">
         <f t="shared" si="7"/>
-        <v>10124032</v>
+        <v>10124037</v>
       </c>
       <c r="C74" t="s">
-        <v>597</v>
+        <v>603</v>
+      </c>
+      <c r="D74" t="s">
+        <v>551</v>
+      </c>
+      <c r="E74" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75">
         <f t="shared" si="7"/>
-        <v>10124031</v>
+        <v>10124036</v>
       </c>
       <c r="C75" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76">
         <f t="shared" si="7"/>
-        <v>10124030</v>
+        <v>10124035</v>
       </c>
       <c r="C76" t="s">
-        <v>595</v>
+        <v>600</v>
+      </c>
+      <c r="D76" t="s">
+        <v>551</v>
+      </c>
+      <c r="E76" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77">
-        <f t="shared" si="7"/>
-        <v>10124029</v>
+        <f t="shared" ref="B77:B86" si="8">+B78+1</f>
+        <v>10124034</v>
       </c>
       <c r="C77" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B78">
-        <f t="shared" si="7"/>
-        <v>10124028</v>
+        <f t="shared" si="8"/>
+        <v>10124033</v>
       </c>
       <c r="C78" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79">
-        <f t="shared" si="7"/>
-        <v>10124027</v>
+        <f t="shared" si="8"/>
+        <v>10124032</v>
       </c>
       <c r="C79" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80">
-        <f t="shared" si="7"/>
-        <v>10124026</v>
+        <f t="shared" si="8"/>
+        <v>10124031</v>
       </c>
       <c r="C80" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81">
-        <f t="shared" si="7"/>
-        <v>10124025</v>
+        <f t="shared" si="8"/>
+        <v>10124030</v>
       </c>
       <c r="C81" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82">
-        <f t="shared" ref="B82:B85" si="8">+B83+1</f>
-        <v>10124024</v>
+        <f t="shared" si="8"/>
+        <v>10124029</v>
       </c>
       <c r="C82" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83">
         <f t="shared" si="8"/>
-        <v>10124023</v>
+        <v>10124028</v>
       </c>
       <c r="C83" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84">
         <f t="shared" si="8"/>
-        <v>10124022</v>
+        <v>10124027</v>
       </c>
       <c r="C84" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85">
         <f t="shared" si="8"/>
-        <v>10124021</v>
+        <v>10124026</v>
       </c>
       <c r="C85" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86">
-        <f t="shared" ref="B86:B90" si="9">+B87+1</f>
-        <v>10124020</v>
+        <f t="shared" si="8"/>
+        <v>10124025</v>
       </c>
       <c r="C86" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87">
-        <f t="shared" si="9"/>
-        <v>10124019</v>
+        <f t="shared" ref="B87:B90" si="9">+B88+1</f>
+        <v>10124024</v>
       </c>
       <c r="C87" t="s">
-        <v>583</v>
-      </c>
-      <c r="E87" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88">
         <f t="shared" si="9"/>
-        <v>10124018</v>
+        <v>10124023</v>
+      </c>
+      <c r="C88" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89">
         <f t="shared" si="9"/>
-        <v>10124017</v>
+        <v>10124022</v>
       </c>
       <c r="C89" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90">
         <f t="shared" si="9"/>
-        <v>10124016</v>
+        <v>10124021</v>
       </c>
       <c r="C90" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91">
-        <f t="shared" ref="B91:B93" si="10">+B92+1</f>
-        <v>10124015</v>
+        <f t="shared" ref="B91:B95" si="10">+B92+1</f>
+        <v>10124020</v>
       </c>
       <c r="C91" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92">
         <f t="shared" si="10"/>
-        <v>10124014</v>
+        <v>10124019</v>
       </c>
       <c r="C92" t="s">
-        <v>579</v>
+        <v>583</v>
+      </c>
+      <c r="E92" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93">
         <f t="shared" si="10"/>
-        <v>10124013</v>
-      </c>
-      <c r="C93" t="s">
-        <v>578</v>
-      </c>
-      <c r="D93" t="s">
-        <v>551</v>
+        <v>10124018</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94">
-        <f t="shared" ref="B94:B96" si="11">+B95+1</f>
-        <v>10124012</v>
+        <f t="shared" si="10"/>
+        <v>10124017</v>
       </c>
       <c r="C94" t="s">
-        <v>577</v>
-      </c>
-      <c r="D94" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95">
-        <f t="shared" si="11"/>
-        <v>10124011</v>
+        <f t="shared" si="10"/>
+        <v>10124016</v>
       </c>
       <c r="C95" t="s">
-        <v>575</v>
-      </c>
-      <c r="D95" t="s">
-        <v>551</v>
-      </c>
-      <c r="E95" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96">
+        <f t="shared" ref="B96:B98" si="11">+B97+1</f>
+        <v>10124015</v>
+      </c>
+      <c r="C96" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97">
         <f t="shared" si="11"/>
-        <v>10124010</v>
-      </c>
-      <c r="C96" t="s">
-        <v>573</v>
-      </c>
-      <c r="D96" t="s">
-        <v>551</v>
-      </c>
-      <c r="E96" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97">
-        <f t="shared" ref="B97:B102" si="12">+B98+1</f>
-        <v>10124009</v>
+        <v>10124014</v>
       </c>
       <c r="C97" t="s">
-        <v>571</v>
-      </c>
-      <c r="D97" t="s">
-        <v>551</v>
-      </c>
-      <c r="E97" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98">
-        <f t="shared" si="12"/>
-        <v>10124008</v>
+        <f t="shared" si="11"/>
+        <v>10124013</v>
       </c>
       <c r="C98" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="D98" t="s">
         <v>551</v>
       </c>
-      <c r="E98" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99">
-        <f t="shared" si="12"/>
-        <v>10124007</v>
+        <f t="shared" ref="B99:B101" si="12">+B100+1</f>
+        <v>10124012</v>
       </c>
       <c r="C99" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="D99" t="s">
         <v>551</v>
       </c>
-      <c r="E99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100">
         <f t="shared" si="12"/>
-        <v>10124006</v>
+        <v>10124011</v>
       </c>
       <c r="C100" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D100" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101">
         <f t="shared" si="12"/>
-        <v>10124005</v>
+        <v>10124010</v>
       </c>
       <c r="C101" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+      <c r="D101" t="s">
+        <v>551</v>
+      </c>
+      <c r="E101" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102">
-        <f t="shared" si="12"/>
-        <v>10124004</v>
+        <f t="shared" ref="B102:B107" si="13">+B103+1</f>
+        <v>10124009</v>
       </c>
       <c r="C102" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="D102" t="s">
+        <v>551</v>
+      </c>
+      <c r="E102" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103">
-        <f t="shared" ref="B103:B109" si="13">+B104+1</f>
-        <v>10124003</v>
+        <f t="shared" si="13"/>
+        <v>10124008</v>
       </c>
       <c r="C103" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+      <c r="D103" t="s">
+        <v>551</v>
+      </c>
+      <c r="E103" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104">
         <f t="shared" si="13"/>
-        <v>10124002</v>
+        <v>10124007</v>
       </c>
       <c r="C104" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+        <v>567</v>
+      </c>
+      <c r="D104" t="s">
+        <v>551</v>
+      </c>
+      <c r="E104" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105">
         <f t="shared" si="13"/>
-        <v>10124001</v>
+        <v>10124006</v>
       </c>
       <c r="C105" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+      <c r="D105" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106">
         <f t="shared" si="13"/>
-        <v>10124000</v>
+        <v>10124005</v>
       </c>
       <c r="C106" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107">
         <f t="shared" si="13"/>
+        <v>10124004</v>
+      </c>
+      <c r="C107" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <f t="shared" ref="B108:B114" si="14">+B109+1</f>
+        <v>10124003</v>
+      </c>
+      <c r="C108" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <f t="shared" si="14"/>
+        <v>10124002</v>
+      </c>
+      <c r="C109" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <f t="shared" si="14"/>
+        <v>10124001</v>
+      </c>
+      <c r="C110" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <f t="shared" si="14"/>
+        <v>10124000</v>
+      </c>
+      <c r="C111" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <f t="shared" si="14"/>
         <v>10123999</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <f t="shared" si="13"/>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <f t="shared" si="14"/>
         <v>10123998</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C113" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109">
-        <f t="shared" si="13"/>
-        <v>10123997</v>
-      </c>
-      <c r="C109" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110">
-        <f t="shared" ref="B110:B114" si="14">+B111+1</f>
-        <v>10123996</v>
-      </c>
-      <c r="C110" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="1">
-        <f t="shared" si="14"/>
-        <v>10123995</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="F111" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="1">
-        <f t="shared" si="14"/>
-        <v>10123994</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F112" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="1">
-        <f t="shared" si="14"/>
-        <v>10123993</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F113" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114">
         <f t="shared" si="14"/>
-        <v>10123992</v>
+        <v>10123997</v>
       </c>
       <c r="C114" t="s">
-        <v>547</v>
-      </c>
-      <c r="E114" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115">
         <f t="shared" ref="B115:B119" si="15">+B116+1</f>
-        <v>10123991</v>
+        <v>10123996</v>
       </c>
       <c r="C115" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="1">
         <f t="shared" si="15"/>
-        <v>10123990</v>
-      </c>
-      <c r="C116" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117">
+        <v>10123995</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F116" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="1">
         <f t="shared" si="15"/>
-        <v>10123989</v>
-      </c>
-      <c r="C117" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118">
+        <v>10123994</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F117" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="1">
         <f t="shared" si="15"/>
-        <v>10123988</v>
-      </c>
-      <c r="C118" t="s">
-        <v>542</v>
-      </c>
-      <c r="E118" t="s">
-        <v>543</v>
+        <v>10123993</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F118" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119">
         <f t="shared" si="15"/>
-        <v>10123987</v>
+        <v>10123992</v>
       </c>
       <c r="C119" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="E119" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120">
-        <f t="shared" ref="B120:B122" si="16">+B121+1</f>
-        <v>10123986</v>
+        <f t="shared" ref="B120:B124" si="16">+B121+1</f>
+        <v>10123991</v>
       </c>
       <c r="C120" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121">
         <f t="shared" si="16"/>
-        <v>10123985</v>
+        <v>10123990</v>
       </c>
       <c r="C121" t="s">
-        <v>537</v>
-      </c>
-      <c r="E121" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122">
         <f t="shared" si="16"/>
-        <v>10123984</v>
+        <v>10123989</v>
       </c>
       <c r="C122" t="s">
-        <v>534</v>
-      </c>
-      <c r="E122" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123">
-        <f t="shared" ref="B123:B129" si="17">+B124+1</f>
-        <v>10123983</v>
+        <f t="shared" si="16"/>
+        <v>10123988</v>
       </c>
       <c r="C123" t="s">
-        <v>533</v>
+        <v>542</v>
+      </c>
+      <c r="E123" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="1">
-        <f t="shared" si="17"/>
-        <v>10123982</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>532</v>
+      <c r="B124">
+        <f t="shared" si="16"/>
+        <v>10123987</v>
+      </c>
+      <c r="C124" t="s">
+        <v>540</v>
+      </c>
+      <c r="E124" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125">
-        <f t="shared" si="17"/>
-        <v>10123981</v>
+        <f t="shared" ref="B125:B127" si="17">+B126+1</f>
+        <v>10123986</v>
       </c>
       <c r="C125" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126">
         <f t="shared" si="17"/>
-        <v>10123980</v>
+        <v>10123985</v>
       </c>
       <c r="C126" t="s">
-        <v>530</v>
+        <v>537</v>
+      </c>
+      <c r="E126" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127">
         <f t="shared" si="17"/>
-        <v>10123979</v>
+        <v>10123984</v>
       </c>
       <c r="C127" t="s">
-        <v>529</v>
+        <v>534</v>
+      </c>
+      <c r="E127" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128">
-        <f t="shared" si="17"/>
-        <v>10123978</v>
+        <f t="shared" ref="B128:B134" si="18">+B129+1</f>
+        <v>10123983</v>
       </c>
       <c r="C128" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129">
-        <f t="shared" si="17"/>
-        <v>10123977</v>
-      </c>
-      <c r="C129" t="s">
-        <v>527</v>
+      <c r="B129" s="1">
+        <f t="shared" si="18"/>
+        <v>10123982</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130">
-        <f t="shared" ref="B130:B134" si="18">+B131+1</f>
-        <v>10123976</v>
+        <f t="shared" si="18"/>
+        <v>10123981</v>
       </c>
       <c r="C130" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131">
         <f t="shared" si="18"/>
-        <v>10123975</v>
+        <v>10123980</v>
       </c>
       <c r="C131" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132">
         <f t="shared" si="18"/>
-        <v>10123974</v>
+        <v>10123979</v>
       </c>
       <c r="C132" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133">
         <f t="shared" si="18"/>
-        <v>10123973</v>
+        <v>10123978</v>
       </c>
       <c r="C133" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134">
         <f t="shared" si="18"/>
-        <v>10123972</v>
+        <v>10123977</v>
       </c>
       <c r="C134" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135">
-        <f t="shared" ref="B135:B138" si="19">+B136+1</f>
-        <v>10123971</v>
+        <f t="shared" ref="B135:B139" si="19">+B136+1</f>
+        <v>10123976</v>
       </c>
       <c r="C135" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="1">
+      <c r="B136">
         <f t="shared" si="19"/>
-        <v>10123970</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>520</v>
+        <v>10123975</v>
+      </c>
+      <c r="C136" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137">
         <f t="shared" si="19"/>
-        <v>10123969</v>
+        <v>10123974</v>
       </c>
       <c r="C137" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138">
         <f t="shared" si="19"/>
-        <v>10123968</v>
+        <v>10123973</v>
       </c>
       <c r="C138" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139">
-        <f t="shared" ref="B139:B144" si="20">+B140+1</f>
-        <v>10123967</v>
+        <f t="shared" si="19"/>
+        <v>10123972</v>
       </c>
       <c r="C139" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140">
+        <f t="shared" ref="B140:B143" si="20">+B141+1</f>
+        <v>10123971</v>
+      </c>
+      <c r="C140" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="1">
         <f t="shared" si="20"/>
-        <v>10123966</v>
-      </c>
-      <c r="C140" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141">
-        <f t="shared" si="20"/>
-        <v>10123965</v>
-      </c>
-      <c r="C141" t="s">
-        <v>515</v>
+        <v>10123970</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142">
         <f t="shared" si="20"/>
-        <v>10123964</v>
+        <v>10123969</v>
       </c>
       <c r="C142" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143">
         <f t="shared" si="20"/>
-        <v>10123963</v>
+        <v>10123968</v>
       </c>
       <c r="C143" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144">
-        <f t="shared" si="20"/>
-        <v>10123962</v>
+        <f t="shared" ref="B144:B149" si="21">+B145+1</f>
+        <v>10123967</v>
       </c>
       <c r="C144" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145">
-        <f t="shared" ref="B145:B147" si="21">+B146+1</f>
-        <v>10123961</v>
+        <f t="shared" si="21"/>
+        <v>10123966</v>
       </c>
       <c r="C145" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146">
         <f t="shared" si="21"/>
-        <v>10123960</v>
+        <v>10123965</v>
       </c>
       <c r="C146" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147">
         <f t="shared" si="21"/>
-        <v>10123959</v>
+        <v>10123964</v>
       </c>
       <c r="C147" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148">
-        <f t="shared" ref="B148:B150" si="22">+B149+1</f>
-        <v>10123958</v>
+        <f t="shared" si="21"/>
+        <v>10123963</v>
       </c>
       <c r="C148" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149">
-        <f t="shared" si="22"/>
-        <v>10123957</v>
+        <f t="shared" si="21"/>
+        <v>10123962</v>
       </c>
       <c r="C149" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150">
-        <f t="shared" si="22"/>
-        <v>10123956</v>
+        <f t="shared" ref="B150:B152" si="22">+B151+1</f>
+        <v>10123961</v>
       </c>
       <c r="C150" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151">
-        <f t="shared" ref="B151:B158" si="23">+B152+1</f>
-        <v>10123955</v>
+        <f t="shared" si="22"/>
+        <v>10123960</v>
       </c>
       <c r="C151" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152">
-        <f t="shared" si="23"/>
-        <v>10123954</v>
+        <f t="shared" si="22"/>
+        <v>10123959</v>
       </c>
       <c r="C152" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153">
-        <f t="shared" si="23"/>
-        <v>10123953</v>
+        <f t="shared" ref="B153:B155" si="23">+B154+1</f>
+        <v>10123958</v>
       </c>
       <c r="C153" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154">
         <f t="shared" si="23"/>
-        <v>10123952</v>
+        <v>10123957</v>
       </c>
       <c r="C154" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155">
         <f t="shared" si="23"/>
-        <v>10123951</v>
+        <v>10123956</v>
       </c>
       <c r="C155" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156">
-        <f t="shared" si="23"/>
-        <v>10123950</v>
+        <f t="shared" ref="B156:B163" si="24">+B157+1</f>
+        <v>10123955</v>
       </c>
       <c r="C156" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157">
-        <f t="shared" si="23"/>
-        <v>10123949</v>
+        <f t="shared" si="24"/>
+        <v>10123954</v>
       </c>
       <c r="C157" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158">
-        <f t="shared" si="23"/>
-        <v>10123948</v>
+        <f t="shared" si="24"/>
+        <v>10123953</v>
       </c>
       <c r="C158" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159">
-        <f t="shared" ref="B159:B160" si="24">+B160+1</f>
-        <v>10123947</v>
+        <f t="shared" si="24"/>
+        <v>10123952</v>
       </c>
       <c r="C159" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160">
         <f t="shared" si="24"/>
+        <v>10123951</v>
+      </c>
+      <c r="C160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <f t="shared" si="24"/>
+        <v>10123950</v>
+      </c>
+      <c r="C161" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <f t="shared" si="24"/>
+        <v>10123949</v>
+      </c>
+      <c r="C162" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <f t="shared" si="24"/>
+        <v>10123948</v>
+      </c>
+      <c r="C163" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <f t="shared" ref="B164:B165" si="25">+B165+1</f>
+        <v>10123947</v>
+      </c>
+      <c r="C164" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <f t="shared" si="25"/>
         <v>10123946</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C165" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B161">
-        <f>+B162+1</f>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <f>+B167+1</f>
         <v>10123945</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C166" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B162">
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167">
         <v>10123944</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C167" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B163">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168">
         <v>10123943</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C168" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B164">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169">
         <v>10123942</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C169" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B165">
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170">
         <v>10123941</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C170" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B166">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171">
         <v>10123940</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C171" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B167">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172">
         <v>10123939</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C172" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B168">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173">
         <v>10123938</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C173" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B169">
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174">
         <v>10123937</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C174" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B170">
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175">
         <v>10123936</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C175" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B171">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176">
         <v>10123935</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C176" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B172">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B177">
         <v>10123934</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C177" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1">
         <v>10123933</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B174">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B179">
         <v>10123932</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C179" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B175">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B180">
         <v>10123931</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C180" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B176">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B181">
         <v>10123930</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C181" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B177">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B182">
         <v>10123929</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C182" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B178">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B183">
         <v>10123928</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C183" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B179">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B184">
         <v>10123927</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C184" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B185">
         <v>10123926</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C185" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B181">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B186">
         <v>10123925</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C186" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B182">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B187">
         <v>10123924</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C187" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B183">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B188">
         <v>10123923</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C188" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B184">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B189">
         <v>10123922</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C189" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B185">
-        <f t="shared" ref="B185:B188" si="25">+B186+1</f>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <f t="shared" ref="B190:B193" si="26">+B191+1</f>
         <v>10123921</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C190" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B186">
-        <f t="shared" si="25"/>
-        <v>10123920</v>
-      </c>
-      <c r="C186" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B187">
-        <f t="shared" si="25"/>
-        <v>10123919</v>
-      </c>
-      <c r="C187" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B188">
-        <f t="shared" si="25"/>
-        <v>10123918</v>
-      </c>
-      <c r="C188" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B189">
-        <f t="shared" ref="B189:B192" si="26">+B190+1</f>
-        <v>10123917</v>
-      </c>
-      <c r="C189" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B190">
-        <f t="shared" si="26"/>
-        <v>10123916</v>
-      </c>
-      <c r="C190" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B191">
         <f t="shared" si="26"/>
-        <v>10123915</v>
+        <v>10123920</v>
       </c>
       <c r="C191" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B192">
         <f t="shared" si="26"/>
-        <v>10123914</v>
+        <v>10123919</v>
       </c>
       <c r="C192" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193">
-        <f t="shared" ref="B193:B196" si="27">+B194+1</f>
-        <v>10123913</v>
+        <f t="shared" si="26"/>
+        <v>10123918</v>
       </c>
       <c r="C193" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194">
-        <f t="shared" si="27"/>
-        <v>10123912</v>
+        <f t="shared" ref="B194:B197" si="27">+B195+1</f>
+        <v>10123917</v>
       </c>
       <c r="C194" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195">
         <f t="shared" si="27"/>
-        <v>10123911</v>
+        <v>10123916</v>
       </c>
       <c r="C195" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196">
         <f t="shared" si="27"/>
-        <v>10123910</v>
+        <v>10123915</v>
       </c>
       <c r="C196" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197">
-        <f t="shared" ref="B197:B199" si="28">+B198+1</f>
-        <v>10123909</v>
+        <f t="shared" si="27"/>
+        <v>10123914</v>
       </c>
       <c r="C197" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198">
-        <f t="shared" si="28"/>
-        <v>10123908</v>
+        <f t="shared" ref="B198:B201" si="28">+B199+1</f>
+        <v>10123913</v>
       </c>
       <c r="C198" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199">
         <f t="shared" si="28"/>
-        <v>10123907</v>
+        <v>10123912</v>
       </c>
       <c r="C199" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200">
-        <f>+B201+1</f>
-        <v>10123906</v>
+        <f t="shared" si="28"/>
+        <v>10123911</v>
       </c>
       <c r="C200" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201">
-        <v>10123905</v>
+        <f t="shared" si="28"/>
+        <v>10123910</v>
       </c>
       <c r="C201" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202">
-        <v>10123904</v>
+        <f t="shared" ref="B202:B204" si="29">+B203+1</f>
+        <v>10123909</v>
       </c>
       <c r="C202" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203">
-        <v>10123903</v>
+        <f t="shared" si="29"/>
+        <v>10123908</v>
       </c>
       <c r="C203" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204">
-        <v>10123902</v>
+        <f t="shared" si="29"/>
+        <v>10123907</v>
       </c>
       <c r="C204" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205">
-        <v>10123901</v>
+        <f>+B206+1</f>
+        <v>10123906</v>
       </c>
       <c r="C205" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206">
-        <v>10123900</v>
+        <v>10123905</v>
       </c>
       <c r="C206" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207">
-        <v>10123899</v>
+        <v>10123904</v>
       </c>
       <c r="C207" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208">
-        <v>10123898</v>
+        <v>10123903</v>
       </c>
       <c r="C208" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209">
-        <v>10123897</v>
+        <v>10123902</v>
       </c>
       <c r="C209" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210">
-        <v>10123896</v>
+        <v>10123901</v>
       </c>
       <c r="C210" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211">
-        <v>10123895</v>
+        <v>10123900</v>
       </c>
       <c r="C211" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212">
-        <v>10123894</v>
+        <v>10123899</v>
       </c>
       <c r="C212" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213">
-        <v>10123893</v>
+        <v>10123898</v>
       </c>
       <c r="C213" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214">
-        <v>10123892</v>
+        <v>10123897</v>
       </c>
       <c r="C214" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215">
-        <v>10123891</v>
+        <v>10123896</v>
       </c>
       <c r="C215" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216">
-        <v>10123890</v>
+        <v>10123895</v>
       </c>
       <c r="C216" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217">
-        <v>10123889</v>
+        <v>10123894</v>
       </c>
       <c r="C217" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218">
-        <v>10123888</v>
+        <v>10123893</v>
       </c>
       <c r="C218" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219">
-        <v>10123887</v>
+        <v>10123892</v>
       </c>
       <c r="C219" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220">
-        <v>10123886</v>
+        <v>10123891</v>
       </c>
       <c r="C220" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221">
-        <v>10123885</v>
+        <v>10123890</v>
       </c>
       <c r="C221" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222">
-        <v>10123884</v>
+        <v>10123889</v>
       </c>
       <c r="C222" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223">
-        <v>10123883</v>
+        <v>10123888</v>
       </c>
       <c r="C223" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224">
-        <v>10123882</v>
+        <v>10123887</v>
       </c>
       <c r="C224" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225">
-        <v>10123881</v>
+        <v>10123886</v>
       </c>
       <c r="C225" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226">
-        <v>10123880</v>
+        <v>10123885</v>
       </c>
       <c r="C226" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227">
-        <v>10123879</v>
+        <v>10123884</v>
       </c>
       <c r="C227" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228">
-        <v>10123878</v>
+        <v>10123883</v>
       </c>
       <c r="C228" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229">
-        <v>10123877</v>
+        <v>10123882</v>
       </c>
       <c r="C229" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230">
-        <v>10123876</v>
+        <v>10123881</v>
       </c>
       <c r="C230" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231">
-        <v>10123875</v>
+        <v>10123880</v>
       </c>
       <c r="C231" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232">
-        <v>10123874</v>
+        <v>10123879</v>
       </c>
       <c r="C232" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233">
-        <v>10123873</v>
+        <v>10123878</v>
       </c>
       <c r="C233" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234">
-        <v>10123872</v>
+        <v>10123877</v>
       </c>
       <c r="C234" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235">
-        <v>10123871</v>
+        <v>10123876</v>
       </c>
       <c r="C235" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236">
-        <v>10123870</v>
+        <v>10123875</v>
       </c>
       <c r="C236" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237">
-        <v>10123869</v>
+        <v>10123874</v>
       </c>
       <c r="C237" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238">
-        <v>10123868</v>
+        <v>10123873</v>
       </c>
       <c r="C238" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239">
-        <v>10123867</v>
+        <v>10123872</v>
       </c>
       <c r="C239" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240">
-        <v>10123866</v>
+        <v>10123871</v>
       </c>
       <c r="C240" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B241">
-        <v>10123865</v>
+        <v>10123870</v>
       </c>
       <c r="C241" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B242">
-        <v>10123864</v>
+        <v>10123869</v>
       </c>
       <c r="C242" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B243">
-        <v>10123863</v>
+        <v>10123868</v>
       </c>
       <c r="C243" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B244">
-        <v>10123862</v>
+        <v>10123867</v>
       </c>
       <c r="C244" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B245">
-        <v>10123861</v>
+        <v>10123866</v>
       </c>
       <c r="C245" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B246">
-        <v>10123860</v>
+        <v>10123865</v>
       </c>
       <c r="C246" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B247">
-        <v>10123859</v>
+        <v>10123864</v>
       </c>
       <c r="C247" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B248">
-        <v>10123858</v>
+        <v>10123863</v>
       </c>
       <c r="C248" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B249">
-        <v>10123857</v>
+        <v>10123862</v>
       </c>
       <c r="C249" t="s">
-        <v>408</v>
-      </c>
-      <c r="D249" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B250">
-        <v>10123856</v>
+        <v>10123861</v>
       </c>
       <c r="C250" t="s">
-        <v>407</v>
-      </c>
-      <c r="D250" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B251">
-        <v>10123855</v>
+        <v>10123860</v>
       </c>
       <c r="C251" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B252">
-        <v>10123854</v>
+        <v>10123859</v>
       </c>
       <c r="C252" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B253">
-        <v>10123853</v>
+        <v>10123858</v>
       </c>
       <c r="C253" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B254">
-        <v>10123852</v>
+        <v>10123857</v>
       </c>
       <c r="C254" t="s">
-        <v>403</v>
+        <v>408</v>
+      </c>
+      <c r="D254" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B255">
-        <v>10123851</v>
+        <v>10123856</v>
       </c>
       <c r="C255" t="s">
-        <v>402</v>
+        <v>407</v>
+      </c>
+      <c r="D255" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B256">
-        <v>10123850</v>
+        <v>10123855</v>
       </c>
       <c r="C256" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257">
-        <v>10123849</v>
+        <v>10123854</v>
       </c>
       <c r="C257" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258">
-        <v>10123848</v>
+        <v>10123853</v>
       </c>
       <c r="C258" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259">
-        <v>10123847</v>
+        <v>10123852</v>
       </c>
       <c r="C259" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260">
-        <v>10123846</v>
+        <v>10123851</v>
       </c>
       <c r="C260" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261">
-        <v>10123845</v>
+        <v>10123850</v>
       </c>
       <c r="C261" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262">
-        <v>10123844</v>
+        <v>10123849</v>
       </c>
       <c r="C262" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263">
-        <v>10123843</v>
+        <v>10123848</v>
       </c>
       <c r="C263" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264">
-        <f t="shared" ref="B264:B266" si="29">+B265+1</f>
-        <v>10123842</v>
+        <v>10123847</v>
       </c>
       <c r="C264" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265">
-        <f t="shared" si="29"/>
-        <v>10123841</v>
+        <v>10123846</v>
       </c>
       <c r="C265" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266">
-        <f t="shared" si="29"/>
-        <v>10123840</v>
+        <v>10123845</v>
       </c>
       <c r="C266" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267">
-        <f t="shared" ref="B267:B277" si="30">+B268+1</f>
-        <v>10123839</v>
+        <v>10123844</v>
       </c>
       <c r="C267" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268">
-        <f t="shared" si="30"/>
-        <v>10123838</v>
+        <v>10123843</v>
       </c>
       <c r="C268" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269">
-        <f t="shared" si="30"/>
-        <v>10123837</v>
+        <f t="shared" ref="B269:B271" si="30">+B270+1</f>
+        <v>10123842</v>
       </c>
       <c r="C269" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270">
         <f t="shared" si="30"/>
-        <v>10123836</v>
+        <v>10123841</v>
       </c>
       <c r="C270" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271">
         <f t="shared" si="30"/>
-        <v>10123835</v>
+        <v>10123840</v>
       </c>
       <c r="C271" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272">
-        <f t="shared" si="30"/>
-        <v>10123834</v>
+        <f t="shared" ref="B272:B282" si="31">+B273+1</f>
+        <v>10123839</v>
       </c>
       <c r="C272" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273">
-        <f t="shared" si="30"/>
-        <v>10123833</v>
+        <f t="shared" si="31"/>
+        <v>10123838</v>
       </c>
       <c r="C273" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274">
-        <f t="shared" si="30"/>
-        <v>10123832</v>
+        <f t="shared" si="31"/>
+        <v>10123837</v>
       </c>
       <c r="C274" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275">
-        <f t="shared" si="30"/>
-        <v>10123831</v>
+        <f t="shared" si="31"/>
+        <v>10123836</v>
       </c>
       <c r="C275" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276">
-        <f t="shared" si="30"/>
-        <v>10123830</v>
+        <f t="shared" si="31"/>
+        <v>10123835</v>
       </c>
       <c r="C276" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277">
-        <f t="shared" si="30"/>
-        <v>10123829</v>
+        <f t="shared" si="31"/>
+        <v>10123834</v>
       </c>
       <c r="C277" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278">
-        <f t="shared" ref="B278:B288" si="31">+B279+1</f>
-        <v>10123828</v>
+        <f t="shared" si="31"/>
+        <v>10123833</v>
       </c>
       <c r="C278" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279">
         <f t="shared" si="31"/>
-        <v>10123827</v>
+        <v>10123832</v>
       </c>
       <c r="C279" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280">
         <f t="shared" si="31"/>
-        <v>10123826</v>
+        <v>10123831</v>
       </c>
       <c r="C280" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281">
         <f t="shared" si="31"/>
-        <v>10123825</v>
+        <v>10123830</v>
       </c>
       <c r="C281" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282">
         <f t="shared" si="31"/>
-        <v>10123824</v>
+        <v>10123829</v>
       </c>
       <c r="C282" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283">
-        <f t="shared" si="31"/>
-        <v>10123823</v>
+        <f t="shared" ref="B283:B293" si="32">+B284+1</f>
+        <v>10123828</v>
       </c>
       <c r="C283" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284">
-        <f t="shared" si="31"/>
-        <v>10123822</v>
+        <f t="shared" si="32"/>
+        <v>10123827</v>
       </c>
       <c r="C284" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285">
-        <f t="shared" si="31"/>
-        <v>10123821</v>
+        <f t="shared" si="32"/>
+        <v>10123826</v>
       </c>
       <c r="C285" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286">
-        <f t="shared" si="31"/>
-        <v>10123820</v>
+        <f t="shared" si="32"/>
+        <v>10123825</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287">
-        <f t="shared" si="31"/>
-        <v>10123819</v>
+        <f t="shared" si="32"/>
+        <v>10123824</v>
       </c>
       <c r="C287" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288">
-        <f t="shared" si="31"/>
-        <v>10123818</v>
+        <f t="shared" si="32"/>
+        <v>10123823</v>
       </c>
       <c r="C288" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289">
-        <f t="shared" ref="B289:B300" si="32">+B290+1</f>
-        <v>10123817</v>
+        <f t="shared" si="32"/>
+        <v>10123822</v>
       </c>
       <c r="C289" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290">
         <f t="shared" si="32"/>
-        <v>10123816</v>
+        <v>10123821</v>
       </c>
       <c r="C290" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291">
         <f t="shared" si="32"/>
-        <v>10123815</v>
+        <v>10123820</v>
       </c>
       <c r="C291" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292">
         <f t="shared" si="32"/>
-        <v>10123814</v>
+        <v>10123819</v>
       </c>
       <c r="C292" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293">
         <f t="shared" si="32"/>
-        <v>10123813</v>
+        <v>10123818</v>
       </c>
       <c r="C293" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294">
-        <f t="shared" si="32"/>
-        <v>10123812</v>
+        <f t="shared" ref="B294:B305" si="33">+B295+1</f>
+        <v>10123817</v>
       </c>
       <c r="C294" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295">
-        <f t="shared" si="32"/>
-        <v>10123811</v>
+        <f t="shared" si="33"/>
+        <v>10123816</v>
       </c>
       <c r="C295" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296">
-        <f t="shared" si="32"/>
-        <v>10123810</v>
+        <f t="shared" si="33"/>
+        <v>10123815</v>
       </c>
       <c r="C296" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297">
-        <f t="shared" si="32"/>
-        <v>10123809</v>
+        <f t="shared" si="33"/>
+        <v>10123814</v>
       </c>
       <c r="C297" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298">
-        <f t="shared" si="32"/>
-        <v>10123808</v>
+        <f t="shared" si="33"/>
+        <v>10123813</v>
       </c>
       <c r="C298" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299">
-        <f t="shared" si="32"/>
-        <v>10123807</v>
+        <f t="shared" si="33"/>
+        <v>10123812</v>
       </c>
       <c r="C299" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300">
-        <f t="shared" si="32"/>
-        <v>10123806</v>
+        <f t="shared" si="33"/>
+        <v>10123811</v>
       </c>
       <c r="C300" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301">
-        <f>+B302+1</f>
-        <v>10123805</v>
+        <f t="shared" si="33"/>
+        <v>10123810</v>
       </c>
       <c r="C301" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302">
+        <f t="shared" si="33"/>
+        <v>10123809</v>
+      </c>
+      <c r="C302" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <f t="shared" si="33"/>
+        <v>10123808</v>
+      </c>
+      <c r="C303" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <f t="shared" si="33"/>
+        <v>10123807</v>
+      </c>
+      <c r="C304" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <f t="shared" si="33"/>
+        <v>10123806</v>
+      </c>
+      <c r="C305" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <f>+B307+1</f>
+        <v>10123805</v>
+      </c>
+      <c r="C306" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307">
         <v>10123804</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C307" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B303" s="1">
-        <v>10123803</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B304" s="1">
-        <v>10123802</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B305" s="1">
-        <v>10123801</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B306" s="1">
-        <v>10123800</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B307" s="1">
-        <v>10123799</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="1">
-        <v>10123798</v>
+        <v>10123803</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="1">
-        <v>10123797</v>
+        <v>10123802</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="1">
-        <v>10123796</v>
+        <v>10123801</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="1">
-        <v>10123795</v>
+        <v>10123800</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="1">
+        <v>10123799</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" s="1">
+        <v>10123798</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="1">
+        <v>10123797</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315" s="1">
+        <v>10123796</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316" s="1">
+        <v>10123795</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317" s="1">
         <v>10123794</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B313">
-        <v>10123793</v>
-      </c>
-      <c r="C313" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B314">
-        <v>10123792</v>
-      </c>
-      <c r="C314" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B315">
-        <v>10123791</v>
-      </c>
-      <c r="C315" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B316">
-        <v>10123790</v>
-      </c>
-      <c r="C316" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B317">
-        <v>10123789</v>
-      </c>
-      <c r="C317" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318">
-        <v>10123788</v>
+        <v>10123793</v>
       </c>
       <c r="C318" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319">
-        <v>10123787</v>
+        <v>10123792</v>
       </c>
       <c r="C319" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320">
-        <v>10123786</v>
+        <v>10123791</v>
       </c>
       <c r="C320" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321">
-        <v>10123785</v>
+        <v>10123790</v>
       </c>
       <c r="C321" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322">
-        <v>10123784</v>
+        <v>10123789</v>
       </c>
       <c r="C322" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323">
-        <v>10123783</v>
+        <v>10123788</v>
       </c>
       <c r="C323" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324">
-        <v>10123782</v>
+        <v>10123787</v>
       </c>
       <c r="C324" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325">
-        <v>10123781</v>
+        <v>10123786</v>
       </c>
       <c r="C325" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326">
-        <v>10123780</v>
+        <v>10123785</v>
       </c>
       <c r="C326" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327">
-        <v>10123779</v>
+        <v>10123784</v>
       </c>
       <c r="C327" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328">
-        <v>10123778</v>
+        <v>10123783</v>
       </c>
       <c r="C328" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329">
-        <v>10123777</v>
+        <v>10123782</v>
       </c>
       <c r="C329" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330">
-        <v>10123776</v>
+        <v>10123781</v>
       </c>
       <c r="C330" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331">
-        <v>10123775</v>
+        <v>10123780</v>
       </c>
       <c r="C331" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332">
-        <v>10123774</v>
+        <v>10123779</v>
       </c>
       <c r="C332" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333">
-        <v>10123773</v>
+        <v>10123778</v>
       </c>
       <c r="C333" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334">
-        <v>10123772</v>
+        <v>10123777</v>
       </c>
       <c r="C334" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335">
-        <v>10123771</v>
+        <v>10123776</v>
       </c>
       <c r="C335" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336">
-        <v>10123770</v>
+        <v>10123775</v>
       </c>
       <c r="C336" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337">
-        <v>10123769</v>
+        <v>10123774</v>
       </c>
       <c r="C337" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338">
-        <v>10123768</v>
+        <v>10123773</v>
       </c>
       <c r="C338" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339">
-        <v>10123767</v>
+        <v>10123772</v>
       </c>
       <c r="C339" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340">
-        <v>10123766</v>
+        <v>10123771</v>
       </c>
       <c r="C340" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341">
-        <v>10123765</v>
+        <v>10123770</v>
       </c>
       <c r="C341" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342">
-        <v>10123764</v>
+        <v>10123769</v>
       </c>
       <c r="C342" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343">
-        <v>10123763</v>
+        <v>10123768</v>
       </c>
       <c r="C343" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344">
-        <v>10123762</v>
+        <v>10123767</v>
       </c>
       <c r="C344" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345">
-        <v>10123761</v>
+        <v>10123766</v>
       </c>
       <c r="C345" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346">
-        <v>10123760</v>
+        <v>10123765</v>
       </c>
       <c r="C346" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347">
-        <v>10123759</v>
+        <v>10123764</v>
       </c>
       <c r="C347" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348">
-        <v>10123758</v>
+        <v>10123763</v>
       </c>
       <c r="C348" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349">
-        <v>10123757</v>
+        <v>10123762</v>
       </c>
       <c r="C349" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350">
-        <v>10123756</v>
+        <v>10123761</v>
       </c>
       <c r="C350" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351">
-        <v>10123755</v>
+        <v>10123760</v>
       </c>
       <c r="C351" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352">
-        <v>10123754</v>
+        <v>10123759</v>
       </c>
       <c r="C352" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353">
-        <v>10123753</v>
+        <v>10123758</v>
       </c>
       <c r="C353" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354">
-        <v>10123752</v>
+        <v>10123757</v>
       </c>
       <c r="C354" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355">
-        <v>10123751</v>
+        <v>10123756</v>
       </c>
       <c r="C355" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356">
-        <v>10123750</v>
+        <v>10123755</v>
       </c>
       <c r="C356" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357">
-        <v>10123749</v>
+        <v>10123754</v>
       </c>
       <c r="C357" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358">
-        <v>10123748</v>
+        <v>10123753</v>
       </c>
       <c r="C358" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359">
-        <v>10123747</v>
+        <v>10123752</v>
       </c>
       <c r="C359" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360">
-        <v>10123746</v>
+        <v>10123751</v>
       </c>
       <c r="C360" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361">
-        <v>10123745</v>
+        <v>10123750</v>
       </c>
       <c r="C361" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362">
-        <v>10123744</v>
+        <v>10123749</v>
       </c>
       <c r="C362" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363">
-        <v>10123743</v>
+        <v>10123748</v>
       </c>
       <c r="C363" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364">
-        <v>10123742</v>
+        <v>10123747</v>
       </c>
       <c r="C364" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365">
-        <v>10123741</v>
+        <v>10123746</v>
       </c>
       <c r="C365" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366">
-        <v>10123740</v>
+        <v>10123745</v>
       </c>
       <c r="C366" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367">
-        <v>10123739</v>
+        <v>10123744</v>
       </c>
       <c r="C367" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368">
-        <v>10123738</v>
+        <v>10123743</v>
       </c>
       <c r="C368" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B369" s="1">
-        <v>10123737</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>286</v>
+      <c r="B369">
+        <v>10123742</v>
+      </c>
+      <c r="C369" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B370" s="1">
-        <v>10123736</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>285</v>
+      <c r="B370">
+        <v>10123741</v>
+      </c>
+      <c r="C370" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371">
-        <v>10123735</v>
+        <v>10123740</v>
       </c>
       <c r="C371" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372">
-        <v>10123734</v>
+        <v>10123739</v>
       </c>
       <c r="C372" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373">
-        <v>10123733</v>
+        <v>10123738</v>
       </c>
       <c r="C373" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B374">
-        <v>10123732</v>
-      </c>
-      <c r="C374" t="s">
-        <v>281</v>
+      <c r="B374" s="1">
+        <v>10123737</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B375">
-        <v>10123731</v>
-      </c>
-      <c r="C375" t="s">
-        <v>280</v>
+      <c r="B375" s="1">
+        <v>10123736</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376">
-        <v>10123730</v>
+        <v>10123735</v>
       </c>
       <c r="C376" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377">
-        <v>10123729</v>
+        <v>10123734</v>
       </c>
       <c r="C377" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378">
-        <v>10123728</v>
+        <v>10123733</v>
       </c>
       <c r="C378" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379">
-        <v>10123727</v>
+        <v>10123732</v>
       </c>
       <c r="C379" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380">
-        <v>10123726</v>
+        <v>10123731</v>
       </c>
       <c r="C380" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381">
-        <v>10123725</v>
+        <v>10123730</v>
       </c>
       <c r="C381" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382">
-        <v>10123724</v>
+        <v>10123729</v>
       </c>
       <c r="C382" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B383" s="1">
-        <v>10123723</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>272</v>
+      <c r="B383">
+        <v>10123728</v>
+      </c>
+      <c r="C383" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B384" s="1">
-        <v>10123722</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>271</v>
+      <c r="B384">
+        <v>10123727</v>
+      </c>
+      <c r="C384" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B385" s="1">
-        <v>10123721</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>270</v>
+      <c r="B385">
+        <v>10123726</v>
+      </c>
+      <c r="C385" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386">
-        <v>10123720</v>
+        <v>10123725</v>
       </c>
       <c r="C386" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387">
-        <v>10123719</v>
+        <v>10123724</v>
       </c>
       <c r="C387" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B388">
-        <v>10123718</v>
-      </c>
-      <c r="C388" t="s">
-        <v>267</v>
+      <c r="B388" s="1">
+        <v>10123723</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B389">
-        <v>10123717</v>
-      </c>
-      <c r="C389" t="s">
-        <v>266</v>
+      <c r="B389" s="1">
+        <v>10123722</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B390">
-        <v>10123716</v>
-      </c>
-      <c r="C390" t="s">
-        <v>265</v>
+      <c r="B390" s="1">
+        <v>10123721</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391" s="1">
-        <v>10123715</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>264</v>
+      <c r="B391">
+        <v>10123720</v>
+      </c>
+      <c r="C391" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392">
-        <v>10123714</v>
+        <v>10123719</v>
       </c>
       <c r="C392" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B393" s="1">
-        <v>10123713</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>262</v>
+      <c r="B393">
+        <v>10123718</v>
+      </c>
+      <c r="C393" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B394" s="1">
-        <v>10123712</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>261</v>
+      <c r="B394">
+        <v>10123717</v>
+      </c>
+      <c r="C394" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="395" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B395" s="1">
-        <v>10123711</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>260</v>
+      <c r="B395">
+        <v>10123716</v>
+      </c>
+      <c r="C395" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="1">
-        <v>10123710</v>
+        <v>10123715</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B397" s="1">
-        <v>10123709</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>258</v>
+      <c r="B397">
+        <v>10123714</v>
+      </c>
+      <c r="C397" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B398" s="1">
-        <v>10123708</v>
+        <v>10123713</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B399" s="1">
-        <v>10123707</v>
+        <v>10123712</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B400" s="1">
-        <v>10123706</v>
+        <v>10123711</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B401">
-        <v>10123705</v>
-      </c>
-      <c r="C401" t="s">
-        <v>254</v>
+      <c r="B401" s="1">
+        <v>10123710</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B402">
-        <v>10123704</v>
-      </c>
-      <c r="C402" t="s">
-        <v>253</v>
+      <c r="B402" s="1">
+        <v>10123709</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B403">
-        <v>10123703</v>
-      </c>
-      <c r="C403" t="s">
-        <v>252</v>
+      <c r="B403" s="1">
+        <v>10123708</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B404" s="1">
-        <v>10123702</v>
+        <v>10123707</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B405" s="1">
-        <v>10123701</v>
+        <v>10123706</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B406" s="1">
-        <v>10123700</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>249</v>
+      <c r="B406">
+        <v>10123705</v>
+      </c>
+      <c r="C406" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B407" s="1">
-        <v>10123699</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>248</v>
+      <c r="B407">
+        <v>10123704</v>
+      </c>
+      <c r="C407" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="408" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B408" s="1">
-        <v>10123698</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>247</v>
+      <c r="B408">
+        <v>10123703</v>
+      </c>
+      <c r="C408" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="1">
-        <v>10123697</v>
+        <v>10123702</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="1">
-        <v>10123696</v>
+        <v>10123701</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B411" s="1">
-        <v>10123695</v>
+        <v>10123700</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B412" s="1">
-        <v>10123694</v>
+        <v>10123699</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B413" s="1">
-        <v>10123693</v>
+        <v>10123698</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="414" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B414">
-        <v>10123692</v>
-      </c>
-      <c r="C414" t="s">
-        <v>241</v>
+      <c r="B414" s="1">
+        <v>10123697</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B415">
-        <v>10123691</v>
-      </c>
-      <c r="C415" t="s">
-        <v>240</v>
+      <c r="B415" s="1">
+        <v>10123696</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B416" s="1">
-        <v>10123690</v>
+        <v>10123695</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B417" s="1">
-        <v>10123689</v>
+        <v>10123694</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B418">
-        <v>10123688</v>
-      </c>
-      <c r="C418" t="s">
-        <v>237</v>
+      <c r="B418" s="1">
+        <v>10123693</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B419" s="1">
-        <v>10123687</v>
-      </c>
-      <c r="C419" s="1" t="s">
-        <v>236</v>
+      <c r="B419">
+        <v>10123692</v>
+      </c>
+      <c r="C419" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B420">
-        <v>10123686</v>
+        <v>10123691</v>
       </c>
       <c r="C420" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B421">
-        <v>10123685</v>
-      </c>
-      <c r="C421" t="s">
-        <v>234</v>
+      <c r="B421" s="1">
+        <v>10123690</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B422" s="1">
-        <v>10123684</v>
+        <v>10123689</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B423">
-        <v>10123683</v>
+        <v>10123688</v>
       </c>
       <c r="C423" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B424">
-        <v>10123682</v>
-      </c>
-      <c r="C424" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B425" s="1">
-        <v>10123681</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B426" s="1">
-        <v>10123680</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>229</v>
+      <c r="B424" s="1">
+        <v>10123687</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B425">
+        <v>10123686</v>
+      </c>
+      <c r="C425" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B426">
+        <v>10123685</v>
+      </c>
+      <c r="C426" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B427">
-        <v>10123679</v>
-      </c>
-      <c r="C427" t="s">
-        <v>228</v>
-      </c>
-      <c r="D427" t="s">
-        <v>216</v>
+      <c r="B427" s="1">
+        <v>10123684</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B428">
-        <v>10123678</v>
+        <v>10123683</v>
       </c>
       <c r="C428" t="s">
-        <v>227</v>
-      </c>
-      <c r="D428" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B429">
-        <v>10123677</v>
+        <v>10123682</v>
       </c>
       <c r="C429" t="s">
-        <v>226</v>
-      </c>
-      <c r="D429" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="430" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B430">
-        <v>10123676</v>
-      </c>
-      <c r="C430" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="431" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B431">
-        <v>10123675</v>
-      </c>
-      <c r="C431" t="s">
-        <v>224</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B430" s="1">
+        <v>10123681</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B431" s="1">
+        <v>10123680</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B432">
-        <v>10123674</v>
+        <v>10123679</v>
       </c>
       <c r="C432" t="s">
-        <v>223</v>
+        <v>228</v>
+      </c>
+      <c r="D432" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B433">
-        <v>10123673</v>
+        <v>10123678</v>
       </c>
       <c r="C433" t="s">
-        <v>222</v>
+        <v>227</v>
+      </c>
+      <c r="D433" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B434">
-        <v>10123672</v>
+        <v>10123677</v>
       </c>
       <c r="C434" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+      <c r="D434" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B435">
-        <v>10123671</v>
+        <v>10123676</v>
       </c>
       <c r="C435" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B436">
-        <v>10123670</v>
+        <v>10123675</v>
       </c>
       <c r="C436" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B437">
-        <v>10123669</v>
+        <v>10123674</v>
       </c>
       <c r="C437" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B438">
-        <v>10123668</v>
+        <v>10123673</v>
       </c>
       <c r="C438" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B439">
-        <v>10123667</v>
+        <v>10123672</v>
       </c>
       <c r="C439" t="s">
-        <v>215</v>
-      </c>
-      <c r="D439" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B440">
-        <v>10123666</v>
+        <v>10123671</v>
       </c>
       <c r="C440" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B441">
-        <v>10123665</v>
+        <v>10123670</v>
       </c>
       <c r="C441" t="s">
-        <v>213</v>
-      </c>
-      <c r="D441" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B442">
-        <v>10123664</v>
+        <v>10123669</v>
       </c>
       <c r="C442" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B443">
-        <v>10123663</v>
+        <v>10123668</v>
       </c>
       <c r="C443" t="s">
-        <v>211</v>
-      </c>
-      <c r="D443" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B444">
-        <v>10123662</v>
+        <v>10123667</v>
       </c>
       <c r="C444" t="s">
-        <v>210</v>
+        <v>215</v>
+      </c>
+      <c r="D444" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B445">
-        <v>10123661</v>
+        <v>10123666</v>
       </c>
       <c r="C445" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B446">
-        <v>10123660</v>
+        <v>10123665</v>
       </c>
       <c r="C446" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="D446" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B447">
-        <v>10123659</v>
+        <v>10123664</v>
       </c>
       <c r="C447" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B448">
-        <v>10123658</v>
+        <v>10123663</v>
       </c>
       <c r="C448" t="s">
-        <v>206</v>
+        <v>211</v>
+      </c>
+      <c r="D448" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449">
-        <v>10123657</v>
+        <v>10123662</v>
       </c>
       <c r="C449" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B450">
-        <v>10123656</v>
+        <v>10123661</v>
       </c>
       <c r="C450" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B451">
-        <v>10123655</v>
+        <v>10123660</v>
       </c>
       <c r="C451" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B452">
-        <v>10123654</v>
+        <v>10123659</v>
       </c>
       <c r="C452" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B453">
-        <v>10123653</v>
+        <v>10123658</v>
       </c>
       <c r="C453" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454">
-        <v>10123652</v>
+        <v>10123657</v>
       </c>
       <c r="C454" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455">
-        <v>10123651</v>
+        <v>10123656</v>
       </c>
       <c r="C455" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B456">
-        <v>10123650</v>
+        <v>10123655</v>
       </c>
       <c r="C456" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B457">
-        <v>10123649</v>
+        <v>10123654</v>
       </c>
       <c r="C457" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="458" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B458">
-        <v>10123648</v>
+        <v>10123653</v>
       </c>
       <c r="C458" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459">
-        <v>10123647</v>
+        <v>10123652</v>
       </c>
       <c r="C459" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460">
-        <v>10123646</v>
+        <v>10123651</v>
       </c>
       <c r="C460" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B461">
-        <v>10123645</v>
+        <v>10123650</v>
       </c>
       <c r="C461" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B462">
-        <v>10123644</v>
+        <v>10123649</v>
       </c>
       <c r="C462" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B463">
-        <v>10123643</v>
+        <v>10123648</v>
       </c>
       <c r="C463" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B464">
-        <v>10123642</v>
+        <v>10123647</v>
       </c>
       <c r="C464" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465">
-        <v>10123641</v>
+        <v>10123646</v>
       </c>
       <c r="C465" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466">
-        <v>10123640</v>
+        <v>10123645</v>
       </c>
       <c r="C466" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467">
-        <v>10123639</v>
+        <v>10123644</v>
       </c>
       <c r="C467" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B468">
-        <v>10123638</v>
+        <v>10123643</v>
       </c>
       <c r="C468" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="469" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B469">
-        <v>10123637</v>
+        <v>10123642</v>
       </c>
       <c r="C469" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470">
-        <v>10123636</v>
+        <v>10123641</v>
       </c>
       <c r="C470" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B471">
-        <v>10123635</v>
+        <v>10123640</v>
       </c>
       <c r="C471" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B472">
-        <v>10123634</v>
+        <v>10123639</v>
       </c>
       <c r="C472" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473">
-        <v>10123633</v>
+        <v>10123638</v>
       </c>
       <c r="C473" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B474">
-        <v>10123632</v>
+        <v>10123637</v>
       </c>
       <c r="C474" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475">
-        <v>10123631</v>
+        <v>10123636</v>
       </c>
       <c r="C475" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B476">
-        <v>10123630</v>
+        <v>10123635</v>
       </c>
       <c r="C476" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="477" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B477">
-        <v>10123629</v>
+        <v>10123634</v>
       </c>
       <c r="C477" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478">
-        <v>10123628</v>
+        <v>10123633</v>
       </c>
       <c r="C478" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B479">
-        <v>10123627</v>
+        <v>10123632</v>
       </c>
       <c r="C479" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="480" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B480">
-        <v>10123626</v>
+        <v>10123631</v>
       </c>
       <c r="C480" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481">
-        <v>10123625</v>
+        <v>10123630</v>
       </c>
       <c r="C481" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B482">
-        <v>10123624</v>
+        <v>10123629</v>
       </c>
       <c r="C482" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483">
-        <v>10123623</v>
+        <v>10123628</v>
       </c>
       <c r="C483" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484">
-        <v>10123622</v>
+        <v>10123627</v>
       </c>
       <c r="C484" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B485">
-        <v>10123621</v>
+        <v>10123626</v>
       </c>
       <c r="C485" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486">
-        <v>10123620</v>
+        <v>10123625</v>
       </c>
       <c r="C486" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B487">
-        <v>10123619</v>
+        <v>10123624</v>
       </c>
       <c r="C487" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B488">
-        <v>10123618</v>
+        <v>10123623</v>
       </c>
       <c r="C488" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B489">
-        <v>10123617</v>
+        <v>10123622</v>
       </c>
       <c r="C489" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B490">
-        <v>10123616</v>
+        <v>10123621</v>
       </c>
       <c r="C490" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B491">
-        <v>10123615</v>
+        <v>10123620</v>
       </c>
       <c r="C491" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B492">
-        <v>10123614</v>
+        <v>10123619</v>
       </c>
       <c r="C492" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="493" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B493">
-        <v>10123613</v>
+        <v>10123618</v>
       </c>
       <c r="C493" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B494">
-        <v>10123612</v>
+        <v>10123617</v>
       </c>
       <c r="C494" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B495">
-        <v>10123611</v>
+        <v>10123616</v>
       </c>
       <c r="C495" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B496">
-        <v>10123610</v>
+        <v>10123615</v>
       </c>
       <c r="C496" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B497">
-        <v>10123609</v>
+        <v>10123614</v>
       </c>
       <c r="C497" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B498">
-        <v>10123608</v>
+        <v>10123613</v>
       </c>
       <c r="C498" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B499">
-        <v>10123607</v>
+        <v>10123612</v>
       </c>
       <c r="C499" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B500">
-        <v>10123606</v>
+        <v>10123611</v>
       </c>
       <c r="C500" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B501">
-        <v>10123605</v>
+        <v>10123610</v>
       </c>
       <c r="C501" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B502">
-        <v>10123604</v>
+        <v>10123609</v>
       </c>
       <c r="C502" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="503" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B503">
-        <v>10123603</v>
+        <v>10123608</v>
       </c>
       <c r="C503" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B504">
-        <v>10123602</v>
+        <v>10123607</v>
       </c>
       <c r="C504" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B505">
-        <v>10123601</v>
+        <v>10123606</v>
       </c>
       <c r="C505" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B506">
-        <v>10123600</v>
+        <v>10123605</v>
       </c>
       <c r="C506" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="507" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B507">
-        <v>10123599</v>
+        <v>10123604</v>
       </c>
       <c r="C507" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="508" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B508">
-        <v>10123598</v>
+        <v>10123603</v>
       </c>
       <c r="C508" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B509">
-        <v>10123597</v>
+        <v>10123602</v>
       </c>
       <c r="C509" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B510">
-        <v>10123596</v>
+        <v>10123601</v>
       </c>
       <c r="C510" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B511">
-        <v>10123595</v>
+        <v>10123600</v>
       </c>
       <c r="C511" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B512">
-        <v>10123594</v>
+        <v>10123599</v>
       </c>
       <c r="C512" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B513">
-        <v>10123593</v>
+        <v>10123598</v>
       </c>
       <c r="C513" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B514">
-        <v>10123592</v>
+        <v>10123597</v>
       </c>
       <c r="C514" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B515">
-        <v>10123591</v>
+        <v>10123596</v>
       </c>
       <c r="C515" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B516">
-        <v>10123590</v>
+        <v>10123595</v>
       </c>
       <c r="C516" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B517">
-        <v>10123589</v>
+        <v>10123594</v>
       </c>
       <c r="C517" t="s">
-        <v>137</v>
-      </c>
-      <c r="D517" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B518">
-        <v>10123588</v>
+        <v>10123593</v>
       </c>
       <c r="C518" t="s">
-        <v>136</v>
-      </c>
-      <c r="D518" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B519">
-        <v>10123587</v>
+        <v>10123592</v>
       </c>
       <c r="C519" t="s">
-        <v>135</v>
-      </c>
-      <c r="D519" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B520">
-        <v>10123586</v>
+        <v>10123591</v>
       </c>
       <c r="C520" t="s">
-        <v>134</v>
-      </c>
-      <c r="D520" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B521">
-        <v>10123585</v>
+        <v>10123590</v>
       </c>
       <c r="C521" t="s">
-        <v>133</v>
-      </c>
-      <c r="D521" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B522">
-        <v>10123584</v>
+        <v>10123589</v>
       </c>
       <c r="C522" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D522" t="s">
         <v>132</v>
@@ -6951,26 +7058,32 @@
     </row>
     <row r="523" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B523">
-        <v>10123583</v>
+        <v>10123588</v>
       </c>
       <c r="C523" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="D523" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B524">
-        <v>10123582</v>
+        <v>10123587</v>
       </c>
       <c r="C524" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="D524" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B525">
-        <v>10123581</v>
+        <v>10123586</v>
       </c>
       <c r="C525" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D525" t="s">
         <v>132</v>
@@ -6978,265 +7091,262 @@
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B526">
-        <v>10123580</v>
+        <v>10123585</v>
       </c>
       <c r="C526" t="s">
-        <v>127</v>
+        <v>133</v>
+      </c>
+      <c r="D526" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B527">
-        <v>10123579</v>
+        <v>10123584</v>
       </c>
       <c r="C527" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="D527" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B528">
+        <v>10123583</v>
+      </c>
+      <c r="C528" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>10123582</v>
+      </c>
+      <c r="C529" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>10123581</v>
+      </c>
+      <c r="C530" t="s">
+        <v>128</v>
+      </c>
+      <c r="D530" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>10123580</v>
+      </c>
+      <c r="C531" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>10123579</v>
+      </c>
+      <c r="C532" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B533">
         <v>10123578</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C533" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B529">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B534">
         <v>10123577</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C534" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B530">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B535">
         <v>10123576</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C535" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B531">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536">
         <v>10123575</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C536" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="532" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B532">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B537">
         <v>10123574</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C537" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B533">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538">
         <v>10123573</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C538" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B534">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B539">
         <v>10123572</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C539" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B535" s="1">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540" s="1">
         <v>10123571</v>
       </c>
-      <c r="C535" s="1" t="s">
+      <c r="C540" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B536">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B541">
         <v>10123570</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C541" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="537" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B537">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B542">
         <v>10123569</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C542" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="538" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B538">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B543">
         <v>10123568</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C543" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="539" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B539">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B544">
         <v>10123567</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C544" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B540">
-        <v>10123566</v>
-      </c>
-      <c r="C540" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B541">
-        <v>10123565</v>
-      </c>
-      <c r="C541" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B542">
-        <v>10123564</v>
-      </c>
-      <c r="C542" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B543">
-        <v>10123563</v>
-      </c>
-      <c r="C543" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B544">
-        <v>10123562</v>
-      </c>
-      <c r="C544" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B545">
-        <v>10123561</v>
+        <v>10123566</v>
       </c>
       <c r="C545" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B546">
-        <v>10123560</v>
+        <v>10123565</v>
       </c>
       <c r="C546" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B547">
-        <v>10123559</v>
+        <v>10123564</v>
       </c>
       <c r="C547" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B548">
-        <v>10123558</v>
+        <v>10123563</v>
       </c>
       <c r="C548" t="s">
-        <v>106</v>
-      </c>
-      <c r="D548" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B549">
-        <v>10123557</v>
+        <v>10123562</v>
       </c>
       <c r="C549" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B550">
-        <v>10123556</v>
+        <v>10123561</v>
       </c>
       <c r="C550" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B551">
-        <v>10123555</v>
+        <v>10123560</v>
       </c>
       <c r="C551" t="s">
-        <v>103</v>
-      </c>
-      <c r="D551" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B552">
-        <v>10123554</v>
+        <v>10123559</v>
       </c>
       <c r="C552" t="s">
-        <v>102</v>
-      </c>
-      <c r="D552" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B553">
-        <v>10123553</v>
+        <v>10123558</v>
       </c>
       <c r="C553" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D553" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="554" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B554">
-        <v>10123552</v>
+        <v>10123557</v>
       </c>
       <c r="C554" t="s">
-        <v>100</v>
-      </c>
-      <c r="D554" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B555">
-        <v>10123551</v>
+        <v>10123556</v>
       </c>
       <c r="C555" t="s">
-        <v>99</v>
-      </c>
-      <c r="D555" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B556">
-        <v>10123550</v>
+        <v>10123555</v>
       </c>
       <c r="C556" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D556" t="s">
         <v>98</v>
@@ -7244,78 +7354,78 @@
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B557">
-        <v>10123549</v>
+        <v>10123554</v>
       </c>
       <c r="C557" t="s">
-        <v>96</v>
+        <v>102</v>
+      </c>
+      <c r="D557" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B558">
-        <v>10123548</v>
+        <v>10123553</v>
       </c>
       <c r="C558" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B559">
-        <v>10123547</v>
+        <v>10123552</v>
       </c>
       <c r="C559" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D559" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B560">
-        <v>10123546</v>
+        <v>10123551</v>
       </c>
       <c r="C560" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D560" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B561">
-        <v>10123545</v>
+        <v>10123550</v>
       </c>
       <c r="C561" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D561" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B562">
-        <v>10123544</v>
+        <v>10123549</v>
       </c>
       <c r="C562" t="s">
-        <v>91</v>
-      </c>
-      <c r="D562" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B563">
-        <v>10123543</v>
+        <v>10123548</v>
       </c>
       <c r="C563" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B564">
-        <v>10123542</v>
+        <v>10123547</v>
       </c>
       <c r="C564" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D564" t="s">
         <v>40</v>
@@ -7323,45 +7433,51 @@
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B565">
-        <v>10123541</v>
+        <v>10123546</v>
       </c>
       <c r="C565" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="D565" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B566">
-        <v>10123540</v>
+        <v>10123545</v>
       </c>
       <c r="C566" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="D566" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B567">
-        <v>10123539</v>
+        <v>10123544</v>
       </c>
       <c r="C567" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="D567" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B568">
-        <v>10123538</v>
+        <v>10123543</v>
       </c>
       <c r="C568" t="s">
-        <v>85</v>
-      </c>
-      <c r="D568" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B569">
-        <v>10123537</v>
+        <v>10123542</v>
       </c>
       <c r="C569" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D569" t="s">
         <v>40</v>
@@ -7369,43 +7485,34 @@
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B570">
-        <v>10123536</v>
+        <v>10123541</v>
       </c>
       <c r="C570" t="s">
-        <v>83</v>
-      </c>
-      <c r="D570" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B571">
-        <v>10123535</v>
+        <v>10123540</v>
       </c>
       <c r="C571" t="s">
-        <v>82</v>
-      </c>
-      <c r="D571" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B572">
-        <v>10123534</v>
+        <v>10123539</v>
       </c>
       <c r="C572" t="s">
-        <v>81</v>
-      </c>
-      <c r="D572" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B573">
-        <v>10123533</v>
+        <v>10123538</v>
       </c>
       <c r="C573" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D573" t="s">
         <v>40</v>
@@ -7413,10 +7520,10 @@
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B574">
-        <v>10123532</v>
+        <v>10123537</v>
       </c>
       <c r="C574" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D574" t="s">
         <v>40</v>
@@ -7424,10 +7531,10 @@
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B575">
-        <v>10123531</v>
+        <v>10123536</v>
       </c>
       <c r="C575" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D575" t="s">
         <v>40</v>
@@ -7435,201 +7542,210 @@
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B576">
-        <v>10123530</v>
+        <v>10123535</v>
       </c>
       <c r="C576" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="D576" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B577">
-        <v>10123529</v>
+        <v>10123534</v>
       </c>
       <c r="C577" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="D577" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="578" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B578">
-        <v>10123528</v>
+        <v>10123533</v>
       </c>
       <c r="C578" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="D578" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="579" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B579">
-        <v>10123527</v>
+        <v>10123532</v>
       </c>
       <c r="C579" t="s">
-        <v>73</v>
+        <v>79</v>
+      </c>
+      <c r="D579" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B580">
-        <v>10123526</v>
+        <v>10123531</v>
       </c>
       <c r="C580" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="D580" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B581">
-        <v>10123525</v>
+        <v>10123530</v>
       </c>
       <c r="C581" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B582">
-        <v>10123524</v>
+        <v>10123529</v>
       </c>
       <c r="C582" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B583">
-        <v>10123523</v>
+        <v>10123528</v>
       </c>
       <c r="C583" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B584">
-        <v>10123522</v>
+        <v>10123527</v>
       </c>
       <c r="C584" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="585" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B585">
-        <v>10123521</v>
+        <v>10123526</v>
       </c>
       <c r="C585" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B586">
-        <v>10123520</v>
+        <v>10123525</v>
       </c>
       <c r="C586" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B587">
-        <v>10123519</v>
+        <v>10123524</v>
       </c>
       <c r="C587" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B588">
-        <v>10123518</v>
+        <v>10123523</v>
       </c>
       <c r="C588" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B589">
-        <v>10123517</v>
+        <v>10123522</v>
       </c>
       <c r="C589" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B590">
-        <v>10123516</v>
+        <v>10123521</v>
       </c>
       <c r="C590" t="s">
-        <v>62</v>
-      </c>
-      <c r="D590" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B591">
-        <v>10123515</v>
+        <v>10123520</v>
       </c>
       <c r="C591" t="s">
-        <v>60</v>
-      </c>
-      <c r="D591" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B592">
-        <v>10123514</v>
+        <v>10123519</v>
       </c>
       <c r="C592" t="s">
-        <v>59</v>
-      </c>
-      <c r="D592" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B593">
-        <v>10123513</v>
+        <v>10123518</v>
       </c>
       <c r="C593" t="s">
-        <v>58</v>
-      </c>
-      <c r="D593" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B594">
-        <v>10123512</v>
+        <v>10123517</v>
       </c>
       <c r="C594" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B595">
-        <v>10123511</v>
+        <v>10123516</v>
+      </c>
+      <c r="C595" t="s">
+        <v>62</v>
+      </c>
+      <c r="D595" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B596">
-        <v>10123510</v>
+        <v>10123515</v>
       </c>
       <c r="C596" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D596" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B597">
-        <v>10123509</v>
+        <v>10123514</v>
       </c>
       <c r="C597" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D597" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B598">
-        <v>10123508</v>
+        <v>10123513</v>
       </c>
       <c r="C598" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D598" t="s">
         <v>40</v>
@@ -7637,32 +7753,23 @@
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B599">
-        <v>10123507</v>
+        <v>10123512</v>
       </c>
       <c r="C599" t="s">
-        <v>53</v>
-      </c>
-      <c r="D599" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B600">
-        <v>10123506</v>
-      </c>
-      <c r="C600" t="s">
-        <v>52</v>
-      </c>
-      <c r="D600" t="s">
-        <v>40</v>
+        <v>10123511</v>
       </c>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B601">
-        <v>10123505</v>
+        <v>10123510</v>
       </c>
       <c r="C601" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D601" t="s">
         <v>40</v>
@@ -7670,10 +7777,10 @@
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B602">
-        <v>10123504</v>
+        <v>10123509</v>
       </c>
       <c r="C602" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D602" t="s">
         <v>40</v>
@@ -7681,10 +7788,10 @@
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B603">
-        <v>10123503</v>
+        <v>10123508</v>
       </c>
       <c r="C603" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D603" t="s">
         <v>40</v>
@@ -7692,10 +7799,10 @@
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B604">
-        <v>10123502</v>
+        <v>10123507</v>
       </c>
       <c r="C604" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D604" t="s">
         <v>40</v>
@@ -7703,10 +7810,10 @@
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B605">
-        <v>10123501</v>
+        <v>10123506</v>
       </c>
       <c r="C605" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D605" t="s">
         <v>40</v>
@@ -7714,10 +7821,10 @@
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B606">
-        <v>10123500</v>
+        <v>10123505</v>
       </c>
       <c r="C606" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D606" t="s">
         <v>40</v>
@@ -7725,10 +7832,10 @@
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B607">
-        <v>10123499</v>
+        <v>10123504</v>
       </c>
       <c r="C607" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D607" t="s">
         <v>40</v>
@@ -7736,10 +7843,10 @@
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B608">
-        <v>10123498</v>
+        <v>10123503</v>
       </c>
       <c r="C608" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D608" t="s">
         <v>40</v>
@@ -7747,10 +7854,10 @@
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B609">
-        <v>10123497</v>
+        <v>10123502</v>
       </c>
       <c r="C609" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D609" t="s">
         <v>40</v>
@@ -7758,10 +7865,10 @@
     </row>
     <row r="610" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B610">
-        <v>10123496</v>
+        <v>10123501</v>
       </c>
       <c r="C610" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D610" t="s">
         <v>40</v>
@@ -7769,10 +7876,10 @@
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B611">
-        <v>10123495</v>
+        <v>10123500</v>
       </c>
       <c r="C611" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D611" t="s">
         <v>40</v>
@@ -7780,10 +7887,10 @@
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B612">
-        <v>10123494</v>
+        <v>10123499</v>
       </c>
       <c r="C612" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D612" t="s">
         <v>40</v>
@@ -7791,10 +7898,10 @@
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B613">
-        <v>10123493</v>
+        <v>10123498</v>
       </c>
       <c r="C613" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D613" t="s">
         <v>40</v>
@@ -7802,10 +7909,10 @@
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B614">
-        <v>10123492</v>
+        <v>10123497</v>
       </c>
       <c r="C614" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D614" t="s">
         <v>40</v>
@@ -7813,10 +7920,10 @@
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B615">
-        <v>10123491</v>
+        <v>10123496</v>
       </c>
       <c r="C615" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D615" t="s">
         <v>40</v>
@@ -7824,10 +7931,10 @@
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B616">
-        <v>10123490</v>
+        <v>10123495</v>
       </c>
       <c r="C616" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D616" t="s">
         <v>40</v>
@@ -7835,10 +7942,10 @@
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B617">
-        <v>10123489</v>
+        <v>10123494</v>
       </c>
       <c r="C617" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D617" t="s">
         <v>40</v>
@@ -7846,10 +7953,10 @@
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B618">
-        <v>10123488</v>
+        <v>10123493</v>
       </c>
       <c r="C618" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D618" t="s">
         <v>40</v>
@@ -7857,10 +7964,10 @@
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B619">
-        <v>10123487</v>
+        <v>10123492</v>
       </c>
       <c r="C619" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D619" t="s">
         <v>40</v>
@@ -7868,10 +7975,10 @@
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B620">
-        <v>10123486</v>
+        <v>10123491</v>
       </c>
       <c r="C620" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D620" t="s">
         <v>40</v>
@@ -7879,10 +7986,10 @@
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B621">
-        <v>10123485</v>
+        <v>10123490</v>
       </c>
       <c r="C621" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D621" t="s">
         <v>40</v>
@@ -7890,10 +7997,10 @@
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B622">
-        <v>10123484</v>
+        <v>10123489</v>
       </c>
       <c r="C622" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D622" t="s">
         <v>40</v>
@@ -7901,10 +8008,10 @@
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B623">
-        <v>10123483</v>
+        <v>10123488</v>
       </c>
       <c r="C623" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D623" t="s">
         <v>40</v>
@@ -7912,247 +8019,302 @@
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B624">
-        <v>10123482</v>
+        <v>10123487</v>
       </c>
       <c r="C624" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D624" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B625">
+        <v>10123486</v>
+      </c>
+      <c r="C625" t="s">
+        <v>31</v>
+      </c>
+      <c r="D625" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B626">
+        <v>10123485</v>
+      </c>
+      <c r="C626" t="s">
+        <v>30</v>
+      </c>
+      <c r="D626" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B627">
+        <v>10123484</v>
+      </c>
+      <c r="C627" t="s">
+        <v>29</v>
+      </c>
+      <c r="D627" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B628">
+        <v>10123483</v>
+      </c>
+      <c r="C628" t="s">
+        <v>28</v>
+      </c>
+      <c r="D628" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>10123482</v>
+      </c>
+      <c r="C629" t="s">
+        <v>27</v>
+      </c>
+      <c r="D629" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B630">
         <v>10123481</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C630" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B626">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B631">
         <v>10123480</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C631" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B627">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B632">
         <v>10123479</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C632" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B628">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B633">
         <v>10123478</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C633" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B629">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B634">
         <v>10123477</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C634" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B630">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B635">
         <v>10123476</v>
       </c>
     </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B631">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B636">
         <v>10123475</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C636" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B632">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B637">
         <v>10123474</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C637" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B633">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B638">
         <v>10123473</v>
       </c>
-      <c r="C633" t="s">
+      <c r="C638" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B634">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B639">
         <v>10123472</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C639" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B635">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B640">
         <v>10123471</v>
       </c>
-      <c r="C635" t="s">
+      <c r="C640" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B636">
-        <v>10123470</v>
-      </c>
-      <c r="C636" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B637">
-        <v>10123469</v>
-      </c>
-      <c r="C637" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B638">
-        <v>10123468</v>
-      </c>
-      <c r="C638" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B639">
-        <v>10123467</v>
-      </c>
-      <c r="C639" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B640">
-        <v>10123466</v>
-      </c>
-      <c r="C640" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="641" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B641">
-        <v>10123465</v>
+        <v>10123470</v>
       </c>
       <c r="C641" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="642" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B642">
-        <v>10123464</v>
+        <v>10123469</v>
       </c>
       <c r="C642" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="643" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B643">
-        <v>10123463</v>
+        <v>10123468</v>
       </c>
       <c r="C643" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="644" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B644">
-        <v>10123462</v>
+        <v>10123467</v>
       </c>
       <c r="C644" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="645" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B645">
-        <v>10123461</v>
+        <v>10123466</v>
       </c>
       <c r="C645" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B646">
-        <v>10123460</v>
+        <v>10123465</v>
       </c>
       <c r="C646" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="647" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B647">
-        <v>10123459</v>
+        <v>10123464</v>
       </c>
       <c r="C647" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="648" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B648">
-        <v>10123458</v>
+        <v>10123463</v>
       </c>
       <c r="C648" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B649">
-        <v>10123457</v>
+        <v>10123462</v>
       </c>
       <c r="C649" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="650" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B650">
-        <v>10123456</v>
+        <v>10123461</v>
       </c>
       <c r="C650" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B651">
-        <v>10123455</v>
+        <v>10123460</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="652" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B652">
-        <v>10123454</v>
+        <v>10123459</v>
+      </c>
+      <c r="C652" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="653" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B653">
-        <v>10123453</v>
+        <v>10123458</v>
+      </c>
+      <c r="C653" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="654" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B654">
-        <v>10123452</v>
+        <v>10123457</v>
+      </c>
+      <c r="C654" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B655">
-        <v>10123451</v>
+        <v>10123456</v>
+      </c>
+      <c r="C655" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B656">
+        <v>10123455</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B657">
+        <v>10123454</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B658">
+        <v>10123453</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B659">
+        <v>10123452</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>10123451</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B661">
         <v>10123450</v>
       </c>
     </row>

--- a/Patents.xlsx
+++ b/Patents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF03E49-4E91-4D2A-8C2A-5450E0F2CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EC8FE9-2A76-425C-81AC-C2C00ABCA5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
+    <workbookView xWindow="2160" yWindow="1660" windowWidth="27220" windowHeight="17030" xr2:uid="{92E5CF5E-3E7B-4F70-9BCF-AC2EE567B1EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="776">
   <si>
     <t>Number</t>
   </si>
@@ -2097,6 +2097,273 @@
   </si>
   <si>
     <t>Apparatus for extracorporeal blood treatment and a related control method</t>
+  </si>
+  <si>
+    <t>Compounds for the treatment of BRAF-associated diseases and disorders</t>
+  </si>
+  <si>
+    <t>Pfizer Inc.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Chimeric Antigen Receptors Targeting FLT3</t>
+  </si>
+  <si>
+    <t>Solid state forms of (S)-2-(((S)-6,8-difluoro-1,2,3,4-tetrahydronaphthalen-2-yl)amino)-N-(1-(2-methyl-1-(neopentylamino)propan-2-yl)-1H-imidazol-4-yl)pentanamide and uses thereof</t>
+  </si>
+  <si>
+    <t>Modulators of STING (stimulator of interferon genes)</t>
+  </si>
+  <si>
+    <t>Pyrido[4,3-d]pyrimidine compounds</t>
+  </si>
+  <si>
+    <t>Antibodies specific for GUCY2c and uses thereof</t>
+  </si>
+  <si>
+    <t>Pharmaceutical compositions and methods comprising a combination of a benzoxazole transthyretin stabilizer and an additional therapeutic agent</t>
+  </si>
+  <si>
+    <t>Combinations for treatment of NASH/NAFLD and related diseases</t>
+  </si>
+  <si>
+    <t>Glycoconjugation process</t>
+  </si>
+  <si>
+    <t>Anti-GDF15 antibodies, compositions and methods of use</t>
+  </si>
+  <si>
+    <t>Pharmaceutical compounds</t>
+  </si>
+  <si>
+    <t>Multiplexed biological assay device with electronic readout</t>
+  </si>
+  <si>
+    <t>Antibodies specific for FLT3 and their uses</t>
+  </si>
+  <si>
+    <t>Bicyclic-fused heteroaryl or aryl compounds</t>
+  </si>
+  <si>
+    <t>Methods for antagonizing a melanocortin 4 receptor</t>
+  </si>
+  <si>
+    <t>CD47 blockade with PARP inhibition for disease treatment</t>
+  </si>
+  <si>
+    <t>Tissue factor pathway inhibitor antibodies and uses thereof</t>
+  </si>
+  <si>
+    <t>Chimeric antigen receptors targeting CD70</t>
+  </si>
+  <si>
+    <t>Escherichia coli compositions and methods thereof</t>
+  </si>
+  <si>
+    <t>Eli Lilly and Company</t>
+  </si>
+  <si>
+    <t>Processes and intermediates for preparing tirzepatide</t>
+  </si>
+  <si>
+    <t>Method of using a GIP/GLP1 co-agonist for diabetes</t>
+  </si>
+  <si>
+    <t>Protein tyrosine-tyrosine analogs and methods of using the same</t>
+  </si>
+  <si>
+    <t>GIP/GLP1 co-agonist compounds</t>
+  </si>
+  <si>
+    <t>IL-17A inhibitors</t>
+  </si>
+  <si>
+    <t>Methods of determining protein or peptide concentration and uses thereof</t>
+  </si>
+  <si>
+    <t>Adeno-associated virus (AAV) systems for treatment of genetic hearing loss</t>
+  </si>
+  <si>
+    <t>Drug delivery device cassette</t>
+  </si>
+  <si>
+    <t>Dose detection system module for a medication delivery device</t>
+  </si>
+  <si>
+    <t>Medication delivery device with sensing system</t>
+  </si>
+  <si>
+    <t>Glucocorticoid receptor agonists</t>
+  </si>
+  <si>
+    <t>FGFR3 inhibitor compounds</t>
+  </si>
+  <si>
+    <t>Tubing having visual markers for visualization of media therein</t>
+  </si>
+  <si>
+    <t>Techniques for processing wirelessly broadcast packets from a medical device with dose-related data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-ANGPTL 3/8 complex antibodies and methods of using the same	</t>
+  </si>
+  <si>
+    <t>Medication delivery device</t>
+  </si>
+  <si>
+    <t>Carboxy substituted glucocorticoid receptor agonists</t>
+  </si>
+  <si>
+    <t>Methods and systems for selecting an injection site</t>
+  </si>
+  <si>
+    <t>Dose detection for a medication delivery device</t>
+  </si>
+  <si>
+    <t>Methods of treating ulcerative colitis with an anti-IL-23p19 antibody</t>
+  </si>
+  <si>
+    <t>Lysophosphatidic acid receptor 1 (LPAR1) inhibitor compounds</t>
+  </si>
+  <si>
+    <t>Neuregulin-4 compounds and methods of use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chronic nightly dosing of lasmiditan for migraine prevention	</t>
+  </si>
+  <si>
+    <t>Systems, devices, and processes for delivery of therapeutic fluids</t>
+  </si>
+  <si>
+    <t>Selective estrogen receptor degraders</t>
+  </si>
+  <si>
+    <t>AT.SUB.2.R antagonists and uses thereof</t>
+  </si>
+  <si>
+    <t>Long acting amylin receptor agonists and uses thereof</t>
+  </si>
+  <si>
+    <t>Treprostinil salt</t>
+  </si>
+  <si>
+    <t>Drive ribbon for moving piston within container</t>
+  </si>
+  <si>
+    <t>Processes and intermediate for the large-scale preparation of 2,4,6-trifluoro-N-[6-(1-methyl-piperidine-4-carbonyl)-pyridin-2-yl]-benzamide hemisuccinate, and preparation of 2,4,6-trifluoro-N-[6-(1-methyl-piperidine-4-carbonyl)-pyridin-2-yl]-benzamide acetate</t>
+  </si>
+  <si>
+    <t>Fusion proteins</t>
+  </si>
+  <si>
+    <t>Liquid-crystal medium</t>
+  </si>
+  <si>
+    <t>Merck Patent Gmbh</t>
+  </si>
+  <si>
+    <t>Factor XI activation inhibitors</t>
+  </si>
+  <si>
+    <t>Merck Sharp &amp; Dohme LLC</t>
+  </si>
+  <si>
+    <t>Apparatus and method for monitoring and recording disintegration times for pharmaceutical products</t>
+  </si>
+  <si>
+    <t>Moisture protection features for a bottle for storing solid pharmaceutical products and methods of making same</t>
+  </si>
+  <si>
+    <t>Enhancing immunogenicity of Streptococcus pneumoniae polysaccharide-protein conjugates</t>
+  </si>
+  <si>
+    <t>Adaptive enterprise risk evaluation</t>
+  </si>
+  <si>
+    <t>Aromatic isothiocyanates</t>
+  </si>
+  <si>
+    <t>Compounds and methods for selectively forming metal-containing films</t>
+  </si>
+  <si>
+    <t>Small molecule inhibitors of KRAS G12C mutant</t>
+  </si>
+  <si>
+    <t>Assignee2</t>
+  </si>
+  <si>
+    <t>BioLineRx Ltd.</t>
+  </si>
+  <si>
+    <t>Treatment of metastatic pancreatic adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Metal complexes containing cyclopentadienyl ligands</t>
+  </si>
+  <si>
+    <t>MERCK PATENT GMBH</t>
+  </si>
+  <si>
+    <t>Brush polymer terminated with phosphonate for DSA</t>
+  </si>
+  <si>
+    <t>Merck Patent GmbH</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate vaccine formulations</t>
+  </si>
+  <si>
+    <t>Inhibitors of histone deacetylase-3 useful for the treatment of cancer, inflammation, neurodegeneration diseases and diabetes</t>
+  </si>
+  <si>
+    <t>Anti-coagulation factor XI antibodies</t>
+  </si>
+  <si>
+    <t>Adimab, LLC</t>
+  </si>
+  <si>
+    <t>Materials for electronic devices</t>
+  </si>
+  <si>
+    <t>Materials for organic electroluminescent devices</t>
+  </si>
+  <si>
+    <t>Substituted tetrahydroquinolin compounds as indoleamine 2,3-dioxygenase (IDO) inhibitors</t>
+  </si>
+  <si>
+    <t>Novolak/DNQ based, chemically amplified photoresist</t>
+  </si>
+  <si>
+    <t>Aryl sulfonamides as BLT1 antagonists</t>
+  </si>
+  <si>
+    <t>7-, 8-, and 10-substituted amino triazolo quinazoline derivatives as adenosine receptor antagonists, pharmaceutical compositions and their use</t>
+  </si>
+  <si>
+    <t>Substituted piperazine amide compounds as indoleamine 2,3-dioxygenase (IDO) inhibitors</t>
+  </si>
+  <si>
+    <t>Liquid-crystal medium comprising polymerizable compounds</t>
+  </si>
+  <si>
+    <t>Pyrimidone derivatives as selective cytotoxic agents against HIV infected cells</t>
+  </si>
+  <si>
+    <t>Liquid crystal medium</t>
+  </si>
+  <si>
+    <t>Optical component</t>
+  </si>
+  <si>
+    <t>Substituted amino-pyrimidine compound for use in a method for treatment and prevention of multiple sclerosis</t>
+  </si>
+  <si>
+    <t>Atomic layer etching method using ligand exchange reaction</t>
+  </si>
+  <si>
+    <t>SK hynix Inc.</t>
   </si>
 </sst>
 </file>
@@ -2138,9 +2405,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2161,9 +2430,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2201,7 +2470,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2307,7 +2576,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2449,7 +2718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2457,23 +2726,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172B5D30-8254-4691-B3D5-BE87303558F1}">
-  <dimension ref="A2:G661"/>
+  <dimension ref="A2:I741"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5.54296875" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2492,5829 +2762,6964 @@
       <c r="G2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>689</v>
+      </c>
+      <c r="I2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">+B4+1</f>
+        <v>12306082</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H3" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>12305103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E4" t="s">
+        <v>741</v>
+      </c>
+      <c r="H4" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>12304938</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" t="s">
+        <v>708</v>
+      </c>
+      <c r="H5" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>12304899</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H6" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>12303509</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" t="s">
+        <v>688</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>12303460</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>12299619</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>12297537</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E10" t="s">
+        <v>741</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>12297386</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12297208</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12297190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="E13" t="s">
+        <v>688</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>12297177</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E14" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12296012</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E15" t="s">
+        <v>688</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12295998</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12295987</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E17" t="s">
+        <v>708</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>12291570</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45783</v>
+      </c>
+      <c r="I18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>12291538</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>12286503</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>12286449</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>12281127</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E22" t="s">
+        <v>688</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>12281109</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12280107</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>12279521</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>12276909</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>12275800</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45762</v>
+      </c>
+      <c r="I27" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>12275729</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>12275682</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45762</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>12269896</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="E30" t="s">
+        <v>688</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>12269857</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="E31" t="s">
+        <v>708</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>12268669</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E32" t="s">
+        <v>688</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45755</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>12264276</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>12264139</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E34" t="s">
+        <v>743</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>12264134</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E35" t="s">
+        <v>743</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>12263171</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="E36" t="s">
+        <v>743</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>12258510</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>12258509</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>12258329</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E39" t="s">
+        <v>743</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45741</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>12255075</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E40" t="s">
+        <v>741</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45734</v>
+      </c>
+      <c r="I40" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>12252524</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E41" t="s">
+        <v>708</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>12252491</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="E42" t="s">
+        <v>708</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>12251382</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45734</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>12247022</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E44" t="s">
+        <v>688</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45727</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>12241849</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E45" t="s">
+        <v>708</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>12241077</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="E46" t="s">
+        <v>708</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>12239816</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="E47" t="s">
+        <v>708</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45720</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>12234259</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E48" t="s">
+        <v>688</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>12233246</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E49" t="s">
+        <v>708</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>12227564</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="E50" t="s">
+        <v>688</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>12227538</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="E51" t="s">
+        <v>708</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>12227507</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E52" t="s">
+        <v>688</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>12226619</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E53" t="s">
+        <v>708</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>12209086</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E54" t="s">
+        <v>708</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>12208389</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E55" t="s">
+        <v>688</v>
+      </c>
+      <c r="H55" s="3">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>12202910</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="E56" t="s">
+        <v>688</v>
+      </c>
+      <c r="H56" s="3">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>12202836</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E57" t="s">
+        <v>688</v>
+      </c>
+      <c r="H57" s="3">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <v>12201801</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E58" t="s">
+        <v>708</v>
+      </c>
+      <c r="H58" s="3">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <v>12198803</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="E59" t="s">
+        <v>708</v>
+      </c>
+      <c r="H59" s="3">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>12187727</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E60" t="s">
+        <v>688</v>
+      </c>
+      <c r="H60" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>12180270</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E61" t="s">
+        <v>708</v>
+      </c>
+      <c r="H61" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>12178803</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E62" t="s">
+        <v>688</v>
+      </c>
+      <c r="H62" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>12171989</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="E63" t="s">
+        <v>708</v>
+      </c>
+      <c r="H63" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>12168698</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E64" t="s">
+        <v>688</v>
+      </c>
+      <c r="H64" s="3">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>12162905</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E65" t="s">
+        <v>708</v>
+      </c>
+      <c r="H65" s="3">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>12156739</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E66" t="s">
+        <v>708</v>
+      </c>
+      <c r="H66" s="3">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>12152081</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E67" t="s">
+        <v>688</v>
+      </c>
+      <c r="H67" s="3">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>12152072</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="E68" t="s">
+        <v>708</v>
+      </c>
+      <c r="H68" s="3">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>12151088</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E69" t="s">
+        <v>708</v>
+      </c>
+      <c r="H69" s="3">
+        <v>45622</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>12145972</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="E70" t="s">
+        <v>708</v>
+      </c>
+      <c r="H70" s="3">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>12145924</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="E71" t="s">
+        <v>708</v>
+      </c>
+      <c r="H71" s="3">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>12138302</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E72" t="s">
+        <v>688</v>
+      </c>
+      <c r="H72" s="3">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>12138254</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E73" t="s">
+        <v>708</v>
+      </c>
+      <c r="H73" s="3">
+        <v>45608</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>12133972</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="E74" t="s">
+        <v>708</v>
+      </c>
+      <c r="H74" s="3">
+        <v>45601</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>12128040</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E75" t="s">
+        <v>708</v>
+      </c>
+      <c r="H75" s="3">
+        <v>45594</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>12122750</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E76" t="s">
+        <v>708</v>
+      </c>
+      <c r="H76" s="3">
+        <v>45587</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>12115210</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E77" t="s">
+        <v>708</v>
+      </c>
+      <c r="H77" s="3">
+        <v>45580</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>12102610</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="E78" t="s">
+        <v>708</v>
+      </c>
+      <c r="H78" s="3">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>12083324</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E79" t="s">
+        <v>708</v>
+      </c>
+      <c r="H79" s="3">
+        <v>45545</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>12071423</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="E80" t="s">
+        <v>708</v>
+      </c>
+      <c r="H80" s="3">
+        <v>45531</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>12059557</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E81" t="s">
+        <v>708</v>
+      </c>
+      <c r="H81" s="3">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>12059452</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E82" t="s">
+        <v>708</v>
+      </c>
+      <c r="H82" s="3">
+        <v>45517</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" ref="B83:B87" si="0">+B84+1</f>
         <v>10124108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C83" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84">
         <f t="shared" si="0"/>
         <v>10124107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C84" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85">
         <f t="shared" si="0"/>
         <v>10124106</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C85" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86">
         <f t="shared" si="0"/>
         <v>10124105</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C86" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87">
         <f t="shared" si="0"/>
         <v>10124104</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C87" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <f t="shared" ref="B8:B14" si="1">+B9+1</f>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" ref="B88:B94" si="1">+B89+1</f>
         <v>10124103</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C88" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89">
         <f t="shared" si="1"/>
         <v>10124102</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C89" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90">
         <f t="shared" si="1"/>
         <v>10124101</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C90" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91">
         <f t="shared" si="1"/>
         <v>10124100</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C91" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92">
         <f t="shared" si="1"/>
         <v>10124099</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C92" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93">
         <f t="shared" si="1"/>
         <v>10124098</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C93" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94">
         <f t="shared" si="1"/>
         <v>10124097</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C94" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <f t="shared" ref="B15:B26" si="2">+B16+1</f>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" ref="B95:B106" si="2">+B96+1</f>
         <v>10124096</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C95" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96">
         <f t="shared" si="2"/>
         <v>10124095</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C96" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
         <f t="shared" si="2"/>
         <v>10124094</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C97" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
         <f t="shared" si="2"/>
         <v>10124093</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C98" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
         <f t="shared" si="2"/>
         <v>10124092</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C99" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
         <f t="shared" si="2"/>
         <v>10124091</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C100" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
         <f t="shared" si="2"/>
         <v>10124090</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C101" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
         <f t="shared" si="2"/>
         <v>10124089</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C102" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
         <f t="shared" si="2"/>
         <v>10124088</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C103" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
         <f t="shared" si="2"/>
         <v>10124087</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C104" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
         <f t="shared" si="2"/>
         <v>10124086</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C105" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
         <f t="shared" si="2"/>
         <v>10124085</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C106" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <f t="shared" ref="B27:B38" si="3">+B28+1</f>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" ref="B107:B118" si="3">+B108+1</f>
         <v>10124084</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C107" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
         <f t="shared" si="3"/>
         <v>10124083</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C108" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
         <f t="shared" si="3"/>
         <v>10124082</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C109" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30">
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
         <f t="shared" si="3"/>
         <v>10124081</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C110" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
         <f t="shared" si="3"/>
         <v>10124080</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C111" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32">
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
         <f t="shared" si="3"/>
         <v>10124079</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C112" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113">
         <f t="shared" si="3"/>
         <v>10124078</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C113" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114">
         <f t="shared" si="3"/>
         <v>10124077</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C114" t="s">
         <v>654</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D114" t="s">
         <v>551</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E114" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115">
         <f t="shared" si="3"/>
         <v>10124076</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C115" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116">
         <f t="shared" si="3"/>
         <v>10124075</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C116" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117">
         <f t="shared" si="3"/>
         <v>10124074</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C117" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118">
         <f t="shared" si="3"/>
         <v>10124073</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C118" t="s">
         <v>649</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D118" t="s">
         <v>551</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E118" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <f t="shared" ref="B39:B45" si="4">+B40+1</f>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" ref="B119:B125" si="4">+B120+1</f>
         <v>10124072</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C119" t="s">
         <v>647</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D119" t="s">
         <v>551</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E119" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120">
         <f t="shared" si="4"/>
         <v>10124071</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C120" t="s">
         <v>645</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D120" t="s">
         <v>551</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E120" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121">
         <f t="shared" si="4"/>
         <v>10124070</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C121" t="s">
         <v>643</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D121" t="s">
         <v>551</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E121" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122">
         <f t="shared" si="4"/>
         <v>10124069</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C122" t="s">
         <v>641</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D122" t="s">
         <v>551</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E122" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123">
         <f t="shared" si="4"/>
         <v>10124068</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C123" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124">
         <f t="shared" si="4"/>
         <v>10124067</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C124" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125">
         <f t="shared" si="4"/>
         <v>10124066</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C125" t="s">
         <v>635</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D125" t="s">
         <v>551</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E125" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f t="shared" ref="B46:B56" si="5">+B47+1</f>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <f t="shared" ref="B126:B136" si="5">+B127+1</f>
         <v>10124065</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C126" t="s">
         <v>636</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D126" t="s">
         <v>551</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E126" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127">
         <f t="shared" si="5"/>
         <v>10124064</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C127" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128">
         <f t="shared" si="5"/>
         <v>10124063</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C128" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129">
         <f t="shared" si="5"/>
         <v>10124062</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C129" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130">
         <f t="shared" si="5"/>
         <v>10124061</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C130" t="s">
         <v>630</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D130" t="s">
         <v>551</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E130" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131">
         <f t="shared" si="5"/>
         <v>10124060</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C131" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132">
         <f t="shared" si="5"/>
         <v>10124059</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C132" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133">
         <f t="shared" si="5"/>
         <v>10124058</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C133" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134">
         <f t="shared" si="5"/>
         <v>10124057</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C134" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135">
         <f t="shared" si="5"/>
         <v>10124056</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C135" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136">
         <f t="shared" si="5"/>
         <v>10124055</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C136" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <f t="shared" ref="B57:B63" si="6">+B58+1</f>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" ref="B137:B143" si="6">+B138+1</f>
         <v>10124054</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C137" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138">
         <f t="shared" si="6"/>
         <v>10124053</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C138" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139">
         <f t="shared" si="6"/>
         <v>10124052</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C139" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140">
         <f t="shared" si="6"/>
         <v>10124051</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C140" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141">
         <f t="shared" si="6"/>
         <v>10124050</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C141" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142">
         <f t="shared" si="6"/>
         <v>10124049</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C142" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143">
         <f t="shared" si="6"/>
         <v>10124048</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C143" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <f t="shared" ref="B64:B76" si="7">+B65+1</f>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <f t="shared" ref="B144:B156" si="7">+B145+1</f>
         <v>10124047</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C144" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145">
         <f t="shared" si="7"/>
         <v>10124046</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C145" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146">
         <f t="shared" si="7"/>
         <v>10124045</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C146" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147">
         <f t="shared" si="7"/>
         <v>10124044</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C147" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1">
+    <row r="148" spans="2:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="B148" s="1">
         <f t="shared" si="7"/>
         <v>10124043</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149">
         <f t="shared" si="7"/>
         <v>10124042</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C149" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150">
         <f t="shared" si="7"/>
         <v>10124041</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C150" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151">
         <f t="shared" si="7"/>
         <v>10124040</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C151" t="s">
         <v>608</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D151" t="s">
         <v>551</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E151" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152">
         <f t="shared" si="7"/>
         <v>10124039</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C152" t="s">
         <v>606</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D152" t="s">
         <v>551</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E152" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153">
         <f t="shared" si="7"/>
         <v>10124038</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C153" t="s">
         <v>605</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D153" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74">
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154">
         <f t="shared" si="7"/>
         <v>10124037</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C154" t="s">
         <v>603</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D154" t="s">
         <v>551</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E154" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155">
         <f t="shared" si="7"/>
         <v>10124036</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C155" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156">
         <f t="shared" si="7"/>
         <v>10124035</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C156" t="s">
         <v>600</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D156" t="s">
         <v>551</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E156" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77">
-        <f t="shared" ref="B77:B86" si="8">+B78+1</f>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <f t="shared" ref="B157:B166" si="8">+B158+1</f>
         <v>10124034</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C157" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158">
         <f t="shared" si="8"/>
         <v>10124033</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C158" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159">
         <f t="shared" si="8"/>
         <v>10124032</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C159" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160">
         <f t="shared" si="8"/>
         <v>10124031</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C160" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161">
         <f t="shared" si="8"/>
         <v>10124030</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C161" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162">
         <f t="shared" si="8"/>
         <v>10124029</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C162" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163">
         <f t="shared" si="8"/>
         <v>10124028</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C163" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164">
         <f t="shared" si="8"/>
         <v>10124027</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C164" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165">
         <f t="shared" si="8"/>
         <v>10124026</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C165" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166">
         <f t="shared" si="8"/>
         <v>10124025</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C166" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87">
-        <f t="shared" ref="B87:B90" si="9">+B88+1</f>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <f t="shared" ref="B167:B170" si="9">+B168+1</f>
         <v>10124024</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C167" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168">
         <f t="shared" si="9"/>
         <v>10124023</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C168" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169">
         <f t="shared" si="9"/>
         <v>10124022</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C169" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170">
         <f t="shared" si="9"/>
         <v>10124021</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C170" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91">
-        <f t="shared" ref="B91:B95" si="10">+B92+1</f>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <f t="shared" ref="B171:B175" si="10">+B172+1</f>
         <v>10124020</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C171" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172">
         <f t="shared" si="10"/>
         <v>10124019</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C172" t="s">
         <v>583</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E172" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173">
         <f t="shared" si="10"/>
         <v>10124018</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174">
         <f t="shared" si="10"/>
         <v>10124017</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C174" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175">
         <f t="shared" si="10"/>
         <v>10124016</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C175" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96">
-        <f t="shared" ref="B96:B98" si="11">+B97+1</f>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <f t="shared" ref="B176:B178" si="11">+B177+1</f>
         <v>10124015</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C176" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177">
         <f t="shared" si="11"/>
         <v>10124014</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C177" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178">
         <f t="shared" si="11"/>
         <v>10124013</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C178" t="s">
         <v>578</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D178" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99">
-        <f t="shared" ref="B99:B101" si="12">+B100+1</f>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <f t="shared" ref="B179:B181" si="12">+B180+1</f>
         <v>10124012</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C179" t="s">
         <v>577</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D179" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180">
         <f t="shared" si="12"/>
         <v>10124011</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C180" t="s">
         <v>575</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D180" t="s">
         <v>551</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E180" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181">
         <f t="shared" si="12"/>
         <v>10124010</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C181" t="s">
         <v>573</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D181" t="s">
         <v>551</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E181" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102">
-        <f t="shared" ref="B102:B107" si="13">+B103+1</f>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <f t="shared" ref="B182:B187" si="13">+B183+1</f>
         <v>10124009</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C182" t="s">
         <v>571</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D182" t="s">
         <v>551</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E182" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183">
         <f t="shared" si="13"/>
         <v>10124008</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C183" t="s">
         <v>569</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D183" t="s">
         <v>551</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E183" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184">
         <f t="shared" si="13"/>
         <v>10124007</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C184" t="s">
         <v>567</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D184" t="s">
         <v>551</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E184" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185">
         <f t="shared" si="13"/>
         <v>10124006</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C185" t="s">
         <v>566</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D185" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186">
         <f t="shared" si="13"/>
         <v>10124005</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C186" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187">
         <f t="shared" si="13"/>
         <v>10124004</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C187" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108">
-        <f t="shared" ref="B108:B114" si="14">+B109+1</f>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <f t="shared" ref="B188:B194" si="14">+B189+1</f>
         <v>10124003</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C188" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189">
         <f t="shared" si="14"/>
         <v>10124002</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C189" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190">
         <f t="shared" si="14"/>
         <v>10124001</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C190" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191">
         <f t="shared" si="14"/>
         <v>10124000</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C191" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192">
         <f t="shared" si="14"/>
         <v>10123999</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C192" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193">
         <f t="shared" si="14"/>
         <v>10123998</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C193" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194">
         <f t="shared" si="14"/>
         <v>10123997</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C194" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115">
-        <f t="shared" ref="B115:B119" si="15">+B116+1</f>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <f t="shared" ref="B195:B199" si="15">+B196+1</f>
         <v>10123996</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C195" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="116" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="1">
+    <row r="196" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
         <f t="shared" si="15"/>
         <v>10123995</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F196" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="1">
+    <row r="197" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
         <f t="shared" si="15"/>
         <v>10123994</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F197" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="1">
+    <row r="198" spans="2:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
         <f t="shared" si="15"/>
         <v>10123993</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F198" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199">
         <f t="shared" si="15"/>
         <v>10123992</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C199" t="s">
         <v>547</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E199" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120">
-        <f t="shared" ref="B120:B124" si="16">+B121+1</f>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <f t="shared" ref="B200:B204" si="16">+B201+1</f>
         <v>10123991</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C200" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201">
         <f t="shared" si="16"/>
         <v>10123990</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C201" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202">
         <f t="shared" si="16"/>
         <v>10123989</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C202" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203">
         <f t="shared" si="16"/>
         <v>10123988</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C203" t="s">
         <v>542</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E203" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204">
         <f t="shared" si="16"/>
         <v>10123987</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C204" t="s">
         <v>540</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E204" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125">
-        <f t="shared" ref="B125:B127" si="17">+B126+1</f>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <f t="shared" ref="B205:B207" si="17">+B206+1</f>
         <v>10123986</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C205" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206">
         <f t="shared" si="17"/>
         <v>10123985</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C206" t="s">
         <v>537</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E206" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207">
         <f t="shared" si="17"/>
         <v>10123984</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C207" t="s">
         <v>534</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E207" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <f t="shared" ref="B128:B134" si="18">+B129+1</f>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <f t="shared" ref="B208:B214" si="18">+B209+1</f>
         <v>10123983</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C208" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="1">
+    <row r="209" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B209" s="1">
         <f t="shared" si="18"/>
         <v>10123982</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210">
         <f t="shared" si="18"/>
         <v>10123981</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C210" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211">
         <f t="shared" si="18"/>
         <v>10123980</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C211" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212">
         <f t="shared" si="18"/>
         <v>10123979</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C212" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213">
         <f t="shared" si="18"/>
         <v>10123978</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C213" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214">
         <f t="shared" si="18"/>
         <v>10123977</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C214" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B135">
-        <f t="shared" ref="B135:B139" si="19">+B136+1</f>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <f t="shared" ref="B215:B219" si="19">+B216+1</f>
         <v>10123976</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C215" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216">
         <f t="shared" si="19"/>
         <v>10123975</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C216" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217">
         <f t="shared" si="19"/>
         <v>10123974</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C217" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218">
         <f t="shared" si="19"/>
         <v>10123973</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C218" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219">
         <f t="shared" si="19"/>
         <v>10123972</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C219" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140">
-        <f t="shared" ref="B140:B143" si="20">+B141+1</f>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <f t="shared" ref="B220:B223" si="20">+B221+1</f>
         <v>10123971</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C220" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="1">
+    <row r="221" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B221" s="1">
         <f t="shared" si="20"/>
         <v>10123970</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222">
         <f t="shared" si="20"/>
         <v>10123969</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C222" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223">
         <f t="shared" si="20"/>
         <v>10123968</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C223" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144">
-        <f t="shared" ref="B144:B149" si="21">+B145+1</f>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <f t="shared" ref="B224:B229" si="21">+B225+1</f>
         <v>10123967</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C224" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225">
         <f t="shared" si="21"/>
         <v>10123966</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C225" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226">
         <f t="shared" si="21"/>
         <v>10123965</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C226" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227">
         <f t="shared" si="21"/>
         <v>10123964</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C227" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228">
         <f t="shared" si="21"/>
         <v>10123963</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C228" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229">
         <f t="shared" si="21"/>
         <v>10123962</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C229" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150">
-        <f t="shared" ref="B150:B152" si="22">+B151+1</f>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <f t="shared" ref="B230:B232" si="22">+B231+1</f>
         <v>10123961</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C230" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231">
         <f t="shared" si="22"/>
         <v>10123960</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C231" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232">
         <f t="shared" si="22"/>
         <v>10123959</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C232" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153">
-        <f t="shared" ref="B153:B155" si="23">+B154+1</f>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <f t="shared" ref="B233:B235" si="23">+B234+1</f>
         <v>10123958</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C233" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234">
         <f t="shared" si="23"/>
         <v>10123957</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C234" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B155">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235">
         <f t="shared" si="23"/>
         <v>10123956</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C235" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156">
-        <f t="shared" ref="B156:B163" si="24">+B157+1</f>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <f t="shared" ref="B236:B243" si="24">+B237+1</f>
         <v>10123955</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C236" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237">
         <f t="shared" si="24"/>
         <v>10123954</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C237" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238">
         <f t="shared" si="24"/>
         <v>10123953</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C238" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B159">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239">
         <f t="shared" si="24"/>
         <v>10123952</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C239" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240">
         <f t="shared" si="24"/>
         <v>10123951</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C240" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241">
         <f t="shared" si="24"/>
         <v>10123950</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C241" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242">
         <f t="shared" si="24"/>
         <v>10123949</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C242" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B163">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243">
         <f t="shared" si="24"/>
         <v>10123948</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C243" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B164">
-        <f t="shared" ref="B164:B165" si="25">+B165+1</f>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <f t="shared" ref="B244:B245" si="25">+B245+1</f>
         <v>10123947</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C244" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245">
         <f t="shared" si="25"/>
         <v>10123946</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C245" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166">
-        <f>+B167+1</f>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <f>+B247+1</f>
         <v>10123945</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C246" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247">
         <v>10123944</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C247" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248">
         <v>10123943</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C248" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B169">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249">
         <v>10123942</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C249" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B170">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250">
         <v>10123941</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C250" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251">
         <v>10123940</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C251" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252">
         <v>10123939</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C252" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B173">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253">
         <v>10123938</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C253" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254">
         <v>10123937</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C254" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255">
         <v>10123936</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C255" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256">
         <v>10123935</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C256" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B177">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B257">
         <v>10123934</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C257" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1">
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1">
         <v>10123933</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B179">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B259">
         <v>10123932</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C259" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B180">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B260">
         <v>10123931</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C260" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B181">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B261">
         <v>10123930</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C261" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B182">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B262">
         <v>10123929</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C262" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B183">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B263">
         <v>10123928</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C263" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B184">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B264">
         <v>10123927</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C264" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B185">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B265">
         <v>10123926</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C265" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B186">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B266">
         <v>10123925</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C266" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B187">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B267">
         <v>10123924</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C267" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B188">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B268">
         <v>10123923</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C268" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B189">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B269">
         <v>10123922</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C269" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B190">
-        <f t="shared" ref="B190:B193" si="26">+B191+1</f>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <f t="shared" ref="B270:B273" si="26">+B271+1</f>
         <v>10123921</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C270" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B191">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B271">
         <f t="shared" si="26"/>
         <v>10123920</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C271" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B192">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B272">
         <f t="shared" si="26"/>
         <v>10123919</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C272" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B193">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273">
         <f t="shared" si="26"/>
         <v>10123918</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C273" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194">
-        <f t="shared" ref="B194:B197" si="27">+B195+1</f>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <f t="shared" ref="B274:B277" si="27">+B275+1</f>
         <v>10123917</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C274" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275">
         <f t="shared" si="27"/>
         <v>10123916</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C275" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276">
         <f t="shared" si="27"/>
         <v>10123915</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C276" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277">
         <f t="shared" si="27"/>
         <v>10123914</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C277" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198">
-        <f t="shared" ref="B198:B201" si="28">+B199+1</f>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <f t="shared" ref="B278:B281" si="28">+B279+1</f>
         <v>10123913</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C278" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279">
         <f t="shared" si="28"/>
         <v>10123912</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C279" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B280">
         <f t="shared" si="28"/>
         <v>10123911</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C280" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B281">
         <f t="shared" si="28"/>
         <v>10123910</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C281" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202">
-        <f t="shared" ref="B202:B204" si="29">+B203+1</f>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <f t="shared" ref="B282:B284" si="29">+B283+1</f>
         <v>10123909</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C282" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B283">
         <f t="shared" si="29"/>
         <v>10123908</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C283" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B284">
         <f t="shared" si="29"/>
         <v>10123907</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C284" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205">
-        <f>+B206+1</f>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <f>+B286+1</f>
         <v>10123906</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C285" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B206">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B286">
         <v>10123905</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C286" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B207">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B287">
         <v>10123904</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C287" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B288">
         <v>10123903</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C288" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B209">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B289">
         <v>10123902</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C289" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B290">
         <v>10123901</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C290" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B291">
         <v>10123900</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C291" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B292">
         <v>10123899</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C292" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B293">
         <v>10123898</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C293" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B294">
         <v>10123897</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C294" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B295">
         <v>10123896</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C295" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B296">
         <v>10123895</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C296" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B297">
         <v>10123894</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C297" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B298">
         <v>10123893</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C298" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B299">
         <v>10123892</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C299" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B300">
         <v>10123891</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C300" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B301">
         <v>10123890</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C301" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B222">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B302">
         <v>10123889</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C302" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B223">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B303">
         <v>10123888</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C303" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B304">
         <v>10123887</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C304" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B305">
         <v>10123886</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C305" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B306">
         <v>10123885</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C306" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B307">
         <v>10123884</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C307" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B308">
         <v>10123883</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C308" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B229">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B309">
         <v>10123882</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C309" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B230">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B310">
         <v>10123881</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C310" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B231">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B311">
         <v>10123880</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C311" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B232">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B312">
         <v>10123879</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C312" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B233">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B313">
         <v>10123878</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C313" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B234">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B314">
         <v>10123877</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C314" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B235">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B315">
         <v>10123876</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C315" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B236">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316">
         <v>10123875</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C316" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B237">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B317">
         <v>10123874</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C317" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B238">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B318">
         <v>10123873</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C318" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B239">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319">
         <v>10123872</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C319" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B240">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320">
         <v>10123871</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C320" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321">
         <v>10123870</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C321" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B242">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322">
         <v>10123869</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C322" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323">
         <v>10123868</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C323" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B244">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324">
         <v>10123867</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C324" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325">
         <v>10123866</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C325" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B246">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326">
         <v>10123865</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C326" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B247">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327">
         <v>10123864</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C327" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B248">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328">
         <v>10123863</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C328" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329">
         <v>10123862</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C329" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B250">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330">
         <v>10123861</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C330" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B251">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331">
         <v>10123860</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C331" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332">
         <v>10123859</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C332" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B253">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333">
         <v>10123858</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C333" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B254">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334">
         <v>10123857</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C334" t="s">
         <v>408</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D334" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B255">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335">
         <v>10123856</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C335" t="s">
         <v>407</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D335" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B256">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336">
         <v>10123855</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C336" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B257">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B337">
         <v>10123854</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C337" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B258">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B338">
         <v>10123853</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C338" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B259">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B339">
         <v>10123852</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C339" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B260">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B340">
         <v>10123851</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C340" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B261">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B341">
         <v>10123850</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C341" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B262">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B342">
         <v>10123849</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C342" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B263">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B343">
         <v>10123848</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C343" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B264">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B344">
         <v>10123847</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C344" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B265">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B345">
         <v>10123846</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C345" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B266">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B346">
         <v>10123845</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C346" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B267">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B347">
         <v>10123844</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C347" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B268">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B348">
         <v>10123843</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C348" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B269">
-        <f t="shared" ref="B269:B271" si="30">+B270+1</f>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <f t="shared" ref="B349:B351" si="30">+B350+1</f>
         <v>10123842</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C349" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B270">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B350">
         <f t="shared" si="30"/>
         <v>10123841</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C350" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B271">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B351">
         <f t="shared" si="30"/>
         <v>10123840</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C351" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B272">
-        <f t="shared" ref="B272:B282" si="31">+B273+1</f>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <f t="shared" ref="B352:B362" si="31">+B353+1</f>
         <v>10123839</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C352" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B273">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B353">
         <f t="shared" si="31"/>
         <v>10123838</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C353" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B274">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B354">
         <f t="shared" si="31"/>
         <v>10123837</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C354" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B275">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B355">
         <f t="shared" si="31"/>
         <v>10123836</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C355" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B276">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B356">
         <f t="shared" si="31"/>
         <v>10123835</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C356" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B277">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B357">
         <f t="shared" si="31"/>
         <v>10123834</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C357" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B278">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B358">
         <f t="shared" si="31"/>
         <v>10123833</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C358" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B279">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B359">
         <f t="shared" si="31"/>
         <v>10123832</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C359" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B280">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B360">
         <f t="shared" si="31"/>
         <v>10123831</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C360" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B281">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B361">
         <f t="shared" si="31"/>
         <v>10123830</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C361" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B282">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B362">
         <f t="shared" si="31"/>
         <v>10123829</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C362" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B283">
-        <f t="shared" ref="B283:B293" si="32">+B284+1</f>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <f t="shared" ref="B363:B373" si="32">+B364+1</f>
         <v>10123828</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C363" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B284">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B364">
         <f t="shared" si="32"/>
         <v>10123827</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C364" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B285">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B365">
         <f t="shared" si="32"/>
         <v>10123826</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C365" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B286">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B366">
         <f t="shared" si="32"/>
         <v>10123825</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C366" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B287">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B367">
         <f t="shared" si="32"/>
         <v>10123824</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C367" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B288">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B368">
         <f t="shared" si="32"/>
         <v>10123823</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C368" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B289">
+    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B369">
         <f t="shared" si="32"/>
         <v>10123822</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C369" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B290">
+    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B370">
         <f t="shared" si="32"/>
         <v>10123821</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C370" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B291">
+    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B371">
         <f t="shared" si="32"/>
         <v>10123820</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C371" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B292">
+    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B372">
         <f t="shared" si="32"/>
         <v>10123819</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C372" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B293">
+    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B373">
         <f t="shared" si="32"/>
         <v>10123818</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C373" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B294">
-        <f t="shared" ref="B294:B305" si="33">+B295+1</f>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B374">
+        <f t="shared" ref="B374:B385" si="33">+B375+1</f>
         <v>10123817</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C374" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B295">
+    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B375">
         <f t="shared" si="33"/>
         <v>10123816</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C375" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B296">
+    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B376">
         <f t="shared" si="33"/>
         <v>10123815</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C376" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B297">
+    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B377">
         <f t="shared" si="33"/>
         <v>10123814</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C377" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B298">
+    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B378">
         <f t="shared" si="33"/>
         <v>10123813</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C378" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B299">
+    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B379">
         <f t="shared" si="33"/>
         <v>10123812</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C379" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B300">
+    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B380">
         <f t="shared" si="33"/>
         <v>10123811</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C380" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B301">
+    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B381">
         <f t="shared" si="33"/>
         <v>10123810</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C381" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B302">
+    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B382">
         <f t="shared" si="33"/>
         <v>10123809</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C382" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B303">
+    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B383">
         <f t="shared" si="33"/>
         <v>10123808</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C383" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B304">
+    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B384">
         <f t="shared" si="33"/>
         <v>10123807</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C384" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B305">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385">
         <f t="shared" si="33"/>
         <v>10123806</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C385" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B306">
-        <f>+B307+1</f>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B386">
+        <f>+B387+1</f>
         <v>10123805</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C386" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B307">
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B387">
         <v>10123804</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C387" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B308" s="1">
+    <row r="388" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B388" s="1">
         <v>10123803</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B309" s="1">
+    <row r="389" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B389" s="1">
         <v>10123802</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C389" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B310" s="1">
+    <row r="390" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B390" s="1">
         <v>10123801</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="C390" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B311" s="1">
+    <row r="391" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B391" s="1">
         <v>10123800</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B312" s="1">
+    <row r="392" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B392" s="1">
         <v>10123799</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="C392" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B313" s="1">
+    <row r="393" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B393" s="1">
         <v>10123798</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="C393" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B314" s="1">
+    <row r="394" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B394" s="1">
         <v>10123797</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C394" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B315" s="1">
+    <row r="395" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B395" s="1">
         <v>10123796</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C395" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B316" s="1">
+    <row r="396" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B396" s="1">
         <v>10123795</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C396" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B317" s="1">
+    <row r="397" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B397" s="1">
         <v>10123794</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="C397" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B318">
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B398">
         <v>10123793</v>
       </c>
-      <c r="C318" t="s">
+      <c r="C398" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B319">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B399">
         <v>10123792</v>
       </c>
-      <c r="C319" t="s">
+      <c r="C399" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B320">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B400">
         <v>10123791</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C400" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B321">
+    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B401">
         <v>10123790</v>
       </c>
-      <c r="C321" t="s">
+      <c r="C401" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B322">
+    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B402">
         <v>10123789</v>
       </c>
-      <c r="C322" t="s">
+      <c r="C402" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B323">
+    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B403">
         <v>10123788</v>
       </c>
-      <c r="C323" t="s">
+      <c r="C403" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B324">
+    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B404">
         <v>10123787</v>
       </c>
-      <c r="C324" t="s">
+      <c r="C404" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B325">
+    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B405">
         <v>10123786</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C405" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B326">
+    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B406">
         <v>10123785</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C406" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B327">
+    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B407">
         <v>10123784</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C407" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B328">
+    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B408">
         <v>10123783</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C408" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B329">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B409">
         <v>10123782</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C409" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B330">
+    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B410">
         <v>10123781</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C410" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B331">
+    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B411">
         <v>10123780</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C411" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B332">
+    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B412">
         <v>10123779</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C412" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B333">
+    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B413">
         <v>10123778</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C413" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B334">
+    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B414">
         <v>10123777</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C414" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B335">
+    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B415">
         <v>10123776</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C415" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B336">
+    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B416">
         <v>10123775</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C416" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B337">
+    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B417">
         <v>10123774</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C417" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B338">
+    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B418">
         <v>10123773</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C418" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B339">
+    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B419">
         <v>10123772</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C419" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B340">
+    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B420">
         <v>10123771</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C420" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B341">
+    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B421">
         <v>10123770</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C421" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B342">
+    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B422">
         <v>10123769</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C422" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B343">
+    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B423">
         <v>10123768</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C423" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B344">
+    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B424">
         <v>10123767</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C424" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B345">
+    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B425">
         <v>10123766</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C425" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B346">
+    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B426">
         <v>10123765</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C426" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B347">
+    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B427">
         <v>10123764</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C427" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B348">
+    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B428">
         <v>10123763</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C428" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B349">
+    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B429">
         <v>10123762</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C429" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B350">
+    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B430">
         <v>10123761</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C430" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B351">
+    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B431">
         <v>10123760</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C431" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B352">
+    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B432">
         <v>10123759</v>
       </c>
-      <c r="C352" t="s">
+      <c r="C432" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B353">
+    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B433">
         <v>10123758</v>
       </c>
-      <c r="C353" t="s">
+      <c r="C433" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B354">
+    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B434">
         <v>10123757</v>
       </c>
-      <c r="C354" t="s">
+      <c r="C434" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B355">
+    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B435">
         <v>10123756</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C435" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B356">
+    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B436">
         <v>10123755</v>
       </c>
-      <c r="C356" t="s">
+      <c r="C436" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B357">
+    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B437">
         <v>10123754</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C437" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B358">
+    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B438">
         <v>10123753</v>
       </c>
-      <c r="C358" t="s">
+      <c r="C438" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B359">
+    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B439">
         <v>10123752</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C439" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B360">
+    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B440">
         <v>10123751</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C440" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B361">
+    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B441">
         <v>10123750</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C441" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B362">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B442">
         <v>10123749</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C442" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B363">
+    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B443">
         <v>10123748</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C443" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B364">
+    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B444">
         <v>10123747</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C444" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B365">
+    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B445">
         <v>10123746</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C445" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B366">
+    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B446">
         <v>10123745</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C446" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B367">
+    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B447">
         <v>10123744</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C447" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B368">
+    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B448">
         <v>10123743</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C448" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B369">
+    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B449">
         <v>10123742</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C449" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B370">
+    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B450">
         <v>10123741</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C450" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B371">
+    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B451">
         <v>10123740</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C451" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B372">
+    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B452">
         <v>10123739</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C452" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B373">
+    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B453">
         <v>10123738</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C453" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B374" s="1">
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B454" s="1">
         <v>10123737</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="C454" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B375" s="1">
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B455" s="1">
         <v>10123736</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="C455" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B376">
+    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B456">
         <v>10123735</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C456" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B377">
+    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B457">
         <v>10123734</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C457" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B378">
+    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B458">
         <v>10123733</v>
       </c>
-      <c r="C378" t="s">
+      <c r="C458" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B379">
+    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B459">
         <v>10123732</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C459" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B380">
+    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B460">
         <v>10123731</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C460" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B381">
+    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B461">
         <v>10123730</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C461" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B382">
+    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B462">
         <v>10123729</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C462" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B383">
+    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B463">
         <v>10123728</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C463" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B384">
+    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B464">
         <v>10123727</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C464" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B385">
+    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B465">
         <v>10123726</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C465" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B386">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B466">
         <v>10123725</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C466" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B387">
+    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B467">
         <v>10123724</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C467" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B388" s="1">
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B468" s="1">
         <v>10123723</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="C468" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B389" s="1">
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B469" s="1">
         <v>10123722</v>
       </c>
-      <c r="C389" s="1" t="s">
+      <c r="C469" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B390" s="1">
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B470" s="1">
         <v>10123721</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C470" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391">
+    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B471">
         <v>10123720</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C471" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B392">
+    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B472">
         <v>10123719</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C472" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B393">
+    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B473">
         <v>10123718</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C473" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B394">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B474">
         <v>10123717</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C474" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B395">
+    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B475">
         <v>10123716</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C475" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B396" s="1">
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B476" s="1">
         <v>10123715</v>
       </c>
-      <c r="C396" s="1" t="s">
+      <c r="C476" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B397">
+    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B477">
         <v>10123714</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C477" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B398" s="1">
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B478" s="1">
         <v>10123713</v>
       </c>
-      <c r="C398" s="1" t="s">
+      <c r="C478" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B399" s="1">
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B479" s="1">
         <v>10123712</v>
       </c>
-      <c r="C399" s="1" t="s">
+      <c r="C479" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B400" s="1">
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B480" s="1">
         <v>10123711</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="C480" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B401" s="1">
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B481" s="1">
         <v>10123710</v>
       </c>
-      <c r="C401" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B402" s="1">
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B482" s="1">
         <v>10123709</v>
       </c>
-      <c r="C402" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B403" s="1">
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B483" s="1">
         <v>10123708</v>
       </c>
-      <c r="C403" s="1" t="s">
+      <c r="C483" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B404" s="1">
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B484" s="1">
         <v>10123707</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C484" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B405" s="1">
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B485" s="1">
         <v>10123706</v>
       </c>
-      <c r="C405" s="1" t="s">
+      <c r="C485" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B406">
+    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B486">
         <v>10123705</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C486" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B407">
+    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B487">
         <v>10123704</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C487" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B408">
+    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B488">
         <v>10123703</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C488" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B409" s="1">
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B489" s="1">
         <v>10123702</v>
       </c>
-      <c r="C409" s="1" t="s">
+      <c r="C489" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B410" s="1">
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B490" s="1">
         <v>10123701</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="C490" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B411" s="1">
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B491" s="1">
         <v>10123700</v>
       </c>
-      <c r="C411" s="1" t="s">
+      <c r="C491" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B412" s="1">
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B492" s="1">
         <v>10123699</v>
       </c>
-      <c r="C412" s="1" t="s">
+      <c r="C492" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B413" s="1">
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B493" s="1">
         <v>10123698</v>
       </c>
-      <c r="C413" s="1" t="s">
+      <c r="C493" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B414" s="1">
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B494" s="1">
         <v>10123697</v>
       </c>
-      <c r="C414" s="1" t="s">
+      <c r="C494" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B415" s="1">
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B495" s="1">
         <v>10123696</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="C495" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B416" s="1">
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="B496" s="1">
         <v>10123695</v>
       </c>
-      <c r="C416" s="1" t="s">
+      <c r="C496" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="417" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B417" s="1">
+    <row r="497" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B497" s="1">
         <v>10123694</v>
       </c>
-      <c r="C417" s="1" t="s">
+      <c r="C497" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B418" s="1">
+    <row r="498" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B498" s="1">
         <v>10123693</v>
       </c>
-      <c r="C418" s="1" t="s">
+      <c r="C498" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="419" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B419">
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B499">
         <v>10123692</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C499" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B420">
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B500">
         <v>10123691</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C500" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B421" s="1">
+    <row r="501" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B501" s="1">
         <v>10123690</v>
       </c>
-      <c r="C421" s="1" t="s">
+      <c r="C501" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B422" s="1">
+    <row r="502" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B502" s="1">
         <v>10123689</v>
       </c>
-      <c r="C422" s="1" t="s">
+      <c r="C502" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="423" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B423">
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B503">
         <v>10123688</v>
       </c>
-      <c r="C423" t="s">
+      <c r="C503" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="424" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B424" s="1">
+    <row r="504" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B504" s="1">
         <v>10123687</v>
       </c>
-      <c r="C424" s="1" t="s">
+      <c r="C504" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="425" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B425">
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B505">
         <v>10123686</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C505" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="426" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B426">
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B506">
         <v>10123685</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C506" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="427" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B427" s="1">
+    <row r="507" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B507" s="1">
         <v>10123684</v>
       </c>
-      <c r="C427" s="1" t="s">
+      <c r="C507" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B428">
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B508">
         <v>10123683</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C508" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B429">
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B509">
         <v>10123682</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C509" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="430" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B430" s="1">
+    <row r="510" spans="2:4" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B510" s="1">
         <v>10123681</v>
       </c>
-      <c r="C430" s="1" t="s">
+      <c r="C510" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="431" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B431" s="1">
+    <row r="511" spans="2:4" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B511" s="1">
         <v>10123680</v>
       </c>
-      <c r="C431" s="1" t="s">
+      <c r="C511" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="432" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B432">
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B512">
         <v>10123679</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C512" t="s">
         <v>228</v>
       </c>
-      <c r="D432" t="s">
+      <c r="D512" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="433" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B433">
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B513">
         <v>10123678</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C513" t="s">
         <v>227</v>
       </c>
-      <c r="D433" t="s">
+      <c r="D513" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="434" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B434">
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B514">
         <v>10123677</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C514" t="s">
         <v>226</v>
       </c>
-      <c r="D434" t="s">
+      <c r="D514" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="435" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B435">
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B515">
         <v>10123676</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C515" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="436" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B436">
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B516">
         <v>10123675</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C516" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="437" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B437">
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B517">
         <v>10123674</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C517" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="438" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B438">
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B518">
         <v>10123673</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C518" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="439" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B439">
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B519">
         <v>10123672</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C519" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="440" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B440">
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B520">
         <v>10123671</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C520" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="441" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B441">
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B521">
         <v>10123670</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C521" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="442" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B442">
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B522">
         <v>10123669</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C522" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="443" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B443">
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B523">
         <v>10123668</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C523" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="444" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B444">
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B524">
         <v>10123667</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C524" t="s">
         <v>215</v>
       </c>
-      <c r="D444" t="s">
+      <c r="D524" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="445" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B445">
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B525">
         <v>10123666</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C525" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="446" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B446">
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B526">
         <v>10123665</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C526" t="s">
         <v>213</v>
       </c>
-      <c r="D446" t="s">
+      <c r="D526" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="447" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B447">
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B527">
         <v>10123664</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C527" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="448" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B448">
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B528">
         <v>10123663</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C528" t="s">
         <v>211</v>
       </c>
-      <c r="D448" t="s">
+      <c r="D528" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B449">
+    <row r="529" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B529">
         <v>10123662</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C529" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B450">
+    <row r="530" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B530">
         <v>10123661</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C530" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B451">
+    <row r="531" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B531">
         <v>10123660</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C531" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B452">
+    <row r="532" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B532">
         <v>10123659</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C532" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B453">
+    <row r="533" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B533">
         <v>10123658</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C533" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B454">
+    <row r="534" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B534">
         <v>10123657</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C534" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B455">
+    <row r="535" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B535">
         <v>10123656</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C535" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B456">
+    <row r="536" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B536">
         <v>10123655</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C536" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B457">
+    <row r="537" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B537">
         <v>10123654</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C537" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B458">
+    <row r="538" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B538">
         <v>10123653</v>
       </c>
-      <c r="C458" t="s">
+      <c r="C538" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B459">
+    <row r="539" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B539">
         <v>10123652</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C539" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B460">
+    <row r="540" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B540">
         <v>10123651</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C540" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B461">
+    <row r="541" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B541">
         <v>10123650</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C541" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B462">
+    <row r="542" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B542">
         <v>10123649</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C542" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B463">
+    <row r="543" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B543">
         <v>10123648</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C543" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B464">
+    <row r="544" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B544">
         <v>10123647</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C544" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B465">
+    <row r="545" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B545">
         <v>10123646</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C545" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B466">
+    <row r="546" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B546">
         <v>10123645</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C546" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B467">
+    <row r="547" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B547">
         <v>10123644</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C547" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B468">
+    <row r="548" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B548">
         <v>10123643</v>
       </c>
-      <c r="C468" t="s">
+      <c r="C548" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B469">
+    <row r="549" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B549">
         <v>10123642</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C549" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B470">
+    <row r="550" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B550">
         <v>10123641</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C550" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B471">
+    <row r="551" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B551">
         <v>10123640</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C551" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B472">
+    <row r="552" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B552">
         <v>10123639</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C552" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B473">
+    <row r="553" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B553">
         <v>10123638</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C553" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B474">
+    <row r="554" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B554">
         <v>10123637</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C554" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B475">
+    <row r="555" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B555">
         <v>10123636</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C555" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B476">
+    <row r="556" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B556">
         <v>10123635</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C556" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B477">
+    <row r="557" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B557">
         <v>10123634</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C557" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B478">
+    <row r="558" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B558">
         <v>10123633</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C558" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B479">
+    <row r="559" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B559">
         <v>10123632</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C559" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B480">
+    <row r="560" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B560">
         <v>10123631</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C560" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B481">
+    <row r="561" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B561">
         <v>10123630</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C561" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B482">
+    <row r="562" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B562">
         <v>10123629</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C562" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B483">
+    <row r="563" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B563">
         <v>10123628</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C563" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B484">
+    <row r="564" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B564">
         <v>10123627</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C564" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B485">
+    <row r="565" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B565">
         <v>10123626</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C565" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B486">
+    <row r="566" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B566">
         <v>10123625</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C566" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B487">
+    <row r="567" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B567">
         <v>10123624</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C567" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B488">
+    <row r="568" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B568">
         <v>10123623</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C568" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B489">
+    <row r="569" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B569">
         <v>10123622</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C569" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B490">
+    <row r="570" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B570">
         <v>10123621</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C570" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B491">
+    <row r="571" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B571">
         <v>10123620</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C571" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B492">
+    <row r="572" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B572">
         <v>10123619</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C572" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B493">
+    <row r="573" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B573">
         <v>10123618</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C573" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B494">
+    <row r="574" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B574">
         <v>10123617</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C574" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B495">
+    <row r="575" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B575">
         <v>10123616</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C575" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B496">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B576">
         <v>10123615</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C576" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B497">
+    <row r="577" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B577">
         <v>10123614</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C577" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B498">
+    <row r="578" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B578">
         <v>10123613</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C578" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B499">
+    <row r="579" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B579">
         <v>10123612</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C579" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B500">
+    <row r="580" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B580">
         <v>10123611</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C580" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B501">
+    <row r="581" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B581">
         <v>10123610</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C581" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B502">
+    <row r="582" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B582">
         <v>10123609</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C582" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B503">
+    <row r="583" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B583">
         <v>10123608</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C583" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B504">
+    <row r="584" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B584">
         <v>10123607</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C584" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B505">
+    <row r="585" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B585">
         <v>10123606</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C585" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B506">
+    <row r="586" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B586">
         <v>10123605</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C586" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B507">
+    <row r="587" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B587">
         <v>10123604</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C587" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B508">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B588">
         <v>10123603</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C588" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B509">
+    <row r="589" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B589">
         <v>10123602</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C589" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B510">
+    <row r="590" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B590">
         <v>10123601</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C590" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B511">
+    <row r="591" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B591">
         <v>10123600</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C591" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B512">
+    <row r="592" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B592">
         <v>10123599</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C592" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="513" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B513">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B593">
         <v>10123598</v>
       </c>
-      <c r="C513" t="s">
+      <c r="C593" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="514" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B514">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B594">
         <v>10123597</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C594" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="515" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B515">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B595">
         <v>10123596</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C595" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="516" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B516">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B596">
         <v>10123595</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C596" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="517" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B517">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B597">
         <v>10123594</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C597" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="518" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B518">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B598">
         <v>10123593</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C598" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="519" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B519">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B599">
         <v>10123592</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C599" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="520" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B520">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B600">
         <v>10123591</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C600" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="521" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B521">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B601">
         <v>10123590</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C601" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="522" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B522">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B602">
         <v>10123589</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C602" t="s">
         <v>137</v>
       </c>
-      <c r="D522" t="s">
+      <c r="D602" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="523" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B523">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B603">
         <v>10123588</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C603" t="s">
         <v>136</v>
       </c>
-      <c r="D523" t="s">
+      <c r="D603" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="524" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B524">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B604">
         <v>10123587</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C604" t="s">
         <v>135</v>
       </c>
-      <c r="D524" t="s">
+      <c r="D604" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="525" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B525">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B605">
         <v>10123586</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C605" t="s">
         <v>134</v>
       </c>
-      <c r="D525" t="s">
+      <c r="D605" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="526" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B526">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B606">
         <v>10123585</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C606" t="s">
         <v>133</v>
       </c>
-      <c r="D526" t="s">
+      <c r="D606" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="527" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B527">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B607">
         <v>10123584</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C607" t="s">
         <v>131</v>
       </c>
-      <c r="D527" t="s">
+      <c r="D607" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="528" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B528">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B608">
         <v>10123583</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C608" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B529">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B609">
         <v>10123582</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C609" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B530">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B610">
         <v>10123581</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C610" t="s">
         <v>128</v>
       </c>
-      <c r="D530" t="s">
+      <c r="D610" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B531">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B611">
         <v>10123580</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C611" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="532" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B532">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B612">
         <v>10123579</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C612" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="533" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B533">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B613">
         <v>10123578</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C613" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="534" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B534">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B614">
         <v>10123577</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C614" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="535" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B535">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B615">
         <v>10123576</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C615" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="536" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B536">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B616">
         <v>10123575</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C616" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="537" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B537">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B617">
         <v>10123574</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C617" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B538">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B618">
         <v>10123573</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C618" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B539">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B619">
         <v>10123572</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C619" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B540" s="1">
+    <row r="620" spans="2:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="B620" s="1">
         <v>10123571</v>
       </c>
-      <c r="C540" s="1" t="s">
+      <c r="C620" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="541" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B541">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B621">
         <v>10123570</v>
       </c>
-      <c r="C541" t="s">
+      <c r="C621" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="542" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B542">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B622">
         <v>10123569</v>
       </c>
-      <c r="C542" t="s">
+      <c r="C622" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="543" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B543">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B623">
         <v>10123568</v>
       </c>
-      <c r="C543" t="s">
+      <c r="C623" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="544" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B544">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B624">
         <v>10123567</v>
       </c>
-      <c r="C544" t="s">
+      <c r="C624" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="545" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B545">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B625">
         <v>10123566</v>
       </c>
-      <c r="C545" t="s">
+      <c r="C625" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="546" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B546">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B626">
         <v>10123565</v>
       </c>
-      <c r="C546" t="s">
+      <c r="C626" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="547" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B547">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B627">
         <v>10123564</v>
       </c>
-      <c r="C547" t="s">
+      <c r="C627" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="548" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B548">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B628">
         <v>10123563</v>
       </c>
-      <c r="C548" t="s">
+      <c r="C628" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="549" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B549">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B629">
         <v>10123562</v>
       </c>
-      <c r="C549" t="s">
+      <c r="C629" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="550" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B550">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B630">
         <v>10123561</v>
       </c>
-      <c r="C550" t="s">
+      <c r="C630" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="551" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B551">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B631">
         <v>10123560</v>
       </c>
-      <c r="C551" t="s">
+      <c r="C631" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="552" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B552">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B632">
         <v>10123559</v>
       </c>
-      <c r="C552" t="s">
+      <c r="C632" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="553" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B553">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B633">
         <v>10123558</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C633" t="s">
         <v>106</v>
       </c>
-      <c r="D553" t="s">
+      <c r="D633" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="554" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B554">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B634">
         <v>10123557</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C634" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="555" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B555">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B635">
         <v>10123556</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C635" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="556" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B556">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B636">
         <v>10123555</v>
       </c>
-      <c r="C556" t="s">
+      <c r="C636" t="s">
         <v>103</v>
       </c>
-      <c r="D556" t="s">
+      <c r="D636" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="557" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B557">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B637">
         <v>10123554</v>
       </c>
-      <c r="C557" t="s">
+      <c r="C637" t="s">
         <v>102</v>
       </c>
-      <c r="D557" t="s">
+      <c r="D637" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="558" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B558">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B638">
         <v>10123553</v>
       </c>
-      <c r="C558" t="s">
+      <c r="C638" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="559" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B559">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B639">
         <v>10123552</v>
       </c>
-      <c r="C559" t="s">
+      <c r="C639" t="s">
         <v>100</v>
       </c>
-      <c r="D559" t="s">
+      <c r="D639" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="560" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B560">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B640">
         <v>10123551</v>
       </c>
-      <c r="C560" t="s">
+      <c r="C640" t="s">
         <v>99</v>
       </c>
-      <c r="D560" t="s">
+      <c r="D640" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="561" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B561">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B641">
         <v>10123550</v>
       </c>
-      <c r="C561" t="s">
+      <c r="C641" t="s">
         <v>97</v>
       </c>
-      <c r="D561" t="s">
+      <c r="D641" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="562" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B562">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B642">
         <v>10123549</v>
       </c>
-      <c r="C562" t="s">
+      <c r="C642" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="563" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B563">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B643">
         <v>10123548</v>
       </c>
-      <c r="C563" t="s">
+      <c r="C643" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="564" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B564">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B644">
         <v>10123547</v>
       </c>
-      <c r="C564" t="s">
+      <c r="C644" t="s">
         <v>94</v>
       </c>
-      <c r="D564" t="s">
+      <c r="D644" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="565" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B565">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B645">
         <v>10123546</v>
       </c>
-      <c r="C565" t="s">
+      <c r="C645" t="s">
         <v>93</v>
       </c>
-      <c r="D565" t="s">
+      <c r="D645" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="566" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B566">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B646">
         <v>10123545</v>
       </c>
-      <c r="C566" t="s">
+      <c r="C646" t="s">
         <v>92</v>
       </c>
-      <c r="D566" t="s">
+      <c r="D646" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="567" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B567">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B647">
         <v>10123544</v>
       </c>
-      <c r="C567" t="s">
+      <c r="C647" t="s">
         <v>91</v>
       </c>
-      <c r="D567" t="s">
+      <c r="D647" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="568" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B568">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B648">
         <v>10123543</v>
       </c>
-      <c r="C568" t="s">
+      <c r="C648" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="569" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B569">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B649">
         <v>10123542</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C649" t="s">
         <v>89</v>
       </c>
-      <c r="D569" t="s">
+      <c r="D649" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="570" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B570">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B650">
         <v>10123541</v>
       </c>
-      <c r="C570" t="s">
+      <c r="C650" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="571" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B571">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B651">
         <v>10123540</v>
       </c>
-      <c r="C571" t="s">
+      <c r="C651" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="572" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B572">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B652">
         <v>10123539</v>
       </c>
-      <c r="C572" t="s">
+      <c r="C652" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="573" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B573">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B653">
         <v>10123538</v>
       </c>
-      <c r="C573" t="s">
+      <c r="C653" t="s">
         <v>85</v>
       </c>
-      <c r="D573" t="s">
+      <c r="D653" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="574" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B574">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B654">
         <v>10123537</v>
       </c>
-      <c r="C574" t="s">
+      <c r="C654" t="s">
         <v>84</v>
       </c>
-      <c r="D574" t="s">
+      <c r="D654" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="575" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B575">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B655">
         <v>10123536</v>
       </c>
-      <c r="C575" t="s">
+      <c r="C655" t="s">
         <v>83</v>
       </c>
-      <c r="D575" t="s">
+      <c r="D655" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="576" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B576">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B656">
         <v>10123535</v>
       </c>
-      <c r="C576" t="s">
+      <c r="C656" t="s">
         <v>82</v>
       </c>
-      <c r="D576" t="s">
+      <c r="D656" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="577" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B577">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B657">
         <v>10123534</v>
       </c>
-      <c r="C577" t="s">
+      <c r="C657" t="s">
         <v>81</v>
       </c>
-      <c r="D577" t="s">
+      <c r="D657" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B578">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B658">
         <v>10123533</v>
       </c>
-      <c r="C578" t="s">
+      <c r="C658" t="s">
         <v>80</v>
       </c>
-      <c r="D578" t="s">
+      <c r="D658" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B579">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B659">
         <v>10123532</v>
       </c>
-      <c r="C579" t="s">
+      <c r="C659" t="s">
         <v>79</v>
       </c>
-      <c r="D579" t="s">
+      <c r="D659" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="580" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B580">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B660">
         <v>10123531</v>
       </c>
-      <c r="C580" t="s">
+      <c r="C660" t="s">
         <v>77</v>
       </c>
-      <c r="D580" t="s">
+      <c r="D660" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="581" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B581">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B661">
         <v>10123530</v>
       </c>
-      <c r="C581" t="s">
+      <c r="C661" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="582" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B582">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B662">
         <v>10123529</v>
       </c>
-      <c r="C582" t="s">
+      <c r="C662" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="583" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B583">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B663">
         <v>10123528</v>
       </c>
-      <c r="C583" t="s">
+      <c r="C663" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="584" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B584">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B664">
         <v>10123527</v>
       </c>
-      <c r="C584" t="s">
+      <c r="C664" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="585" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B585">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B665">
         <v>10123526</v>
       </c>
-      <c r="C585" t="s">
+      <c r="C665" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="586" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B586">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B666">
         <v>10123525</v>
       </c>
-      <c r="C586" t="s">
+      <c r="C666" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="587" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B587">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B667">
         <v>10123524</v>
       </c>
-      <c r="C587" t="s">
+      <c r="C667" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="588" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B588">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B668">
         <v>10123523</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C668" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="589" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B589">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B669">
         <v>10123522</v>
       </c>
-      <c r="C589" t="s">
+      <c r="C669" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="590" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B590">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B670">
         <v>10123521</v>
       </c>
-      <c r="C590" t="s">
+      <c r="C670" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="591" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B591">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B671">
         <v>10123520</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C671" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="592" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B592">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B672">
         <v>10123519</v>
       </c>
-      <c r="C592" t="s">
+      <c r="C672" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="593" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B593">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B673">
         <v>10123518</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C673" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B594">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B674">
         <v>10123517</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C674" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="595" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B595">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B675">
         <v>10123516</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C675" t="s">
         <v>62</v>
       </c>
-      <c r="D595" t="s">
+      <c r="D675" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="596" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B596">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B676">
         <v>10123515</v>
       </c>
-      <c r="C596" t="s">
+      <c r="C676" t="s">
         <v>60</v>
       </c>
-      <c r="D596" t="s">
+      <c r="D676" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="597" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B597">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B677">
         <v>10123514</v>
       </c>
-      <c r="C597" t="s">
+      <c r="C677" t="s">
         <v>59</v>
       </c>
-      <c r="D597" t="s">
+      <c r="D677" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="598" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B598">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B678">
         <v>10123513</v>
       </c>
-      <c r="C598" t="s">
+      <c r="C678" t="s">
         <v>58</v>
       </c>
-      <c r="D598" t="s">
+      <c r="D678" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="599" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B599">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B679">
         <v>10123512</v>
       </c>
-      <c r="C599" t="s">
+      <c r="C679" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="600" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B600">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B680">
         <v>10123511</v>
       </c>
     </row>
-    <row r="601" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B601">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B681">
         <v>10123510</v>
       </c>
-      <c r="C601" t="s">
+      <c r="C681" t="s">
         <v>56</v>
       </c>
-      <c r="D601" t="s">
+      <c r="D681" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="602" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B602">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B682">
         <v>10123509</v>
       </c>
-      <c r="C602" t="s">
+      <c r="C682" t="s">
         <v>55</v>
       </c>
-      <c r="D602" t="s">
+      <c r="D682" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B603">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B683">
         <v>10123508</v>
       </c>
-      <c r="C603" t="s">
+      <c r="C683" t="s">
         <v>54</v>
       </c>
-      <c r="D603" t="s">
+      <c r="D683" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B604">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B684">
         <v>10123507</v>
       </c>
-      <c r="C604" t="s">
+      <c r="C684" t="s">
         <v>53</v>
       </c>
-      <c r="D604" t="s">
+      <c r="D684" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B605">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B685">
         <v>10123506</v>
       </c>
-      <c r="C605" t="s">
+      <c r="C685" t="s">
         <v>52</v>
       </c>
-      <c r="D605" t="s">
+      <c r="D685" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="606" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B606">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B686">
         <v>10123505</v>
       </c>
-      <c r="C606" t="s">
+      <c r="C686" t="s">
         <v>51</v>
       </c>
-      <c r="D606" t="s">
+      <c r="D686" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="607" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B607">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B687">
         <v>10123504</v>
       </c>
-      <c r="C607" t="s">
+      <c r="C687" t="s">
         <v>50</v>
       </c>
-      <c r="D607" t="s">
+      <c r="D687" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="608" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B608">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B688">
         <v>10123503</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C688" t="s">
         <v>49</v>
       </c>
-      <c r="D608" t="s">
+      <c r="D688" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B609">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B689">
         <v>10123502</v>
       </c>
-      <c r="C609" t="s">
+      <c r="C689" t="s">
         <v>48</v>
       </c>
-      <c r="D609" t="s">
+      <c r="D689" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B610">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B690">
         <v>10123501</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C690" t="s">
         <v>47</v>
       </c>
-      <c r="D610" t="s">
+      <c r="D690" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B611">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B691">
         <v>10123500</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C691" t="s">
         <v>46</v>
       </c>
-      <c r="D611" t="s">
+      <c r="D691" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="612" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B612">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B692">
         <v>10123499</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C692" t="s">
         <v>45</v>
       </c>
-      <c r="D612" t="s">
+      <c r="D692" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="613" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B613">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B693">
         <v>10123498</v>
       </c>
-      <c r="C613" t="s">
+      <c r="C693" t="s">
         <v>44</v>
       </c>
-      <c r="D613" t="s">
+      <c r="D693" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="614" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B614">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B694">
         <v>10123497</v>
       </c>
-      <c r="C614" t="s">
+      <c r="C694" t="s">
         <v>43</v>
       </c>
-      <c r="D614" t="s">
+      <c r="D694" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="615" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B615">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B695">
         <v>10123496</v>
       </c>
-      <c r="C615" t="s">
+      <c r="C695" t="s">
         <v>42</v>
       </c>
-      <c r="D615" t="s">
+      <c r="D695" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="616" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B616">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B696">
         <v>10123495</v>
       </c>
-      <c r="C616" t="s">
+      <c r="C696" t="s">
         <v>41</v>
       </c>
-      <c r="D616" t="s">
+      <c r="D696" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="617" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B617">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B697">
         <v>10123494</v>
       </c>
-      <c r="C617" t="s">
+      <c r="C697" t="s">
         <v>39</v>
       </c>
-      <c r="D617" t="s">
+      <c r="D697" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="618" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B618">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B698">
         <v>10123493</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C698" t="s">
         <v>38</v>
       </c>
-      <c r="D618" t="s">
+      <c r="D698" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="619" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B619">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B699">
         <v>10123492</v>
       </c>
-      <c r="C619" t="s">
+      <c r="C699" t="s">
         <v>37</v>
       </c>
-      <c r="D619" t="s">
+      <c r="D699" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="620" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B620">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B700">
         <v>10123491</v>
       </c>
-      <c r="C620" t="s">
+      <c r="C700" t="s">
         <v>36</v>
       </c>
-      <c r="D620" t="s">
+      <c r="D700" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="621" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B621">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B701">
         <v>10123490</v>
       </c>
-      <c r="C621" t="s">
+      <c r="C701" t="s">
         <v>35</v>
       </c>
-      <c r="D621" t="s">
+      <c r="D701" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="622" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B622">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B702">
         <v>10123489</v>
       </c>
-      <c r="C622" t="s">
+      <c r="C702" t="s">
         <v>34</v>
       </c>
-      <c r="D622" t="s">
+      <c r="D702" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="623" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B623">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B703">
         <v>10123488</v>
       </c>
-      <c r="C623" t="s">
+      <c r="C703" t="s">
         <v>33</v>
       </c>
-      <c r="D623" t="s">
+      <c r="D703" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="624" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B624">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B704">
         <v>10123487</v>
       </c>
-      <c r="C624" t="s">
+      <c r="C704" t="s">
         <v>32</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D704" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="625" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B625">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B705">
         <v>10123486</v>
       </c>
-      <c r="C625" t="s">
+      <c r="C705" t="s">
         <v>31</v>
       </c>
-      <c r="D625" t="s">
+      <c r="D705" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="626" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B626">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B706">
         <v>10123485</v>
       </c>
-      <c r="C626" t="s">
+      <c r="C706" t="s">
         <v>30</v>
       </c>
-      <c r="D626" t="s">
+      <c r="D706" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="627" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B627">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B707">
         <v>10123484</v>
       </c>
-      <c r="C627" t="s">
+      <c r="C707" t="s">
         <v>29</v>
       </c>
-      <c r="D627" t="s">
+      <c r="D707" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="628" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B628">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B708">
         <v>10123483</v>
       </c>
-      <c r="C628" t="s">
+      <c r="C708" t="s">
         <v>28</v>
       </c>
-      <c r="D628" t="s">
+      <c r="D708" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="629" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B629">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B709">
         <v>10123482</v>
       </c>
-      <c r="C629" t="s">
+      <c r="C709" t="s">
         <v>27</v>
       </c>
-      <c r="D629" t="s">
+      <c r="D709" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="630" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B630">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B710">
         <v>10123481</v>
       </c>
-      <c r="C630" t="s">
+      <c r="C710" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="631" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B631">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B711">
         <v>10123480</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C711" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B632">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B712">
         <v>10123479</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C712" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B633">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B713">
         <v>10123478</v>
       </c>
-      <c r="C633" t="s">
+      <c r="C713" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B634">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B714">
         <v>10123477</v>
       </c>
-      <c r="C634" t="s">
+      <c r="C714" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="635" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B635">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B715">
         <v>10123476</v>
       </c>
     </row>
-    <row r="636" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B636">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B716">
         <v>10123475</v>
       </c>
-      <c r="C636" t="s">
+      <c r="C716" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="637" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B637">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B717">
         <v>10123474</v>
       </c>
-      <c r="C637" t="s">
+      <c r="C717" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="638" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B638">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B718">
         <v>10123473</v>
       </c>
-      <c r="C638" t="s">
+      <c r="C718" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="639" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B639">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B719">
         <v>10123472</v>
       </c>
-      <c r="C639" t="s">
+      <c r="C719" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="640" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B640">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B720">
         <v>10123471</v>
       </c>
-      <c r="C640" t="s">
+      <c r="C720" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B641">
+    <row r="721" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B721">
         <v>10123470</v>
       </c>
-      <c r="C641" t="s">
+      <c r="C721" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B642">
+    <row r="722" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B722">
         <v>10123469</v>
       </c>
-      <c r="C642" t="s">
+      <c r="C722" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B643">
+    <row r="723" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B723">
         <v>10123468</v>
       </c>
-      <c r="C643" t="s">
+      <c r="C723" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B644">
+    <row r="724" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B724">
         <v>10123467</v>
       </c>
-      <c r="C644" t="s">
+      <c r="C724" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B645">
+    <row r="725" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B725">
         <v>10123466</v>
       </c>
-      <c r="C645" t="s">
+      <c r="C725" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B646">
+    <row r="726" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B726">
         <v>10123465</v>
       </c>
-      <c r="C646" t="s">
+      <c r="C726" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B647">
+    <row r="727" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B727">
         <v>10123464</v>
       </c>
-      <c r="C647" t="s">
+      <c r="C727" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B648">
+    <row r="728" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B728">
         <v>10123463</v>
       </c>
-      <c r="C648" t="s">
+      <c r="C728" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B649">
+    <row r="729" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B729">
         <v>10123462</v>
       </c>
-      <c r="C649" t="s">
+      <c r="C729" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B650">
+    <row r="730" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B730">
         <v>10123461</v>
       </c>
-      <c r="C650" t="s">
+      <c r="C730" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B651">
+    <row r="731" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B731">
         <v>10123460</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C731" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B652">
+    <row r="732" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B732">
         <v>10123459</v>
       </c>
-      <c r="C652" t="s">
+      <c r="C732" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B653">
+    <row r="733" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B733">
         <v>10123458</v>
       </c>
-      <c r="C653" t="s">
+      <c r="C733" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B654">
+    <row r="734" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B734">
         <v>10123457</v>
       </c>
-      <c r="C654" t="s">
+      <c r="C734" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B655">
+    <row r="735" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B735">
         <v>10123456</v>
       </c>
-      <c r="C655" t="s">
+      <c r="C735" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B656">
+    <row r="736" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B736">
         <v>10123455</v>
       </c>
     </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B657">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B737">
         <v>10123454</v>
       </c>
     </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B658">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B738">
         <v>10123453</v>
       </c>
     </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B659">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B739">
         <v>10123452</v>
       </c>
     </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B660">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B740">
         <v>10123451</v>
       </c>
     </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B661">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B741">
         <v>10123450</v>
       </c>
     </row>
